--- a/result/NCDC_weather_data/stations_imputed/59559099999.xlsx
+++ b/result/NCDC_weather_data/stations_imputed/59559099999.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R475"/>
+  <dimension ref="A1:S475"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,6 +524,11 @@
           <t>SNDP</t>
         </is>
       </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>RH</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -552,7 +557,7 @@
         <v>159.08</v>
       </c>
       <c r="H2" t="n">
-        <v>142.88</v>
+        <v>61.6</v>
       </c>
       <c r="I2" t="n">
         <v>102.19</v>
@@ -580,6 +585,9 @@
         <v>0</v>
       </c>
       <c r="R2" t="inlineStr"/>
+      <c r="S2" t="n">
+        <v>3.28852166954734</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -608,7 +616,7 @@
         <v>159.8</v>
       </c>
       <c r="H3" t="n">
-        <v>143.6</v>
+        <v>62</v>
       </c>
       <c r="I3" t="n">
         <v>102.06</v>
@@ -636,6 +644,9 @@
         <v>0</v>
       </c>
       <c r="R3" t="inlineStr"/>
+      <c r="S3" t="n">
+        <v>3.286497508759608</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -664,7 +675,7 @@
         <v>161.96</v>
       </c>
       <c r="H4" t="n">
-        <v>146.48</v>
+        <v>63.6</v>
       </c>
       <c r="I4" t="n">
         <v>101.92</v>
@@ -692,6 +703,9 @@
         <v>0</v>
       </c>
       <c r="R4" t="inlineStr"/>
+      <c r="S4" t="n">
+        <v>3.341318684178829</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -720,7 +734,7 @@
         <v>160.16</v>
       </c>
       <c r="H5" t="n">
-        <v>149.72</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="I5" t="n">
         <v>101.81</v>
@@ -748,6 +762,9 @@
         <v>0.002032</v>
       </c>
       <c r="R5" t="inlineStr"/>
+      <c r="S5" t="n">
+        <v>3.801238246822142</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -776,7 +793,7 @@
         <v>162.86</v>
       </c>
       <c r="H6" t="n">
-        <v>155.48</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="I6" t="n">
         <v>101.57</v>
@@ -804,6 +821,9 @@
         <v>0.002032</v>
       </c>
       <c r="R6" t="inlineStr"/>
+      <c r="S6" t="n">
+        <v>4.084989442928343</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -832,7 +852,7 @@
         <v>160.16</v>
       </c>
       <c r="H7" t="n">
-        <v>142.88</v>
+        <v>61.6</v>
       </c>
       <c r="I7" t="n">
         <v>101.77</v>
@@ -860,6 +880,9 @@
         <v>0.030988</v>
       </c>
       <c r="R7" t="inlineStr"/>
+      <c r="S7" t="n">
+        <v>3.195817873072832</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -888,7 +911,7 @@
         <v>159.26</v>
       </c>
       <c r="H8" t="n">
-        <v>140.9</v>
+        <v>60.5</v>
       </c>
       <c r="I8" t="n">
         <v>101.83</v>
@@ -916,6 +939,9 @@
         <v>0</v>
       </c>
       <c r="R8" t="inlineStr"/>
+      <c r="S8" t="n">
+        <v>3.11003248859535</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -944,7 +970,7 @@
         <v>159.26</v>
       </c>
       <c r="H9" t="n">
-        <v>140.9</v>
+        <v>60.5</v>
       </c>
       <c r="I9" t="n">
         <v>101.71</v>
@@ -972,6 +998,9 @@
         <v>0</v>
       </c>
       <c r="R9" t="inlineStr"/>
+      <c r="S9" t="n">
+        <v>3.11003248859535</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1000,7 +1029,7 @@
         <v>160.16</v>
       </c>
       <c r="H10" t="n">
-        <v>142.52</v>
+        <v>61.4</v>
       </c>
       <c r="I10" t="n">
         <v>101.53</v>
@@ -1028,6 +1057,9 @@
         <v>0</v>
       </c>
       <c r="R10" t="inlineStr"/>
+      <c r="S10" t="n">
+        <v>3.166391229779829</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1056,7 +1088,7 @@
         <v>159.08</v>
       </c>
       <c r="H11" t="n">
-        <v>142.34</v>
+        <v>61.3</v>
       </c>
       <c r="I11" t="n">
         <v>101.45</v>
@@ -1084,6 +1116,9 @@
         <v>0</v>
       </c>
       <c r="R11" t="inlineStr"/>
+      <c r="S11" t="n">
+        <v>3.243191251967758</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1112,7 +1147,7 @@
         <v>151.34</v>
       </c>
       <c r="H12" t="n">
-        <v>137.12</v>
+        <v>58.4</v>
       </c>
       <c r="I12" t="n">
         <v>101.73</v>
@@ -1140,6 +1175,9 @@
         <v>0</v>
       </c>
       <c r="R12" t="inlineStr"/>
+      <c r="S12" t="n">
+        <v>3.491978027072817</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1168,7 +1206,7 @@
         <v>147.38</v>
       </c>
       <c r="H13" t="n">
-        <v>129.92</v>
+        <v>54.4</v>
       </c>
       <c r="I13" t="n">
         <v>101.92</v>
@@ -1196,6 +1234,9 @@
         <v>0</v>
       </c>
       <c r="R13" t="inlineStr"/>
+      <c r="S13" t="n">
+        <v>3.22039127072508</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1224,7 +1265,7 @@
         <v>153.14</v>
       </c>
       <c r="H14" t="n">
-        <v>133.88</v>
+        <v>56.6</v>
       </c>
       <c r="I14" t="n">
         <v>101.89</v>
@@ -1252,6 +1293,9 @@
         <v>0</v>
       </c>
       <c r="R14" t="inlineStr"/>
+      <c r="S14" t="n">
+        <v>3.051193332593836</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1280,7 +1324,7 @@
         <v>150.8</v>
       </c>
       <c r="H15" t="n">
-        <v>134.42</v>
+        <v>56.9</v>
       </c>
       <c r="I15" t="n">
         <v>101.96</v>
@@ -1308,6 +1352,9 @@
         <v>0</v>
       </c>
       <c r="R15" t="inlineStr"/>
+      <c r="S15" t="n">
+        <v>3.301007278894138</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1336,7 +1383,7 @@
         <v>159.62</v>
       </c>
       <c r="H16" t="n">
-        <v>141.26</v>
+        <v>60.7</v>
       </c>
       <c r="I16" t="n">
         <v>101.95</v>
@@ -1364,6 +1411,9 @@
         <v>0</v>
       </c>
       <c r="R16" t="inlineStr"/>
+      <c r="S16" t="n">
+        <v>3.109302193163684</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1392,7 +1442,7 @@
         <v>160.52</v>
       </c>
       <c r="H17" t="n">
-        <v>149.18</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="I17" t="n">
         <v>101.91</v>
@@ -1420,6 +1470,9 @@
         <v>0</v>
       </c>
       <c r="R17" t="inlineStr"/>
+      <c r="S17" t="n">
+        <v>3.714664593166629</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1448,7 +1501,7 @@
         <v>161.96</v>
       </c>
       <c r="H18" t="n">
-        <v>147.92</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="I18" t="n">
         <v>101.8</v>
@@ -1476,6 +1529,9 @@
         <v>0</v>
       </c>
       <c r="R18" t="inlineStr"/>
+      <c r="S18" t="n">
+        <v>3.465193398230188</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1504,7 +1560,7 @@
         <v>161.24</v>
       </c>
       <c r="H19" t="n">
-        <v>142.7</v>
+        <v>61.5</v>
       </c>
       <c r="I19" t="n">
         <v>101.66</v>
@@ -1532,6 +1588,9 @@
         <v>0</v>
       </c>
       <c r="R19" t="inlineStr"/>
+      <c r="S19" t="n">
+        <v>3.091872275881117</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1560,7 +1619,7 @@
         <v>160.88</v>
       </c>
       <c r="H20" t="n">
-        <v>143.42</v>
+        <v>61.9</v>
       </c>
       <c r="I20" t="n">
         <v>101.53</v>
@@ -1588,6 +1647,9 @@
         <v>0</v>
       </c>
       <c r="R20" t="inlineStr"/>
+      <c r="S20" t="n">
+        <v>3.179479683824284</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1616,7 +1678,7 @@
         <v>157.46</v>
       </c>
       <c r="H21" t="n">
-        <v>144.86</v>
+        <v>62.7</v>
       </c>
       <c r="I21" t="n">
         <v>101.62</v>
@@ -1644,6 +1706,9 @@
         <v>0.007958666666666666</v>
       </c>
       <c r="R21" t="inlineStr"/>
+      <c r="S21" t="n">
+        <v>3.612071396008301</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1672,7 +1737,7 @@
         <v>155.84</v>
       </c>
       <c r="H22" t="n">
-        <v>146.3</v>
+        <v>63.5</v>
       </c>
       <c r="I22" t="n">
         <v>101.64</v>
@@ -1700,6 +1765,9 @@
         <v>0.01591733333333333</v>
       </c>
       <c r="R22" t="inlineStr"/>
+      <c r="S22" t="n">
+        <v>3.91349226093682</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1728,7 +1796,7 @@
         <v>156.38</v>
       </c>
       <c r="H23" t="n">
-        <v>152.6</v>
+        <v>67</v>
       </c>
       <c r="I23" t="n">
         <v>101.25</v>
@@ -1756,6 +1824,9 @@
         <v>0.023876</v>
       </c>
       <c r="R23" t="inlineStr"/>
+      <c r="S23" t="n">
+        <v>4.517057921849528</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1784,7 +1855,7 @@
         <v>164.12</v>
       </c>
       <c r="H24" t="n">
-        <v>158.18</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="I24" t="n">
         <v>101.14</v>
@@ -1812,6 +1883,9 @@
         <v>0.042926</v>
       </c>
       <c r="R24" t="inlineStr"/>
+      <c r="S24" t="n">
+        <v>4.222936929592976</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1840,7 +1914,7 @@
         <v>163.4</v>
       </c>
       <c r="H25" t="n">
-        <v>151.16</v>
+        <v>66.2</v>
       </c>
       <c r="I25" t="n">
         <v>101.32</v>
@@ -1868,6 +1942,9 @@
         <v>0</v>
       </c>
       <c r="R25" t="inlineStr"/>
+      <c r="S25" t="n">
+        <v>3.619850847652917</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1896,7 +1973,7 @@
         <v>163.58</v>
       </c>
       <c r="H26" t="n">
-        <v>147.74</v>
+        <v>64.3</v>
       </c>
       <c r="I26" t="n">
         <v>101.53</v>
@@ -1924,6 +2001,9 @@
         <v>0</v>
       </c>
       <c r="R26" t="inlineStr"/>
+      <c r="S26" t="n">
+        <v>3.306857258569934</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1952,7 +2032,7 @@
         <v>164.84</v>
       </c>
       <c r="H27" t="n">
-        <v>151.52</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="I27" t="n">
         <v>101.62</v>
@@ -1980,6 +2060,9 @@
         <v>0</v>
       </c>
       <c r="R27" t="inlineStr"/>
+      <c r="S27" t="n">
+        <v>3.518762086514597</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2008,7 +2091,7 @@
         <v>167.72</v>
       </c>
       <c r="H28" t="n">
-        <v>150.44</v>
+        <v>65.8</v>
       </c>
       <c r="I28" t="n">
         <v>101.54</v>
@@ -2036,6 +2119,9 @@
         <v>0</v>
       </c>
       <c r="R28" t="inlineStr"/>
+      <c r="S28" t="n">
+        <v>3.181587797841323</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2064,7 +2150,7 @@
         <v>158.54</v>
       </c>
       <c r="H29" t="n">
-        <v>149.72</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="I29" t="n">
         <v>101.39</v>
@@ -2092,6 +2178,9 @@
         <v>0.002032</v>
       </c>
       <c r="R29" t="inlineStr"/>
+      <c r="S29" t="n">
+        <v>3.968059179804401</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2120,7 +2209,7 @@
         <v>154.4</v>
       </c>
       <c r="H30" t="n">
-        <v>147.2</v>
+        <v>64</v>
       </c>
       <c r="I30" t="n">
         <v>101.1</v>
@@ -2148,6 +2237,9 @@
         <v>0.006096</v>
       </c>
       <c r="R30" t="inlineStr"/>
+      <c r="S30" t="n">
+        <v>4.162898065396913</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2176,7 +2268,7 @@
         <v>154.4</v>
       </c>
       <c r="H31" t="n">
-        <v>140.72</v>
+        <v>60.4</v>
       </c>
       <c r="I31" t="n">
         <v>101.53</v>
@@ -2204,6 +2296,9 @@
         <v>0</v>
       </c>
       <c r="R31" t="inlineStr"/>
+      <c r="S31" t="n">
+        <v>3.527037126122863</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2232,7 +2327,7 @@
         <v>154.22</v>
       </c>
       <c r="H32" t="n">
-        <v>133.16</v>
+        <v>56.2</v>
       </c>
       <c r="I32" t="n">
         <v>101.81</v>
@@ -2260,6 +2355,9 @@
         <v>0</v>
       </c>
       <c r="R32" t="inlineStr"/>
+      <c r="S32" t="n">
+        <v>2.906473110295373</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2288,7 +2386,7 @@
         <v>160.34</v>
       </c>
       <c r="H33" t="n">
-        <v>140.18</v>
+        <v>60.1</v>
       </c>
       <c r="I33" t="n">
         <v>101.73</v>
@@ -2316,6 +2414,9 @@
         <v>0</v>
       </c>
       <c r="R33" t="inlineStr"/>
+      <c r="S33" t="n">
+        <v>2.966598851870959</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2344,7 +2445,7 @@
         <v>163.22</v>
       </c>
       <c r="H34" t="n">
-        <v>148.28</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="I34" t="n">
         <v>101.67</v>
@@ -2372,6 +2473,9 @@
         <v>0</v>
       </c>
       <c r="R34" t="inlineStr"/>
+      <c r="S34" t="n">
+        <v>3.383683397388565</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2400,7 +2504,7 @@
         <v>162.68</v>
       </c>
       <c r="H35" t="n">
-        <v>150.26</v>
+        <v>65.7</v>
       </c>
       <c r="I35" t="n">
         <v>101.56</v>
@@ -2428,6 +2532,9 @@
         <v>0</v>
       </c>
       <c r="R35" t="inlineStr"/>
+      <c r="S35" t="n">
+        <v>3.606402901691597</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2456,7 +2563,7 @@
         <v>157.46</v>
       </c>
       <c r="H36" t="n">
-        <v>141.08</v>
+        <v>60.6</v>
       </c>
       <c r="I36" t="n">
         <v>101.81</v>
@@ -2484,6 +2591,9 @@
         <v>0</v>
       </c>
       <c r="R36" t="inlineStr"/>
+      <c r="S36" t="n">
+        <v>3.278038845980048</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2512,7 +2622,7 @@
         <v>155.12</v>
       </c>
       <c r="H37" t="n">
-        <v>134.42</v>
+        <v>56.9</v>
       </c>
       <c r="I37" t="n">
         <v>102.09</v>
@@ -2540,6 +2650,9 @@
         <v>0</v>
       </c>
       <c r="R37" t="inlineStr"/>
+      <c r="S37" t="n">
+        <v>2.932833077145999</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2568,7 +2681,7 @@
         <v>157.1</v>
       </c>
       <c r="H38" t="n">
-        <v>137.84</v>
+        <v>58.8</v>
       </c>
       <c r="I38" t="n">
         <v>101.97</v>
@@ -2596,6 +2709,9 @@
         <v>0</v>
       </c>
       <c r="R38" t="inlineStr"/>
+      <c r="S38" t="n">
+        <v>3.042385254094817</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2624,7 +2740,7 @@
         <v>159.08</v>
       </c>
       <c r="H39" t="n">
-        <v>152.06</v>
+        <v>66.7</v>
       </c>
       <c r="I39" t="n">
         <v>101.55</v>
@@ -2652,6 +2768,9 @@
         <v>0.001016</v>
       </c>
       <c r="R39" t="inlineStr"/>
+      <c r="S39" t="n">
+        <v>4.146629817678122</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2680,7 +2799,7 @@
         <v>158.36</v>
       </c>
       <c r="H40" t="n">
-        <v>142.52</v>
+        <v>61.4</v>
       </c>
       <c r="I40" t="n">
         <v>101.73</v>
@@ -2708,6 +2827,9 @@
         <v>0.009906</v>
       </c>
       <c r="R40" t="inlineStr"/>
+      <c r="S40" t="n">
+        <v>3.321233950428826</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2736,7 +2858,7 @@
         <v>159.26</v>
       </c>
       <c r="H41" t="n">
-        <v>144.32</v>
+        <v>62.4</v>
       </c>
       <c r="I41" t="n">
         <v>101.72</v>
@@ -2764,6 +2886,9 @@
         <v>0</v>
       </c>
       <c r="R41" t="inlineStr"/>
+      <c r="S41" t="n">
+        <v>3.395811370583426</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2792,7 +2917,7 @@
         <v>163.04</v>
       </c>
       <c r="H42" t="n">
-        <v>147.74</v>
+        <v>64.3</v>
       </c>
       <c r="I42" t="n">
         <v>101.6</v>
@@ -2820,6 +2945,9 @@
         <v>0</v>
       </c>
       <c r="R42" t="inlineStr"/>
+      <c r="S42" t="n">
+        <v>3.35361072782649</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2848,7 +2976,7 @@
         <v>159.26</v>
       </c>
       <c r="H43" t="n">
-        <v>150.26</v>
+        <v>65.7</v>
       </c>
       <c r="I43" t="n">
         <v>101.5</v>
@@ -2876,6 +3004,9 @@
         <v>0</v>
       </c>
       <c r="R43" t="inlineStr"/>
+      <c r="S43" t="n">
+        <v>3.945832407638451</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2904,7 +3035,7 @@
         <v>163.94</v>
       </c>
       <c r="H44" t="n">
-        <v>152.42</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="I44" t="n">
         <v>101.37</v>
@@ -2932,6 +3063,9 @@
         <v>0</v>
       </c>
       <c r="R44" t="inlineStr"/>
+      <c r="S44" t="n">
+        <v>3.683078868507705</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2960,7 +3094,7 @@
         <v>166.82</v>
       </c>
       <c r="H45" t="n">
-        <v>150.62</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="I45" t="n">
         <v>101.17</v>
@@ -2988,6 +3122,9 @@
         <v>0</v>
       </c>
       <c r="R45" t="inlineStr"/>
+      <c r="S45" t="n">
+        <v>3.270119044104871</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3016,7 +3153,7 @@
         <v>155.48</v>
       </c>
       <c r="H46" t="n">
-        <v>139.82</v>
+        <v>59.9</v>
       </c>
       <c r="I46" t="n">
         <v>101.45</v>
@@ -3044,6 +3181,9 @@
         <v>0</v>
       </c>
       <c r="R46" t="inlineStr"/>
+      <c r="S46" t="n">
+        <v>3.346299179637714</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3072,7 +3212,7 @@
         <v>155.48</v>
       </c>
       <c r="H47" t="n">
-        <v>134.6</v>
+        <v>57</v>
       </c>
       <c r="I47" t="n">
         <v>101.57</v>
@@ -3100,6 +3240,9 @@
         <v>0</v>
       </c>
       <c r="R47" t="inlineStr"/>
+      <c r="S47" t="n">
+        <v>2.918284611574703</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3128,7 +3271,7 @@
         <v>159.44</v>
       </c>
       <c r="H48" t="n">
-        <v>139.64</v>
+        <v>59.8</v>
       </c>
       <c r="I48" t="n">
         <v>101.38</v>
@@ -3156,6 +3299,9 @@
         <v>0</v>
       </c>
       <c r="R48" t="inlineStr"/>
+      <c r="S48" t="n">
+        <v>2.995752867740878</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3184,7 +3330,7 @@
         <v>160.88</v>
       </c>
       <c r="H49" t="n">
-        <v>145.4</v>
+        <v>63</v>
       </c>
       <c r="I49" t="n">
         <v>101.31</v>
@@ -3212,6 +3358,9 @@
         <v>0</v>
       </c>
       <c r="R49" t="inlineStr"/>
+      <c r="S49" t="n">
+        <v>3.34437583378368</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3240,7 +3389,7 @@
         <v>159.62</v>
       </c>
       <c r="H50" t="n">
-        <v>149.72</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="I50" t="n">
         <v>101.36</v>
@@ -3268,6 +3417,9 @@
         <v>0</v>
       </c>
       <c r="R50" t="inlineStr"/>
+      <c r="S50" t="n">
+        <v>3.855903140279941</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3296,7 +3448,7 @@
         <v>159.8</v>
       </c>
       <c r="H51" t="n">
-        <v>144.68</v>
+        <v>62.6</v>
       </c>
       <c r="I51" t="n">
         <v>101.4</v>
@@ -3324,6 +3476,9 @@
         <v>0</v>
       </c>
       <c r="R51" t="inlineStr"/>
+      <c r="S51" t="n">
+        <v>3.378490344606787</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3352,7 +3507,7 @@
         <v>145.4</v>
       </c>
       <c r="H52" t="n">
-        <v>127.4</v>
+        <v>53</v>
       </c>
       <c r="I52" t="n">
         <v>101.71</v>
@@ -3380,6 +3535,9 @@
         <v>0</v>
       </c>
       <c r="R52" t="inlineStr"/>
+      <c r="S52" t="n">
+        <v>3.181485146878129</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -3408,7 +3566,7 @@
         <v>151.88</v>
       </c>
       <c r="H53" t="n">
-        <v>130.46</v>
+        <v>54.7</v>
       </c>
       <c r="I53" t="n">
         <v>101.88</v>
@@ -3436,6 +3594,9 @@
         <v>0</v>
       </c>
       <c r="R53" t="inlineStr"/>
+      <c r="S53" t="n">
+        <v>2.882768026265093</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -3464,7 +3625,7 @@
         <v>158.36</v>
       </c>
       <c r="H54" t="n">
-        <v>142.52</v>
+        <v>61.4</v>
       </c>
       <c r="I54" t="n">
         <v>101.82</v>
@@ -3492,6 +3653,9 @@
         <v>0</v>
       </c>
       <c r="R54" t="inlineStr"/>
+      <c r="S54" t="n">
+        <v>3.321233950428826</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -3520,7 +3684,7 @@
         <v>151.52</v>
       </c>
       <c r="H55" t="n">
-        <v>138.02</v>
+        <v>58.9</v>
       </c>
       <c r="I55" t="n">
         <v>101.95</v>
@@ -3548,6 +3712,9 @@
         <v>0</v>
       </c>
       <c r="R55" t="inlineStr"/>
+      <c r="S55" t="n">
+        <v>3.557533331667342</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -3576,7 +3743,7 @@
         <v>153.5</v>
       </c>
       <c r="H56" t="n">
-        <v>133.16</v>
+        <v>56.2</v>
       </c>
       <c r="I56" t="n">
         <v>102.16</v>
@@ -3604,6 +3771,9 @@
         <v>0</v>
       </c>
       <c r="R56" t="inlineStr"/>
+      <c r="S56" t="n">
+        <v>2.964061347990936</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -3632,7 +3802,7 @@
         <v>158.18</v>
       </c>
       <c r="H57" t="n">
-        <v>139.64</v>
+        <v>59.8</v>
       </c>
       <c r="I57" t="n">
         <v>102.12</v>
@@ -3660,6 +3830,9 @@
         <v>0</v>
       </c>
       <c r="R57" t="inlineStr"/>
+      <c r="S57" t="n">
+        <v>3.097796332055835</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -3688,7 +3861,7 @@
         <v>157.82</v>
       </c>
       <c r="H58" t="n">
-        <v>146.66</v>
+        <v>63.7</v>
       </c>
       <c r="I58" t="n">
         <v>101.95</v>
@@ -3716,6 +3889,9 @@
         <v>0</v>
       </c>
       <c r="R58" t="inlineStr"/>
+      <c r="S58" t="n">
+        <v>3.744906910250553</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -3744,7 +3920,7 @@
         <v>162.32</v>
       </c>
       <c r="H59" t="n">
-        <v>143.42</v>
+        <v>61.9</v>
       </c>
       <c r="I59" t="n">
         <v>101.84</v>
@@ -3772,6 +3948,9 @@
         <v>0</v>
       </c>
       <c r="R59" t="inlineStr"/>
+      <c r="S59" t="n">
+        <v>3.061676144439021</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -3800,7 +3979,7 @@
         <v>166.28</v>
       </c>
       <c r="H60" t="n">
-        <v>148.82</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="I60" t="n">
         <v>101.75</v>
@@ -3828,6 +4007,9 @@
         <v>0</v>
       </c>
       <c r="R60" t="inlineStr"/>
+      <c r="S60" t="n">
+        <v>3.169432623872276</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -3856,7 +4038,7 @@
         <v>163.94</v>
       </c>
       <c r="H61" t="n">
-        <v>155.66</v>
+        <v>68.7</v>
       </c>
       <c r="I61" t="n">
         <v>101.67</v>
@@ -3884,6 +4066,9 @@
         <v>0</v>
       </c>
       <c r="R61" t="inlineStr"/>
+      <c r="S61" t="n">
+        <v>3.98951101666874</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -3912,7 +4097,7 @@
         <v>165.92</v>
       </c>
       <c r="H62" t="n">
-        <v>152.78</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="I62" t="n">
         <v>101.64</v>
@@ -3940,6 +4125,9 @@
         <v>0</v>
       </c>
       <c r="R62" t="inlineStr"/>
+      <c r="S62" t="n">
+        <v>3.531082574209727</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -3968,7 +4156,7 @@
         <v>165.56</v>
       </c>
       <c r="H63" t="n">
-        <v>151.34</v>
+        <v>66.3</v>
       </c>
       <c r="I63" t="n">
         <v>101.56</v>
@@ -3996,6 +4184,9 @@
         <v>0</v>
       </c>
       <c r="R63" t="inlineStr"/>
+      <c r="S63" t="n">
+        <v>3.438657993437846</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -4024,7 +4215,7 @@
         <v>168.8</v>
       </c>
       <c r="H64" t="n">
-        <v>153.5</v>
+        <v>67.5</v>
       </c>
       <c r="I64" t="n">
         <v>101.29</v>
@@ -4052,6 +4243,9 @@
         <v>0</v>
       </c>
       <c r="R64" t="inlineStr"/>
+      <c r="S64" t="n">
+        <v>3.34014122512318</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -4080,7 +4274,7 @@
         <v>169.52</v>
       </c>
       <c r="H65" t="n">
-        <v>151.88</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="I65" t="n">
         <v>101.33</v>
@@ -4108,6 +4302,9 @@
         <v>0</v>
       </c>
       <c r="R65" t="inlineStr"/>
+      <c r="S65" t="n">
+        <v>3.150837070279237</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -4136,7 +4333,7 @@
         <v>163.58</v>
       </c>
       <c r="H66" t="n">
-        <v>144.32</v>
+        <v>62.4</v>
       </c>
       <c r="I66" t="n">
         <v>101.41</v>
@@ -4164,6 +4361,9 @@
         <v>0</v>
       </c>
       <c r="R66" t="inlineStr"/>
+      <c r="S66" t="n">
+        <v>3.031853119109398</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -4192,7 +4392,7 @@
         <v>155.3</v>
       </c>
       <c r="H67" t="n">
-        <v>142.34</v>
+        <v>61.3</v>
       </c>
       <c r="I67" t="n">
         <v>101.38</v>
@@ -4220,6 +4420,9 @@
         <v>0</v>
       </c>
       <c r="R67" t="inlineStr"/>
+      <c r="S67" t="n">
+        <v>3.588952058669324</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -4248,7 +4451,7 @@
         <v>156.38</v>
       </c>
       <c r="H68" t="n">
-        <v>123.62</v>
+        <v>50.9</v>
       </c>
       <c r="I68" t="n">
         <v>101.63</v>
@@ -4276,6 +4479,9 @@
         <v>0</v>
       </c>
       <c r="R68" t="inlineStr"/>
+      <c r="S68" t="n">
+        <v>2.117101639824594</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -4304,7 +4510,7 @@
         <v>162.14</v>
       </c>
       <c r="H69" t="n">
-        <v>131.54</v>
+        <v>55.3</v>
       </c>
       <c r="I69" t="n">
         <v>101.69</v>
@@ -4332,6 +4538,9 @@
         <v>0</v>
       </c>
       <c r="R69" t="inlineStr"/>
+      <c r="S69" t="n">
+        <v>2.253476741347324</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -4360,7 +4569,7 @@
         <v>163.58</v>
       </c>
       <c r="H70" t="n">
-        <v>135.68</v>
+        <v>57.6</v>
       </c>
       <c r="I70" t="n">
         <v>101.51</v>
@@ -4388,6 +4597,9 @@
         <v>0</v>
       </c>
       <c r="R70" t="inlineStr"/>
+      <c r="S70" t="n">
+        <v>2.422857766911844</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -4416,7 +4628,7 @@
         <v>167.18</v>
       </c>
       <c r="H71" t="n">
-        <v>146.48</v>
+        <v>63.6</v>
       </c>
       <c r="I71" t="n">
         <v>101.34</v>
@@ -4444,6 +4656,9 @@
         <v>0</v>
       </c>
       <c r="R71" t="inlineStr"/>
+      <c r="S71" t="n">
+        <v>2.919707395965815</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -4472,7 +4687,7 @@
         <v>167.36</v>
       </c>
       <c r="H72" t="n">
-        <v>146.12</v>
+        <v>63.4</v>
       </c>
       <c r="I72" t="n">
         <v>101.35</v>
@@ -4500,6 +4715,9 @@
         <v>0</v>
       </c>
       <c r="R72" t="inlineStr"/>
+      <c r="S72" t="n">
+        <v>2.879921530369356</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -4528,7 +4746,7 @@
         <v>168.98</v>
       </c>
       <c r="H73" t="n">
-        <v>154.04</v>
+        <v>67.8</v>
       </c>
       <c r="I73" t="n">
         <v>101.26</v>
@@ -4556,6 +4774,9 @@
         <v>0</v>
       </c>
       <c r="R73" t="inlineStr"/>
+      <c r="S73" t="n">
+        <v>3.369592361363144</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -4584,7 +4805,7 @@
         <v>169.52</v>
       </c>
       <c r="H74" t="n">
-        <v>155.48</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="I74" t="n">
         <v>101.14</v>
@@ -4612,6 +4833,9 @@
         <v>0</v>
       </c>
       <c r="R74" t="inlineStr"/>
+      <c r="S74" t="n">
+        <v>3.443822749563126</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -4640,7 +4864,7 @@
         <v>171.5</v>
       </c>
       <c r="H75" t="n">
-        <v>152.78</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="I75" t="n">
         <v>101.08</v>
@@ -4668,6 +4892,9 @@
         <v>0</v>
       </c>
       <c r="R75" t="inlineStr"/>
+      <c r="S75" t="n">
+        <v>3.065777224894732</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -4696,7 +4923,7 @@
         <v>170.42</v>
       </c>
       <c r="H76" t="n">
-        <v>153.32</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="I76" t="n">
         <v>101.16</v>
@@ -4724,6 +4951,9 @@
         <v>0</v>
       </c>
       <c r="R76" t="inlineStr"/>
+      <c r="S76" t="n">
+        <v>3.192230377439034</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -4752,7 +4982,7 @@
         <v>172.4</v>
       </c>
       <c r="H77" t="n">
-        <v>163.76</v>
+        <v>73.2</v>
       </c>
       <c r="I77" t="n">
         <v>100.83</v>
@@ -4780,6 +5010,9 @@
         <v>0</v>
       </c>
       <c r="R77" t="inlineStr"/>
+      <c r="S77" t="n">
+        <v>3.914485030361992</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -4808,7 +5041,7 @@
         <v>165.56</v>
       </c>
       <c r="H78" t="n">
-        <v>155.3</v>
+        <v>68.5</v>
       </c>
       <c r="I78" t="n">
         <v>100.87</v>
@@ -4836,6 +5069,9 @@
         <v>0</v>
       </c>
       <c r="R78" t="inlineStr"/>
+      <c r="S78" t="n">
+        <v>3.792451819074331</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -4864,7 +5100,7 @@
         <v>167.18</v>
       </c>
       <c r="H79" t="n">
-        <v>154.76</v>
+        <v>68.2</v>
       </c>
       <c r="I79" t="n">
         <v>101.13</v>
@@ -4892,6 +5128,9 @@
         <v>0</v>
       </c>
       <c r="R79" t="inlineStr"/>
+      <c r="S79" t="n">
+        <v>3.590344872502405</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -4920,7 +5159,7 @@
         <v>169.88</v>
       </c>
       <c r="H80" t="n">
-        <v>158.36</v>
+        <v>70.2</v>
       </c>
       <c r="I80" t="n">
         <v>101.36</v>
@@ -4948,6 +5187,9 @@
         <v>0</v>
       </c>
       <c r="R80" t="inlineStr"/>
+      <c r="S80" t="n">
+        <v>3.66132349444574</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -4976,7 +5218,7 @@
         <v>174.38</v>
       </c>
       <c r="H81" t="n">
-        <v>166.64</v>
+        <v>74.8</v>
       </c>
       <c r="I81" t="n">
         <v>101.35</v>
@@ -5004,6 +5246,9 @@
         <v>0</v>
       </c>
       <c r="R81" t="inlineStr"/>
+      <c r="S81" t="n">
+        <v>3.990663126930049</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -5032,7 +5277,7 @@
         <v>172.4</v>
       </c>
       <c r="H82" t="n">
-        <v>160.52</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="I82" t="n">
         <v>101.26</v>
@@ -5060,6 +5305,9 @@
         <v>0</v>
       </c>
       <c r="R82" t="inlineStr"/>
+      <c r="S82" t="n">
+        <v>3.621997203879432</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -5088,7 +5336,7 @@
         <v>162.86</v>
       </c>
       <c r="H83" t="n">
-        <v>153.14</v>
+        <v>67.3</v>
       </c>
       <c r="I83" t="n">
         <v>101.36</v>
@@ -5116,6 +5364,9 @@
         <v>0</v>
       </c>
       <c r="R83" t="inlineStr"/>
+      <c r="S83" t="n">
+        <v>3.856095849855433</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -5144,7 +5395,7 @@
         <v>164.48</v>
       </c>
       <c r="H84" t="n">
-        <v>149.18</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="I84" t="n">
         <v>101.45</v>
@@ -5172,6 +5423,9 @@
         <v>0</v>
       </c>
       <c r="R84" t="inlineStr"/>
+      <c r="S84" t="n">
+        <v>3.349863877318981</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -5200,7 +5454,7 @@
         <v>174.02</v>
       </c>
       <c r="H85" t="n">
-        <v>166.28</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="I85" t="n">
         <v>101.25</v>
@@ -5228,6 +5482,9 @@
         <v>0</v>
       </c>
       <c r="R85" t="inlineStr"/>
+      <c r="S85" t="n">
+        <v>3.992175590854653</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -5256,7 +5513,7 @@
         <v>178.7</v>
       </c>
       <c r="H86" t="n">
-        <v>165.02</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="I86" t="n">
         <v>101.21</v>
@@ -5284,6 +5541,9 @@
         <v>0</v>
       </c>
       <c r="R86" t="inlineStr"/>
+      <c r="S86" t="n">
+        <v>3.456561063772037</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -5312,7 +5572,7 @@
         <v>170.06</v>
       </c>
       <c r="H87" t="n">
-        <v>154.94</v>
+        <v>68.3</v>
       </c>
       <c r="I87" t="n">
         <v>101.35</v>
@@ -5340,6 +5600,9 @@
         <v>0</v>
       </c>
       <c r="R87" t="inlineStr"/>
+      <c r="S87" t="n">
+        <v>3.352529755025643</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -5368,7 +5631,7 @@
         <v>168.62</v>
       </c>
       <c r="H88" t="n">
-        <v>148.82</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="I88" t="n">
         <v>101.56</v>
@@ -5396,6 +5659,9 @@
         <v>0</v>
       </c>
       <c r="R88" t="inlineStr"/>
+      <c r="S88" t="n">
+        <v>2.985999867334003</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -5424,7 +5690,7 @@
         <v>171.86</v>
       </c>
       <c r="H89" t="n">
-        <v>155.12</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="I89" t="n">
         <v>101.55</v>
@@ -5452,6 +5718,9 @@
         <v>0</v>
       </c>
       <c r="R89" t="inlineStr"/>
+      <c r="S89" t="n">
+        <v>3.21894344369461</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -5480,7 +5749,7 @@
         <v>173.66</v>
       </c>
       <c r="H90" t="n">
-        <v>161.78</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="I90" t="n">
         <v>101.58</v>
@@ -5508,6 +5777,9 @@
         <v>0</v>
       </c>
       <c r="R90" t="inlineStr"/>
+      <c r="S90" t="n">
+        <v>3.618587713884822</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -5536,7 +5808,7 @@
         <v>173.84</v>
       </c>
       <c r="H91" t="n">
-        <v>158.54</v>
+        <v>70.3</v>
       </c>
       <c r="I91" t="n">
         <v>101.58</v>
@@ -5564,6 +5836,9 @@
         <v>0</v>
       </c>
       <c r="R91" t="inlineStr"/>
+      <c r="S91" t="n">
+        <v>3.331535326439345</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -5592,7 +5867,7 @@
         <v>162.32</v>
       </c>
       <c r="H92" t="n">
-        <v>142.34</v>
+        <v>61.3</v>
       </c>
       <c r="I92" t="n">
         <v>101.78</v>
@@ -5620,6 +5895,9 @@
         <v>0</v>
       </c>
       <c r="R92" t="inlineStr"/>
+      <c r="S92" t="n">
+        <v>2.9779321423386</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -5648,7 +5926,7 @@
         <v>160.52</v>
       </c>
       <c r="H93" t="n">
-        <v>137.48</v>
+        <v>58.6</v>
       </c>
       <c r="I93" t="n">
         <v>101.81</v>
@@ -5676,6 +5954,9 @@
         <v>0</v>
       </c>
       <c r="R93" t="inlineStr"/>
+      <c r="S93" t="n">
+        <v>2.751927388693121</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -5704,7 +5985,7 @@
         <v>158.72</v>
       </c>
       <c r="H94" t="n">
-        <v>137.48</v>
+        <v>58.6</v>
       </c>
       <c r="I94" t="n">
         <v>101.86</v>
@@ -5732,6 +6013,9 @@
         <v>0</v>
       </c>
       <c r="R94" t="inlineStr"/>
+      <c r="S94" t="n">
+        <v>2.886255993475404</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -5760,7 +6044,7 @@
         <v>163.76</v>
       </c>
       <c r="H95" t="n">
-        <v>145.4</v>
+        <v>63</v>
       </c>
       <c r="I95" t="n">
         <v>102</v>
@@ -5788,6 +6072,9 @@
         <v>0</v>
       </c>
       <c r="R95" t="inlineStr"/>
+      <c r="S95" t="n">
+        <v>3.101968770250223</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -5816,7 +6103,7 @@
         <v>163.58</v>
       </c>
       <c r="H96" t="n">
-        <v>144.32</v>
+        <v>62.4</v>
       </c>
       <c r="I96" t="n">
         <v>101.82</v>
@@ -5844,6 +6131,9 @@
         <v>0</v>
       </c>
       <c r="R96" t="inlineStr"/>
+      <c r="S96" t="n">
+        <v>3.031853119109398</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -5872,7 +6162,7 @@
         <v>167</v>
       </c>
       <c r="H97" t="n">
-        <v>145.22</v>
+        <v>62.9</v>
       </c>
       <c r="I97" t="n">
         <v>101.61</v>
@@ -5900,6 +6190,9 @@
         <v>0</v>
       </c>
       <c r="R97" t="inlineStr"/>
+      <c r="S97" t="n">
+        <v>2.840752361578474</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -5928,7 +6221,7 @@
         <v>167</v>
       </c>
       <c r="H98" t="n">
-        <v>145.94</v>
+        <v>63.3</v>
       </c>
       <c r="I98" t="n">
         <v>101.44</v>
@@ -5956,6 +6249,9 @@
         <v>0</v>
       </c>
       <c r="R98" t="inlineStr"/>
+      <c r="S98" t="n">
+        <v>2.893241139315699</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -5984,7 +6280,7 @@
         <v>166.28</v>
       </c>
       <c r="H99" t="n">
-        <v>142.7</v>
+        <v>61.5</v>
       </c>
       <c r="I99" t="n">
         <v>101.36</v>
@@ -6012,6 +6308,9 @@
         <v>0</v>
       </c>
       <c r="R99" t="inlineStr"/>
+      <c r="S99" t="n">
+        <v>2.712925530266388</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -6040,7 +6339,7 @@
         <v>169.52</v>
       </c>
       <c r="H100" t="n">
-        <v>150.8</v>
+        <v>66</v>
       </c>
       <c r="I100" t="n">
         <v>101.25</v>
@@ -6068,6 +6367,9 @@
         <v>0</v>
       </c>
       <c r="R100" t="inlineStr"/>
+      <c r="S100" t="n">
+        <v>3.067214694978728</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -6096,7 +6398,7 @@
         <v>170.24</v>
       </c>
       <c r="H101" t="n">
-        <v>159.26</v>
+        <v>70.7</v>
       </c>
       <c r="I101" t="n">
         <v>101.2</v>
@@ -6124,6 +6426,9 @@
         <v>0</v>
       </c>
       <c r="R101" t="inlineStr"/>
+      <c r="S101" t="n">
+        <v>3.708378485311993</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -6152,7 +6457,7 @@
         <v>174.38</v>
       </c>
       <c r="H102" t="n">
-        <v>160.16</v>
+        <v>71.2</v>
       </c>
       <c r="I102" t="n">
         <v>101.04</v>
@@ -6180,6 +6485,9 @@
         <v>0</v>
       </c>
       <c r="R102" t="inlineStr"/>
+      <c r="S102" t="n">
+        <v>3.41891599746769</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -6208,7 +6516,7 @@
         <v>173.48</v>
       </c>
       <c r="H103" t="n">
-        <v>158</v>
+        <v>70</v>
       </c>
       <c r="I103" t="n">
         <v>100.86</v>
@@ -6236,6 +6544,9 @@
         <v>0</v>
       </c>
       <c r="R103" t="inlineStr"/>
+      <c r="S103" t="n">
+        <v>3.317505526048744</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -6264,7 +6575,7 @@
         <v>172.58</v>
       </c>
       <c r="H104" t="n">
-        <v>157.28</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="I104" t="n">
         <v>100.69</v>
@@ -6292,6 +6603,9 @@
         <v>0</v>
       </c>
       <c r="R104" t="inlineStr"/>
+      <c r="S104" t="n">
+        <v>3.333420575152307</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -6320,7 +6634,7 @@
         <v>173.66</v>
       </c>
       <c r="H105" t="n">
-        <v>158.54</v>
+        <v>70.3</v>
       </c>
       <c r="I105" t="n">
         <v>100.82</v>
@@ -6348,6 +6662,9 @@
         <v>0</v>
       </c>
       <c r="R105" t="inlineStr"/>
+      <c r="S105" t="n">
+        <v>3.346388734552042</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -6376,7 +6693,7 @@
         <v>166.28</v>
       </c>
       <c r="H106" t="n">
-        <v>149.54</v>
+        <v>65.3</v>
       </c>
       <c r="I106" t="n">
         <v>101.13</v>
@@ -6404,6 +6721,9 @@
         <v>0</v>
       </c>
       <c r="R106" t="inlineStr"/>
+      <c r="S106" t="n">
+        <v>3.227230987460376</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -6432,7 +6752,7 @@
         <v>166.64</v>
       </c>
       <c r="H107" t="n">
-        <v>144.68</v>
+        <v>62.6</v>
       </c>
       <c r="I107" t="n">
         <v>101.29</v>
@@ -6460,6 +6780,9 @@
         <v>0</v>
       </c>
       <c r="R107" t="inlineStr"/>
+      <c r="S107" t="n">
+        <v>2.827820586263877</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -6488,7 +6811,7 @@
         <v>165.56</v>
       </c>
       <c r="H108" t="n">
-        <v>157.64</v>
+        <v>69.8</v>
       </c>
       <c r="I108" t="n">
         <v>101.54</v>
@@ -6516,6 +6839,9 @@
         <v>0</v>
       </c>
       <c r="R108" t="inlineStr"/>
+      <c r="S108" t="n">
+        <v>4.015793008245256</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -6544,7 +6870,7 @@
         <v>165.92</v>
       </c>
       <c r="H109" t="n">
-        <v>152.6</v>
+        <v>67</v>
       </c>
       <c r="I109" t="n">
         <v>101.57</v>
@@ -6572,6 +6898,9 @@
         <v>0</v>
       </c>
       <c r="R109" t="inlineStr"/>
+      <c r="S109" t="n">
+        <v>3.5153640448945</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -6600,7 +6929,7 @@
         <v>166.1</v>
       </c>
       <c r="H110" t="n">
-        <v>152.24</v>
+        <v>66.8</v>
       </c>
       <c r="I110" t="n">
         <v>101.41</v>
@@ -6628,6 +6957,9 @@
         <v>0</v>
       </c>
       <c r="R110" t="inlineStr"/>
+      <c r="S110" t="n">
+        <v>3.468053095037202</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -6656,7 +6988,7 @@
         <v>176.36</v>
       </c>
       <c r="H111" t="n">
-        <v>162.68</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="I111" t="n">
         <v>101.31</v>
@@ -6684,6 +7016,9 @@
         <v>0</v>
       </c>
       <c r="R111" t="inlineStr"/>
+      <c r="S111" t="n">
+        <v>3.460182302055372</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -6712,7 +7047,7 @@
         <v>183.38</v>
       </c>
       <c r="H112" t="n">
-        <v>169.7</v>
+        <v>76.5</v>
       </c>
       <c r="I112" t="n">
         <v>101.25</v>
@@ -6740,6 +7075,9 @@
         <v>0</v>
       </c>
       <c r="R112" t="inlineStr"/>
+      <c r="S112" t="n">
+        <v>3.451086598182125</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -6768,7 +7106,7 @@
         <v>178.88</v>
       </c>
       <c r="H113" t="n">
-        <v>169.7</v>
+        <v>76.5</v>
       </c>
       <c r="I113" t="n">
         <v>101.05</v>
@@ -6796,6 +7134,9 @@
         <v>0</v>
       </c>
       <c r="R113" t="inlineStr"/>
+      <c r="S113" t="n">
+        <v>3.842306986149427</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -6824,7 +7165,7 @@
         <v>180.14</v>
       </c>
       <c r="H114" t="n">
-        <v>167.9</v>
+        <v>75.5</v>
       </c>
       <c r="I114" t="n">
         <v>101.06</v>
@@ -6852,6 +7193,9 @@
         <v>0</v>
       </c>
       <c r="R114" t="inlineStr"/>
+      <c r="S114" t="n">
+        <v>3.573786939144818</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -6880,7 +7224,7 @@
         <v>180.5</v>
       </c>
       <c r="H115" t="n">
-        <v>171.5</v>
+        <v>77.5</v>
       </c>
       <c r="I115" t="n">
         <v>101</v>
@@ -6908,6 +7252,9 @@
         <v>0</v>
       </c>
       <c r="R115" t="inlineStr"/>
+      <c r="S115" t="n">
+        <v>3.853721569474302</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -6936,7 +7283,7 @@
         <v>182.66</v>
       </c>
       <c r="H116" t="n">
-        <v>170.6</v>
+        <v>77</v>
       </c>
       <c r="I116" t="n">
         <v>101.1</v>
@@ -6964,6 +7311,9 @@
         <v>0</v>
       </c>
       <c r="R116" t="inlineStr"/>
+      <c r="S116" t="n">
+        <v>3.584770250090899</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -6992,7 +7342,7 @@
         <v>183.56</v>
       </c>
       <c r="H117" t="n">
-        <v>168.98</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="I117" t="n">
         <v>101.11</v>
@@ -7020,6 +7370,9 @@
         <v>0</v>
       </c>
       <c r="R117" t="inlineStr"/>
+      <c r="S117" t="n">
+        <v>3.379110851898855</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -7048,7 +7401,7 @@
         <v>181.76</v>
       </c>
       <c r="H118" t="n">
-        <v>169.88</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="I118" t="n">
         <v>101.16</v>
@@ -7076,6 +7429,9 @@
         <v>0</v>
       </c>
       <c r="R118" t="inlineStr"/>
+      <c r="S118" t="n">
+        <v>3.60126797317166</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -7104,7 +7460,7 @@
         <v>169.88</v>
       </c>
       <c r="H119" t="n">
-        <v>153.5</v>
+        <v>67.5</v>
       </c>
       <c r="I119" t="n">
         <v>101.15</v>
@@ -7132,6 +7488,9 @@
         <v>0</v>
       </c>
       <c r="R119" t="inlineStr"/>
+      <c r="S119" t="n">
+        <v>3.250304407453958</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -7160,7 +7519,7 @@
         <v>159.98</v>
       </c>
       <c r="H120" t="n">
-        <v>147.38</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="I120" t="n">
         <v>101.3</v>
@@ -7188,6 +7547,9 @@
         <v>0</v>
       </c>
       <c r="R120" t="inlineStr"/>
+      <c r="S120" t="n">
+        <v>3.601011273403355</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -7216,7 +7578,7 @@
         <v>165.56</v>
       </c>
       <c r="H121" t="n">
-        <v>150.08</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="I121" t="n">
         <v>101.4</v>
@@ -7244,6 +7606,9 @@
         <v>0</v>
       </c>
       <c r="R121" t="inlineStr"/>
+      <c r="S121" t="n">
+        <v>3.332187264048506</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -7272,7 +7637,7 @@
         <v>172.76</v>
       </c>
       <c r="H122" t="n">
-        <v>155.84</v>
+        <v>68.8</v>
       </c>
       <c r="I122" t="n">
         <v>101.18</v>
@@ -7300,6 +7665,9 @@
         <v>0</v>
       </c>
       <c r="R122" t="inlineStr"/>
+      <c r="S122" t="n">
+        <v>3.203759896548536</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -7328,7 +7696,7 @@
         <v>177.8</v>
       </c>
       <c r="H123" t="n">
-        <v>165.56</v>
+        <v>74.2</v>
       </c>
       <c r="I123" t="n">
         <v>101.13</v>
@@ -7356,6 +7724,9 @@
         <v>0</v>
       </c>
       <c r="R123" t="inlineStr"/>
+      <c r="S123" t="n">
+        <v>3.578147996716558</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -7384,7 +7755,7 @@
         <v>176.72</v>
       </c>
       <c r="H124" t="n">
-        <v>161.78</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="I124" t="n">
         <v>101.24</v>
@@ -7412,6 +7783,9 @@
         <v>0</v>
       </c>
       <c r="R124" t="inlineStr"/>
+      <c r="S124" t="n">
+        <v>3.356763643552264</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -7440,7 +7814,7 @@
         <v>175.82</v>
       </c>
       <c r="H125" t="n">
-        <v>160.88</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="I125" t="n">
         <v>101.26</v>
@@ -7468,6 +7842,9 @@
         <v>0.000508</v>
       </c>
       <c r="R125" t="inlineStr"/>
+      <c r="S125" t="n">
+        <v>3.357915850494</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -7496,7 +7873,7 @@
         <v>179.24</v>
       </c>
       <c r="H126" t="n">
-        <v>161.96</v>
+        <v>72.2</v>
       </c>
       <c r="I126" t="n">
         <v>101.16</v>
@@ -7524,6 +7901,9 @@
         <v>0</v>
       </c>
       <c r="R126" t="inlineStr"/>
+      <c r="S126" t="n">
+        <v>3.171674649402498</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -7552,7 +7932,7 @@
         <v>180.68</v>
       </c>
       <c r="H127" t="n">
-        <v>167.36</v>
+        <v>75.2</v>
       </c>
       <c r="I127" t="n">
         <v>100.95</v>
@@ -7580,6 +7960,9 @@
         <v>0</v>
       </c>
       <c r="R127" t="inlineStr"/>
+      <c r="S127" t="n">
+        <v>3.483368512011235</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -7608,7 +7991,7 @@
         <v>178.52</v>
       </c>
       <c r="H128" t="n">
-        <v>167.9</v>
+        <v>75.5</v>
       </c>
       <c r="I128" t="n">
         <v>100.94</v>
@@ -7636,6 +8019,9 @@
         <v>0</v>
       </c>
       <c r="R128" t="inlineStr"/>
+      <c r="S128" t="n">
+        <v>3.715870107402793</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -7664,7 +8050,7 @@
         <v>181.22</v>
       </c>
       <c r="H129" t="n">
-        <v>165.92</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="I129" t="n">
         <v>100.89</v>
@@ -7692,6 +8078,9 @@
         <v>0</v>
       </c>
       <c r="R129" t="inlineStr"/>
+      <c r="S129" t="n">
+        <v>3.32386634671292</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -7720,7 +8109,7 @@
         <v>179.24</v>
       </c>
       <c r="H130" t="n">
-        <v>168.26</v>
+        <v>75.7</v>
       </c>
       <c r="I130" t="n">
         <v>100.78</v>
@@ -7748,6 +8137,9 @@
         <v>0</v>
       </c>
       <c r="R130" t="inlineStr"/>
+      <c r="S130" t="n">
+        <v>3.682896246180495</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -7776,7 +8168,7 @@
         <v>167.54</v>
       </c>
       <c r="H131" t="n">
-        <v>158.9</v>
+        <v>70.5</v>
       </c>
       <c r="I131" t="n">
         <v>101.01</v>
@@ -7804,6 +8196,9 @@
         <v>0</v>
       </c>
       <c r="R131" t="inlineStr"/>
+      <c r="S131" t="n">
+        <v>3.936070837214804</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -7832,7 +8227,7 @@
         <v>166.64</v>
       </c>
       <c r="H132" t="n">
-        <v>153.32</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="I132" t="n">
         <v>100.98</v>
@@ -7860,6 +8255,9 @@
         <v>0</v>
       </c>
       <c r="R132" t="inlineStr"/>
+      <c r="S132" t="n">
+        <v>3.513184099173506</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -7888,7 +8286,7 @@
         <v>172.4</v>
       </c>
       <c r="H133" t="n">
-        <v>154.76</v>
+        <v>68.2</v>
       </c>
       <c r="I133" t="n">
         <v>101.18</v>
@@ -7916,6 +8314,9 @@
         <v>0</v>
       </c>
       <c r="R133" t="inlineStr"/>
+      <c r="S133" t="n">
+        <v>3.14795161135674</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -7944,7 +8345,7 @@
         <v>174.92</v>
       </c>
       <c r="H134" t="n">
-        <v>160.34</v>
+        <v>71.3</v>
       </c>
       <c r="I134" t="n">
         <v>101.29</v>
@@ -7972,6 +8373,9 @@
         <v>0</v>
       </c>
       <c r="R134" t="inlineStr"/>
+      <c r="S134" t="n">
+        <v>3.388470063538059</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -8000,7 +8404,7 @@
         <v>173.66</v>
       </c>
       <c r="H135" t="n">
-        <v>166.82</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="I135" t="n">
         <v>101.01</v>
@@ -8028,6 +8432,9 @@
         <v>0</v>
       </c>
       <c r="R135" t="inlineStr"/>
+      <c r="S135" t="n">
+        <v>4.079498084963771</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -8056,7 +8463,7 @@
         <v>174.92</v>
       </c>
       <c r="H136" t="n">
-        <v>170.06</v>
+        <v>76.7</v>
       </c>
       <c r="I136" t="n">
         <v>100.66</v>
@@ -8084,6 +8491,9 @@
         <v>0.001016</v>
       </c>
       <c r="R136" t="inlineStr"/>
+      <c r="S136" t="n">
+        <v>4.266866547813603</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -8112,7 +8522,7 @@
         <v>175.64</v>
       </c>
       <c r="H137" t="n">
-        <v>162.14</v>
+        <v>72.3</v>
       </c>
       <c r="I137" t="n">
         <v>100.77</v>
@@ -8140,6 +8550,9 @@
         <v>0</v>
       </c>
       <c r="R137" t="inlineStr"/>
+      <c r="S137" t="n">
+        <v>3.476389830448255</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -8168,7 +8581,7 @@
         <v>178.16</v>
       </c>
       <c r="H138" t="n">
-        <v>169.16</v>
+        <v>76.2</v>
       </c>
       <c r="I138" t="n">
         <v>100.9</v>
@@ -8196,6 +8609,9 @@
         <v>0</v>
       </c>
       <c r="R138" t="inlineStr"/>
+      <c r="S138" t="n">
+        <v>3.860705125834024</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -8224,7 +8640,7 @@
         <v>174.92</v>
       </c>
       <c r="H139" t="n">
-        <v>170.96</v>
+        <v>77.2</v>
       </c>
       <c r="I139" t="n">
         <v>100.84</v>
@@ -8252,6 +8668,9 @@
         <v>0</v>
       </c>
       <c r="R139" t="inlineStr"/>
+      <c r="S139" t="n">
+        <v>4.357200597746029</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -8280,7 +8699,7 @@
         <v>177.26</v>
       </c>
       <c r="H140" t="n">
-        <v>171.86</v>
+        <v>77.7</v>
       </c>
       <c r="I140" t="n">
         <v>100.71</v>
@@ -8308,6 +8727,9 @@
         <v>0.024892</v>
       </c>
       <c r="R140" t="inlineStr"/>
+      <c r="S140" t="n">
+        <v>4.201857440105667</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -8336,7 +8758,7 @@
         <v>177.98</v>
       </c>
       <c r="H141" t="n">
-        <v>172.58</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="I141" t="n">
         <v>100.68</v>
@@ -8364,6 +8786,9 @@
         <v>0.018034</v>
       </c>
       <c r="R141" t="inlineStr"/>
+      <c r="S141" t="n">
+        <v>4.198466105883953</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -8392,7 +8817,7 @@
         <v>182.48</v>
       </c>
       <c r="H142" t="n">
-        <v>172.94</v>
+        <v>78.3</v>
       </c>
       <c r="I142" t="n">
         <v>100.76</v>
@@ -8420,6 +8845,9 @@
         <v>0</v>
       </c>
       <c r="R142" t="inlineStr"/>
+      <c r="S142" t="n">
+        <v>3.800732378330075</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -8448,7 +8876,7 @@
         <v>184.1</v>
       </c>
       <c r="H143" t="n">
-        <v>173.3</v>
+        <v>78.5</v>
       </c>
       <c r="I143" t="n">
         <v>100.73</v>
@@ -8476,6 +8904,9 @@
         <v>0</v>
       </c>
       <c r="R143" t="inlineStr"/>
+      <c r="S143" t="n">
+        <v>3.688543049147212</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -8504,7 +8935,7 @@
         <v>182.84</v>
       </c>
       <c r="H144" t="n">
-        <v>173.12</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="I144" t="n">
         <v>100.82</v>
@@ -8532,6 +8963,9 @@
         <v>0</v>
       </c>
       <c r="R144" t="inlineStr"/>
+      <c r="S144" t="n">
+        <v>3.784139520723307</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -8560,7 +8994,7 @@
         <v>183.74</v>
       </c>
       <c r="H145" t="n">
-        <v>173.12</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="I145" t="n">
         <v>100.97</v>
@@ -8588,6 +9022,9 @@
         <v>0</v>
       </c>
       <c r="R145" t="inlineStr"/>
+      <c r="S145" t="n">
+        <v>3.704540276117041</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -8616,7 +9053,7 @@
         <v>186.26</v>
       </c>
       <c r="H146" t="n">
-        <v>174.38</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="I146" t="n">
         <v>100.78</v>
@@ -8644,6 +9081,9 @@
         <v>0</v>
       </c>
       <c r="R146" t="inlineStr"/>
+      <c r="S146" t="n">
+        <v>3.594877948124393</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -8672,7 +9112,7 @@
         <v>185.54</v>
       </c>
       <c r="H147" t="n">
-        <v>172.76</v>
+        <v>78.2</v>
       </c>
       <c r="I147" t="n">
         <v>100.76</v>
@@ -8700,6 +9140,9 @@
         <v>0</v>
       </c>
       <c r="R147" t="inlineStr"/>
+      <c r="S147" t="n">
+        <v>3.521891430079325</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -8728,7 +9171,7 @@
         <v>179.96</v>
       </c>
       <c r="H148" t="n">
-        <v>171.32</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="I148" t="n">
         <v>100.79</v>
@@ -8756,6 +9199,9 @@
         <v>0</v>
       </c>
       <c r="R148" t="inlineStr"/>
+      <c r="S148" t="n">
+        <v>3.887642207528438</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -8784,7 +9230,7 @@
         <v>176.18</v>
       </c>
       <c r="H149" t="n">
-        <v>172.04</v>
+        <v>77.8</v>
       </c>
       <c r="I149" t="n">
         <v>100.86</v>
@@ -8812,6 +9258,9 @@
         <v>0.025908</v>
       </c>
       <c r="R149" t="inlineStr"/>
+      <c r="S149" t="n">
+        <v>4.331920747366621</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -8840,7 +9289,7 @@
         <v>183.2</v>
       </c>
       <c r="H150" t="n">
-        <v>174.38</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="I150" t="n">
         <v>100.66</v>
@@ -8868,6 +9317,9 @@
         <v>0.000508</v>
       </c>
       <c r="R150" t="inlineStr"/>
+      <c r="S150" t="n">
+        <v>3.862471920441715</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -8896,7 +9348,7 @@
         <v>180.32</v>
       </c>
       <c r="H151" t="n">
-        <v>174.02</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="I151" t="n">
         <v>100.55</v>
@@ -8924,6 +9376,9 @@
         <v>0</v>
       </c>
       <c r="R151" t="inlineStr"/>
+      <c r="S151" t="n">
+        <v>4.102327872203458</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -8952,7 +9407,7 @@
         <v>178.7</v>
       </c>
       <c r="H152" t="n">
-        <v>171.5</v>
+        <v>77.5</v>
       </c>
       <c r="I152" t="n">
         <v>100.76</v>
@@ -8980,6 +9435,9 @@
         <v>0</v>
       </c>
       <c r="R152" t="inlineStr"/>
+      <c r="S152" t="n">
+        <v>4.024107110395103</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -9008,7 +9466,7 @@
         <v>179.06</v>
       </c>
       <c r="H153" t="n">
-        <v>172.04</v>
+        <v>77.8</v>
       </c>
       <c r="I153" t="n">
         <v>100.87</v>
@@ -9036,6 +9494,9 @@
         <v>0.000508</v>
       </c>
       <c r="R153" t="inlineStr"/>
+      <c r="S153" t="n">
+        <v>4.039561355581813</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -9064,7 +9525,7 @@
         <v>182.84</v>
       </c>
       <c r="H154" t="n">
-        <v>174.74</v>
+        <v>79.3</v>
       </c>
       <c r="I154" t="n">
         <v>100.83</v>
@@ -9092,6 +9553,9 @@
         <v>0</v>
       </c>
       <c r="R154" t="inlineStr"/>
+      <c r="S154" t="n">
+        <v>3.927823452224303</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -9120,7 +9584,7 @@
         <v>180.32</v>
       </c>
       <c r="H155" t="n">
-        <v>173.12</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="I155" t="n">
         <v>100.93</v>
@@ -9148,6 +9612,9 @@
         <v>0</v>
       </c>
       <c r="R155" t="inlineStr"/>
+      <c r="S155" t="n">
+        <v>4.018163886794756</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -9176,7 +9643,7 @@
         <v>184.1</v>
       </c>
       <c r="H156" t="n">
-        <v>172.76</v>
+        <v>78.2</v>
       </c>
       <c r="I156" t="n">
         <v>100.95</v>
@@ -9204,6 +9671,9 @@
         <v>0</v>
       </c>
       <c r="R156" t="inlineStr"/>
+      <c r="S156" t="n">
+        <v>3.642865620198064</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -9232,7 +9702,7 @@
         <v>185.54</v>
       </c>
       <c r="H157" t="n">
-        <v>172.76</v>
+        <v>78.2</v>
       </c>
       <c r="I157" t="n">
         <v>100.94</v>
@@ -9260,6 +9730,9 @@
         <v>0</v>
       </c>
       <c r="R157" t="inlineStr"/>
+      <c r="S157" t="n">
+        <v>3.521891430079325</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -9288,7 +9761,7 @@
         <v>186.62</v>
       </c>
       <c r="H158" t="n">
-        <v>172.04</v>
+        <v>77.8</v>
       </c>
       <c r="I158" t="n">
         <v>100.91</v>
@@ -9316,6 +9789,9 @@
         <v>0</v>
       </c>
       <c r="R158" t="inlineStr"/>
+      <c r="S158" t="n">
+        <v>3.377603727178339</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -9344,7 +9820,7 @@
         <v>183.38</v>
       </c>
       <c r="H159" t="n">
-        <v>174.74</v>
+        <v>79.3</v>
       </c>
       <c r="I159" t="n">
         <v>100.84</v>
@@ -9372,6 +9848,9 @@
         <v>0</v>
       </c>
       <c r="R159" t="inlineStr"/>
+      <c r="S159" t="n">
+        <v>3.87799813040524</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -9400,7 +9879,7 @@
         <v>185.54</v>
       </c>
       <c r="H160" t="n">
-        <v>173.84</v>
+        <v>78.8</v>
       </c>
       <c r="I160" t="n">
         <v>100.66</v>
@@ -9428,6 +9907,9 @@
         <v>0</v>
       </c>
       <c r="R160" t="inlineStr"/>
+      <c r="S160" t="n">
+        <v>3.610682491801771</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -9456,7 +9938,7 @@
         <v>186.8</v>
       </c>
       <c r="H161" t="n">
-        <v>174.02</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="I161" t="n">
         <v>101.15</v>
@@ -9484,6 +9966,9 @@
         <v>0</v>
       </c>
       <c r="R161" t="inlineStr"/>
+      <c r="S161" t="n">
+        <v>3.520743198477695</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -9512,7 +9997,7 @@
         <v>185.36</v>
       </c>
       <c r="H162" t="n">
-        <v>170.96</v>
+        <v>77.2</v>
       </c>
       <c r="I162" t="n">
         <v>101.14</v>
@@ -9540,6 +10025,9 @@
         <v>0</v>
       </c>
       <c r="R162" t="inlineStr"/>
+      <c r="S162" t="n">
+        <v>3.392281109976326</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -9568,7 +10056,7 @@
         <v>182.3</v>
       </c>
       <c r="H163" t="n">
-        <v>173.12</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="I163" t="n">
         <v>100.92</v>
@@ -9596,6 +10084,9 @@
         <v>0.000508</v>
       </c>
       <c r="R163" t="inlineStr"/>
+      <c r="S163" t="n">
+        <v>3.832883036930836</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -9624,7 +10115,7 @@
         <v>183.38</v>
       </c>
       <c r="H164" t="n">
-        <v>174.02</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="I164" t="n">
         <v>101</v>
@@ -9652,6 +10143,9 @@
         <v>0</v>
       </c>
       <c r="R164" t="inlineStr"/>
+      <c r="S164" t="n">
+        <v>3.814393542523581</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -9680,7 +10174,7 @@
         <v>182.12</v>
       </c>
       <c r="H165" t="n">
-        <v>170.96</v>
+        <v>77.2</v>
       </c>
       <c r="I165" t="n">
         <v>101.07</v>
@@ -9708,6 +10202,9 @@
         <v>0</v>
       </c>
       <c r="R165" t="inlineStr"/>
+      <c r="S165" t="n">
+        <v>3.661511847266267</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -9736,7 +10233,7 @@
         <v>181.94</v>
       </c>
       <c r="H166" t="n">
-        <v>172.4</v>
+        <v>78</v>
       </c>
       <c r="I166" t="n">
         <v>100.83</v>
@@ -9764,6 +10261,9 @@
         <v>0</v>
       </c>
       <c r="R166" t="inlineStr"/>
+      <c r="S166" t="n">
+        <v>3.802040023734011</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -9792,7 +10292,7 @@
         <v>183.2</v>
       </c>
       <c r="H167" t="n">
-        <v>172.94</v>
+        <v>78.3</v>
       </c>
       <c r="I167" t="n">
         <v>100.55</v>
@@ -9820,6 +10320,9 @@
         <v>0.001016</v>
       </c>
       <c r="R167" t="inlineStr"/>
+      <c r="S167" t="n">
+        <v>3.736503878301126</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -9848,7 +10351,7 @@
         <v>182.12</v>
       </c>
       <c r="H168" t="n">
-        <v>172.04</v>
+        <v>77.8</v>
       </c>
       <c r="I168" t="n">
         <v>100.63</v>
@@ -9876,6 +10379,9 @@
         <v>0</v>
       </c>
       <c r="R168" t="inlineStr"/>
+      <c r="S168" t="n">
+        <v>3.754406194930835</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -9904,7 +10410,7 @@
         <v>185.54</v>
       </c>
       <c r="H169" t="n">
-        <v>174.92</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="I169" t="n">
         <v>100.63</v>
@@ -9932,6 +10438,9 @@
         <v>0</v>
       </c>
       <c r="R169" t="inlineStr"/>
+      <c r="S169" t="n">
+        <v>3.701369573207708</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -9960,7 +10469,7 @@
         <v>185.54</v>
       </c>
       <c r="H170" t="n">
-        <v>175.1</v>
+        <v>79.5</v>
       </c>
       <c r="I170" t="n">
         <v>100.6</v>
@@ -9988,6 +10497,9 @@
         <v>0</v>
       </c>
       <c r="R170" t="inlineStr"/>
+      <c r="S170" t="n">
+        <v>3.716670703848378</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -10016,7 +10528,7 @@
         <v>187.16</v>
       </c>
       <c r="H171" t="n">
-        <v>175.82</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="I171" t="n">
         <v>100.92</v>
@@ -10044,6 +10556,9 @@
         <v>0</v>
       </c>
       <c r="R171" t="inlineStr"/>
+      <c r="S171" t="n">
+        <v>3.638531984419155</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -10072,7 +10587,7 @@
         <v>181.94</v>
       </c>
       <c r="H172" t="n">
-        <v>175.28</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="I172" t="n">
         <v>101.23</v>
@@ -10100,6 +10615,9 @@
         <v>0</v>
       </c>
       <c r="R172" t="inlineStr"/>
+      <c r="S172" t="n">
+        <v>4.062550235591846</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -10128,7 +10646,7 @@
         <v>187.88</v>
       </c>
       <c r="H173" t="n">
-        <v>174.38</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="I173" t="n">
         <v>101.26</v>
@@ -10156,6 +10674,9 @@
         <v>0</v>
       </c>
       <c r="R173" t="inlineStr"/>
+      <c r="S173" t="n">
+        <v>3.462227120399531</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -10184,7 +10705,7 @@
         <v>184.64</v>
       </c>
       <c r="H174" t="n">
-        <v>171.86</v>
+        <v>77.7</v>
       </c>
       <c r="I174" t="n">
         <v>101.01</v>
@@ -10212,6 +10733,9 @@
         <v>0</v>
       </c>
       <c r="R174" t="inlineStr"/>
+      <c r="S174" t="n">
+        <v>3.522811620169277</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -10240,7 +10764,7 @@
         <v>184.1</v>
       </c>
       <c r="H175" t="n">
-        <v>172.94</v>
+        <v>78.3</v>
       </c>
       <c r="I175" t="n">
         <v>100.88</v>
@@ -10268,6 +10792,9 @@
         <v>0</v>
       </c>
       <c r="R175" t="inlineStr"/>
+      <c r="S175" t="n">
+        <v>3.658037674538883</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -10296,7 +10823,7 @@
         <v>185</v>
       </c>
       <c r="H176" t="n">
-        <v>174.02</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="I176" t="n">
         <v>100.75</v>
@@ -10324,6 +10851,9 @@
         <v>0</v>
       </c>
       <c r="R176" t="inlineStr"/>
+      <c r="S176" t="n">
+        <v>3.671776624573146</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -10352,7 +10882,7 @@
         <v>185.18</v>
       </c>
       <c r="H177" t="n">
-        <v>172.76</v>
+        <v>78.2</v>
       </c>
       <c r="I177" t="n">
         <v>100.87</v>
@@ -10380,6 +10910,9 @@
         <v>0</v>
       </c>
       <c r="R177" t="inlineStr"/>
+      <c r="S177" t="n">
+        <v>3.551677488467144</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -10408,7 +10941,7 @@
         <v>188.42</v>
       </c>
       <c r="H178" t="n">
-        <v>171.14</v>
+        <v>77.3</v>
       </c>
       <c r="I178" t="n">
         <v>100.44</v>
@@ -10436,6 +10969,9 @@
         <v>0</v>
       </c>
       <c r="R178" t="inlineStr"/>
+      <c r="S178" t="n">
+        <v>3.172774023131346</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -10464,7 +11000,7 @@
         <v>185</v>
       </c>
       <c r="H179" t="n">
-        <v>173.3</v>
+        <v>78.5</v>
       </c>
       <c r="I179" t="n">
         <v>100.29</v>
@@ -10492,6 +11028,9 @@
         <v>0</v>
       </c>
       <c r="R179" t="inlineStr"/>
+      <c r="S179" t="n">
+        <v>3.611405973796386</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -10520,7 +11059,7 @@
         <v>183.92</v>
       </c>
       <c r="H180" t="n">
-        <v>173.84</v>
+        <v>78.8</v>
       </c>
       <c r="I180" t="n">
         <v>100.5</v>
@@ -10548,6 +11087,9 @@
         <v>0</v>
       </c>
       <c r="R180" t="inlineStr"/>
+      <c r="S180" t="n">
+        <v>3.750566193554847</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -10576,7 +11118,7 @@
         <v>181.76</v>
       </c>
       <c r="H181" t="n">
-        <v>171.5</v>
+        <v>77.5</v>
       </c>
       <c r="I181" t="n">
         <v>100.76</v>
@@ -10604,6 +11146,9 @@
         <v>0</v>
       </c>
       <c r="R181" t="inlineStr"/>
+      <c r="S181" t="n">
+        <v>3.739577471244139</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -10632,7 +11177,7 @@
         <v>177.08</v>
       </c>
       <c r="H182" t="n">
-        <v>170.24</v>
+        <v>76.8</v>
       </c>
       <c r="I182" t="n">
         <v>100.92</v>
@@ -10660,6 +11205,9 @@
         <v>0.001016</v>
       </c>
       <c r="R182" t="inlineStr"/>
+      <c r="S182" t="n">
+        <v>4.064389339036095</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -10688,7 +11236,7 @@
         <v>174.38</v>
       </c>
       <c r="H183" t="n">
-        <v>169.88</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="I183" t="n">
         <v>100.98</v>
@@ -10716,6 +11264,9 @@
         <v>0.006096</v>
       </c>
       <c r="R183" t="inlineStr"/>
+      <c r="S183" t="n">
+        <v>4.305830503304503</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -10744,7 +11295,7 @@
         <v>177.44</v>
       </c>
       <c r="H184" t="n">
-        <v>171.5</v>
+        <v>77.5</v>
       </c>
       <c r="I184" t="n">
         <v>100.99</v>
@@ -10772,6 +11323,9 @@
         <v>0.003048</v>
       </c>
       <c r="R184" t="inlineStr"/>
+      <c r="S184" t="n">
+        <v>4.148753019577814</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -10800,7 +11354,7 @@
         <v>182.84</v>
       </c>
       <c r="H185" t="n">
-        <v>172.4</v>
+        <v>78</v>
       </c>
       <c r="I185" t="n">
         <v>100.94</v>
@@ -10828,6 +11382,9 @@
         <v>0</v>
       </c>
       <c r="R185" t="inlineStr"/>
+      <c r="S185" t="n">
+        <v>3.721729471103209</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -10856,7 +11413,7 @@
         <v>180.68</v>
       </c>
       <c r="H186" t="n">
-        <v>171.5</v>
+        <v>77.5</v>
       </c>
       <c r="I186" t="n">
         <v>100.82</v>
@@ -10884,6 +11441,9 @@
         <v>0</v>
       </c>
       <c r="R186" t="inlineStr"/>
+      <c r="S186" t="n">
+        <v>3.837162437384758</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -10912,7 +11472,7 @@
         <v>181.04</v>
       </c>
       <c r="H187" t="n">
-        <v>172.04</v>
+        <v>77.8</v>
       </c>
       <c r="I187" t="n">
         <v>100.87</v>
@@ -10940,6 +11500,9 @@
         <v>0</v>
       </c>
       <c r="R187" t="inlineStr"/>
+      <c r="S187" t="n">
+        <v>3.85221010261427</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -10968,7 +11531,7 @@
         <v>181.04</v>
       </c>
       <c r="H188" t="n">
-        <v>172.76</v>
+        <v>78.2</v>
       </c>
       <c r="I188" t="n">
         <v>100.81</v>
@@ -10996,6 +11559,9 @@
         <v>0.024892</v>
       </c>
       <c r="R188" t="inlineStr"/>
+      <c r="S188" t="n">
+        <v>3.916889261942486</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -11024,7 +11590,7 @@
         <v>180.86</v>
       </c>
       <c r="H189" t="n">
-        <v>172.04</v>
+        <v>77.8</v>
       </c>
       <c r="I189" t="n">
         <v>100.99</v>
@@ -11052,6 +11618,9 @@
         <v>0</v>
       </c>
       <c r="R189" t="inlineStr"/>
+      <c r="S189" t="n">
+        <v>3.868805924047714</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -11080,7 +11649,7 @@
         <v>177.98</v>
       </c>
       <c r="H190" t="n">
-        <v>171.86</v>
+        <v>77.7</v>
       </c>
       <c r="I190" t="n">
         <v>100.82</v>
@@ -11108,6 +11677,9 @@
         <v>0</v>
       </c>
       <c r="R190" t="inlineStr"/>
+      <c r="S190" t="n">
+        <v>4.129094509227989</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -11136,7 +11708,7 @@
         <v>183.92</v>
       </c>
       <c r="H191" t="n">
-        <v>173.48</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="I191" t="n">
         <v>100.76</v>
@@ -11164,6 +11736,9 @@
         <v>0</v>
       </c>
       <c r="R191" t="inlineStr"/>
+      <c r="S191" t="n">
+        <v>3.719605365046123</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -11192,7 +11767,7 @@
         <v>179.42</v>
       </c>
       <c r="H192" t="n">
-        <v>173.3</v>
+        <v>78.5</v>
       </c>
       <c r="I192" t="n">
         <v>100.81</v>
@@ -11220,6 +11795,9 @@
         <v>0.003048</v>
       </c>
       <c r="R192" t="inlineStr"/>
+      <c r="S192" t="n">
+        <v>4.122996969156753</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -11248,7 +11826,7 @@
         <v>176.72</v>
       </c>
       <c r="H193" t="n">
-        <v>172.4</v>
+        <v>78</v>
       </c>
       <c r="I193" t="n">
         <v>100.81</v>
@@ -11276,6 +11854,9 @@
         <v>0</v>
       </c>
       <c r="R193" t="inlineStr"/>
+      <c r="S193" t="n">
+        <v>4.310987872143548</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -11304,7 +11885,7 @@
         <v>183.02</v>
       </c>
       <c r="H194" t="n">
-        <v>173.66</v>
+        <v>78.7</v>
       </c>
       <c r="I194" t="n">
         <v>100.95</v>
@@ -11332,6 +11913,9 @@
         <v>0</v>
       </c>
       <c r="R194" t="inlineStr"/>
+      <c r="S194" t="n">
+        <v>3.815245117833527</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -11360,7 +11944,7 @@
         <v>182.12</v>
       </c>
       <c r="H195" t="n">
-        <v>171.5</v>
+        <v>77.5</v>
       </c>
       <c r="I195" t="n">
         <v>100.77</v>
@@ -11388,6 +11972,9 @@
         <v>0</v>
       </c>
       <c r="R195" t="inlineStr"/>
+      <c r="S195" t="n">
+        <v>3.707711510717487</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -11416,7 +12003,7 @@
         <v>185.72</v>
       </c>
       <c r="H196" t="n">
-        <v>167.9</v>
+        <v>75.5</v>
       </c>
       <c r="I196" t="n">
         <v>100.61</v>
@@ -11444,6 +12031,9 @@
         <v>0</v>
       </c>
       <c r="R196" t="inlineStr"/>
+      <c r="S196" t="n">
+        <v>3.131742833582644</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -11472,7 +12062,7 @@
         <v>186.62</v>
       </c>
       <c r="H197" t="n">
-        <v>172.4</v>
+        <v>78</v>
       </c>
       <c r="I197" t="n">
         <v>100.55</v>
@@ -11500,6 +12090,9 @@
         <v>0.001016</v>
       </c>
       <c r="R197" t="inlineStr"/>
+      <c r="S197" t="n">
+        <v>3.405858558270131</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -11528,7 +12121,7 @@
         <v>182.84</v>
       </c>
       <c r="H198" t="n">
-        <v>172.76</v>
+        <v>78.2</v>
       </c>
       <c r="I198" t="n">
         <v>100.83</v>
@@ -11556,6 +12149,9 @@
         <v>0.007112</v>
       </c>
       <c r="R198" t="inlineStr"/>
+      <c r="S198" t="n">
+        <v>3.752824161284973</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -11584,7 +12180,7 @@
         <v>184.1</v>
       </c>
       <c r="H199" t="n">
-        <v>171.14</v>
+        <v>77.3</v>
       </c>
       <c r="I199" t="n">
         <v>100.88</v>
@@ -11612,6 +12208,9 @@
         <v>0</v>
       </c>
       <c r="R199" t="inlineStr"/>
+      <c r="S199" t="n">
+        <v>3.508708629094206</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -11640,7 +12239,7 @@
         <v>180.5</v>
       </c>
       <c r="H200" t="n">
-        <v>172.76</v>
+        <v>78.2</v>
       </c>
       <c r="I200" t="n">
         <v>100.98</v>
@@ -11668,6 +12267,9 @@
         <v>0</v>
       </c>
       <c r="R200" t="inlineStr"/>
+      <c r="S200" t="n">
+        <v>3.967774517050835</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -11696,7 +12298,7 @@
         <v>179.6</v>
       </c>
       <c r="H201" t="n">
-        <v>172.04</v>
+        <v>77.8</v>
       </c>
       <c r="I201" t="n">
         <v>101.04</v>
@@ -11724,6 +12326,9 @@
         <v>0</v>
       </c>
       <c r="R201" t="inlineStr"/>
+      <c r="S201" t="n">
+        <v>3.987404288493079</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -11752,7 +12357,7 @@
         <v>181.94</v>
       </c>
       <c r="H202" t="n">
-        <v>171.32</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="I202" t="n">
         <v>100.73</v>
@@ -11780,6 +12385,9 @@
         <v>0</v>
       </c>
       <c r="R202" t="inlineStr"/>
+      <c r="S202" t="n">
+        <v>3.708082740285239</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -11808,7 +12416,7 @@
         <v>183.92</v>
       </c>
       <c r="H203" t="n">
-        <v>172.76</v>
+        <v>78.2</v>
       </c>
       <c r="I203" t="n">
         <v>100.14</v>
@@ -11836,6 +12444,9 @@
         <v>0</v>
       </c>
       <c r="R203" t="inlineStr"/>
+      <c r="S203" t="n">
+        <v>3.658335221947075</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -11864,7 +12475,7 @@
         <v>180.14</v>
       </c>
       <c r="H204" t="n">
-        <v>170.96</v>
+        <v>77.2</v>
       </c>
       <c r="I204" t="n">
         <v>99.7</v>
@@ -11892,6 +12503,9 @@
         <v>0</v>
       </c>
       <c r="R204" t="inlineStr"/>
+      <c r="S204" t="n">
+        <v>3.838662309455101</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -11920,7 +12534,7 @@
         <v>186.08</v>
       </c>
       <c r="H205" t="n">
-        <v>172.4</v>
+        <v>78</v>
       </c>
       <c r="I205" t="n">
         <v>100.03</v>
@@ -11948,6 +12562,9 @@
         <v>0</v>
       </c>
       <c r="R205" t="inlineStr"/>
+      <c r="S205" t="n">
+        <v>3.448956407956586</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -11976,7 +12593,7 @@
         <v>184.28</v>
       </c>
       <c r="H206" t="n">
-        <v>174.02</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="I206" t="n">
         <v>100.6</v>
@@ -12004,6 +12621,9 @@
         <v>0</v>
       </c>
       <c r="R206" t="inlineStr"/>
+      <c r="S206" t="n">
+        <v>3.734358417782608</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -12032,7 +12652,7 @@
         <v>183.2</v>
       </c>
       <c r="H207" t="n">
-        <v>169.7</v>
+        <v>76.5</v>
       </c>
       <c r="I207" t="n">
         <v>101.12</v>
@@ -12060,6 +12680,9 @@
         <v>0</v>
       </c>
       <c r="R207" t="inlineStr"/>
+      <c r="S207" t="n">
+        <v>3.465791395224735</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -12088,7 +12711,7 @@
         <v>182.12</v>
       </c>
       <c r="H208" t="n">
-        <v>154.22</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="I208" t="n">
         <v>101.34</v>
@@ -12116,6 +12739,9 @@
         <v>0</v>
       </c>
       <c r="R208" t="inlineStr"/>
+      <c r="S208" t="n">
+        <v>2.452709065793624</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -12144,7 +12770,7 @@
         <v>180.5</v>
       </c>
       <c r="H209" t="n">
-        <v>153.5</v>
+        <v>67.5</v>
       </c>
       <c r="I209" t="n">
         <v>101.25</v>
@@ -12172,6 +12798,9 @@
         <v>0</v>
       </c>
       <c r="R209" t="inlineStr"/>
+      <c r="S209" t="n">
+        <v>2.504393137882905</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -12200,7 +12829,7 @@
         <v>180.86</v>
       </c>
       <c r="H210" t="n">
-        <v>157.1</v>
+        <v>69.5</v>
       </c>
       <c r="I210" t="n">
         <v>101.12</v>
@@ -12228,6 +12857,9 @@
         <v>0</v>
       </c>
       <c r="R210" t="inlineStr"/>
+      <c r="S210" t="n">
+        <v>2.71241525521858</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -12256,7 +12888,7 @@
         <v>181.76</v>
       </c>
       <c r="H211" t="n">
-        <v>168.8</v>
+        <v>76</v>
       </c>
       <c r="I211" t="n">
         <v>100.16</v>
@@ -12284,6 +12916,9 @@
         <v>0</v>
       </c>
       <c r="R211" t="inlineStr"/>
+      <c r="S211" t="n">
+        <v>3.511501143906126</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -12312,7 +12947,7 @@
         <v>179.78</v>
       </c>
       <c r="H212" t="n">
-        <v>166.1</v>
+        <v>74.5</v>
       </c>
       <c r="I212" t="n">
         <v>100.42</v>
@@ -12340,6 +12975,9 @@
         <v>0</v>
       </c>
       <c r="R212" t="inlineStr"/>
+      <c r="S212" t="n">
+        <v>3.455091619516505</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -12368,7 +13006,7 @@
         <v>180.86</v>
       </c>
       <c r="H213" t="n">
-        <v>168.62</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="I213" t="n">
         <v>100.46</v>
@@ -12396,6 +13034,9 @@
         <v>0</v>
       </c>
       <c r="R213" t="inlineStr"/>
+      <c r="S213" t="n">
+        <v>3.572570376043406</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -12424,7 +13065,7 @@
         <v>184.1</v>
       </c>
       <c r="H214" t="n">
-        <v>166.64</v>
+        <v>74.8</v>
       </c>
       <c r="I214" t="n">
         <v>100.51</v>
@@ -12452,6 +13093,9 @@
         <v>0</v>
       </c>
       <c r="R214" t="inlineStr"/>
+      <c r="S214" t="n">
+        <v>3.157893964295613</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -12480,7 +13124,7 @@
         <v>181.94</v>
       </c>
       <c r="H215" t="n">
-        <v>166.82</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="I215" t="n">
         <v>100.53</v>
@@ -12508,6 +13152,9 @@
         <v>0</v>
       </c>
       <c r="R215" t="inlineStr"/>
+      <c r="S215" t="n">
+        <v>3.337553801876044</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -12536,7 +13183,7 @@
         <v>173.84</v>
       </c>
       <c r="H216" t="n">
-        <v>168.08</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="I216" t="n">
         <v>100.74</v>
@@ -12564,6 +13211,9 @@
         <v>0</v>
       </c>
       <c r="R216" t="inlineStr"/>
+      <c r="S216" t="n">
+        <v>4.183587918259033</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -12592,7 +13242,7 @@
         <v>178.34</v>
       </c>
       <c r="H217" t="n">
-        <v>158.54</v>
+        <v>70.3</v>
       </c>
       <c r="I217" t="n">
         <v>100.86</v>
@@ -12620,6 +13270,9 @@
         <v>0</v>
       </c>
       <c r="R217" t="inlineStr"/>
+      <c r="S217" t="n">
+        <v>2.984565371497592</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -12648,7 +13301,7 @@
         <v>177.08</v>
       </c>
       <c r="H218" t="n">
-        <v>157.28</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="I218" t="n">
         <v>101.04</v>
@@ -12676,6 +13329,9 @@
         <v>0</v>
       </c>
       <c r="R218" t="inlineStr"/>
+      <c r="S218" t="n">
+        <v>2.98427347697</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -12704,7 +13360,7 @@
         <v>179.96</v>
       </c>
       <c r="H219" t="n">
-        <v>161.42</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="I219" t="n">
         <v>100.92</v>
@@ -12732,6 +13388,9 @@
         <v>0</v>
       </c>
       <c r="R219" t="inlineStr"/>
+      <c r="S219" t="n">
+        <v>3.077110036487602</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -12760,7 +13419,7 @@
         <v>181.94</v>
       </c>
       <c r="H220" t="n">
-        <v>165.56</v>
+        <v>74.2</v>
       </c>
       <c r="I220" t="n">
         <v>100.84</v>
@@ -12788,6 +13447,9 @@
         <v>0.000508</v>
       </c>
       <c r="R220" t="inlineStr"/>
+      <c r="S220" t="n">
+        <v>3.239644903143499</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -12816,7 +13478,7 @@
         <v>180.86</v>
       </c>
       <c r="H221" t="n">
-        <v>166.46</v>
+        <v>74.7</v>
       </c>
       <c r="I221" t="n">
         <v>100.97</v>
@@ -12844,6 +13506,9 @@
         <v>0</v>
       </c>
       <c r="R221" t="inlineStr"/>
+      <c r="S221" t="n">
+        <v>3.395609348372389</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -12872,7 +13537,7 @@
         <v>179.78</v>
       </c>
       <c r="H222" t="n">
-        <v>167.36</v>
+        <v>75.2</v>
       </c>
       <c r="I222" t="n">
         <v>101.2</v>
@@ -12900,6 +13565,9 @@
         <v>0</v>
       </c>
       <c r="R222" t="inlineStr"/>
+      <c r="S222" t="n">
+        <v>3.559312124764149</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -12928,7 +13596,7 @@
         <v>184.28</v>
       </c>
       <c r="H223" t="n">
-        <v>165.56</v>
+        <v>74.2</v>
       </c>
       <c r="I223" t="n">
         <v>101.33</v>
@@ -12956,6 +13624,9 @@
         <v>0</v>
       </c>
       <c r="R223" t="inlineStr"/>
+      <c r="S223" t="n">
+        <v>3.065290671509204</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -12984,7 +13655,7 @@
         <v>180.86</v>
       </c>
       <c r="H224" t="n">
-        <v>169.16</v>
+        <v>76.2</v>
       </c>
       <c r="I224" t="n">
         <v>101.34</v>
@@ -13012,6 +13683,9 @@
         <v>0</v>
       </c>
       <c r="R224" t="inlineStr"/>
+      <c r="S224" t="n">
+        <v>3.618017651258335</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -13040,7 +13714,7 @@
         <v>179.6</v>
       </c>
       <c r="H225" t="n">
-        <v>166.82</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="I225" t="n">
         <v>101.36</v>
@@ -13068,6 +13742,9 @@
         <v>0</v>
       </c>
       <c r="R225" t="inlineStr"/>
+      <c r="S225" t="n">
+        <v>3.529553552108684</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -13096,7 +13773,7 @@
         <v>184.64</v>
       </c>
       <c r="H226" t="n">
-        <v>160.16</v>
+        <v>71.2</v>
       </c>
       <c r="I226" t="n">
         <v>101.36</v>
@@ -13124,6 +13801,9 @@
         <v>0</v>
       </c>
       <c r="R226" t="inlineStr"/>
+      <c r="S226" t="n">
+        <v>2.671339881887641</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -13152,7 +13832,7 @@
         <v>181.58</v>
       </c>
       <c r="H227" t="n">
-        <v>164.12</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="I227" t="n">
         <v>101.42</v>
@@ -13180,6 +13860,9 @@
         <v>0</v>
       </c>
       <c r="R227" t="inlineStr"/>
+      <c r="S227" t="n">
+        <v>3.157686964268295</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -13208,7 +13891,7 @@
         <v>180.5</v>
       </c>
       <c r="H228" t="n">
-        <v>163.04</v>
+        <v>72.8</v>
       </c>
       <c r="I228" t="n">
         <v>101.42</v>
@@ -13236,6 +13919,9 @@
         <v>0</v>
       </c>
       <c r="R228" t="inlineStr"/>
+      <c r="S228" t="n">
+        <v>3.157772665723287</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -13264,7 +13950,7 @@
         <v>172.58</v>
       </c>
       <c r="H229" t="n">
-        <v>150.26</v>
+        <v>65.7</v>
       </c>
       <c r="I229" t="n">
         <v>101.38</v>
@@ -13292,6 +13978,9 @@
         <v>0</v>
       </c>
       <c r="R229" t="inlineStr"/>
+      <c r="S229" t="n">
+        <v>2.802936021920113</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -13320,7 +14009,7 @@
         <v>169.52</v>
       </c>
       <c r="H230" t="n">
-        <v>146.66</v>
+        <v>63.7</v>
       </c>
       <c r="I230" t="n">
         <v>101.28</v>
@@ -13348,6 +14037,9 @@
         <v>0</v>
       </c>
       <c r="R230" t="inlineStr"/>
+      <c r="S230" t="n">
+        <v>2.7640209362696</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -13376,7 +14068,7 @@
         <v>174.38</v>
       </c>
       <c r="H231" t="n">
-        <v>155.3</v>
+        <v>68.5</v>
       </c>
       <c r="I231" t="n">
         <v>101.1</v>
@@ -13404,6 +14096,9 @@
         <v>0</v>
       </c>
       <c r="R231" t="inlineStr"/>
+      <c r="S231" t="n">
+        <v>3.037413482086934</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -13432,7 +14127,7 @@
         <v>179.06</v>
       </c>
       <c r="H232" t="n">
-        <v>157.28</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="I232" t="n">
         <v>101.07</v>
@@ -13460,6 +14155,9 @@
         <v>0</v>
       </c>
       <c r="R232" t="inlineStr"/>
+      <c r="S232" t="n">
+        <v>2.844593328294237</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -13488,7 +14186,7 @@
         <v>176.36</v>
       </c>
       <c r="H233" t="n">
-        <v>159.26</v>
+        <v>70.7</v>
       </c>
       <c r="I233" t="n">
         <v>100.8</v>
@@ -13516,6 +14214,9 @@
         <v>0</v>
       </c>
       <c r="R233" t="inlineStr"/>
+      <c r="S233" t="n">
+        <v>3.186777345743867</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -13544,7 +14245,7 @@
         <v>178.88</v>
       </c>
       <c r="H234" t="n">
-        <v>165.92</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="I234" t="n">
         <v>100.52</v>
@@ -13572,6 +14273,9 @@
         <v>0</v>
       </c>
       <c r="R234" t="inlineStr"/>
+      <c r="S234" t="n">
+        <v>3.515747775134638</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -13600,7 +14304,7 @@
         <v>178.52</v>
       </c>
       <c r="H235" t="n">
-        <v>170.42</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="I235" t="n">
         <v>100.47</v>
@@ -13628,6 +14332,9 @@
         <v>0.000508</v>
       </c>
       <c r="R235" t="inlineStr"/>
+      <c r="S235" t="n">
+        <v>3.941450588185782</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -13656,7 +14363,7 @@
         <v>167.36</v>
       </c>
       <c r="H236" t="n">
-        <v>146.3</v>
+        <v>63.5</v>
       </c>
       <c r="I236" t="n">
         <v>101.04</v>
@@ -13684,6 +14391,9 @@
         <v>0</v>
       </c>
       <c r="R236" t="inlineStr"/>
+      <c r="S236" t="n">
+        <v>2.893103275927358</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -13712,7 +14422,7 @@
         <v>171.14</v>
       </c>
       <c r="H237" t="n">
-        <v>146.66</v>
+        <v>63.7</v>
       </c>
       <c r="I237" t="n">
         <v>101.36</v>
@@ -13740,6 +14450,9 @@
         <v>0</v>
       </c>
       <c r="R237" t="inlineStr"/>
+      <c r="S237" t="n">
+        <v>2.653780383553432</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -13768,7 +14481,7 @@
         <v>174.38</v>
       </c>
       <c r="H238" t="n">
-        <v>148.64</v>
+        <v>64.8</v>
       </c>
       <c r="I238" t="n">
         <v>101.53</v>
@@ -13796,6 +14509,9 @@
         <v>0</v>
       </c>
       <c r="R238" t="inlineStr"/>
+      <c r="S238" t="n">
+        <v>2.574105477781631</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -13824,7 +14540,7 @@
         <v>177.62</v>
       </c>
       <c r="H239" t="n">
-        <v>168.08</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="I239" t="n">
         <v>101.32</v>
@@ -13852,6 +14568,9 @@
         <v>0.000508</v>
       </c>
       <c r="R239" t="inlineStr"/>
+      <c r="S239" t="n">
+        <v>3.813810492256874</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -13880,7 +14599,7 @@
         <v>173.66</v>
       </c>
       <c r="H240" t="n">
-        <v>159.98</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="I240" t="n">
         <v>101.29</v>
@@ -13908,6 +14627,9 @@
         <v>0</v>
       </c>
       <c r="R240" t="inlineStr"/>
+      <c r="S240" t="n">
+        <v>3.46512502940729</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -13936,7 +14658,7 @@
         <v>170.06</v>
       </c>
       <c r="H241" t="n">
-        <v>143.96</v>
+        <v>62.2</v>
       </c>
       <c r="I241" t="n">
         <v>101.52</v>
@@ -13964,6 +14686,9 @@
         <v>0</v>
       </c>
       <c r="R241" t="inlineStr"/>
+      <c r="S241" t="n">
+        <v>2.545582956075188</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -13992,7 +14717,7 @@
         <v>173.48</v>
       </c>
       <c r="H242" t="n">
-        <v>150.44</v>
+        <v>65.8</v>
       </c>
       <c r="I242" t="n">
         <v>101.38</v>
@@ -14020,6 +14745,9 @@
         <v>0</v>
       </c>
       <c r="R242" t="inlineStr"/>
+      <c r="S242" t="n">
+        <v>2.753428524462979</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -14048,7 +14776,7 @@
         <v>177.62</v>
       </c>
       <c r="H243" t="n">
-        <v>149</v>
+        <v>65</v>
       </c>
       <c r="I243" t="n">
         <v>101.17</v>
@@ -14076,6 +14804,9 @@
         <v>0</v>
       </c>
       <c r="R243" t="inlineStr"/>
+      <c r="S243" t="n">
+        <v>2.399671622794269</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -14104,7 +14835,7 @@
         <v>175.46</v>
       </c>
       <c r="H244" t="n">
-        <v>156.2</v>
+        <v>69</v>
       </c>
       <c r="I244" t="n">
         <v>100.89</v>
@@ -14132,6 +14863,9 @@
         <v>0</v>
       </c>
       <c r="R244" t="inlineStr"/>
+      <c r="S244" t="n">
+        <v>3.023844638303764</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -14160,7 +14894,7 @@
         <v>171.14</v>
       </c>
       <c r="H245" t="n">
-        <v>158.18</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="I245" t="n">
         <v>100.58</v>
@@ -14188,6 +14922,9 @@
         <v>0</v>
       </c>
       <c r="R245" t="inlineStr"/>
+      <c r="S245" t="n">
+        <v>3.531850793073707</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -14216,7 +14953,7 @@
         <v>172.04</v>
       </c>
       <c r="H246" t="n">
-        <v>161.6</v>
+        <v>72</v>
       </c>
       <c r="I246" t="n">
         <v>100.49</v>
@@ -14244,6 +14981,9 @@
         <v>0</v>
       </c>
       <c r="R246" t="inlineStr"/>
+      <c r="S246" t="n">
+        <v>3.75081352467129</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -14272,7 +15012,7 @@
         <v>173.12</v>
       </c>
       <c r="H247" t="n">
-        <v>153.68</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="I247" t="n">
         <v>100.59</v>
@@ -14300,6 +15040,9 @@
         <v>0</v>
       </c>
       <c r="R247" t="inlineStr"/>
+      <c r="S247" t="n">
+        <v>3.010934710619929</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -14328,7 +15071,7 @@
         <v>175.46</v>
       </c>
       <c r="H248" t="n">
-        <v>157.64</v>
+        <v>69.8</v>
       </c>
       <c r="I248" t="n">
         <v>101.01</v>
@@ -14356,6 +15099,9 @@
         <v>0</v>
       </c>
       <c r="R248" t="inlineStr"/>
+      <c r="S248" t="n">
+        <v>3.132045626956335</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -14384,7 +15130,7 @@
         <v>173.12</v>
       </c>
       <c r="H249" t="n">
-        <v>158.18</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="I249" t="n">
         <v>101.52</v>
@@ -14412,6 +15158,9 @@
         <v>0</v>
       </c>
       <c r="R249" t="inlineStr"/>
+      <c r="S249" t="n">
+        <v>3.361898557967405</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -14440,7 +15189,7 @@
         <v>164.3</v>
       </c>
       <c r="H250" t="n">
-        <v>150.62</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="I250" t="n">
         <v>101.65</v>
@@ -14468,6 +15217,9 @@
         <v>0</v>
       </c>
       <c r="R250" t="inlineStr"/>
+      <c r="S250" t="n">
+        <v>3.489034560007612</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -14496,7 +15248,7 @@
         <v>170.42</v>
       </c>
       <c r="H251" t="n">
-        <v>152.96</v>
+        <v>67.2</v>
       </c>
       <c r="I251" t="n">
         <v>101.55</v>
@@ -14524,6 +15276,9 @@
         <v>0</v>
       </c>
       <c r="R251" t="inlineStr"/>
+      <c r="S251" t="n">
+        <v>3.163918755777537</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -14552,7 +15307,7 @@
         <v>170.96</v>
       </c>
       <c r="H252" t="n">
-        <v>156.2</v>
+        <v>69</v>
       </c>
       <c r="I252" t="n">
         <v>101.5</v>
@@ -14580,6 +15335,9 @@
         <v>0</v>
       </c>
       <c r="R252" t="inlineStr"/>
+      <c r="S252" t="n">
+        <v>3.380534038206403</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -14608,7 +15366,7 @@
         <v>176.54</v>
       </c>
       <c r="H253" t="n">
-        <v>156.74</v>
+        <v>69.3</v>
       </c>
       <c r="I253" t="n">
         <v>101.53</v>
@@ -14636,6 +15394,9 @@
         <v>0</v>
       </c>
       <c r="R253" t="inlineStr"/>
+      <c r="S253" t="n">
+        <v>2.984190522041699</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -14664,7 +15425,7 @@
         <v>174.56</v>
       </c>
       <c r="H254" t="n">
-        <v>158.72</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="I254" t="n">
         <v>101.57</v>
@@ -14692,6 +15453,9 @@
         <v>0</v>
       </c>
       <c r="R254" t="inlineStr"/>
+      <c r="S254" t="n">
+        <v>3.287231031787059</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -14720,7 +15484,7 @@
         <v>177.08</v>
       </c>
       <c r="H255" t="n">
-        <v>163.94</v>
+        <v>73.3</v>
       </c>
       <c r="I255" t="n">
         <v>101.46</v>
@@ -14748,6 +15512,9 @@
         <v>0</v>
       </c>
       <c r="R255" t="inlineStr"/>
+      <c r="S255" t="n">
+        <v>3.503821025061826</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -14776,7 +15543,7 @@
         <v>175.46</v>
       </c>
       <c r="H256" t="n">
-        <v>159.8</v>
+        <v>71</v>
       </c>
       <c r="I256" t="n">
         <v>101.52</v>
@@ -14804,6 +15571,9 @@
         <v>0</v>
       </c>
       <c r="R256" t="inlineStr"/>
+      <c r="S256" t="n">
+        <v>3.300542604153877</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -14832,7 +15602,7 @@
         <v>174.56</v>
       </c>
       <c r="H257" t="n">
-        <v>160.7</v>
+        <v>71.5</v>
       </c>
       <c r="I257" t="n">
         <v>101.42</v>
@@ -14860,6 +15630,9 @@
         <v>0</v>
       </c>
       <c r="R257" t="inlineStr"/>
+      <c r="S257" t="n">
+        <v>3.448403912457672</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -14888,7 +15661,7 @@
         <v>173.66</v>
       </c>
       <c r="H258" t="n">
-        <v>160.88</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="I258" t="n">
         <v>101.33</v>
@@ -14916,6 +15689,9 @@
         <v>0</v>
       </c>
       <c r="R258" t="inlineStr"/>
+      <c r="S258" t="n">
+        <v>3.541146863766552</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -14944,7 +15720,7 @@
         <v>175.46</v>
       </c>
       <c r="H259" t="n">
-        <v>159.44</v>
+        <v>70.8</v>
       </c>
       <c r="I259" t="n">
         <v>101.4</v>
@@ -14972,6 +15748,9 @@
         <v>0</v>
       </c>
       <c r="R259" t="inlineStr"/>
+      <c r="S259" t="n">
+        <v>3.27193399202179</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -15000,7 +15779,7 @@
         <v>173.12</v>
       </c>
       <c r="H260" t="n">
-        <v>163.4</v>
+        <v>73</v>
       </c>
       <c r="I260" t="n">
         <v>101.29</v>
@@ -15028,6 +15807,9 @@
         <v>0</v>
       </c>
       <c r="R260" t="inlineStr"/>
+      <c r="S260" t="n">
+        <v>3.812251235916429</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -15056,7 +15838,7 @@
         <v>173.12</v>
       </c>
       <c r="H261" t="n">
-        <v>158.54</v>
+        <v>70.3</v>
       </c>
       <c r="I261" t="n">
         <v>101.39</v>
@@ -15084,6 +15866,9 @@
         <v>0</v>
       </c>
       <c r="R261" t="inlineStr"/>
+      <c r="S261" t="n">
+        <v>3.391425696172306</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -15112,7 +15897,7 @@
         <v>177.44</v>
       </c>
       <c r="H262" t="n">
-        <v>166.28</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="I262" t="n">
         <v>101.41</v>
@@ -15140,6 +15925,9 @@
         <v>0</v>
       </c>
       <c r="R262" t="inlineStr"/>
+      <c r="S262" t="n">
+        <v>3.67153419359119</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -15168,7 +15956,7 @@
         <v>173.48</v>
       </c>
       <c r="H263" t="n">
-        <v>159.26</v>
+        <v>70.7</v>
       </c>
       <c r="I263" t="n">
         <v>101.5</v>
@@ -15196,6 +15984,9 @@
         <v>0</v>
       </c>
       <c r="R263" t="inlineStr"/>
+      <c r="S263" t="n">
+        <v>3.420510461960164</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -15224,7 +16015,7 @@
         <v>167</v>
       </c>
       <c r="H264" t="n">
-        <v>152.06</v>
+        <v>66.7</v>
       </c>
       <c r="I264" t="n">
         <v>101.47</v>
@@ -15252,6 +16043,9 @@
         <v>0</v>
       </c>
       <c r="R264" t="inlineStr"/>
+      <c r="S264" t="n">
+        <v>3.373978936301175</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -15280,7 +16074,7 @@
         <v>165.56</v>
       </c>
       <c r="H265" t="n">
-        <v>142.52</v>
+        <v>61.4</v>
       </c>
       <c r="I265" t="n">
         <v>101.55</v>
@@ -15308,6 +16102,9 @@
         <v>0</v>
       </c>
       <c r="R265" t="inlineStr"/>
+      <c r="S265" t="n">
+        <v>2.750773138770882</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -15336,7 +16133,7 @@
         <v>165.56</v>
       </c>
       <c r="H266" t="n">
-        <v>144.32</v>
+        <v>62.4</v>
       </c>
       <c r="I266" t="n">
         <v>101.48</v>
@@ -15364,6 +16161,9 @@
         <v>0</v>
       </c>
       <c r="R266" t="inlineStr"/>
+      <c r="S266" t="n">
+        <v>2.880643261046456</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -15392,7 +16192,7 @@
         <v>150.44</v>
       </c>
       <c r="H267" t="n">
-        <v>137.66</v>
+        <v>58.7</v>
       </c>
       <c r="I267" t="n">
         <v>102.02</v>
@@ -15420,6 +16220,9 @@
         <v>0</v>
       </c>
       <c r="R267" t="inlineStr"/>
+      <c r="S267" t="n">
+        <v>3.63101535611413</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -15448,7 +16251,7 @@
         <v>141.44</v>
       </c>
       <c r="H268" t="n">
-        <v>119.48</v>
+        <v>48.6</v>
       </c>
       <c r="I268" t="n">
         <v>102.13</v>
@@ -15476,6 +16279,9 @@
         <v>0</v>
       </c>
       <c r="R268" t="inlineStr"/>
+      <c r="S268" t="n">
+        <v>2.865011436837241</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -15504,7 +16310,7 @@
         <v>154.22</v>
       </c>
       <c r="H269" t="n">
-        <v>125.78</v>
+        <v>52.1</v>
       </c>
       <c r="I269" t="n">
         <v>101.86</v>
@@ -15532,6 +16338,9 @@
         <v>0</v>
       </c>
       <c r="R269" t="inlineStr"/>
+      <c r="S269" t="n">
+        <v>2.38169936406937</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -15560,7 +16369,7 @@
         <v>153.68</v>
       </c>
       <c r="H270" t="n">
-        <v>121.1</v>
+        <v>49.5</v>
       </c>
       <c r="I270" t="n">
         <v>101.45</v>
@@ -15588,6 +16397,9 @@
         <v>0</v>
       </c>
       <c r="R270" t="inlineStr"/>
+      <c r="S270" t="n">
+        <v>2.124125118605052</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -15616,7 +16428,7 @@
         <v>150.44</v>
       </c>
       <c r="H271" t="n">
-        <v>126.86</v>
+        <v>52.7</v>
       </c>
       <c r="I271" t="n">
         <v>101.7</v>
@@ -15644,6 +16456,9 @@
         <v>0</v>
       </c>
       <c r="R271" t="inlineStr"/>
+      <c r="S271" t="n">
+        <v>2.721285437201161</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -15672,7 +16487,7 @@
         <v>146.48</v>
       </c>
       <c r="H272" t="n">
-        <v>123.62</v>
+        <v>50.9</v>
       </c>
       <c r="I272" t="n">
         <v>101.97</v>
@@ -15700,6 +16515,9 @@
         <v>0</v>
       </c>
       <c r="R272" t="inlineStr"/>
+      <c r="S272" t="n">
+        <v>2.78207324501907</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -15728,7 +16546,7 @@
         <v>154.58</v>
       </c>
       <c r="H273" t="n">
-        <v>130.64</v>
+        <v>54.8</v>
       </c>
       <c r="I273" t="n">
         <v>102.14</v>
@@ -15756,6 +16574,9 @@
         <v>0</v>
       </c>
       <c r="R273" t="inlineStr"/>
+      <c r="S273" t="n">
+        <v>2.690637362698377</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -15784,7 +16605,7 @@
         <v>160.7</v>
       </c>
       <c r="H274" t="n">
-        <v>142.16</v>
+        <v>61.2</v>
       </c>
       <c r="I274" t="n">
         <v>102.05</v>
@@ -15812,6 +16633,9 @@
         <v>0</v>
       </c>
       <c r="R274" t="inlineStr"/>
+      <c r="S274" t="n">
+        <v>3.092839589589711</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -15840,7 +16664,7 @@
         <v>164.48</v>
       </c>
       <c r="H275" t="n">
-        <v>143.06</v>
+        <v>61.7</v>
       </c>
       <c r="I275" t="n">
         <v>101.92</v>
@@ -15868,6 +16692,9 @@
         <v>0</v>
       </c>
       <c r="R275" t="inlineStr"/>
+      <c r="S275" t="n">
+        <v>2.867949605360296</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -15896,7 +16723,7 @@
         <v>159.62</v>
       </c>
       <c r="H276" t="n">
-        <v>147.02</v>
+        <v>63.9</v>
       </c>
       <c r="I276" t="n">
         <v>102.04</v>
@@ -15924,6 +16751,9 @@
         <v>0</v>
       </c>
       <c r="R276" t="inlineStr"/>
+      <c r="S276" t="n">
+        <v>3.602532884500949</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -15952,7 +16782,7 @@
         <v>159.26</v>
       </c>
       <c r="H277" t="n">
-        <v>148.1</v>
+        <v>64.5</v>
       </c>
       <c r="I277" t="n">
         <v>102.05</v>
@@ -15980,6 +16810,9 @@
         <v>0</v>
       </c>
       <c r="R277" t="inlineStr"/>
+      <c r="S277" t="n">
+        <v>3.737601327004919</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -16008,7 +16841,7 @@
         <v>160.34</v>
       </c>
       <c r="H278" t="n">
-        <v>145.04</v>
+        <v>62.8</v>
       </c>
       <c r="I278" t="n">
         <v>102.04</v>
@@ -16036,6 +16869,9 @@
         <v>0</v>
       </c>
       <c r="R278" t="inlineStr"/>
+      <c r="S278" t="n">
+        <v>3.361345908319642</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -16064,7 +16900,7 @@
         <v>160.88</v>
       </c>
       <c r="H279" t="n">
-        <v>143.24</v>
+        <v>61.8</v>
       </c>
       <c r="I279" t="n">
         <v>102.06</v>
@@ -16092,6 +16928,9 @@
         <v>0</v>
       </c>
       <c r="R279" t="inlineStr"/>
+      <c r="S279" t="n">
+        <v>3.164841268764342</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -16120,7 +16959,7 @@
         <v>162.86</v>
       </c>
       <c r="H280" t="n">
-        <v>149.18</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="I280" t="n">
         <v>102.09</v>
@@ -16148,6 +16987,9 @@
         <v>0</v>
       </c>
       <c r="R280" t="inlineStr"/>
+      <c r="S280" t="n">
+        <v>3.493707138054782</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -16176,7 +17018,7 @@
         <v>162.68</v>
       </c>
       <c r="H281" t="n">
-        <v>148.1</v>
+        <v>64.5</v>
       </c>
       <c r="I281" t="n">
         <v>101.9</v>
@@ -16204,6 +17046,9 @@
         <v>0</v>
       </c>
       <c r="R281" t="inlineStr"/>
+      <c r="S281" t="n">
+        <v>3.416084333684145</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -16232,7 +17077,7 @@
         <v>158.36</v>
       </c>
       <c r="H282" t="n">
-        <v>137.66</v>
+        <v>58.7</v>
       </c>
       <c r="I282" t="n">
         <v>101.88</v>
@@ -16260,6 +17105,9 @@
         <v>0</v>
       </c>
       <c r="R282" t="inlineStr"/>
+      <c r="S282" t="n">
+        <v>2.927813910308862</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -16288,7 +17136,7 @@
         <v>160.52</v>
       </c>
       <c r="H283" t="n">
-        <v>142.34</v>
+        <v>61.3</v>
       </c>
       <c r="I283" t="n">
         <v>101.96</v>
@@ -16316,6 +17164,9 @@
         <v>0</v>
       </c>
       <c r="R283" t="inlineStr"/>
+      <c r="S283" t="n">
+        <v>3.121972441656772</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -16344,7 +17195,7 @@
         <v>164.12</v>
       </c>
       <c r="H284" t="n">
-        <v>146.3</v>
+        <v>63.5</v>
       </c>
       <c r="I284" t="n">
         <v>101.85</v>
@@ -16372,6 +17223,9 @@
         <v>0</v>
       </c>
       <c r="R284" t="inlineStr"/>
+      <c r="S284" t="n">
+        <v>3.144231652917049</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -16400,7 +17254,7 @@
         <v>160.7</v>
       </c>
       <c r="H285" t="n">
-        <v>147.2</v>
+        <v>64</v>
       </c>
       <c r="I285" t="n">
         <v>101.74</v>
@@ -16428,6 +17282,9 @@
         <v>0</v>
       </c>
       <c r="R285" t="inlineStr"/>
+      <c r="S285" t="n">
+        <v>3.517218171991511</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -16456,7 +17313,7 @@
         <v>163.94</v>
       </c>
       <c r="H286" t="n">
-        <v>149.18</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="I286" t="n">
         <v>101.65</v>
@@ -16484,6 +17341,9 @@
         <v>0</v>
       </c>
       <c r="R286" t="inlineStr"/>
+      <c r="S286" t="n">
+        <v>3.397015059874581</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -16512,7 +17372,7 @@
         <v>167.72</v>
       </c>
       <c r="H287" t="n">
-        <v>149.36</v>
+        <v>65.2</v>
       </c>
       <c r="I287" t="n">
         <v>101.54</v>
@@ -16540,6 +17400,9 @@
         <v>0</v>
       </c>
       <c r="R287" t="inlineStr"/>
+      <c r="S287" t="n">
+        <v>3.096717409673043</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -16568,7 +17431,7 @@
         <v>168.08</v>
       </c>
       <c r="H288" t="n">
-        <v>156.56</v>
+        <v>69.2</v>
       </c>
       <c r="I288" t="n">
         <v>101.25</v>
@@ -16596,6 +17459,9 @@
         <v>0</v>
       </c>
       <c r="R288" t="inlineStr"/>
+      <c r="S288" t="n">
+        <v>3.667398054195586</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -16624,7 +17490,7 @@
         <v>169.7</v>
       </c>
       <c r="H289" t="n">
-        <v>160.7</v>
+        <v>71.5</v>
       </c>
       <c r="I289" t="n">
         <v>100.97</v>
@@ -16652,6 +17518,9 @@
         <v>0</v>
       </c>
       <c r="R289" t="inlineStr"/>
+      <c r="S289" t="n">
+        <v>3.892157911682345</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -16680,7 +17549,7 @@
         <v>160.7</v>
       </c>
       <c r="H290" t="n">
-        <v>142.52</v>
+        <v>61.4</v>
       </c>
       <c r="I290" t="n">
         <v>101.32</v>
@@ -16708,6 +17577,9 @@
         <v>0</v>
       </c>
       <c r="R290" t="inlineStr"/>
+      <c r="S290" t="n">
+        <v>3.12162059367841</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -16736,7 +17608,7 @@
         <v>154.4</v>
       </c>
       <c r="H291" t="n">
-        <v>132.8</v>
+        <v>56</v>
       </c>
       <c r="I291" t="n">
         <v>101.84</v>
@@ -16764,6 +17636,9 @@
         <v>0</v>
       </c>
       <c r="R291" t="inlineStr"/>
+      <c r="S291" t="n">
+        <v>2.864688036134508</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -16792,7 +17667,7 @@
         <v>155.12</v>
       </c>
       <c r="H292" t="n">
-        <v>136.76</v>
+        <v>58.2</v>
       </c>
       <c r="I292" t="n">
         <v>102.04</v>
@@ -16820,6 +17695,9 @@
         <v>0</v>
       </c>
       <c r="R292" t="inlineStr"/>
+      <c r="S292" t="n">
+        <v>3.119540480003165</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -16848,7 +17726,7 @@
         <v>159.44</v>
       </c>
       <c r="H293" t="n">
-        <v>138.38</v>
+        <v>59.1</v>
       </c>
       <c r="I293" t="n">
         <v>102.02</v>
@@ -16876,6 +17754,9 @@
         <v>0</v>
       </c>
       <c r="R293" t="inlineStr"/>
+      <c r="S293" t="n">
+        <v>2.899038347814969</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -16904,7 +17785,7 @@
         <v>159.62</v>
       </c>
       <c r="H294" t="n">
-        <v>141.8</v>
+        <v>61</v>
       </c>
       <c r="I294" t="n">
         <v>101.97</v>
@@ -16932,6 +17813,9 @@
         <v>0</v>
       </c>
       <c r="R294" t="inlineStr"/>
+      <c r="S294" t="n">
+        <v>3.152933947959551</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -16960,7 +17844,7 @@
         <v>158.54</v>
       </c>
       <c r="H295" t="n">
-        <v>143.6</v>
+        <v>62</v>
       </c>
       <c r="I295" t="n">
         <v>101.93</v>
@@ -16988,6 +17872,9 @@
         <v>0</v>
       </c>
       <c r="R295" t="inlineStr"/>
+      <c r="S295" t="n">
+        <v>3.398241080767348</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -17016,7 +17903,7 @@
         <v>167</v>
       </c>
       <c r="H296" t="n">
-        <v>154.04</v>
+        <v>67.8</v>
       </c>
       <c r="I296" t="n">
         <v>101.52</v>
@@ -17044,6 +17931,9 @@
         <v>0</v>
       </c>
       <c r="R296" t="inlineStr"/>
+      <c r="S296" t="n">
+        <v>3.543465807170964</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -17072,7 +17962,7 @@
         <v>141.44</v>
       </c>
       <c r="H297" t="n">
-        <v>116.96</v>
+        <v>47.2</v>
       </c>
       <c r="I297" t="n">
         <v>102.02</v>
@@ -17100,6 +17990,9 @@
         <v>0</v>
       </c>
       <c r="R297" t="inlineStr"/>
+      <c r="S297" t="n">
+        <v>2.668810938249052</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -17128,7 +18021,7 @@
         <v>145.76</v>
       </c>
       <c r="H298" t="n">
-        <v>128.48</v>
+        <v>53.6</v>
       </c>
       <c r="I298" t="n">
         <v>101.93</v>
@@ -17156,6 +18049,9 @@
         <v>0</v>
       </c>
       <c r="R298" t="inlineStr"/>
+      <c r="S298" t="n">
+        <v>3.242751878033418</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -17184,7 +18080,7 @@
         <v>139.82</v>
       </c>
       <c r="H299" t="n">
-        <v>117.32</v>
+        <v>47.4</v>
       </c>
       <c r="I299" t="n">
         <v>102.05</v>
@@ -17212,6 +18108,9 @@
         <v>0</v>
       </c>
       <c r="R299" t="inlineStr"/>
+      <c r="S299" t="n">
+        <v>2.826523507469315</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -17240,7 +18139,7 @@
         <v>148.64</v>
       </c>
       <c r="H300" t="n">
-        <v>123.44</v>
+        <v>50.8</v>
       </c>
       <c r="I300" t="n">
         <v>102.1</v>
@@ -17268,6 +18167,9 @@
         <v>0</v>
       </c>
       <c r="R300" t="inlineStr"/>
+      <c r="S300" t="n">
+        <v>2.605066224771623</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -17296,7 +18198,7 @@
         <v>151.7</v>
       </c>
       <c r="H301" t="n">
-        <v>123.8</v>
+        <v>51</v>
       </c>
       <c r="I301" t="n">
         <v>101.99</v>
@@ -17324,6 +18226,9 @@
         <v>0</v>
       </c>
       <c r="R301" t="inlineStr"/>
+      <c r="S301" t="n">
+        <v>2.416764836498268</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -17352,7 +18257,7 @@
         <v>166.64</v>
       </c>
       <c r="H302" t="n">
-        <v>145.58</v>
+        <v>63.1</v>
       </c>
       <c r="I302" t="n">
         <v>101.54</v>
@@ -17380,6 +18285,9 @@
         <v>0</v>
       </c>
       <c r="R302" t="inlineStr"/>
+      <c r="S302" t="n">
+        <v>2.893391169935447</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
@@ -17408,7 +18316,7 @@
         <v>160.34</v>
       </c>
       <c r="H303" t="n">
-        <v>143.96</v>
+        <v>62.2</v>
       </c>
       <c r="I303" t="n">
         <v>101.7</v>
@@ -17436,6 +18344,9 @@
         <v>0</v>
       </c>
       <c r="R303" t="inlineStr"/>
+      <c r="S303" t="n">
+        <v>3.269937859605697</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -17464,7 +18375,7 @@
         <v>160.7</v>
       </c>
       <c r="H304" t="n">
-        <v>148.82</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="I304" t="n">
         <v>101.61</v>
@@ -17492,6 +18403,9 @@
         <v>0</v>
       </c>
       <c r="R304" t="inlineStr"/>
+      <c r="S304" t="n">
+        <v>3.663811747117878</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -17520,7 +18434,7 @@
         <v>169.16</v>
       </c>
       <c r="H305" t="n">
-        <v>153.68</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="I305" t="n">
         <v>101.46</v>
@@ -17548,6 +18462,9 @@
         <v>0</v>
       </c>
       <c r="R305" t="inlineStr"/>
+      <c r="S305" t="n">
+        <v>3.324622618982041</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
@@ -17576,7 +18493,7 @@
         <v>167.18</v>
       </c>
       <c r="H306" t="n">
-        <v>154.22</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="I306" t="n">
         <v>101.6</v>
@@ -17604,6 +18521,9 @@
         <v>0</v>
       </c>
       <c r="R306" t="inlineStr"/>
+      <c r="S306" t="n">
+        <v>3.542914885845615</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
@@ -17632,7 +18552,7 @@
         <v>166.46</v>
       </c>
       <c r="H307" t="n">
-        <v>157.82</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="I307" t="n">
         <v>101.52</v>
@@ -17660,6 +18580,9 @@
         <v>0</v>
       </c>
       <c r="R307" t="inlineStr"/>
+      <c r="S307" t="n">
+        <v>3.941358719137482</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
@@ -17688,7 +18611,7 @@
         <v>167.18</v>
       </c>
       <c r="H308" t="n">
-        <v>153.32</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="I308" t="n">
         <v>101.51</v>
@@ -17716,6 +18639,9 @@
         <v>0</v>
       </c>
       <c r="R308" t="inlineStr"/>
+      <c r="S308" t="n">
+        <v>3.465055569545895</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
@@ -17744,7 +18670,7 @@
         <v>154.22</v>
       </c>
       <c r="H309" t="n">
-        <v>132.8</v>
+        <v>56</v>
       </c>
       <c r="I309" t="n">
         <v>102.05</v>
@@ -17772,6 +18698,9 @@
         <v>0</v>
       </c>
       <c r="R309" t="inlineStr"/>
+      <c r="S309" t="n">
+        <v>2.878741944537537</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -17800,7 +18729,7 @@
         <v>156.02</v>
       </c>
       <c r="H310" t="n">
-        <v>122.18</v>
+        <v>50.1</v>
       </c>
       <c r="I310" t="n">
         <v>102.24</v>
@@ -17828,6 +18757,9 @@
         <v>0</v>
       </c>
       <c r="R310" t="inlineStr"/>
+      <c r="S310" t="n">
+        <v>2.054270314470567</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
@@ -17856,7 +18788,7 @@
         <v>162.5</v>
       </c>
       <c r="H311" t="n">
-        <v>148.28</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="I311" t="n">
         <v>101.72</v>
@@ -17884,6 +18816,9 @@
         <v>0.002032</v>
       </c>
       <c r="R311" t="inlineStr"/>
+      <c r="S311" t="n">
+        <v>3.44776248926509</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
@@ -17912,7 +18847,7 @@
         <v>163.94</v>
       </c>
       <c r="H312" t="n">
-        <v>144.86</v>
+        <v>62.7</v>
       </c>
       <c r="I312" t="n">
         <v>101.51</v>
@@ -17940,6 +18875,9 @@
         <v>0</v>
       </c>
       <c r="R312" t="inlineStr"/>
+      <c r="S312" t="n">
+        <v>3.045350111782876</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
@@ -17968,7 +18906,7 @@
         <v>163.04</v>
       </c>
       <c r="H313" t="n">
-        <v>149</v>
+        <v>65</v>
       </c>
       <c r="I313" t="n">
         <v>101.42</v>
@@ -17996,6 +18934,9 @@
         <v>0</v>
       </c>
       <c r="R313" t="inlineStr"/>
+      <c r="S313" t="n">
+        <v>3.4616864548273</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
@@ -18024,7 +18965,7 @@
         <v>161.42</v>
       </c>
       <c r="H314" t="n">
-        <v>143.96</v>
+        <v>62.2</v>
       </c>
       <c r="I314" t="n">
         <v>101.67</v>
@@ -18052,6 +18993,9 @@
         <v>0</v>
       </c>
       <c r="R314" t="inlineStr"/>
+      <c r="S314" t="n">
+        <v>3.17832338125822</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
@@ -18080,7 +19024,7 @@
         <v>158.18</v>
       </c>
       <c r="H315" t="n">
-        <v>132.62</v>
+        <v>55.9</v>
       </c>
       <c r="I315" t="n">
         <v>102.2</v>
@@ -18108,6 +19052,9 @@
         <v>0</v>
       </c>
       <c r="R315" t="inlineStr"/>
+      <c r="S315" t="n">
+        <v>2.575135316836319</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -18136,7 +19083,7 @@
         <v>155.66</v>
       </c>
       <c r="H316" t="n">
-        <v>131.72</v>
+        <v>55.4</v>
       </c>
       <c r="I316" t="n">
         <v>102.31</v>
@@ -18164,6 +19111,9 @@
         <v>0</v>
       </c>
       <c r="R316" t="inlineStr"/>
+      <c r="S316" t="n">
+        <v>2.689856088642717</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -18192,7 +19142,7 @@
         <v>154.58</v>
       </c>
       <c r="H317" t="n">
-        <v>134.78</v>
+        <v>57.1</v>
       </c>
       <c r="I317" t="n">
         <v>102.29</v>
@@ -18220,6 +19170,9 @@
         <v>0</v>
       </c>
       <c r="R317" t="inlineStr"/>
+      <c r="S317" t="n">
+        <v>3.004588137667246</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
@@ -18248,7 +19201,7 @@
         <v>155.48</v>
       </c>
       <c r="H318" t="n">
-        <v>124.34</v>
+        <v>51.3</v>
       </c>
       <c r="I318" t="n">
         <v>102.19</v>
@@ -18276,6 +19229,9 @@
         <v>0</v>
       </c>
       <c r="R318" t="inlineStr"/>
+      <c r="S318" t="n">
+        <v>2.212559252807357</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
@@ -18304,7 +19260,7 @@
         <v>159.62</v>
       </c>
       <c r="H319" t="n">
-        <v>134.96</v>
+        <v>57.2</v>
       </c>
       <c r="I319" t="n">
         <v>101.88</v>
@@ -18332,6 +19288,9 @@
         <v>0</v>
       </c>
       <c r="R319" t="inlineStr"/>
+      <c r="S319" t="n">
+        <v>2.637331443626336</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
@@ -18360,7 +19319,7 @@
         <v>160.7</v>
       </c>
       <c r="H320" t="n">
-        <v>138.2</v>
+        <v>59</v>
       </c>
       <c r="I320" t="n">
         <v>101.71</v>
@@ -18388,6 +19347,9 @@
         <v>0</v>
       </c>
       <c r="R320" t="inlineStr"/>
+      <c r="S320" t="n">
+        <v>2.790977837500679</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
@@ -18416,7 +19378,7 @@
         <v>164.66</v>
       </c>
       <c r="H321" t="n">
-        <v>134.42</v>
+        <v>56.9</v>
       </c>
       <c r="I321" t="n">
         <v>101.81</v>
@@ -18444,6 +19406,9 @@
         <v>0</v>
       </c>
       <c r="R321" t="inlineStr"/>
+      <c r="S321" t="n">
+        <v>2.278875619455988</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
@@ -18472,7 +19437,7 @@
         <v>163.22</v>
       </c>
       <c r="H322" t="n">
-        <v>139.28</v>
+        <v>59.6</v>
       </c>
       <c r="I322" t="n">
         <v>101.8</v>
@@ -18500,6 +19465,9 @@
         <v>0</v>
       </c>
       <c r="R322" t="inlineStr"/>
+      <c r="S322" t="n">
+        <v>2.687452819393101</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
@@ -18528,7 +19496,7 @@
         <v>160.7</v>
       </c>
       <c r="H323" t="n">
-        <v>137.3</v>
+        <v>58.5</v>
       </c>
       <c r="I323" t="n">
         <v>101.54</v>
@@ -18556,6 +19524,9 @@
         <v>0</v>
       </c>
       <c r="R323" t="inlineStr"/>
+      <c r="S323" t="n">
+        <v>2.726020829676912</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
@@ -18584,7 +19555,7 @@
         <v>170.96</v>
       </c>
       <c r="H324" t="n">
-        <v>147.56</v>
+        <v>64.2</v>
       </c>
       <c r="I324" t="n">
         <v>101.8</v>
@@ -18612,6 +19583,9 @@
         <v>0</v>
       </c>
       <c r="R324" t="inlineStr"/>
+      <c r="S324" t="n">
+        <v>2.727133418430641</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
@@ -18640,7 +19614,7 @@
         <v>165.74</v>
       </c>
       <c r="H325" t="n">
-        <v>151.7</v>
+        <v>66.5</v>
       </c>
       <c r="I325" t="n">
         <v>101.55</v>
@@ -18668,6 +19642,9 @@
         <v>0</v>
       </c>
       <c r="R325" t="inlineStr"/>
+      <c r="S325" t="n">
+        <v>3.453593132327946</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
@@ -18696,7 +19673,7 @@
         <v>163.4</v>
       </c>
       <c r="H326" t="n">
-        <v>152.96</v>
+        <v>67.2</v>
       </c>
       <c r="I326" t="n">
         <v>101.4</v>
@@ -18724,6 +19701,9 @@
         <v>0</v>
       </c>
       <c r="R326" t="inlineStr"/>
+      <c r="S326" t="n">
+        <v>3.785385777019424</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
@@ -18752,7 +19732,7 @@
         <v>172.4</v>
       </c>
       <c r="H327" t="n">
-        <v>159.62</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="I327" t="n">
         <v>100.98</v>
@@ -18780,6 +19760,9 @@
         <v>0</v>
       </c>
       <c r="R327" t="inlineStr"/>
+      <c r="S327" t="n">
+        <v>3.544141852529906</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
@@ -18808,7 +19791,7 @@
         <v>172.94</v>
       </c>
       <c r="H328" t="n">
-        <v>154.76</v>
+        <v>68.2</v>
       </c>
       <c r="I328" t="n">
         <v>101.37</v>
@@ -18836,6 +19819,9 @@
         <v>0</v>
       </c>
       <c r="R328" t="inlineStr"/>
+      <c r="S328" t="n">
+        <v>3.106004099115204</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
@@ -18864,7 +19850,7 @@
         <v>177.26</v>
       </c>
       <c r="H329" t="n">
-        <v>157.82</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="I329" t="n">
         <v>101.28</v>
@@ -18892,6 +19878,9 @@
         <v>0</v>
       </c>
       <c r="R329" t="inlineStr"/>
+      <c r="S329" t="n">
+        <v>3.010584833941742</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
@@ -18920,7 +19909,7 @@
         <v>168.62</v>
       </c>
       <c r="H330" t="n">
-        <v>149.54</v>
+        <v>65.3</v>
       </c>
       <c r="I330" t="n">
         <v>101.4</v>
@@ -18948,6 +19937,9 @@
         <v>0</v>
       </c>
       <c r="R330" t="inlineStr"/>
+      <c r="S330" t="n">
+        <v>3.040453117012278</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
@@ -18976,7 +19968,7 @@
         <v>168.62</v>
       </c>
       <c r="H331" t="n">
-        <v>147.38</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="I331" t="n">
         <v>101.48</v>
@@ -19004,6 +19996,9 @@
         <v>0</v>
       </c>
       <c r="R331" t="inlineStr"/>
+      <c r="S331" t="n">
+        <v>2.879595546412598</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
@@ -19032,7 +20027,7 @@
         <v>173.12</v>
       </c>
       <c r="H332" t="n">
-        <v>158</v>
+        <v>70</v>
       </c>
       <c r="I332" t="n">
         <v>101.08</v>
@@ -19060,6 +20055,9 @@
         <v>0</v>
       </c>
       <c r="R332" t="inlineStr"/>
+      <c r="S332" t="n">
+        <v>3.347217527720423</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
@@ -19088,7 +20086,7 @@
         <v>169.7</v>
       </c>
       <c r="H333" t="n">
-        <v>154.22</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="I333" t="n">
         <v>101.27</v>
@@ -19116,6 +20114,9 @@
         <v>0</v>
       </c>
       <c r="R333" t="inlineStr"/>
+      <c r="S333" t="n">
+        <v>3.323618238659646</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
@@ -19144,7 +20145,7 @@
         <v>169.16</v>
       </c>
       <c r="H334" t="n">
-        <v>155.66</v>
+        <v>68.7</v>
       </c>
       <c r="I334" t="n">
         <v>101.22</v>
@@ -19172,6 +20173,9 @@
         <v>0</v>
       </c>
       <c r="R334" t="inlineStr"/>
+      <c r="S334" t="n">
+        <v>3.490643292873457</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
@@ -19200,7 +20204,7 @@
         <v>169.7</v>
       </c>
       <c r="H335" t="n">
-        <v>153.5</v>
+        <v>67.5</v>
       </c>
       <c r="I335" t="n">
         <v>101.27</v>
@@ -19228,6 +20232,9 @@
         <v>0</v>
       </c>
       <c r="R335" t="inlineStr"/>
+      <c r="S335" t="n">
+        <v>3.265075317002436</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
@@ -19256,7 +20263,7 @@
         <v>174.74</v>
       </c>
       <c r="H336" t="n">
-        <v>163.04</v>
+        <v>72.8</v>
       </c>
       <c r="I336" t="n">
         <v>101.13</v>
@@ -19284,6 +20291,9 @@
         <v>0</v>
       </c>
       <c r="R336" t="inlineStr"/>
+      <c r="S336" t="n">
+        <v>3.63141244505441</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
@@ -19312,7 +20322,7 @@
         <v>165.38</v>
       </c>
       <c r="H337" t="n">
-        <v>152.06</v>
+        <v>66.7</v>
       </c>
       <c r="I337" t="n">
         <v>101.47</v>
@@ -19340,6 +20350,9 @@
         <v>0</v>
       </c>
       <c r="R337" t="inlineStr"/>
+      <c r="S337" t="n">
+        <v>3.517043730575733</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
@@ -19368,7 +20381,7 @@
         <v>158.9</v>
       </c>
       <c r="H338" t="n">
-        <v>134.06</v>
+        <v>56.7</v>
       </c>
       <c r="I338" t="n">
         <v>101.87</v>
@@ -19396,6 +20409,9 @@
         <v>0</v>
       </c>
       <c r="R338" t="inlineStr"/>
+      <c r="S338" t="n">
+        <v>2.624874283136787</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
@@ -19424,7 +20440,7 @@
         <v>173.48</v>
       </c>
       <c r="H339" t="n">
-        <v>146.66</v>
+        <v>63.7</v>
       </c>
       <c r="I339" t="n">
         <v>101.27</v>
@@ -19452,6 +20468,9 @@
         <v>0</v>
       </c>
       <c r="R339" t="inlineStr"/>
+      <c r="S339" t="n">
+        <v>2.503657713781867</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
@@ -19480,7 +20499,7 @@
         <v>178.16</v>
       </c>
       <c r="H340" t="n">
-        <v>159.26</v>
+        <v>70.7</v>
       </c>
       <c r="I340" t="n">
         <v>100.77</v>
@@ -19508,6 +20527,9 @@
         <v>0</v>
       </c>
       <c r="R340" t="inlineStr"/>
+      <c r="S340" t="n">
+        <v>3.050373039384099</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
@@ -19536,7 +20558,7 @@
         <v>177.98</v>
       </c>
       <c r="H341" t="n">
-        <v>167.54</v>
+        <v>75.3</v>
       </c>
       <c r="I341" t="n">
         <v>101.18</v>
@@ -19564,6 +20586,9 @@
         <v>0</v>
       </c>
       <c r="R341" t="inlineStr"/>
+      <c r="S341" t="n">
+        <v>3.733004761543436</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
@@ -19592,7 +20617,7 @@
         <v>176.9</v>
       </c>
       <c r="H342" t="n">
-        <v>170.42</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="I342" t="n">
         <v>100.66</v>
@@ -19620,6 +20645,9 @@
         <v>0</v>
       </c>
       <c r="R342" t="inlineStr"/>
+      <c r="S342" t="n">
+        <v>4.099382533901473</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
@@ -19648,7 +20676,7 @@
         <v>172.04</v>
       </c>
       <c r="H343" t="n">
-        <v>156.02</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="I343" t="n">
         <v>101.41</v>
@@ -19676,6 +20704,9 @@
         <v>0</v>
       </c>
       <c r="R343" t="inlineStr"/>
+      <c r="S343" t="n">
+        <v>3.276071591767955</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
@@ -19704,7 +20735,7 @@
         <v>172.94</v>
       </c>
       <c r="H344" t="n">
-        <v>154.22</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="I344" t="n">
         <v>101.49</v>
@@ -19732,6 +20763,9 @@
         <v>0</v>
       </c>
       <c r="R344" t="inlineStr"/>
+      <c r="S344" t="n">
+        <v>3.064972460593445</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
@@ -19760,7 +20794,7 @@
         <v>180.86</v>
       </c>
       <c r="H345" t="n">
-        <v>160.34</v>
+        <v>71.3</v>
       </c>
       <c r="I345" t="n">
         <v>101.26</v>
@@ -19788,6 +20822,9 @@
         <v>0</v>
       </c>
       <c r="R345" t="inlineStr"/>
+      <c r="S345" t="n">
+        <v>2.934216997790158</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
@@ -19816,7 +20853,7 @@
         <v>176.36</v>
       </c>
       <c r="H346" t="n">
-        <v>158.9</v>
+        <v>70.5</v>
       </c>
       <c r="I346" t="n">
         <v>101.16</v>
@@ -19844,6 +20881,9 @@
         <v>0</v>
       </c>
       <c r="R346" t="inlineStr"/>
+      <c r="S346" t="n">
+        <v>3.159102273563193</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
@@ -19872,7 +20912,7 @@
         <v>179.42</v>
       </c>
       <c r="H347" t="n">
-        <v>165.2</v>
+        <v>74</v>
       </c>
       <c r="I347" t="n">
         <v>101.38</v>
@@ -19900,6 +20940,9 @@
         <v>0</v>
       </c>
       <c r="R347" t="inlineStr"/>
+      <c r="S347" t="n">
+        <v>3.41164328213438</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
@@ -19928,7 +20971,7 @@
         <v>179.96</v>
       </c>
       <c r="H348" t="n">
-        <v>164.12</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="I348" t="n">
         <v>101</v>
@@ -19956,6 +20999,9 @@
         <v>0</v>
       </c>
       <c r="R348" t="inlineStr"/>
+      <c r="S348" t="n">
+        <v>3.282359914029792</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
@@ -19984,7 +21030,7 @@
         <v>179.24</v>
       </c>
       <c r="H349" t="n">
-        <v>170.06</v>
+        <v>76.7</v>
       </c>
       <c r="I349" t="n">
         <v>100.69</v>
@@ -20012,6 +21058,9 @@
         <v>0</v>
       </c>
       <c r="R349" t="inlineStr"/>
+      <c r="S349" t="n">
+        <v>3.841244802234076</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
@@ -20040,7 +21089,7 @@
         <v>181.76</v>
       </c>
       <c r="H350" t="n">
-        <v>162.5</v>
+        <v>72.5</v>
       </c>
       <c r="I350" t="n">
         <v>100.7</v>
@@ -20068,6 +21117,9 @@
         <v>0</v>
       </c>
       <c r="R350" t="inlineStr"/>
+      <c r="S350" t="n">
+        <v>3.024923930548575</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
@@ -20096,7 +21148,7 @@
         <v>167.18</v>
       </c>
       <c r="H351" t="n">
-        <v>153.86</v>
+        <v>67.7</v>
       </c>
       <c r="I351" t="n">
         <v>101.1</v>
@@ -20124,6 +21176,9 @@
         <v>0</v>
       </c>
       <c r="R351" t="inlineStr"/>
+      <c r="S351" t="n">
+        <v>3.511593482105831</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
@@ -20152,7 +21207,7 @@
         <v>173.3</v>
       </c>
       <c r="H352" t="n">
-        <v>160.88</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="I352" t="n">
         <v>101.22</v>
@@ -20180,6 +21235,9 @@
         <v>0</v>
       </c>
       <c r="R352" t="inlineStr"/>
+      <c r="S352" t="n">
+        <v>3.572834328369462</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
@@ -20208,7 +21266,7 @@
         <v>168.26</v>
       </c>
       <c r="H353" t="n">
-        <v>160.16</v>
+        <v>71.2</v>
       </c>
       <c r="I353" t="n">
         <v>101.11</v>
@@ -20236,6 +21294,9 @@
         <v>0</v>
       </c>
       <c r="R353" t="inlineStr"/>
+      <c r="S353" t="n">
+        <v>3.984288261367207</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
@@ -20264,7 +21325,7 @@
         <v>183.02</v>
       </c>
       <c r="H354" t="n">
-        <v>166.46</v>
+        <v>74.7</v>
       </c>
       <c r="I354" t="n">
         <v>100.88</v>
@@ -20292,6 +21353,9 @@
         <v>0</v>
       </c>
       <c r="R354" t="inlineStr"/>
+      <c r="S354" t="n">
+        <v>3.225655506875899</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
@@ -20320,7 +21384,7 @@
         <v>183.38</v>
       </c>
       <c r="H355" t="n">
-        <v>174.56</v>
+        <v>79.2</v>
       </c>
       <c r="I355" t="n">
         <v>100.86</v>
@@ -20348,6 +21412,9 @@
         <v>0</v>
       </c>
       <c r="R355" t="inlineStr"/>
+      <c r="S355" t="n">
+        <v>3.862013080362788</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
@@ -20376,7 +21443,7 @@
         <v>185.72</v>
       </c>
       <c r="H356" t="n">
-        <v>171.5</v>
+        <v>77.5</v>
       </c>
       <c r="I356" t="n">
         <v>101.07</v>
@@ -20404,6 +21471,9 @@
         <v>0</v>
       </c>
       <c r="R356" t="inlineStr"/>
+      <c r="S356" t="n">
+        <v>3.406299533461767</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
@@ -20432,7 +21502,7 @@
         <v>184.1</v>
       </c>
       <c r="H357" t="n">
-        <v>172.76</v>
+        <v>78.2</v>
       </c>
       <c r="I357" t="n">
         <v>100.88</v>
@@ -20460,6 +21530,9 @@
         <v>0</v>
       </c>
       <c r="R357" t="inlineStr"/>
+      <c r="S357" t="n">
+        <v>3.642865620198064</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
@@ -20488,7 +21561,7 @@
         <v>170.6</v>
       </c>
       <c r="H358" t="n">
-        <v>159.26</v>
+        <v>70.7</v>
       </c>
       <c r="I358" t="n">
         <v>101.07</v>
@@ -20516,6 +21589,9 @@
         <v>0</v>
       </c>
       <c r="R358" t="inlineStr"/>
+      <c r="S358" t="n">
+        <v>3.675002996928721</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
@@ -20544,7 +21620,7 @@
         <v>177.44</v>
       </c>
       <c r="H359" t="n">
-        <v>164.84</v>
+        <v>73.8</v>
       </c>
       <c r="I359" t="n">
         <v>101.22</v>
@@ -20572,6 +21648,9 @@
         <v>0</v>
       </c>
       <c r="R359" t="inlineStr"/>
+      <c r="S359" t="n">
+        <v>3.548435051872118</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
@@ -20600,7 +21679,7 @@
         <v>174.92</v>
       </c>
       <c r="H360" t="n">
-        <v>158</v>
+        <v>70</v>
       </c>
       <c r="I360" t="n">
         <v>101.08</v>
@@ -20628,6 +21707,9 @@
         <v>0</v>
       </c>
       <c r="R360" t="inlineStr"/>
+      <c r="S360" t="n">
+        <v>3.201762835490719</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
@@ -20656,7 +21738,7 @@
         <v>184.1</v>
       </c>
       <c r="H361" t="n">
-        <v>163.22</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="I361" t="n">
         <v>100.8</v>
@@ -20684,6 +21766,9 @@
         <v>0</v>
       </c>
       <c r="R361" t="inlineStr"/>
+      <c r="S361" t="n">
+        <v>2.911683729237778</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
@@ -20712,7 +21797,7 @@
         <v>183.02</v>
       </c>
       <c r="H362" t="n">
-        <v>170.96</v>
+        <v>77.2</v>
       </c>
       <c r="I362" t="n">
         <v>99.75</v>
@@ -20740,6 +21825,9 @@
         <v>0</v>
       </c>
       <c r="R362" t="inlineStr"/>
+      <c r="S362" t="n">
+        <v>3.584234314318788</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
@@ -20768,7 +21856,7 @@
         <v>182.84</v>
       </c>
       <c r="H363" t="n">
-        <v>169.16</v>
+        <v>76.2</v>
       </c>
       <c r="I363" t="n">
         <v>100.97</v>
@@ -20796,6 +21884,9 @@
         <v>0</v>
       </c>
       <c r="R363" t="inlineStr"/>
+      <c r="S363" t="n">
+        <v>3.451601313889032</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
@@ -20824,7 +21915,7 @@
         <v>184.46</v>
       </c>
       <c r="H364" t="n">
-        <v>169.34</v>
+        <v>76.3</v>
       </c>
       <c r="I364" t="n">
         <v>101</v>
@@ -20852,6 +21943,9 @@
         <v>0</v>
       </c>
       <c r="R364" t="inlineStr"/>
+      <c r="S364" t="n">
+        <v>3.336239226305616</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
@@ -20880,7 +21974,7 @@
         <v>183.2</v>
       </c>
       <c r="H365" t="n">
-        <v>170.24</v>
+        <v>76.8</v>
       </c>
       <c r="I365" t="n">
         <v>100.8</v>
@@ -20908,6 +22002,9 @@
         <v>0</v>
       </c>
       <c r="R365" t="inlineStr"/>
+      <c r="S365" t="n">
+        <v>3.509714173911994</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
@@ -20936,7 +22033,7 @@
         <v>176.9</v>
       </c>
       <c r="H366" t="n">
-        <v>173.84</v>
+        <v>78.8</v>
       </c>
       <c r="I366" t="n">
         <v>100.32</v>
@@ -20964,6 +22061,9 @@
         <v>0.000508</v>
       </c>
       <c r="R366" t="inlineStr"/>
+      <c r="S366" t="n">
+        <v>4.437104054169956</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
@@ -20992,7 +22092,7 @@
         <v>186.44</v>
       </c>
       <c r="H367" t="n">
-        <v>172.76</v>
+        <v>78.2</v>
       </c>
       <c r="I367" t="n">
         <v>100.83</v>
@@ -21020,6 +22120,9 @@
         <v>0</v>
       </c>
       <c r="R367" t="inlineStr"/>
+      <c r="S367" t="n">
+        <v>3.448727373465845</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
@@ -21048,7 +22151,7 @@
         <v>186.62</v>
       </c>
       <c r="H368" t="n">
-        <v>171.14</v>
+        <v>77.3</v>
       </c>
       <c r="I368" t="n">
         <v>100.93</v>
@@ -21076,6 +22179,9 @@
         <v>0</v>
       </c>
       <c r="R368" t="inlineStr"/>
+      <c r="S368" t="n">
+        <v>3.307837577859275</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
@@ -21104,7 +22210,7 @@
         <v>183.92</v>
       </c>
       <c r="H369" t="n">
-        <v>170.24</v>
+        <v>76.8</v>
       </c>
       <c r="I369" t="n">
         <v>101.02</v>
@@ -21132,6 +22238,9 @@
         <v>0</v>
       </c>
       <c r="R369" t="inlineStr"/>
+      <c r="S369" t="n">
+        <v>3.450601712813573</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
@@ -21160,7 +22269,7 @@
         <v>183.02</v>
       </c>
       <c r="H370" t="n">
-        <v>170.06</v>
+        <v>76.7</v>
       </c>
       <c r="I370" t="n">
         <v>101.06</v>
@@ -21188,6 +22297,9 @@
         <v>0</v>
       </c>
       <c r="R370" t="inlineStr"/>
+      <c r="S370" t="n">
+        <v>3.50992550198486</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
@@ -21216,7 +22328,7 @@
         <v>185.18</v>
       </c>
       <c r="H371" t="n">
-        <v>169.7</v>
+        <v>76.5</v>
       </c>
       <c r="I371" t="n">
         <v>101.06</v>
@@ -21244,6 +22356,9 @@
         <v>0</v>
       </c>
       <c r="R371" t="inlineStr"/>
+      <c r="S371" t="n">
+        <v>3.308076371717982</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
@@ -21272,7 +22387,7 @@
         <v>179.78</v>
       </c>
       <c r="H372" t="n">
-        <v>167.36</v>
+        <v>75.2</v>
       </c>
       <c r="I372" t="n">
         <v>101.06</v>
@@ -21300,6 +22415,9 @@
         <v>0</v>
       </c>
       <c r="R372" t="inlineStr"/>
+      <c r="S372" t="n">
+        <v>3.559312124764149</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
@@ -21328,7 +22446,7 @@
         <v>178.88</v>
       </c>
       <c r="H373" t="n">
-        <v>174.02</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="I373" t="n">
         <v>100.83</v>
@@ -21356,6 +22474,9 @@
         <v>0.009906</v>
       </c>
       <c r="R373" t="inlineStr"/>
+      <c r="S373" t="n">
+        <v>4.246798954300876</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
@@ -21384,7 +22505,7 @@
         <v>181.58</v>
       </c>
       <c r="H374" t="n">
-        <v>174.2</v>
+        <v>79</v>
       </c>
       <c r="I374" t="n">
         <v>101.03</v>
@@ -21412,6 +22533,9 @@
         <v>0</v>
       </c>
       <c r="R374" t="inlineStr"/>
+      <c r="S374" t="n">
+        <v>3.997225835529895</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
@@ -21440,7 +22564,7 @@
         <v>185.36</v>
       </c>
       <c r="H375" t="n">
-        <v>173.3</v>
+        <v>78.5</v>
       </c>
       <c r="I375" t="n">
         <v>101.17</v>
@@ -21468,6 +22592,9 @@
         <v>0</v>
       </c>
       <c r="R375" t="inlineStr"/>
+      <c r="S375" t="n">
+        <v>3.581093671002773</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
@@ -21496,7 +22623,7 @@
         <v>184.64</v>
       </c>
       <c r="H376" t="n">
-        <v>173.84</v>
+        <v>78.8</v>
       </c>
       <c r="I376" t="n">
         <v>101.12</v>
@@ -21524,6 +22651,9 @@
         <v>0</v>
       </c>
       <c r="R376" t="inlineStr"/>
+      <c r="S376" t="n">
+        <v>3.687607843914298</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
@@ -21552,7 +22682,7 @@
         <v>189.14</v>
       </c>
       <c r="H377" t="n">
-        <v>172.94</v>
+        <v>78.3</v>
       </c>
       <c r="I377" t="n">
         <v>100.92</v>
@@ -21580,6 +22710,9 @@
         <v>0</v>
       </c>
       <c r="R377" t="inlineStr"/>
+      <c r="S377" t="n">
+        <v>3.253420348199139</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
@@ -21608,7 +22741,7 @@
         <v>187.52</v>
       </c>
       <c r="H378" t="n">
-        <v>174.92</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="I378" t="n">
         <v>100.84</v>
@@ -21636,6 +22769,9 @@
         <v>0</v>
       </c>
       <c r="R378" t="inlineStr"/>
+      <c r="S378" t="n">
+        <v>3.534720588231267</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
@@ -21664,7 +22800,7 @@
         <v>187.16</v>
       </c>
       <c r="H379" t="n">
-        <v>171.86</v>
+        <v>77.7</v>
       </c>
       <c r="I379" t="n">
         <v>101</v>
@@ -21692,6 +22828,9 @@
         <v>0</v>
       </c>
       <c r="R379" t="inlineStr"/>
+      <c r="S379" t="n">
+        <v>3.32162535773999</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
@@ -21720,7 +22859,7 @@
         <v>190.22</v>
       </c>
       <c r="H380" t="n">
-        <v>174.02</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="I380" t="n">
         <v>101.03</v>
@@ -21748,6 +22887,9 @@
         <v>0</v>
       </c>
       <c r="R380" t="inlineStr"/>
+      <c r="S380" t="n">
+        <v>3.253807641620325</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
@@ -21776,7 +22918,7 @@
         <v>185.9</v>
       </c>
       <c r="H381" t="n">
-        <v>173.3</v>
+        <v>78.5</v>
       </c>
       <c r="I381" t="n">
         <v>101.01</v>
@@ -21804,6 +22946,9 @@
         <v>0</v>
       </c>
       <c r="R381" t="inlineStr"/>
+      <c r="S381" t="n">
+        <v>3.536195304969298</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
@@ -21832,7 +22977,7 @@
         <v>188.42</v>
       </c>
       <c r="H382" t="n">
-        <v>172.04</v>
+        <v>77.8</v>
       </c>
       <c r="I382" t="n">
         <v>100.94</v>
@@ -21860,6 +23005,9 @@
         <v>0</v>
       </c>
       <c r="R382" t="inlineStr"/>
+      <c r="S382" t="n">
+        <v>3.239691524684333</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
@@ -21888,7 +23036,7 @@
         <v>186.8</v>
       </c>
       <c r="H383" t="n">
-        <v>171.86</v>
+        <v>77.7</v>
       </c>
       <c r="I383" t="n">
         <v>100.94</v>
@@ -21916,6 +23064,9 @@
         <v>0</v>
       </c>
       <c r="R383" t="inlineStr"/>
+      <c r="S383" t="n">
+        <v>3.349505763260779</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
@@ -21944,7 +23095,7 @@
         <v>187.34</v>
       </c>
       <c r="H384" t="n">
-        <v>168.62</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="I384" t="n">
         <v>100.66</v>
@@ -21972,6 +23123,9 @@
         <v>0</v>
       </c>
       <c r="R384" t="inlineStr"/>
+      <c r="S384" t="n">
+        <v>3.0672726048654</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
@@ -22000,7 +23154,7 @@
         <v>180.5</v>
       </c>
       <c r="H385" t="n">
-        <v>171.5</v>
+        <v>77.5</v>
       </c>
       <c r="I385" t="n">
         <v>100.13</v>
@@ -22028,6 +23182,9 @@
         <v>0.007112</v>
       </c>
       <c r="R385" t="inlineStr"/>
+      <c r="S385" t="n">
+        <v>3.853721569474302</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
@@ -22056,7 +23213,7 @@
         <v>177.8</v>
       </c>
       <c r="H386" t="n">
-        <v>168.8</v>
+        <v>76</v>
       </c>
       <c r="I386" t="n">
         <v>100.21</v>
@@ -22084,6 +23241,9 @@
         <v>0.108966</v>
       </c>
       <c r="R386" t="inlineStr"/>
+      <c r="S386" t="n">
+        <v>3.861843035670276</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
@@ -22112,7 +23272,7 @@
         <v>182.48</v>
       </c>
       <c r="H387" t="n">
-        <v>173.48</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="I387" t="n">
         <v>100.95</v>
@@ -22140,6 +23300,9 @@
         <v>0</v>
       </c>
       <c r="R387" t="inlineStr"/>
+      <c r="S387" t="n">
+        <v>3.848359493234631</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
@@ -22168,7 +23331,7 @@
         <v>182.48</v>
       </c>
       <c r="H388" t="n">
-        <v>171.32</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="I388" t="n">
         <v>101.12</v>
@@ -22196,6 +23359,9 @@
         <v>0</v>
       </c>
       <c r="R388" t="inlineStr"/>
+      <c r="S388" t="n">
+        <v>3.66084705498252</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
@@ -22224,7 +23390,7 @@
         <v>183.74</v>
       </c>
       <c r="H389" t="n">
-        <v>172.04</v>
+        <v>77.8</v>
       </c>
       <c r="I389" t="n">
         <v>101.16</v>
@@ -22252,6 +23418,9 @@
         <v>0</v>
       </c>
       <c r="R389" t="inlineStr"/>
+      <c r="S389" t="n">
+        <v>3.613217199922957</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
@@ -22280,7 +23449,7 @@
         <v>186.08</v>
       </c>
       <c r="H390" t="n">
-        <v>170.42</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="I390" t="n">
         <v>100.91</v>
@@ -22308,6 +23477,9 @@
         <v>0</v>
       </c>
       <c r="R390" t="inlineStr"/>
+      <c r="S390" t="n">
+        <v>3.294073528635321</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
@@ -22336,7 +23508,7 @@
         <v>183.2</v>
       </c>
       <c r="H391" t="n">
-        <v>164.48</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="I391" t="n">
         <v>100.23</v>
@@ -22364,6 +23536,9 @@
         <v>0</v>
       </c>
       <c r="R391" t="inlineStr"/>
+      <c r="S391" t="n">
+        <v>3.06477564392539</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
@@ -22392,7 +23567,7 @@
         <v>173.84</v>
       </c>
       <c r="H392" t="n">
-        <v>168.98</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="I392" t="n">
         <v>99.8</v>
@@ -22420,6 +23595,9 @@
         <v>0.029972</v>
       </c>
       <c r="R392" t="inlineStr"/>
+      <c r="S392" t="n">
+        <v>4.272776557509041</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
@@ -22448,7 +23626,7 @@
         <v>181.76</v>
       </c>
       <c r="H393" t="n">
-        <v>172.58</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="I393" t="n">
         <v>100.74</v>
@@ -22476,6 +23654,9 @@
         <v>0</v>
       </c>
       <c r="R393" t="inlineStr"/>
+      <c r="S393" t="n">
+        <v>3.83427307040072</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
@@ -22504,7 +23685,7 @@
         <v>182.66</v>
       </c>
       <c r="H394" t="n">
-        <v>174.74</v>
+        <v>79.3</v>
       </c>
       <c r="I394" t="n">
         <v>100.15</v>
@@ -22532,6 +23713,9 @@
         <v>0</v>
       </c>
       <c r="R394" t="inlineStr"/>
+      <c r="S394" t="n">
+        <v>3.944602108026205</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
@@ -22560,7 +23744,7 @@
         <v>182.12</v>
       </c>
       <c r="H395" t="n">
-        <v>174.2</v>
+        <v>79</v>
       </c>
       <c r="I395" t="n">
         <v>99.97999999999999</v>
@@ -22588,6 +23772,9 @@
         <v>0</v>
       </c>
       <c r="R395" t="inlineStr"/>
+      <c r="S395" t="n">
+        <v>3.946221203855781</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
@@ -22616,7 +23803,7 @@
         <v>185.18</v>
       </c>
       <c r="H396" t="n">
-        <v>176</v>
+        <v>80</v>
       </c>
       <c r="I396" t="n">
         <v>100.09</v>
@@ -22644,6 +23831,9 @@
         <v>0</v>
       </c>
       <c r="R396" t="inlineStr"/>
+      <c r="S396" t="n">
+        <v>3.826072521725413</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
@@ -22672,7 +23862,7 @@
         <v>185.18</v>
       </c>
       <c r="H397" t="n">
-        <v>176.72</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="I397" t="n">
         <v>100.34</v>
@@ -22700,6 +23890,9 @@
         <v>0</v>
       </c>
       <c r="R397" t="inlineStr"/>
+      <c r="S397" t="n">
+        <v>3.889435420372575</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
@@ -22728,7 +23921,7 @@
         <v>185.36</v>
       </c>
       <c r="H398" t="n">
-        <v>176.72</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="I398" t="n">
         <v>100.22</v>
@@ -22756,6 +23949,9 @@
         <v>0</v>
       </c>
       <c r="R398" t="inlineStr"/>
+      <c r="S398" t="n">
+        <v>3.87308490789347</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
@@ -22784,7 +23980,7 @@
         <v>180.5</v>
       </c>
       <c r="H399" t="n">
-        <v>174.74</v>
+        <v>79.3</v>
       </c>
       <c r="I399" t="n">
         <v>100.26</v>
@@ -22812,6 +24008,9 @@
         <v>0.007112</v>
       </c>
       <c r="R399" t="inlineStr"/>
+      <c r="S399" t="n">
+        <v>4.152797235209121</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
@@ -22840,7 +24039,7 @@
         <v>180.68</v>
       </c>
       <c r="H400" t="n">
-        <v>176.36</v>
+        <v>80.2</v>
       </c>
       <c r="I400" t="n">
         <v>100.49</v>
@@ -22868,6 +24067,9 @@
         <v>0.003556</v>
       </c>
       <c r="R400" t="inlineStr"/>
+      <c r="S400" t="n">
+        <v>4.291068000940408</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
@@ -22896,7 +24098,7 @@
         <v>175.28</v>
       </c>
       <c r="H401" t="n">
-        <v>172.4</v>
+        <v>78</v>
       </c>
       <c r="I401" t="n">
         <v>100.58</v>
@@ -22924,6 +24126,9 @@
         <v>0</v>
       </c>
       <c r="R401" t="inlineStr"/>
+      <c r="S401" t="n">
+        <v>4.465470554680913</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
@@ -22952,7 +24157,7 @@
         <v>183.74</v>
       </c>
       <c r="H402" t="n">
-        <v>175.82</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="I402" t="n">
         <v>100.62</v>
@@ -22980,6 +24185,9 @@
         <v>0</v>
       </c>
       <c r="R402" t="inlineStr"/>
+      <c r="S402" t="n">
+        <v>3.941476780849724</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
@@ -23008,7 +24216,7 @@
         <v>183.02</v>
       </c>
       <c r="H403" t="n">
-        <v>176</v>
+        <v>80</v>
       </c>
       <c r="I403" t="n">
         <v>100.62</v>
@@ -23036,6 +24244,9 @@
         <v>0.006096</v>
       </c>
       <c r="R403" t="inlineStr"/>
+      <c r="S403" t="n">
+        <v>4.025577666268853</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
@@ -23064,7 +24275,7 @@
         <v>183.2</v>
       </c>
       <c r="H404" t="n">
-        <v>175.1</v>
+        <v>79.5</v>
       </c>
       <c r="I404" t="n">
         <v>100.68</v>
@@ -23092,6 +24303,9 @@
         <v>0.000508</v>
       </c>
       <c r="R404" t="inlineStr"/>
+      <c r="S404" t="n">
+        <v>3.926797764379617</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
@@ -23120,7 +24334,7 @@
         <v>171.5</v>
       </c>
       <c r="H405" t="n">
-        <v>169.52</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="I405" t="n">
         <v>100.63</v>
@@ -23148,6 +24362,9 @@
         <v>0.00508</v>
       </c>
       <c r="R405" t="inlineStr"/>
+      <c r="S405" t="n">
+        <v>4.586057501598134</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
@@ -23176,7 +24393,7 @@
         <v>171.86</v>
       </c>
       <c r="H406" t="n">
-        <v>169.52</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="I406" t="n">
         <v>100.67</v>
@@ -23204,6 +24421,9 @@
         <v>0</v>
       </c>
       <c r="R406" t="inlineStr"/>
+      <c r="S406" t="n">
+        <v>4.545031903103136</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
@@ -23232,7 +24452,7 @@
         <v>179.6</v>
       </c>
       <c r="H407" t="n">
-        <v>172.94</v>
+        <v>78.3</v>
       </c>
       <c r="I407" t="n">
         <v>100.86</v>
@@ -23260,6 +24480,9 @@
         <v>0</v>
       </c>
       <c r="R407" t="inlineStr"/>
+      <c r="S407" t="n">
+        <v>4.071239224085972</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
@@ -23288,7 +24511,7 @@
         <v>180.5</v>
       </c>
       <c r="H408" t="n">
-        <v>174.92</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="I408" t="n">
         <v>100.97</v>
@@ -23316,6 +24539,9 @@
         <v>0</v>
       </c>
       <c r="R408" t="inlineStr"/>
+      <c r="S408" t="n">
+        <v>4.169975185870533</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
@@ -23344,7 +24570,7 @@
         <v>185.36</v>
       </c>
       <c r="H409" t="n">
-        <v>173.66</v>
+        <v>78.7</v>
       </c>
       <c r="I409" t="n">
         <v>100.85</v>
@@ -23372,6 +24598,9 @@
         <v>0</v>
       </c>
       <c r="R409" t="inlineStr"/>
+      <c r="S409" t="n">
+        <v>3.610920159837787</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
@@ -23400,7 +24629,7 @@
         <v>186.44</v>
       </c>
       <c r="H410" t="n">
-        <v>174.38</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="I410" t="n">
         <v>100.61</v>
@@ -23428,6 +24657,9 @@
         <v>0</v>
       </c>
       <c r="R410" t="inlineStr"/>
+      <c r="S410" t="n">
+        <v>3.57984138913393</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
@@ -23456,7 +24688,7 @@
         <v>185.54</v>
       </c>
       <c r="H411" t="n">
-        <v>171.32</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="I411" t="n">
         <v>100.68</v>
@@ -23484,6 +24716,9 @@
         <v>0</v>
       </c>
       <c r="R411" t="inlineStr"/>
+      <c r="S411" t="n">
+        <v>3.406397153154519</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
@@ -23512,7 +24747,7 @@
         <v>184.82</v>
       </c>
       <c r="H412" t="n">
-        <v>170.78</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="I412" t="n">
         <v>100.57</v>
@@ -23540,6 +24775,9 @@
         <v>0</v>
       </c>
       <c r="R412" t="inlineStr"/>
+      <c r="S412" t="n">
+        <v>3.42111489303891</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
@@ -23568,7 +24806,7 @@
         <v>183.38</v>
       </c>
       <c r="H413" t="n">
-        <v>168.8</v>
+        <v>76</v>
       </c>
       <c r="I413" t="n">
         <v>100.34</v>
@@ -23596,6 +24834,9 @@
         <v>0</v>
       </c>
       <c r="R413" t="inlineStr"/>
+      <c r="S413" t="n">
+        <v>3.379227897516464</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
@@ -23624,7 +24865,7 @@
         <v>183.02</v>
       </c>
       <c r="H414" t="n">
-        <v>167.36</v>
+        <v>75.2</v>
       </c>
       <c r="I414" t="n">
         <v>100.28</v>
@@ -23652,6 +24893,9 @@
         <v>0</v>
       </c>
       <c r="R414" t="inlineStr"/>
+      <c r="S414" t="n">
+        <v>3.294815664945633</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
@@ -23680,7 +24924,7 @@
         <v>177.26</v>
       </c>
       <c r="H415" t="n">
-        <v>174.2</v>
+        <v>79</v>
       </c>
       <c r="I415" t="n">
         <v>100.13</v>
@@ -23708,6 +24952,9 @@
         <v>0.012954</v>
       </c>
       <c r="R415" t="inlineStr"/>
+      <c r="S415" t="n">
+        <v>4.434984718208069</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
@@ -23736,7 +24983,7 @@
         <v>174.92</v>
       </c>
       <c r="H416" t="n">
-        <v>170.42</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="I416" t="n">
         <v>100.92</v>
@@ -23764,6 +25011,9 @@
         <v>0.001016</v>
       </c>
       <c r="R416" t="inlineStr"/>
+      <c r="S416" t="n">
+        <v>4.302806989625328</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
@@ -23792,7 +25042,7 @@
         <v>174.74</v>
       </c>
       <c r="H417" t="n">
-        <v>165.02</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="I417" t="n">
         <v>100.8</v>
@@ -23820,6 +25070,9 @@
         <v>0</v>
       </c>
       <c r="R417" t="inlineStr"/>
+      <c r="S417" t="n">
+        <v>3.806709640366458</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
@@ -23848,7 +25101,7 @@
         <v>181.4</v>
       </c>
       <c r="H418" t="n">
-        <v>164.84</v>
+        <v>73.8</v>
       </c>
       <c r="I418" t="n">
         <v>100.95</v>
@@ -23876,6 +25129,9 @@
         <v>0</v>
       </c>
       <c r="R418" t="inlineStr"/>
+      <c r="S418" t="n">
+        <v>3.22600258603378</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
@@ -23904,7 +25160,7 @@
         <v>183.38</v>
       </c>
       <c r="H419" t="n">
-        <v>171.5</v>
+        <v>77.5</v>
       </c>
       <c r="I419" t="n">
         <v>101.18</v>
@@ -23932,6 +25188,9 @@
         <v>0</v>
       </c>
       <c r="R419" t="inlineStr"/>
+      <c r="S419" t="n">
+        <v>3.598712914470317</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
@@ -23960,7 +25219,7 @@
         <v>180.5</v>
       </c>
       <c r="H420" t="n">
-        <v>171.86</v>
+        <v>77.7</v>
       </c>
       <c r="I420" t="n">
         <v>101.13</v>
@@ -23988,6 +25247,9 @@
         <v>0</v>
       </c>
       <c r="R420" t="inlineStr"/>
+      <c r="S420" t="n">
+        <v>3.886019810730648</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
@@ -24016,7 +25278,7 @@
         <v>185.9</v>
       </c>
       <c r="H421" t="n">
-        <v>167.36</v>
+        <v>75.2</v>
       </c>
       <c r="I421" t="n">
         <v>101.2</v>
@@ -24044,6 +25306,9 @@
         <v>0</v>
       </c>
       <c r="R421" t="inlineStr"/>
+      <c r="S421" t="n">
+        <v>3.079265420391246</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
@@ -24072,7 +25337,7 @@
         <v>184.46</v>
       </c>
       <c r="H422" t="n">
-        <v>165.02</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="I422" t="n">
         <v>101.01</v>
@@ -24100,6 +25365,9 @@
         <v>0</v>
       </c>
       <c r="R422" t="inlineStr"/>
+      <c r="S422" t="n">
+        <v>3.013527453590726</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
@@ -24128,7 +25396,7 @@
         <v>187.52</v>
       </c>
       <c r="H423" t="n">
-        <v>168.08</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="I423" t="n">
         <v>100.88</v>
@@ -24156,6 +25424,9 @@
         <v>0</v>
       </c>
       <c r="R423" t="inlineStr"/>
+      <c r="S423" t="n">
+        <v>3.016066497477139</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
@@ -24184,7 +25455,7 @@
         <v>181.4</v>
       </c>
       <c r="H424" t="n">
-        <v>162.5</v>
+        <v>72.5</v>
       </c>
       <c r="I424" t="n">
         <v>100.92</v>
@@ -24212,6 +25483,9 @@
         <v>0</v>
       </c>
       <c r="R424" t="inlineStr"/>
+      <c r="S424" t="n">
+        <v>3.050965909645724</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
@@ -24240,7 +25514,7 @@
         <v>184.1</v>
       </c>
       <c r="H425" t="n">
-        <v>166.64</v>
+        <v>74.8</v>
       </c>
       <c r="I425" t="n">
         <v>100.59</v>
@@ -24268,6 +25542,9 @@
         <v>0</v>
       </c>
       <c r="R425" t="inlineStr"/>
+      <c r="S425" t="n">
+        <v>3.157893964295613</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
@@ -24296,7 +25573,7 @@
         <v>172.58</v>
       </c>
       <c r="H426" t="n">
-        <v>169.34</v>
+        <v>76.3</v>
       </c>
       <c r="I426" t="n">
         <v>100.785</v>
@@ -24324,6 +25601,9 @@
         <v>0.017018</v>
       </c>
       <c r="R426" t="inlineStr"/>
+      <c r="S426" t="n">
+        <v>4.445550464794843</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
@@ -24352,7 +25632,7 @@
         <v>173.66</v>
       </c>
       <c r="H427" t="n">
-        <v>167.72</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="I427" t="n">
         <v>100.98</v>
@@ -24380,6 +25660,9 @@
         <v>0.018034</v>
       </c>
       <c r="R427" t="inlineStr"/>
+      <c r="S427" t="n">
+        <v>4.16685425525815</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
@@ -24408,7 +25691,7 @@
         <v>173.48</v>
       </c>
       <c r="H428" t="n">
-        <v>168.08</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="I428" t="n">
         <v>101.37</v>
@@ -24436,6 +25719,9 @@
         <v>0.010922</v>
       </c>
       <c r="R428" t="inlineStr"/>
+      <c r="S428" t="n">
+        <v>4.220991734410401</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
@@ -24464,7 +25750,7 @@
         <v>180.14</v>
       </c>
       <c r="H429" t="n">
-        <v>163.22</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="I429" t="n">
         <v>101.38</v>
@@ -24492,6 +25778,9 @@
         <v>0</v>
       </c>
       <c r="R429" t="inlineStr"/>
+      <c r="S429" t="n">
+        <v>3.198844276787079</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
@@ -24520,7 +25809,7 @@
         <v>180.5</v>
       </c>
       <c r="H430" t="n">
-        <v>158.36</v>
+        <v>70.2</v>
       </c>
       <c r="I430" t="n">
         <v>101.53</v>
@@ -24548,6 +25837,9 @@
         <v>0</v>
       </c>
       <c r="R430" t="inlineStr"/>
+      <c r="S430" t="n">
+        <v>2.821087592297847</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
@@ -24576,7 +25868,7 @@
         <v>173.12</v>
       </c>
       <c r="H431" t="n">
-        <v>150.98</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="I431" t="n">
         <v>101.5</v>
@@ -24604,6 +25896,9 @@
         <v>0</v>
       </c>
       <c r="R431" t="inlineStr"/>
+      <c r="S431" t="n">
+        <v>2.815789533475114</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
@@ -24632,7 +25927,7 @@
         <v>174.92</v>
       </c>
       <c r="H432" t="n">
-        <v>153.86</v>
+        <v>67.7</v>
       </c>
       <c r="I432" t="n">
         <v>101.62</v>
@@ -24660,6 +25955,9 @@
         <v>0</v>
       </c>
       <c r="R432" t="inlineStr"/>
+      <c r="S432" t="n">
+        <v>2.892921588164006</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
@@ -24688,7 +25986,7 @@
         <v>175.82</v>
       </c>
       <c r="H433" t="n">
-        <v>158.9</v>
+        <v>70.5</v>
       </c>
       <c r="I433" t="n">
         <v>101.71</v>
@@ -24716,6 +26014,9 @@
         <v>0</v>
       </c>
       <c r="R433" t="inlineStr"/>
+      <c r="S433" t="n">
+        <v>3.201069643427142</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
@@ -24744,7 +26045,7 @@
         <v>177.44</v>
       </c>
       <c r="H434" t="n">
-        <v>159.08</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="I434" t="n">
         <v>101.51</v>
@@ -24772,6 +26073,9 @@
         <v>0</v>
       </c>
       <c r="R434" t="inlineStr"/>
+      <c r="S434" t="n">
+        <v>3.090576857523685</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
@@ -24800,7 +26104,7 @@
         <v>178.7</v>
       </c>
       <c r="H435" t="n">
-        <v>160.52</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="I435" t="n">
         <v>101.59</v>
@@ -24828,6 +26132,9 @@
         <v>0</v>
       </c>
       <c r="R435" t="inlineStr"/>
+      <c r="S435" t="n">
+        <v>3.103881580085186</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
@@ -24856,7 +26163,7 @@
         <v>180.68</v>
       </c>
       <c r="H436" t="n">
-        <v>161.6</v>
+        <v>72</v>
       </c>
       <c r="I436" t="n">
         <v>101.48</v>
@@ -24884,6 +26191,9 @@
         <v>0</v>
       </c>
       <c r="R436" t="inlineStr"/>
+      <c r="S436" t="n">
+        <v>3.037601026605049</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
@@ -24912,7 +26222,7 @@
         <v>177.62</v>
       </c>
       <c r="H437" t="n">
-        <v>158.18</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="I437" t="n">
         <v>101.4</v>
@@ -24940,6 +26250,9 @@
         <v>0</v>
       </c>
       <c r="R437" t="inlineStr"/>
+      <c r="S437" t="n">
+        <v>3.010626848351709</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
@@ -24968,7 +26281,7 @@
         <v>171.14</v>
       </c>
       <c r="H438" t="n">
-        <v>156.56</v>
+        <v>69.2</v>
       </c>
       <c r="I438" t="n">
         <v>101.48</v>
@@ -24996,6 +26309,9 @@
         <v>0</v>
       </c>
       <c r="R438" t="inlineStr"/>
+      <c r="S438" t="n">
+        <v>3.395100027096668</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
@@ -25024,7 +26340,7 @@
         <v>174.56</v>
       </c>
       <c r="H439" t="n">
-        <v>156.2</v>
+        <v>69</v>
       </c>
       <c r="I439" t="n">
         <v>101.62</v>
@@ -25052,6 +26368,9 @@
         <v>0</v>
       </c>
       <c r="R439" t="inlineStr"/>
+      <c r="S439" t="n">
+        <v>3.091442981205448</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
@@ -25080,7 +26399,7 @@
         <v>173.84</v>
       </c>
       <c r="H440" t="n">
-        <v>153.86</v>
+        <v>67.7</v>
       </c>
       <c r="I440" t="n">
         <v>101.6</v>
@@ -25108,6 +26427,9 @@
         <v>0</v>
       </c>
       <c r="R440" t="inlineStr"/>
+      <c r="S440" t="n">
+        <v>2.970937779932009</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
@@ -25136,7 +26458,7 @@
         <v>179.6</v>
       </c>
       <c r="H441" t="n">
-        <v>156.2</v>
+        <v>69</v>
       </c>
       <c r="I441" t="n">
         <v>101.48</v>
@@ -25164,6 +26486,9 @@
         <v>0</v>
       </c>
       <c r="R441" t="inlineStr"/>
+      <c r="S441" t="n">
+        <v>2.734749050688653</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
@@ -25192,7 +26517,7 @@
         <v>177.44</v>
       </c>
       <c r="H442" t="n">
-        <v>156.2</v>
+        <v>69</v>
       </c>
       <c r="I442" t="n">
         <v>101.3</v>
@@ -25220,6 +26545,9 @@
         <v>0</v>
       </c>
       <c r="R442" t="inlineStr"/>
+      <c r="S442" t="n">
+        <v>2.881244493332013</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
@@ -25248,7 +26576,7 @@
         <v>179.24</v>
       </c>
       <c r="H443" t="n">
-        <v>156.74</v>
+        <v>69.3</v>
       </c>
       <c r="I443" t="n">
         <v>101.41</v>
@@ -25276,6 +26604,9 @@
         <v>0</v>
       </c>
       <c r="R443" t="inlineStr"/>
+      <c r="S443" t="n">
+        <v>2.795203186442893</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
@@ -25304,7 +26635,7 @@
         <v>173.66</v>
       </c>
       <c r="H444" t="n">
-        <v>152.78</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="I444" t="n">
         <v>101.6</v>
@@ -25332,6 +26663,9 @@
         <v>0</v>
       </c>
       <c r="R444" t="inlineStr"/>
+      <c r="S444" t="n">
+        <v>2.905536061018112</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
@@ -25360,7 +26694,7 @@
         <v>175.64</v>
       </c>
       <c r="H445" t="n">
-        <v>155.84</v>
+        <v>68.8</v>
       </c>
       <c r="I445" t="n">
         <v>101.59</v>
@@ -25388,6 +26722,9 @@
         <v>0</v>
       </c>
       <c r="R445" t="inlineStr"/>
+      <c r="S445" t="n">
+        <v>2.984109081650659</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
@@ -25416,7 +26753,7 @@
         <v>178.7</v>
       </c>
       <c r="H446" t="n">
-        <v>163.04</v>
+        <v>72.8</v>
       </c>
       <c r="I446" t="n">
         <v>101.58</v>
@@ -25444,6 +26781,9 @@
         <v>0</v>
       </c>
       <c r="R446" t="inlineStr"/>
+      <c r="S446" t="n">
+        <v>3.297388046350688</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
@@ -25472,7 +26812,7 @@
         <v>174.74</v>
       </c>
       <c r="H447" t="n">
-        <v>159.98</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="I447" t="n">
         <v>101.75</v>
@@ -25500,6 +26840,9 @@
         <v>0</v>
       </c>
       <c r="R447" t="inlineStr"/>
+      <c r="S447" t="n">
+        <v>3.374054185054105</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
@@ -25528,7 +26871,7 @@
         <v>164.84</v>
       </c>
       <c r="H448" t="n">
-        <v>143.6</v>
+        <v>62</v>
       </c>
       <c r="I448" t="n">
         <v>102.01</v>
@@ -25556,6 +26899,9 @@
         <v>0</v>
       </c>
       <c r="R448" t="inlineStr"/>
+      <c r="S448" t="n">
+        <v>2.881017692202732</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
@@ -25584,7 +26930,7 @@
         <v>167.54</v>
       </c>
       <c r="H449" t="n">
-        <v>147.74</v>
+        <v>64.3</v>
       </c>
       <c r="I449" t="n">
         <v>102.05</v>
@@ -25612,6 +26958,9 @@
         <v>0</v>
       </c>
       <c r="R449" t="inlineStr"/>
+      <c r="S449" t="n">
+        <v>2.986703752540102</v>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
@@ -25640,7 +26989,7 @@
         <v>158.72</v>
       </c>
       <c r="H450" t="n">
-        <v>126.14</v>
+        <v>52.3</v>
       </c>
       <c r="I450" t="n">
         <v>102.08</v>
@@ -25668,6 +27017,9 @@
         <v>0</v>
       </c>
       <c r="R450" t="inlineStr"/>
+      <c r="S450" t="n">
+        <v>2.131065124924778</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
@@ -25696,7 +27048,7 @@
         <v>163.94</v>
       </c>
       <c r="H451" t="n">
-        <v>129.74</v>
+        <v>54.3</v>
       </c>
       <c r="I451" t="n">
         <v>101.86</v>
@@ -25724,6 +27076,9 @@
         <v>0</v>
       </c>
       <c r="R451" t="inlineStr"/>
+      <c r="S451" t="n">
+        <v>2.048812473949509</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
@@ -25752,7 +27107,7 @@
         <v>167.54</v>
       </c>
       <c r="H452" t="n">
-        <v>144.86</v>
+        <v>62.7</v>
       </c>
       <c r="I452" t="n">
         <v>101.65</v>
@@ -25780,6 +27135,9 @@
         <v>0</v>
       </c>
       <c r="R452" t="inlineStr"/>
+      <c r="S452" t="n">
+        <v>2.776321458339156</v>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
@@ -25808,7 +27166,7 @@
         <v>168.62</v>
       </c>
       <c r="H453" t="n">
-        <v>145.94</v>
+        <v>63.3</v>
       </c>
       <c r="I453" t="n">
         <v>101.49</v>
@@ -25836,6 +27194,9 @@
         <v>0</v>
       </c>
       <c r="R453" t="inlineStr"/>
+      <c r="S453" t="n">
+        <v>2.776457441806548</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
@@ -25864,7 +27225,7 @@
         <v>172.04</v>
       </c>
       <c r="H454" t="n">
-        <v>143.24</v>
+        <v>61.8</v>
       </c>
       <c r="I454" t="n">
         <v>101.8</v>
@@ -25892,6 +27253,9 @@
         <v>0</v>
       </c>
       <c r="R454" t="inlineStr"/>
+      <c r="S454" t="n">
+        <v>2.378204250189324</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
@@ -25920,7 +27284,7 @@
         <v>165.56</v>
       </c>
       <c r="H455" t="n">
-        <v>144.86</v>
+        <v>62.7</v>
       </c>
       <c r="I455" t="n">
         <v>101.87</v>
@@ -25948,6 +27312,9 @@
         <v>0</v>
       </c>
       <c r="R455" t="inlineStr"/>
+      <c r="S455" t="n">
+        <v>2.92061540733799</v>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
@@ -25976,7 +27343,7 @@
         <v>164.12</v>
       </c>
       <c r="H456" t="n">
-        <v>144.86</v>
+        <v>62.7</v>
       </c>
       <c r="I456" t="n">
         <v>101.93</v>
@@ -26004,6 +27371,9 @@
         <v>0</v>
       </c>
       <c r="R456" t="inlineStr"/>
+      <c r="S456" t="n">
+        <v>3.031181937759532</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
@@ -26032,7 +27402,7 @@
         <v>167.54</v>
       </c>
       <c r="H457" t="n">
-        <v>150.8</v>
+        <v>66</v>
       </c>
       <c r="I457" t="n">
         <v>101.79</v>
@@ -26060,6 +27430,9 @@
         <v>0</v>
       </c>
       <c r="R457" t="inlineStr"/>
+      <c r="S457" t="n">
+        <v>3.225060157354308</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
@@ -26088,7 +27461,7 @@
         <v>167.9</v>
       </c>
       <c r="H458" t="n">
-        <v>145.04</v>
+        <v>62.8</v>
       </c>
       <c r="I458" t="n">
         <v>101.58</v>
@@ -26116,6 +27489,9 @@
         <v>0</v>
       </c>
       <c r="R458" t="inlineStr"/>
+      <c r="S458" t="n">
+        <v>2.763656259348965</v>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
@@ -26144,7 +27520,7 @@
         <v>174.56</v>
       </c>
       <c r="H459" t="n">
-        <v>152.96</v>
+        <v>67.2</v>
       </c>
       <c r="I459" t="n">
         <v>101.41</v>
@@ -26172,6 +27548,9 @@
         <v>0</v>
       </c>
       <c r="R459" t="inlineStr"/>
+      <c r="S459" t="n">
+        <v>2.854429968624684</v>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
@@ -26200,7 +27579,7 @@
         <v>170.6</v>
       </c>
       <c r="H460" t="n">
-        <v>161.78</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="I460" t="n">
         <v>101.35</v>
@@ -26228,6 +27607,9 @@
         <v>0</v>
       </c>
       <c r="R460" t="inlineStr"/>
+      <c r="S460" t="n">
+        <v>3.90516612644674</v>
+      </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
@@ -26256,7 +27638,7 @@
         <v>174.02</v>
       </c>
       <c r="H461" t="n">
-        <v>164.12</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="I461" t="n">
         <v>101.45</v>
@@ -26284,6 +27666,9 @@
         <v>0</v>
       </c>
       <c r="R461" t="inlineStr"/>
+      <c r="S461" t="n">
+        <v>3.792848696564893</v>
+      </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
@@ -26312,7 +27697,7 @@
         <v>170.06</v>
       </c>
       <c r="H462" t="n">
-        <v>153.68</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="I462" t="n">
         <v>101.58</v>
@@ -26340,6 +27725,9 @@
         <v>0</v>
       </c>
       <c r="R462" t="inlineStr"/>
+      <c r="S462" t="n">
+        <v>3.250034169056186</v>
+      </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
@@ -26368,7 +27756,7 @@
         <v>169.52</v>
       </c>
       <c r="H463" t="n">
-        <v>153.32</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="I463" t="n">
         <v>101.87</v>
@@ -26396,6 +27784,9 @@
         <v>0</v>
       </c>
       <c r="R463" t="inlineStr"/>
+      <c r="S463" t="n">
+        <v>3.265363257873894</v>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
@@ -26424,7 +27815,7 @@
         <v>169.88</v>
       </c>
       <c r="H464" t="n">
-        <v>154.58</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="I464" t="n">
         <v>101.59</v>
@@ -26452,6 +27843,9 @@
         <v>0</v>
       </c>
       <c r="R464" t="inlineStr"/>
+      <c r="S464" t="n">
+        <v>3.338055097040055</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
@@ -26480,7 +27874,7 @@
         <v>161.96</v>
       </c>
       <c r="H465" t="n">
-        <v>141.62</v>
+        <v>60.9</v>
       </c>
       <c r="I465" t="n">
         <v>101.86</v>
@@ -26508,6 +27902,9 @@
         <v>0</v>
       </c>
       <c r="R465" t="inlineStr"/>
+      <c r="S465" t="n">
+        <v>2.950849537725116</v>
+      </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
@@ -26536,7 +27933,7 @@
         <v>156.74</v>
       </c>
       <c r="H466" t="n">
-        <v>131.72</v>
+        <v>55.4</v>
       </c>
       <c r="I466" t="n">
         <v>102.2</v>
@@ -26564,6 +27961,9 @@
         <v>0</v>
       </c>
       <c r="R466" t="inlineStr"/>
+      <c r="S466" t="n">
+        <v>2.612744426657612</v>
+      </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
@@ -26592,7 +27992,7 @@
         <v>165.2</v>
       </c>
       <c r="H467" t="n">
-        <v>147.02</v>
+        <v>63.9</v>
       </c>
       <c r="I467" t="n">
         <v>101.92</v>
@@ -26620,6 +28020,9 @@
         <v>0</v>
       </c>
       <c r="R467" t="inlineStr"/>
+      <c r="S467" t="n">
+        <v>3.114016261555672</v>
+      </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
@@ -26648,7 +28051,7 @@
         <v>167.36</v>
       </c>
       <c r="H468" t="n">
-        <v>150.8</v>
+        <v>66</v>
       </c>
       <c r="I468" t="n">
         <v>101.83</v>
@@ -26676,6 +28079,9 @@
         <v>0</v>
       </c>
       <c r="R468" t="inlineStr"/>
+      <c r="S468" t="n">
+        <v>3.239884112768767</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
@@ -26704,7 +28110,7 @@
         <v>155.48</v>
       </c>
       <c r="H469" t="n">
-        <v>139.46</v>
+        <v>59.7</v>
       </c>
       <c r="I469" t="n">
         <v>101.83</v>
@@ -26732,6 +28138,9 @@
         <v>0</v>
       </c>
       <c r="R469" t="inlineStr"/>
+      <c r="S469" t="n">
+        <v>3.315142168959415</v>
+      </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
@@ -26760,7 +28169,7 @@
         <v>152.24</v>
       </c>
       <c r="H470" t="n">
-        <v>127.04</v>
+        <v>52.8</v>
       </c>
       <c r="I470" t="n">
         <v>102.53</v>
@@ -26788,6 +28197,9 @@
         <v>0</v>
       </c>
       <c r="R470" t="inlineStr"/>
+      <c r="S470" t="n">
+        <v>2.602125015538661</v>
+      </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
@@ -26816,7 +28228,7 @@
         <v>152.96</v>
       </c>
       <c r="H471" t="n">
-        <v>125.6</v>
+        <v>52</v>
       </c>
       <c r="I471" t="n">
         <v>102.32</v>
@@ -26844,6 +28256,9 @@
         <v>0</v>
       </c>
       <c r="R471" t="inlineStr"/>
+      <c r="S471" t="n">
+        <v>2.452898381795989</v>
+      </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
@@ -26872,7 +28287,7 @@
         <v>159.44</v>
       </c>
       <c r="H472" t="n">
-        <v>129.74</v>
+        <v>54.3</v>
       </c>
       <c r="I472" t="n">
         <v>102.28</v>
@@ -26900,6 +28315,9 @@
         <v>0</v>
       </c>
       <c r="R472" t="inlineStr"/>
+      <c r="S472" t="n">
+        <v>2.305265120954068</v>
+      </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
@@ -26928,7 +28346,7 @@
         <v>167</v>
       </c>
       <c r="H473" t="n">
-        <v>149.18</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="I473" t="n">
         <v>101.8</v>
@@ -26956,6 +28374,9 @@
         <v>0</v>
       </c>
       <c r="R473" t="inlineStr"/>
+      <c r="S473" t="n">
+        <v>3.139859403741888</v>
+      </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
@@ -26984,7 +28405,7 @@
         <v>167.18</v>
       </c>
       <c r="H474" t="n">
-        <v>153.32</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="I474" t="n">
         <v>101.59</v>
@@ -27012,6 +28433,9 @@
         <v>0</v>
       </c>
       <c r="R474" t="inlineStr"/>
+      <c r="S474" t="n">
+        <v>3.465055569545895</v>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
@@ -27040,7 +28464,7 @@
         <v>167.54</v>
       </c>
       <c r="H475" t="n">
-        <v>148.1</v>
+        <v>64.5</v>
       </c>
       <c r="I475" t="n">
         <v>101.7</v>
@@ -27068,6 +28492,9 @@
         <v>0</v>
       </c>
       <c r="R475" t="inlineStr"/>
+      <c r="S475" t="n">
+        <v>3.013937717869263</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/result/NCDC_weather_data/stations_imputed/59559099999.xlsx
+++ b/result/NCDC_weather_data/stations_imputed/59559099999.xlsx
@@ -557,7 +557,7 @@
         <v>21.44444444444444</v>
       </c>
       <c r="H2" t="n">
-        <v>61.6</v>
+        <v>16.44444444444445</v>
       </c>
       <c r="I2" t="n">
         <v>102.19</v>
@@ -586,7 +586,7 @@
       </c>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="n">
-        <v>847.7297861345644</v>
+        <v>73.17103007685587</v>
       </c>
     </row>
     <row r="3">
@@ -616,7 +616,7 @@
         <v>21.66666666666667</v>
       </c>
       <c r="H3" t="n">
-        <v>62</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="I3" t="n">
         <v>102.06</v>
@@ -645,7 +645,7 @@
       </c>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="n">
-        <v>851.855496386866</v>
+        <v>73.20970168052929</v>
       </c>
     </row>
     <row r="4">
@@ -675,7 +675,7 @@
         <v>22.33333333333334</v>
       </c>
       <c r="H4" t="n">
-        <v>63.6</v>
+        <v>17.55555555555556</v>
       </c>
       <c r="I4" t="n">
         <v>101.92</v>
@@ -704,7 +704,7 @@
       </c>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="n">
-        <v>880.1585202549095</v>
+        <v>74.36214255320141</v>
       </c>
     </row>
     <row r="5">
@@ -734,7 +734,7 @@
         <v>21.77777777777778</v>
       </c>
       <c r="H5" t="n">
-        <v>65.40000000000001</v>
+        <v>18.55555555555556</v>
       </c>
       <c r="I5" t="n">
         <v>101.81</v>
@@ -763,7 +763,7 @@
       </c>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="n">
-        <v>987.9575506233048</v>
+        <v>81.91952031109305</v>
       </c>
     </row>
     <row r="6">
@@ -793,7 +793,7 @@
         <v>22.61111111111111</v>
       </c>
       <c r="H6" t="n">
-        <v>68.59999999999999</v>
+        <v>20.33333333333333</v>
       </c>
       <c r="I6" t="n">
         <v>101.57</v>
@@ -822,7 +822,7 @@
       </c>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="n">
-        <v>1083.187438245084</v>
+        <v>86.97147770462567</v>
       </c>
     </row>
     <row r="7">
@@ -852,7 +852,7 @@
         <v>21.77777777777778</v>
       </c>
       <c r="H7" t="n">
-        <v>61.6</v>
+        <v>16.44444444444445</v>
       </c>
       <c r="I7" t="n">
         <v>101.77</v>
@@ -881,7 +881,7 @@
       </c>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="n">
-        <v>830.6062901368426</v>
+        <v>71.69303100077843</v>
       </c>
     </row>
     <row r="8">
@@ -911,7 +911,7 @@
         <v>21.5</v>
       </c>
       <c r="H8" t="n">
-        <v>60.5</v>
+        <v>15.83333333333333</v>
       </c>
       <c r="I8" t="n">
         <v>101.83</v>
@@ -940,7 +940,7 @@
       </c>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
-        <v>802.8187018299822</v>
+        <v>70.13278122225431</v>
       </c>
     </row>
     <row r="9">
@@ -970,7 +970,7 @@
         <v>21.5</v>
       </c>
       <c r="H9" t="n">
-        <v>60.5</v>
+        <v>15.83333333333333</v>
       </c>
       <c r="I9" t="n">
         <v>101.71</v>
@@ -999,7 +999,7 @@
       </c>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="n">
-        <v>802.8187018299822</v>
+        <v>70.13278122225431</v>
       </c>
     </row>
     <row r="10">
@@ -1029,7 +1029,7 @@
         <v>21.77777777777778</v>
       </c>
       <c r="H10" t="n">
-        <v>61.4</v>
+        <v>16.33333333333333</v>
       </c>
       <c r="I10" t="n">
         <v>101.53</v>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="n">
-        <v>822.9581837717323</v>
+        <v>71.18737116898053</v>
       </c>
     </row>
     <row r="11">
@@ -1088,7 +1088,7 @@
         <v>21.44444444444444</v>
       </c>
       <c r="H11" t="n">
-        <v>61.3</v>
+        <v>16.27777777777778</v>
       </c>
       <c r="I11" t="n">
         <v>101.45</v>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="n">
-        <v>836.0443088710317</v>
+        <v>72.39810578966001</v>
       </c>
     </row>
     <row r="12">
@@ -1147,7 +1147,7 @@
         <v>19.05555555555555</v>
       </c>
       <c r="H12" t="n">
-        <v>58.4</v>
+        <v>14.66666666666667</v>
       </c>
       <c r="I12" t="n">
         <v>101.73</v>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="n">
-        <v>846.2733771844054</v>
+        <v>75.68485953725009</v>
       </c>
     </row>
     <row r="13">
@@ -1206,7 +1206,7 @@
         <v>17.83333333333333</v>
       </c>
       <c r="H13" t="n">
-        <v>54.4</v>
+        <v>12.44444444444444</v>
       </c>
       <c r="I13" t="n">
         <v>101.92</v>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="n">
-        <v>754.5490022292249</v>
+        <v>70.70510464587373</v>
       </c>
     </row>
     <row r="14">
@@ -1265,7 +1265,7 @@
         <v>19.61111111111111</v>
       </c>
       <c r="H14" t="n">
-        <v>56.6</v>
+        <v>13.66666666666667</v>
       </c>
       <c r="I14" t="n">
         <v>101.89</v>
@@ -1294,7 +1294,7 @@
       </c>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="n">
-        <v>750.5133973758326</v>
+        <v>68.52298305932609</v>
       </c>
     </row>
     <row r="15">
@@ -1324,7 +1324,7 @@
         <v>18.88888888888889</v>
       </c>
       <c r="H15" t="n">
-        <v>56.9</v>
+        <v>13.83333333333333</v>
       </c>
       <c r="I15" t="n">
         <v>101.96</v>
@@ -1353,7 +1353,7 @@
       </c>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="n">
-        <v>796.3884747133555</v>
+        <v>72.45869242982678</v>
       </c>
     </row>
     <row r="16">
@@ -1383,7 +1383,7 @@
         <v>21.61111111111111</v>
       </c>
       <c r="H16" t="n">
-        <v>60.7</v>
+        <v>15.94444444444445</v>
       </c>
       <c r="I16" t="n">
         <v>101.95</v>
@@ -1412,7 +1412,7 @@
       </c>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="n">
-        <v>804.8286538404319</v>
+        <v>70.15386410391453</v>
       </c>
     </row>
     <row r="17">
@@ -1442,7 +1442,7 @@
         <v>21.88888888888889</v>
       </c>
       <c r="H17" t="n">
-        <v>65.09999999999999</v>
+        <v>18.38888888888889</v>
       </c>
       <c r="I17" t="n">
         <v>101.91</v>
@@ -1471,7 +1471,7 @@
       </c>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="n">
-        <v>968.0738304326868</v>
+        <v>80.51936447841211</v>
       </c>
     </row>
     <row r="18">
@@ -1501,7 +1501,7 @@
         <v>22.33333333333334</v>
       </c>
       <c r="H18" t="n">
-        <v>64.40000000000001</v>
+        <v>18</v>
       </c>
       <c r="I18" t="n">
         <v>101.8</v>
@@ -1530,7 +1530,7 @@
       </c>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="n">
-        <v>912.7891656143895</v>
+        <v>76.47464512073859</v>
       </c>
     </row>
     <row r="19">
@@ -1560,7 +1560,7 @@
         <v>22.11111111111111</v>
       </c>
       <c r="H19" t="n">
-        <v>61.5</v>
+        <v>16.38888888888889</v>
       </c>
       <c r="I19" t="n">
         <v>101.66</v>
@@ -1589,7 +1589,7 @@
       </c>
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="n">
-        <v>810.1159202964743</v>
+        <v>70.00036321259469</v>
       </c>
     </row>
     <row r="20">
@@ -1619,7 +1619,7 @@
         <v>22</v>
       </c>
       <c r="H20" t="n">
-        <v>61.9</v>
+        <v>16.61111111111111</v>
       </c>
       <c r="I20" t="n">
         <v>101.53</v>
@@ -1648,7 +1648,7 @@
       </c>
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="n">
-        <v>830.8368142982484</v>
+        <v>71.48043849306733</v>
       </c>
     </row>
     <row r="21">
@@ -1678,7 +1678,7 @@
         <v>20.94444444444445</v>
       </c>
       <c r="H21" t="n">
-        <v>62.7</v>
+        <v>17.05555555555556</v>
       </c>
       <c r="I21" t="n">
         <v>101.62</v>
@@ -1707,7 +1707,7 @@
       </c>
       <c r="R21" t="inlineStr"/>
       <c r="S21" t="n">
-        <v>919.5912377099284</v>
+        <v>78.43943578392332</v>
       </c>
     </row>
     <row r="22">
@@ -1737,7 +1737,7 @@
         <v>20.44444444444444</v>
       </c>
       <c r="H22" t="n">
-        <v>63.5</v>
+        <v>17.5</v>
       </c>
       <c r="I22" t="n">
         <v>101.64</v>
@@ -1766,7 +1766,7 @@
       </c>
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="n">
-        <v>983.7462957364629</v>
+        <v>83.201755084852</v>
       </c>
     </row>
     <row r="23">
@@ -1796,7 +1796,7 @@
         <v>20.61111111111111</v>
       </c>
       <c r="H23" t="n">
-        <v>67</v>
+        <v>19.44444444444445</v>
       </c>
       <c r="I23" t="n">
         <v>101.25</v>
@@ -1825,7 +1825,7 @@
       </c>
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="n">
-        <v>1140.317094718794</v>
+        <v>93.02682951374064</v>
       </c>
     </row>
     <row r="24">
@@ -1855,7 +1855,7 @@
         <v>23</v>
       </c>
       <c r="H24" t="n">
-        <v>70.09999999999999</v>
+        <v>21.16666666666666</v>
       </c>
       <c r="I24" t="n">
         <v>101.14</v>
@@ -1884,7 +1884,7 @@
       </c>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="n">
-        <v>1130.042545349166</v>
+        <v>89.41911545137006</v>
       </c>
     </row>
     <row r="25">
@@ -1914,7 +1914,7 @@
         <v>22.77777777777778</v>
       </c>
       <c r="H25" t="n">
-        <v>66.2</v>
+        <v>19</v>
       </c>
       <c r="I25" t="n">
         <v>101.32</v>
@@ -1943,7 +1943,7 @@
       </c>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="n">
-        <v>963.6311581674553</v>
+        <v>79.25137947519814</v>
       </c>
     </row>
     <row r="26">
@@ -1973,7 +1973,7 @@
         <v>22.83333333333333</v>
       </c>
       <c r="H26" t="n">
-        <v>64.3</v>
+        <v>17.94444444444444</v>
       </c>
       <c r="I26" t="n">
         <v>101.53</v>
@@ -2002,7 +2002,7 @@
       </c>
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="n">
-        <v>881.459558807342</v>
+        <v>73.92692696842606</v>
       </c>
     </row>
     <row r="27">
@@ -2032,7 +2032,7 @@
         <v>23.22222222222222</v>
       </c>
       <c r="H27" t="n">
-        <v>66.40000000000001</v>
+        <v>19.11111111111111</v>
       </c>
       <c r="I27" t="n">
         <v>101.62</v>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="n">
-        <v>946.4796706094053</v>
+        <v>77.68286375384687</v>
       </c>
     </row>
     <row r="28">
@@ -2091,7 +2091,7 @@
         <v>24.11111111111111</v>
       </c>
       <c r="H28" t="n">
-        <v>65.8</v>
+        <v>18.77777777777778</v>
       </c>
       <c r="I28" t="n">
         <v>101.54</v>
@@ -2120,7 +2120,7 @@
       </c>
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="n">
-        <v>873.2609023709564</v>
+        <v>72.11267117659293</v>
       </c>
     </row>
     <row r="29">
@@ -2150,7 +2150,7 @@
         <v>21.27777777777778</v>
       </c>
       <c r="H29" t="n">
-        <v>65.40000000000001</v>
+        <v>18.55555555555556</v>
       </c>
       <c r="I29" t="n">
         <v>101.39</v>
@@ -2179,7 +2179,7 @@
       </c>
       <c r="R29" t="inlineStr"/>
       <c r="S29" t="n">
-        <v>1018.685192310727</v>
+        <v>84.46739665025022</v>
       </c>
     </row>
     <row r="30">
@@ -2209,7 +2209,7 @@
         <v>20</v>
       </c>
       <c r="H30" t="n">
-        <v>64</v>
+        <v>17.77777777777778</v>
       </c>
       <c r="I30" t="n">
         <v>101.1</v>
@@ -2238,7 +2238,7 @@
       </c>
       <c r="R30" t="inlineStr"/>
       <c r="S30" t="n">
-        <v>1034.478022073675</v>
+        <v>87.03324063521454</v>
       </c>
     </row>
     <row r="31">
@@ -2268,7 +2268,7 @@
         <v>20</v>
       </c>
       <c r="H31" t="n">
-        <v>60.4</v>
+        <v>15.77777777777778</v>
       </c>
       <c r="I31" t="n">
         <v>101.53</v>
@@ -2297,7 +2297,7 @@
       </c>
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="n">
-        <v>876.4669066342169</v>
+        <v>76.65099794700541</v>
       </c>
     </row>
     <row r="32">
@@ -2327,7 +2327,7 @@
         <v>19.94444444444445</v>
       </c>
       <c r="H32" t="n">
-        <v>56.2</v>
+        <v>13.44444444444445</v>
       </c>
       <c r="I32" t="n">
         <v>101.81</v>
@@ -2356,7 +2356,7 @@
       </c>
       <c r="R32" t="inlineStr"/>
       <c r="S32" t="n">
-        <v>721.2102152298714</v>
+        <v>66.1554961156727</v>
       </c>
     </row>
     <row r="33">
@@ -2386,7 +2386,7 @@
         <v>21.83333333333333</v>
       </c>
       <c r="H33" t="n">
-        <v>60.1</v>
+        <v>15.61111111111111</v>
       </c>
       <c r="I33" t="n">
         <v>101.73</v>
@@ -2415,7 +2415,7 @@
       </c>
       <c r="R33" t="inlineStr"/>
       <c r="S33" t="n">
-        <v>772.0767401852527</v>
+        <v>67.74588352571335</v>
       </c>
     </row>
     <row r="34">
@@ -2445,7 +2445,7 @@
         <v>22.72222222222222</v>
       </c>
       <c r="H34" t="n">
-        <v>64.59999999999999</v>
+        <v>18.11111111111111</v>
       </c>
       <c r="I34" t="n">
         <v>101.67</v>
@@ -2474,7 +2474,7 @@
       </c>
       <c r="R34" t="inlineStr"/>
       <c r="S34" t="n">
-        <v>899.5843819647984</v>
+        <v>75.2115033289401</v>
       </c>
     </row>
     <row r="35">
@@ -2504,7 +2504,7 @@
         <v>22.55555555555555</v>
       </c>
       <c r="H35" t="n">
-        <v>65.7</v>
+        <v>18.72222222222222</v>
       </c>
       <c r="I35" t="n">
         <v>101.56</v>
@@ -2533,7 +2533,7 @@
       </c>
       <c r="R35" t="inlineStr"/>
       <c r="S35" t="n">
-        <v>955.0264009180255</v>
+        <v>78.9455025496306</v>
       </c>
     </row>
     <row r="36">
@@ -2563,7 +2563,7 @@
         <v>20.94444444444445</v>
       </c>
       <c r="H36" t="n">
-        <v>60.6</v>
+        <v>15.88888888888889</v>
       </c>
       <c r="I36" t="n">
         <v>101.81</v>
@@ -2592,7 +2592,7 @@
       </c>
       <c r="R36" t="inlineStr"/>
       <c r="S36" t="n">
-        <v>834.5504474156551</v>
+        <v>72.82460444486281</v>
       </c>
     </row>
     <row r="37">
@@ -2622,7 +2622,7 @@
         <v>20.22222222222222</v>
       </c>
       <c r="H37" t="n">
-        <v>56.9</v>
+        <v>13.83333333333333</v>
       </c>
       <c r="I37" t="n">
         <v>102.09</v>
@@ -2651,7 +2651,7 @@
       </c>
       <c r="R37" t="inlineStr"/>
       <c r="S37" t="n">
-        <v>733.0264901233647</v>
+        <v>66.69375898474892</v>
       </c>
     </row>
     <row r="38">
@@ -2681,7 +2681,7 @@
         <v>20.83333333333334</v>
       </c>
       <c r="H38" t="n">
-        <v>58.8</v>
+        <v>14.88888888888889</v>
       </c>
       <c r="I38" t="n">
         <v>101.97</v>
@@ -2710,7 +2710,7 @@
       </c>
       <c r="R38" t="inlineStr"/>
       <c r="S38" t="n">
-        <v>772.386912731899</v>
+        <v>68.76512729010309</v>
       </c>
     </row>
     <row r="39">
@@ -2740,7 +2740,7 @@
         <v>21.44444444444444</v>
       </c>
       <c r="H39" t="n">
-        <v>66.7</v>
+        <v>19.27777777777778</v>
       </c>
       <c r="I39" t="n">
         <v>101.55</v>
@@ -2769,7 +2769,7 @@
       </c>
       <c r="R39" t="inlineStr"/>
       <c r="S39" t="n">
-        <v>1068.936732596731</v>
+        <v>87.46765606463515</v>
       </c>
     </row>
     <row r="40">
@@ -2799,7 +2799,7 @@
         <v>21.22222222222222</v>
       </c>
       <c r="H40" t="n">
-        <v>61.4</v>
+        <v>16.33333333333333</v>
       </c>
       <c r="I40" t="n">
         <v>101.73</v>
@@ -2828,7 +2828,7 @@
       </c>
       <c r="R40" t="inlineStr"/>
       <c r="S40" t="n">
-        <v>851.4527376838753</v>
+        <v>73.65220161314912</v>
       </c>
     </row>
     <row r="41">
@@ -2858,7 +2858,7 @@
         <v>21.5</v>
       </c>
       <c r="H41" t="n">
-        <v>62.4</v>
+        <v>16.88888888888889</v>
       </c>
       <c r="I41" t="n">
         <v>101.72</v>
@@ -2887,7 +2887,7 @@
       </c>
       <c r="R41" t="inlineStr"/>
       <c r="S41" t="n">
-        <v>876.5891951895908</v>
+        <v>75.0119220076658</v>
       </c>
     </row>
     <row r="42">
@@ -2917,7 +2917,7 @@
         <v>22.66666666666667</v>
       </c>
       <c r="H42" t="n">
-        <v>64.3</v>
+        <v>17.94444444444444</v>
       </c>
       <c r="I42" t="n">
         <v>101.6</v>
@@ -2946,7 +2946,7 @@
       </c>
       <c r="R42" t="inlineStr"/>
       <c r="S42" t="n">
-        <v>890.4215798720801</v>
+        <v>74.67856063116474</v>
       </c>
     </row>
     <row r="43">
@@ -2976,7 +2976,7 @@
         <v>21.5</v>
       </c>
       <c r="H43" t="n">
-        <v>65.7</v>
+        <v>18.72222222222222</v>
       </c>
       <c r="I43" t="n">
         <v>101.5</v>
@@ -3005,7 +3005,7 @@
       </c>
       <c r="R43" t="inlineStr"/>
       <c r="S43" t="n">
-        <v>1018.570726433057</v>
+        <v>84.1982774542189</v>
       </c>
     </row>
     <row r="44">
@@ -3035,7 +3035,7 @@
         <v>22.94444444444444</v>
       </c>
       <c r="H44" t="n">
-        <v>66.90000000000001</v>
+        <v>19.38888888888889</v>
       </c>
       <c r="I44" t="n">
         <v>101.37</v>
@@ -3064,7 +3064,7 @@
       </c>
       <c r="R44" t="inlineStr"/>
       <c r="S44" t="n">
-        <v>984.3011228270722</v>
+        <v>80.37992275476248</v>
       </c>
     </row>
     <row r="45">
@@ -3094,7 +3094,7 @@
         <v>23.83333333333334</v>
       </c>
       <c r="H45" t="n">
-        <v>65.90000000000001</v>
+        <v>18.83333333333334</v>
       </c>
       <c r="I45" t="n">
         <v>101.17</v>
@@ -3123,7 +3123,7 @@
       </c>
       <c r="R45" t="inlineStr"/>
       <c r="S45" t="n">
-        <v>891.9736463523477</v>
+        <v>73.58270747628656</v>
       </c>
     </row>
     <row r="46">
@@ -3153,7 +3153,7 @@
         <v>20.33333333333333</v>
       </c>
       <c r="H46" t="n">
-        <v>59.9</v>
+        <v>15.5</v>
       </c>
       <c r="I46" t="n">
         <v>101.45</v>
@@ -3182,7 +3182,7 @@
       </c>
       <c r="R46" t="inlineStr"/>
       <c r="S46" t="n">
-        <v>838.7698305402066</v>
+        <v>73.76132422990517</v>
       </c>
     </row>
     <row r="47">
@@ -3212,7 +3212,7 @@
         <v>20.33333333333333</v>
       </c>
       <c r="H47" t="n">
-        <v>57</v>
+        <v>13.88888888888889</v>
       </c>
       <c r="I47" t="n">
         <v>101.57</v>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="R47" t="inlineStr"/>
       <c r="S47" t="n">
-        <v>731.485428443853</v>
+        <v>66.47655653066056</v>
       </c>
     </row>
     <row r="48">
@@ -3271,7 +3271,7 @@
         <v>21.55555555555555</v>
       </c>
       <c r="H48" t="n">
-        <v>59.8</v>
+        <v>15.44444444444444</v>
       </c>
       <c r="I48" t="n">
         <v>101.38</v>
@@ -3300,7 +3300,7 @@
       </c>
       <c r="R48" t="inlineStr"/>
       <c r="S48" t="n">
-        <v>774.3782123996513</v>
+        <v>68.17447010516615</v>
       </c>
     </row>
     <row r="49">
@@ -3330,7 +3330,7 @@
         <v>22</v>
       </c>
       <c r="H49" t="n">
-        <v>63</v>
+        <v>17.22222222222222</v>
       </c>
       <c r="I49" t="n">
         <v>101.31</v>
@@ -3359,7 +3359,7 @@
       </c>
       <c r="R49" t="inlineStr"/>
       <c r="S49" t="n">
-        <v>873.9261891476339</v>
+        <v>74.30630990094612</v>
       </c>
     </row>
     <row r="50">
@@ -3389,7 +3389,7 @@
         <v>21.61111111111111</v>
       </c>
       <c r="H50" t="n">
-        <v>65.40000000000001</v>
+        <v>18.55555555555556</v>
       </c>
       <c r="I50" t="n">
         <v>101.36</v>
@@ -3418,7 +3418,7 @@
       </c>
       <c r="R50" t="inlineStr"/>
       <c r="S50" t="n">
-        <v>998.0828947902875</v>
+        <v>82.7590941739788</v>
       </c>
     </row>
     <row r="51">
@@ -3448,7 +3448,7 @@
         <v>21.66666666666667</v>
       </c>
       <c r="H51" t="n">
-        <v>62.6</v>
+        <v>17</v>
       </c>
       <c r="I51" t="n">
         <v>101.4</v>
@@ -3477,7 +3477,7 @@
       </c>
       <c r="R51" t="inlineStr"/>
       <c r="S51" t="n">
-        <v>875.6999090589485</v>
+        <v>74.77546772777475</v>
       </c>
     </row>
     <row r="52">
@@ -3507,7 +3507,7 @@
         <v>17.22222222222222</v>
       </c>
       <c r="H52" t="n">
-        <v>53</v>
+        <v>11.66666666666667</v>
       </c>
       <c r="I52" t="n">
         <v>101.71</v>
@@ -3536,7 +3536,7 @@
       </c>
       <c r="R52" t="inlineStr"/>
       <c r="S52" t="n">
-        <v>732.5367097273432</v>
+        <v>69.81626736440232</v>
       </c>
     </row>
     <row r="53">
@@ -3566,7 +3566,7 @@
         <v>19.22222222222222</v>
       </c>
       <c r="H53" t="n">
-        <v>54.7</v>
+        <v>12.61111111111111</v>
       </c>
       <c r="I53" t="n">
         <v>101.88</v>
@@ -3595,7 +3595,7 @@
       </c>
       <c r="R53" t="inlineStr"/>
       <c r="S53" t="n">
-        <v>701.7745210414975</v>
+        <v>65.52417051294415</v>
       </c>
     </row>
     <row r="54">
@@ -3625,7 +3625,7 @@
         <v>21.22222222222222</v>
       </c>
       <c r="H54" t="n">
-        <v>61.4</v>
+        <v>16.33333333333333</v>
       </c>
       <c r="I54" t="n">
         <v>101.82</v>
@@ -3654,7 +3654,7 @@
       </c>
       <c r="R54" t="inlineStr"/>
       <c r="S54" t="n">
-        <v>851.4527376838753</v>
+        <v>73.65220161314912</v>
       </c>
     </row>
     <row r="55">
@@ -3684,7 +3684,7 @@
         <v>19.11111111111111</v>
       </c>
       <c r="H55" t="n">
-        <v>58.9</v>
+        <v>14.94444444444444</v>
       </c>
       <c r="I55" t="n">
         <v>101.95</v>
@@ -3713,7 +3713,7 @@
       </c>
       <c r="R55" t="inlineStr"/>
       <c r="S55" t="n">
-        <v>863.4537013189338</v>
+        <v>76.78614532661572</v>
       </c>
     </row>
     <row r="56">
@@ -3743,7 +3743,7 @@
         <v>19.72222222222222</v>
       </c>
       <c r="H56" t="n">
-        <v>56.2</v>
+        <v>13.44444444444445</v>
       </c>
       <c r="I56" t="n">
         <v>102.16</v>
@@ -3772,7 +3772,7 @@
       </c>
       <c r="R56" t="inlineStr"/>
       <c r="S56" t="n">
-        <v>731.2233672846579</v>
+        <v>67.07398704644099</v>
       </c>
     </row>
     <row r="57">
@@ -3802,7 +3802,7 @@
         <v>21.16666666666666</v>
       </c>
       <c r="H57" t="n">
-        <v>59.8</v>
+        <v>15.44444444444444</v>
       </c>
       <c r="I57" t="n">
         <v>102.12</v>
@@ -3831,7 +3831,7 @@
       </c>
       <c r="R57" t="inlineStr"/>
       <c r="S57" t="n">
-        <v>793.0707261191994</v>
+        <v>69.8201158598611</v>
       </c>
     </row>
     <row r="58">
@@ -3861,7 +3861,7 @@
         <v>21.05555555555556</v>
       </c>
       <c r="H58" t="n">
-        <v>63.7</v>
+        <v>17.61111111111111</v>
       </c>
       <c r="I58" t="n">
         <v>101.95</v>
@@ -3890,7 +3890,7 @@
       </c>
       <c r="R58" t="inlineStr"/>
       <c r="S58" t="n">
-        <v>956.0757565419708</v>
+        <v>80.69108666391432</v>
       </c>
     </row>
     <row r="59">
@@ -3920,7 +3920,7 @@
         <v>22.44444444444445</v>
       </c>
       <c r="H59" t="n">
-        <v>61.9</v>
+        <v>16.61111111111111</v>
       </c>
       <c r="I59" t="n">
         <v>101.84</v>
@@ -3949,7 +3949,7 @@
       </c>
       <c r="R59" t="inlineStr"/>
       <c r="S59" t="n">
-        <v>808.6371940898255</v>
+        <v>69.57051038255392</v>
       </c>
     </row>
     <row r="60">
@@ -3979,7 +3979,7 @@
         <v>23.66666666666666</v>
       </c>
       <c r="H60" t="n">
-        <v>64.90000000000001</v>
+        <v>18.27777777777778</v>
       </c>
       <c r="I60" t="n">
         <v>101.75</v>
@@ -4008,7 +4008,7 @@
       </c>
       <c r="R60" t="inlineStr"/>
       <c r="S60" t="n">
-        <v>861.2499802493659</v>
+        <v>71.78263407120616</v>
       </c>
     </row>
     <row r="61">
@@ -4038,7 +4038,7 @@
         <v>22.94444444444444</v>
       </c>
       <c r="H61" t="n">
-        <v>68.7</v>
+        <v>20.38888888888889</v>
       </c>
       <c r="I61" t="n">
         <v>101.67</v>
@@ -4067,7 +4067,7 @@
       </c>
       <c r="R61" t="inlineStr"/>
       <c r="S61" t="n">
-        <v>1066.194972585285</v>
+        <v>85.52304876076607</v>
       </c>
     </row>
     <row r="62">
@@ -4097,7 +4097,7 @@
         <v>23.55555555555556</v>
       </c>
       <c r="H62" t="n">
-        <v>67.09999999999999</v>
+        <v>19.5</v>
       </c>
       <c r="I62" t="n">
         <v>101.64</v>
@@ -4126,7 +4126,7 @@
       </c>
       <c r="R62" t="inlineStr"/>
       <c r="S62" t="n">
-        <v>957.0970201206611</v>
+        <v>78.00135440747125</v>
       </c>
     </row>
     <row r="63">
@@ -4156,7 +4156,7 @@
         <v>23.44444444444445</v>
       </c>
       <c r="H63" t="n">
-        <v>66.3</v>
+        <v>19.05555555555555</v>
       </c>
       <c r="I63" t="n">
         <v>101.56</v>
@@ -4185,7 +4185,7 @@
       </c>
       <c r="R63" t="inlineStr"/>
       <c r="S63" t="n">
-        <v>929.6785872275062</v>
+        <v>76.38137727758672</v>
       </c>
     </row>
     <row r="64">
@@ -4215,7 +4215,7 @@
         <v>24.44444444444445</v>
       </c>
       <c r="H64" t="n">
-        <v>67.5</v>
+        <v>19.72222222222222</v>
       </c>
       <c r="I64" t="n">
         <v>101.29</v>
@@ -4244,7 +4244,7 @@
       </c>
       <c r="R64" t="inlineStr"/>
       <c r="S64" t="n">
-        <v>923.5944729467772</v>
+        <v>74.97008582122801</v>
       </c>
     </row>
     <row r="65">
@@ -4274,7 +4274,7 @@
         <v>24.66666666666667</v>
       </c>
       <c r="H65" t="n">
-        <v>66.59999999999999</v>
+        <v>19.22222222222222</v>
       </c>
       <c r="I65" t="n">
         <v>101.33</v>
@@ -4303,7 +4303,7 @@
       </c>
       <c r="R65" t="inlineStr"/>
       <c r="S65" t="n">
-        <v>875.5160601918043</v>
+        <v>71.71309565000212</v>
       </c>
     </row>
     <row r="66">
@@ -4333,7 +4333,7 @@
         <v>22.83333333333333</v>
       </c>
       <c r="H66" t="n">
-        <v>62.4</v>
+        <v>16.88888888888889</v>
       </c>
       <c r="I66" t="n">
         <v>101.41</v>
@@ -4362,7 +4362,7 @@
       </c>
       <c r="R66" t="inlineStr"/>
       <c r="S66" t="n">
-        <v>808.1558119307969</v>
+        <v>69.15590685724051</v>
       </c>
     </row>
     <row r="67">
@@ -4392,7 +4392,7 @@
         <v>20.27777777777778</v>
       </c>
       <c r="H67" t="n">
-        <v>61.3</v>
+        <v>16.27777777777778</v>
       </c>
       <c r="I67" t="n">
         <v>101.38</v>
@@ -4421,7 +4421,7 @@
       </c>
       <c r="R67" t="inlineStr"/>
       <c r="S67" t="n">
-        <v>898.3042953140294</v>
+        <v>77.78957253028018</v>
       </c>
     </row>
     <row r="68">
@@ -4451,7 +4451,7 @@
         <v>20.61111111111111</v>
       </c>
       <c r="H68" t="n">
-        <v>50.9</v>
+        <v>10.5</v>
       </c>
       <c r="I68" t="n">
         <v>101.63</v>
@@ -4480,7 +4480,7 @@
       </c>
       <c r="R68" t="inlineStr"/>
       <c r="S68" t="n">
-        <v>534.4556640444151</v>
+        <v>52.28262878692387</v>
       </c>
     </row>
     <row r="69">
@@ -4510,7 +4510,7 @@
         <v>22.38888888888889</v>
       </c>
       <c r="H69" t="n">
-        <v>55.3</v>
+        <v>12.94444444444444</v>
       </c>
       <c r="I69" t="n">
         <v>101.69</v>
@@ -4539,7 +4539,7 @@
       </c>
       <c r="R69" t="inlineStr"/>
       <c r="S69" t="n">
-        <v>594.3912544520294</v>
+        <v>55.10323099379051</v>
       </c>
     </row>
     <row r="70">
@@ -4569,7 +4569,7 @@
         <v>22.83333333333333</v>
       </c>
       <c r="H70" t="n">
-        <v>57.6</v>
+        <v>14.22222222222222</v>
       </c>
       <c r="I70" t="n">
         <v>101.51</v>
@@ -4598,7 +4598,7 @@
       </c>
       <c r="R70" t="inlineStr"/>
       <c r="S70" t="n">
-        <v>645.8250148960553</v>
+        <v>58.28760892111917</v>
       </c>
     </row>
     <row r="71">
@@ -4628,7 +4628,7 @@
         <v>23.94444444444444</v>
       </c>
       <c r="H71" t="n">
-        <v>63.6</v>
+        <v>17.55555555555556</v>
       </c>
       <c r="I71" t="n">
         <v>101.34</v>
@@ -4657,7 +4657,7 @@
       </c>
       <c r="R71" t="inlineStr"/>
       <c r="S71" t="n">
-        <v>798.3914574049105</v>
+        <v>67.4538710954108</v>
       </c>
     </row>
     <row r="72">
@@ -4687,7 +4687,7 @@
         <v>24</v>
       </c>
       <c r="H72" t="n">
-        <v>63.4</v>
+        <v>17.44444444444444</v>
       </c>
       <c r="I72" t="n">
         <v>101.35</v>
@@ -4716,7 +4716,7 @@
       </c>
       <c r="R72" t="inlineStr"/>
       <c r="S72" t="n">
-        <v>788.4960697280013</v>
+        <v>66.75870965965032</v>
       </c>
     </row>
     <row r="73">
@@ -4746,7 +4746,7 @@
         <v>24.5</v>
       </c>
       <c r="H73" t="n">
-        <v>67.8</v>
+        <v>19.88888888888889</v>
       </c>
       <c r="I73" t="n">
         <v>101.26</v>
@@ -4775,7 +4775,7 @@
       </c>
       <c r="R73" t="inlineStr"/>
       <c r="S73" t="n">
-        <v>932.8803960289993</v>
+        <v>75.49782389405654</v>
       </c>
     </row>
     <row r="74">
@@ -4805,7 +4805,7 @@
         <v>24.66666666666667</v>
       </c>
       <c r="H74" t="n">
-        <v>68.59999999999999</v>
+        <v>20.33333333333333</v>
       </c>
       <c r="I74" t="n">
         <v>101.14</v>
@@ -4834,7 +4834,7 @@
       </c>
       <c r="R74" t="inlineStr"/>
       <c r="S74" t="n">
-        <v>956.9273365916077</v>
+        <v>76.83377925261084</v>
       </c>
     </row>
     <row r="75">
@@ -4864,7 +4864,7 @@
         <v>25.27777777777778</v>
       </c>
       <c r="H75" t="n">
-        <v>67.09999999999999</v>
+        <v>19.5</v>
       </c>
       <c r="I75" t="n">
         <v>101.08</v>
@@ -4893,7 +4893,7 @@
       </c>
       <c r="R75" t="inlineStr"/>
       <c r="S75" t="n">
-        <v>863.2195900038716</v>
+        <v>70.35054519642685</v>
       </c>
     </row>
     <row r="76">
@@ -4923,7 +4923,7 @@
         <v>24.94444444444445</v>
       </c>
       <c r="H76" t="n">
-        <v>67.40000000000001</v>
+        <v>19.66666666666667</v>
       </c>
       <c r="I76" t="n">
         <v>101.16</v>
@@ -4952,7 +4952,7 @@
       </c>
       <c r="R76" t="inlineStr"/>
       <c r="S76" t="n">
-        <v>892.399448218967</v>
+        <v>72.51033859219446</v>
       </c>
     </row>
     <row r="77">
@@ -4982,7 +4982,7 @@
         <v>25.55555555555556</v>
       </c>
       <c r="H77" t="n">
-        <v>73.2</v>
+        <v>22.88888888888889</v>
       </c>
       <c r="I77" t="n">
         <v>100.83</v>
@@ -5011,7 +5011,7 @@
       </c>
       <c r="R77" t="inlineStr"/>
       <c r="S77" t="n">
-        <v>1108.71881346698</v>
+        <v>85.20727616728962</v>
       </c>
     </row>
     <row r="78">
@@ -5041,7 +5041,7 @@
         <v>23.44444444444445</v>
       </c>
       <c r="H78" t="n">
-        <v>68.5</v>
+        <v>20.27777777777778</v>
       </c>
       <c r="I78" t="n">
         <v>100.87</v>
@@ -5070,7 +5070,7 @@
       </c>
       <c r="R78" t="inlineStr"/>
       <c r="S78" t="n">
-        <v>1025.33059583529</v>
+        <v>82.40706424165043</v>
       </c>
     </row>
     <row r="79">
@@ -5100,7 +5100,7 @@
         <v>23.94444444444444</v>
       </c>
       <c r="H79" t="n">
-        <v>68.2</v>
+        <v>20.11111111111111</v>
       </c>
       <c r="I79" t="n">
         <v>101.13</v>
@@ -5129,7 +5129,7 @@
       </c>
       <c r="R79" t="inlineStr"/>
       <c r="S79" t="n">
-        <v>981.776694234536</v>
+        <v>79.14048983936313</v>
       </c>
     </row>
     <row r="80">
@@ -5159,7 +5159,7 @@
         <v>24.77777777777778</v>
       </c>
       <c r="H80" t="n">
-        <v>70.2</v>
+        <v>21.22222222222222</v>
       </c>
       <c r="I80" t="n">
         <v>101.36</v>
@@ -5188,7 +5188,7 @@
       </c>
       <c r="R80" t="inlineStr"/>
       <c r="S80" t="n">
-        <v>1019.836097861111</v>
+        <v>80.62100169902719</v>
       </c>
     </row>
     <row r="81">
@@ -5218,7 +5218,7 @@
         <v>26.16666666666666</v>
       </c>
       <c r="H81" t="n">
-        <v>74.8</v>
+        <v>23.77777777777778</v>
       </c>
       <c r="I81" t="n">
         <v>101.35</v>
@@ -5247,7 +5247,7 @@
       </c>
       <c r="R81" t="inlineStr"/>
       <c r="S81" t="n">
-        <v>1144.831451354533</v>
+        <v>86.70946269590341</v>
       </c>
     </row>
     <row r="82">
@@ -5277,7 +5277,7 @@
         <v>25.55555555555556</v>
       </c>
       <c r="H82" t="n">
-        <v>71.40000000000001</v>
+        <v>21.88888888888889</v>
       </c>
       <c r="I82" t="n">
         <v>101.26</v>
@@ -5306,7 +5306,7 @@
       </c>
       <c r="R82" t="inlineStr"/>
       <c r="S82" t="n">
-        <v>1025.876050391886</v>
+        <v>80.17615641789652</v>
       </c>
     </row>
     <row r="83">
@@ -5336,7 +5336,7 @@
         <v>22.61111111111111</v>
       </c>
       <c r="H83" t="n">
-        <v>67.3</v>
+        <v>19.61111111111111</v>
       </c>
       <c r="I83" t="n">
         <v>101.36</v>
@@ -5365,7 +5365,7 @@
       </c>
       <c r="R83" t="inlineStr"/>
       <c r="S83" t="n">
-        <v>1022.49336102034</v>
+        <v>83.16406418863271</v>
       </c>
     </row>
     <row r="84">
@@ -5395,7 +5395,7 @@
         <v>23.11111111111111</v>
       </c>
       <c r="H84" t="n">
-        <v>65.09999999999999</v>
+        <v>18.38888888888889</v>
       </c>
       <c r="I84" t="n">
         <v>101.45</v>
@@ -5424,7 +5424,7 @@
       </c>
       <c r="R84" t="inlineStr"/>
       <c r="S84" t="n">
-        <v>898.7321990238852</v>
+        <v>74.75188691893973</v>
       </c>
     </row>
     <row r="85">
@@ -5454,7 +5454,7 @@
         <v>26.05555555555556</v>
       </c>
       <c r="H85" t="n">
-        <v>74.59999999999999</v>
+        <v>23.66666666666666</v>
       </c>
       <c r="I85" t="n">
         <v>101.25</v>
@@ -5483,7 +5483,7 @@
       </c>
       <c r="R85" t="inlineStr"/>
       <c r="S85" t="n">
-        <v>1142.633077436051</v>
+        <v>86.69922154891238</v>
       </c>
     </row>
     <row r="86">
@@ -5513,7 +5513,7 @@
         <v>27.5</v>
       </c>
       <c r="H86" t="n">
-        <v>73.90000000000001</v>
+        <v>23.27777777777778</v>
       </c>
       <c r="I86" t="n">
         <v>101.21</v>
@@ -5542,7 +5542,7 @@
       </c>
       <c r="R86" t="inlineStr"/>
       <c r="S86" t="n">
-        <v>1018.59716658981</v>
+        <v>77.78046739905641</v>
       </c>
     </row>
     <row r="87">
@@ -5572,7 +5572,7 @@
         <v>24.83333333333334</v>
       </c>
       <c r="H87" t="n">
-        <v>68.3</v>
+        <v>20.16666666666666</v>
       </c>
       <c r="I87" t="n">
         <v>101.35</v>
@@ -5601,7 +5601,7 @@
       </c>
       <c r="R87" t="inlineStr"/>
       <c r="S87" t="n">
-        <v>934.954112215682</v>
+        <v>75.2917188260477</v>
       </c>
     </row>
     <row r="88">
@@ -5631,7 +5631,7 @@
         <v>24.38888888888889</v>
       </c>
       <c r="H88" t="n">
-        <v>64.90000000000001</v>
+        <v>18.27777777777778</v>
       </c>
       <c r="I88" t="n">
         <v>101.56</v>
@@ -5660,7 +5660,7 @@
       </c>
       <c r="R88" t="inlineStr"/>
       <c r="S88" t="n">
-        <v>824.6564223870845</v>
+        <v>68.73266944580077</v>
       </c>
     </row>
     <row r="89">
@@ -5690,7 +5690,7 @@
         <v>25.38888888888889</v>
       </c>
       <c r="H89" t="n">
-        <v>68.40000000000001</v>
+        <v>20.22222222222222</v>
       </c>
       <c r="I89" t="n">
         <v>101.55</v>
@@ -5719,7 +5719,7 @@
       </c>
       <c r="R89" t="inlineStr"/>
       <c r="S89" t="n">
-        <v>908.4975539730194</v>
+        <v>73.08902721069066</v>
       </c>
     </row>
     <row r="90">
@@ -5749,7 +5749,7 @@
         <v>25.94444444444445</v>
       </c>
       <c r="H90" t="n">
-        <v>72.09999999999999</v>
+        <v>22.27777777777778</v>
       </c>
       <c r="I90" t="n">
         <v>101.58</v>
@@ -5778,7 +5778,7 @@
       </c>
       <c r="R90" t="inlineStr"/>
       <c r="S90" t="n">
-        <v>1033.314766738527</v>
+        <v>80.22762271623196</v>
       </c>
     </row>
     <row r="91">
@@ -5808,7 +5808,7 @@
         <v>26</v>
       </c>
       <c r="H91" t="n">
-        <v>70.3</v>
+        <v>21.27777777777778</v>
       </c>
       <c r="I91" t="n">
         <v>101.58</v>
@@ -5837,7 +5837,7 @@
       </c>
       <c r="R91" t="inlineStr"/>
       <c r="S91" t="n">
-        <v>952.4458751282687</v>
+        <v>75.22131804407719</v>
       </c>
     </row>
     <row r="92">
@@ -5867,7 +5867,7 @@
         <v>22.44444444444445</v>
       </c>
       <c r="H92" t="n">
-        <v>61.3</v>
+        <v>16.27777777777778</v>
       </c>
       <c r="I92" t="n">
         <v>101.78</v>
@@ -5896,7 +5896,7 @@
       </c>
       <c r="R92" t="inlineStr"/>
       <c r="S92" t="n">
-        <v>786.5190758808387</v>
+        <v>68.10941795429474</v>
       </c>
     </row>
     <row r="93">
@@ -5926,7 +5926,7 @@
         <v>21.88888888888889</v>
       </c>
       <c r="H93" t="n">
-        <v>58.6</v>
+        <v>14.77777777777778</v>
       </c>
       <c r="I93" t="n">
         <v>101.81</v>
@@ -5955,7 +5955,7 @@
       </c>
       <c r="R93" t="inlineStr"/>
       <c r="S93" t="n">
-        <v>717.176159900278</v>
+        <v>63.99415518472682</v>
       </c>
     </row>
     <row r="94">
@@ -5985,7 +5985,7 @@
         <v>21.33333333333334</v>
       </c>
       <c r="H94" t="n">
-        <v>58.6</v>
+        <v>14.77777777777778</v>
       </c>
       <c r="I94" t="n">
         <v>101.86</v>
@@ -6014,7 +6014,7 @@
       </c>
       <c r="R94" t="inlineStr"/>
       <c r="S94" t="n">
-        <v>741.9868929926973</v>
+        <v>66.20803511066285</v>
       </c>
     </row>
     <row r="95">
@@ -6044,7 +6044,7 @@
         <v>22.88888888888889</v>
       </c>
       <c r="H95" t="n">
-        <v>63</v>
+        <v>17.22222222222222</v>
       </c>
       <c r="I95" t="n">
         <v>102</v>
@@ -6073,7 +6073,7 @@
       </c>
       <c r="R95" t="inlineStr"/>
       <c r="S95" t="n">
-        <v>827.9230324349534</v>
+        <v>70.39485277611934</v>
       </c>
     </row>
     <row r="96">
@@ -6103,7 +6103,7 @@
         <v>22.83333333333333</v>
       </c>
       <c r="H96" t="n">
-        <v>62.4</v>
+        <v>16.88888888888889</v>
       </c>
       <c r="I96" t="n">
         <v>101.82</v>
@@ -6132,7 +6132,7 @@
       </c>
       <c r="R96" t="inlineStr"/>
       <c r="S96" t="n">
-        <v>808.1558119307969</v>
+        <v>69.15590685724051</v>
       </c>
     </row>
     <row r="97">
@@ -6162,7 +6162,7 @@
         <v>23.88888888888889</v>
       </c>
       <c r="H97" t="n">
-        <v>62.9</v>
+        <v>17.16666666666667</v>
       </c>
       <c r="I97" t="n">
         <v>101.61</v>
@@ -6191,7 +6191,7 @@
       </c>
       <c r="R97" t="inlineStr"/>
       <c r="S97" t="n">
-        <v>775.8297978933859</v>
+        <v>66.03583089755465</v>
       </c>
     </row>
     <row r="98">
@@ -6221,7 +6221,7 @@
         <v>23.88888888888889</v>
       </c>
       <c r="H98" t="n">
-        <v>63.3</v>
+        <v>17.38888888888889</v>
       </c>
       <c r="I98" t="n">
         <v>101.44</v>
@@ -6250,7 +6250,7 @@
       </c>
       <c r="R98" t="inlineStr"/>
       <c r="S98" t="n">
-        <v>790.1648586942912</v>
+        <v>66.97084510499417</v>
       </c>
     </row>
     <row r="99">
@@ -6280,7 +6280,7 @@
         <v>23.66666666666666</v>
       </c>
       <c r="H99" t="n">
-        <v>61.5</v>
+        <v>16.38888888888889</v>
       </c>
       <c r="I99" t="n">
         <v>101.36</v>
@@ -6309,7 +6309,7 @@
       </c>
       <c r="R99" t="inlineStr"/>
       <c r="S99" t="n">
-        <v>737.2004193309792</v>
+        <v>63.69989259655618</v>
       </c>
     </row>
     <row r="100">
@@ -6339,7 +6339,7 @@
         <v>24.66666666666667</v>
       </c>
       <c r="H100" t="n">
-        <v>66</v>
+        <v>18.88888888888889</v>
       </c>
       <c r="I100" t="n">
         <v>101.25</v>
@@ -6368,7 +6368,7 @@
       </c>
       <c r="R100" t="inlineStr"/>
       <c r="S100" t="n">
-        <v>852.2800975145929</v>
+        <v>70.23650361679719</v>
       </c>
     </row>
     <row r="101">
@@ -6398,7 +6398,7 @@
         <v>24.88888888888889</v>
       </c>
       <c r="H101" t="n">
-        <v>70.7</v>
+        <v>21.5</v>
       </c>
       <c r="I101" t="n">
         <v>101.2</v>
@@ -6427,7 +6427,7 @@
       </c>
       <c r="R101" t="inlineStr"/>
       <c r="S101" t="n">
-        <v>1035.442460904204</v>
+        <v>81.46363269570965</v>
       </c>
     </row>
     <row r="102">
@@ -6457,7 +6457,7 @@
         <v>26.16666666666666</v>
       </c>
       <c r="H102" t="n">
-        <v>71.2</v>
+        <v>21.77777777777778</v>
       </c>
       <c r="I102" t="n">
         <v>101.04</v>
@@ -6486,7 +6486,7 @@
       </c>
       <c r="R102" t="inlineStr"/>
       <c r="S102" t="n">
-        <v>980.8100656321759</v>
+        <v>76.79931290244463</v>
       </c>
     </row>
     <row r="103">
@@ -6516,7 +6516,7 @@
         <v>25.88888888888889</v>
       </c>
       <c r="H103" t="n">
-        <v>70</v>
+        <v>21.11111111111111</v>
       </c>
       <c r="I103" t="n">
         <v>100.86</v>
@@ -6545,7 +6545,7 @@
       </c>
       <c r="R103" t="inlineStr"/>
       <c r="S103" t="n">
-        <v>946.2409895972124</v>
+        <v>74.94724727767839</v>
       </c>
     </row>
     <row r="104">
@@ -6575,7 +6575,7 @@
         <v>25.61111111111111</v>
       </c>
       <c r="H104" t="n">
-        <v>69.59999999999999</v>
+        <v>20.88888888888889</v>
       </c>
       <c r="I104" t="n">
         <v>100.69</v>
@@ -6604,7 +6604,7 @@
       </c>
       <c r="R104" t="inlineStr"/>
       <c r="S104" t="n">
-        <v>945.2503116310759</v>
+        <v>75.15884340616267</v>
       </c>
     </row>
     <row r="105">
@@ -6634,7 +6634,7 @@
         <v>25.94444444444445</v>
       </c>
       <c r="H105" t="n">
-        <v>70.3</v>
+        <v>21.27777777777778</v>
       </c>
       <c r="I105" t="n">
         <v>100.82</v>
@@ -6663,7 +6663,7 @@
       </c>
       <c r="R105" t="inlineStr"/>
       <c r="S105" t="n">
-        <v>955.5863137963833</v>
+        <v>75.46934046930986</v>
       </c>
     </row>
     <row r="106">
@@ -6693,7 +6693,7 @@
         <v>23.66666666666666</v>
       </c>
       <c r="H106" t="n">
-        <v>65.3</v>
+        <v>18.5</v>
       </c>
       <c r="I106" t="n">
         <v>101.13</v>
@@ -6722,7 +6722,7 @@
       </c>
       <c r="R106" t="inlineStr"/>
       <c r="S106" t="n">
-        <v>876.9558952840508</v>
+        <v>72.79035216331232</v>
       </c>
     </row>
     <row r="107">
@@ -6752,7 +6752,7 @@
         <v>23.77777777777778</v>
       </c>
       <c r="H107" t="n">
-        <v>62.6</v>
+        <v>17</v>
       </c>
       <c r="I107" t="n">
         <v>101.29</v>
@@ -6781,7 +6781,7 @@
       </c>
       <c r="R107" t="inlineStr"/>
       <c r="S107" t="n">
-        <v>770.3614536322849</v>
+        <v>65.78068287880215</v>
       </c>
     </row>
     <row r="108">
@@ -6811,7 +6811,7 @@
         <v>23.44444444444445</v>
       </c>
       <c r="H108" t="n">
-        <v>69.8</v>
+        <v>21</v>
       </c>
       <c r="I108" t="n">
         <v>101.54</v>
@@ -6840,7 +6840,7 @@
       </c>
       <c r="R108" t="inlineStr"/>
       <c r="S108" t="n">
-        <v>1085.713315377152</v>
+        <v>86.16037380744554</v>
       </c>
     </row>
     <row r="109">
@@ -6870,7 +6870,7 @@
         <v>23.55555555555556</v>
       </c>
       <c r="H109" t="n">
-        <v>67</v>
+        <v>19.44444444444445</v>
       </c>
       <c r="I109" t="n">
         <v>101.57</v>
@@ -6899,7 +6899,7 @@
       </c>
       <c r="R109" t="inlineStr"/>
       <c r="S109" t="n">
-        <v>952.8365257107706</v>
+        <v>77.73220400034394</v>
       </c>
     </row>
     <row r="110">
@@ -6929,7 +6929,7 @@
         <v>23.61111111111111</v>
       </c>
       <c r="H110" t="n">
-        <v>66.8</v>
+        <v>19.33333333333333</v>
       </c>
       <c r="I110" t="n">
         <v>101.41</v>
@@ -6958,7 +6958,7 @@
       </c>
       <c r="R110" t="inlineStr"/>
       <c r="S110" t="n">
-        <v>941.2049703008061</v>
+        <v>76.93809869782068</v>
       </c>
     </row>
     <row r="111">
@@ -6988,7 +6988,7 @@
         <v>26.77777777777778</v>
       </c>
       <c r="H111" t="n">
-        <v>72.59999999999999</v>
+        <v>22.55555555555555</v>
       </c>
       <c r="I111" t="n">
         <v>101.31</v>
@@ -7017,7 +7017,7 @@
       </c>
       <c r="R111" t="inlineStr"/>
       <c r="S111" t="n">
-        <v>1005.114534545325</v>
+        <v>77.67511575627162</v>
       </c>
     </row>
     <row r="112">
@@ -7047,7 +7047,7 @@
         <v>28.94444444444444</v>
       </c>
       <c r="H112" t="n">
-        <v>76.5</v>
+        <v>24.72222222222222</v>
       </c>
       <c r="I112" t="n">
         <v>101.25</v>
@@ -7076,7 +7076,7 @@
       </c>
       <c r="R112" t="inlineStr"/>
       <c r="S112" t="n">
-        <v>1045.392006654507</v>
+        <v>77.98906332836405</v>
       </c>
     </row>
     <row r="113">
@@ -7106,7 +7106,7 @@
         <v>27.55555555555555</v>
       </c>
       <c r="H113" t="n">
-        <v>76.5</v>
+        <v>24.72222222222222</v>
       </c>
       <c r="I113" t="n">
         <v>101.05</v>
@@ -7135,7 +7135,7 @@
       </c>
       <c r="R113" t="inlineStr"/>
       <c r="S113" t="n">
-        <v>1133.504280587925</v>
+        <v>84.56247662027431</v>
       </c>
     </row>
     <row r="114">
@@ -7165,7 +7165,7 @@
         <v>27.94444444444444</v>
       </c>
       <c r="H114" t="n">
-        <v>75.5</v>
+        <v>24.16666666666667</v>
       </c>
       <c r="I114" t="n">
         <v>101.06</v>
@@ -7194,7 +7194,7 @@
       </c>
       <c r="R114" t="inlineStr"/>
       <c r="S114" t="n">
-        <v>1062.285364938712</v>
+        <v>79.95423249295048</v>
       </c>
     </row>
     <row r="115">
@@ -7224,7 +7224,7 @@
         <v>28.05555555555556</v>
       </c>
       <c r="H115" t="n">
-        <v>77.5</v>
+        <v>25.27777777777778</v>
       </c>
       <c r="I115" t="n">
         <v>101</v>
@@ -7253,7 +7253,7 @@
       </c>
       <c r="R115" t="inlineStr"/>
       <c r="S115" t="n">
-        <v>1147.945473756671</v>
+        <v>84.89543444812418</v>
       </c>
     </row>
     <row r="116">
@@ -7283,7 +7283,7 @@
         <v>28.72222222222222</v>
       </c>
       <c r="H116" t="n">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="I116" t="n">
         <v>101.1</v>
@@ -7312,7 +7312,7 @@
       </c>
       <c r="R116" t="inlineStr"/>
       <c r="S116" t="n">
-        <v>1081.404013452768</v>
+        <v>80.32302174104338</v>
       </c>
     </row>
     <row r="117">
@@ -7342,7 +7342,7 @@
         <v>29</v>
       </c>
       <c r="H117" t="n">
-        <v>76.09999999999999</v>
+        <v>24.5</v>
       </c>
       <c r="I117" t="n">
         <v>101.11</v>
@@ -7371,7 +7371,7 @@
       </c>
       <c r="R117" t="inlineStr"/>
       <c r="S117" t="n">
-        <v>1024.642709218799</v>
+        <v>76.71119065649731</v>
       </c>
     </row>
     <row r="118">
@@ -7401,7 +7401,7 @@
         <v>28.44444444444445</v>
       </c>
       <c r="H118" t="n">
-        <v>76.59999999999999</v>
+        <v>24.77777777777778</v>
       </c>
       <c r="I118" t="n">
         <v>101.16</v>
@@ -7430,7 +7430,7 @@
       </c>
       <c r="R118" t="inlineStr"/>
       <c r="S118" t="n">
-        <v>1080.721785493945</v>
+        <v>80.55395334497079</v>
       </c>
     </row>
     <row r="119">
@@ -7460,7 +7460,7 @@
         <v>24.77777777777778</v>
       </c>
       <c r="H119" t="n">
-        <v>67.5</v>
+        <v>19.72222222222222</v>
       </c>
       <c r="I119" t="n">
         <v>101.15</v>
@@ -7489,7 +7489,7 @@
       </c>
       <c r="R119" t="inlineStr"/>
       <c r="S119" t="n">
-        <v>905.3496007078209</v>
+        <v>73.48911156508311</v>
       </c>
     </row>
     <row r="120">
@@ -7519,7 +7519,7 @@
         <v>21.72222222222222</v>
       </c>
       <c r="H120" t="n">
-        <v>64.09999999999999</v>
+        <v>17.83333333333333</v>
       </c>
       <c r="I120" t="n">
         <v>101.3</v>
@@ -7548,7 +7548,7 @@
       </c>
       <c r="R120" t="inlineStr"/>
       <c r="S120" t="n">
-        <v>934.6478300682573</v>
+        <v>78.55190273625593</v>
       </c>
     </row>
     <row r="121">
@@ -7578,7 +7578,7 @@
         <v>23.44444444444445</v>
       </c>
       <c r="H121" t="n">
-        <v>65.59999999999999</v>
+        <v>18.66666666666666</v>
       </c>
       <c r="I121" t="n">
         <v>101.4</v>
@@ -7607,7 +7607,7 @@
       </c>
       <c r="R121" t="inlineStr"/>
       <c r="S121" t="n">
-        <v>900.8930675658654</v>
+        <v>74.54702827142961</v>
       </c>
     </row>
     <row r="122">
@@ -7637,7 +7637,7 @@
         <v>25.66666666666667</v>
       </c>
       <c r="H122" t="n">
-        <v>68.8</v>
+        <v>20.44444444444444</v>
       </c>
       <c r="I122" t="n">
         <v>101.18</v>
@@ -7666,7 +7666,7 @@
       </c>
       <c r="R122" t="inlineStr"/>
       <c r="S122" t="n">
-        <v>909.5477967767756</v>
+        <v>72.8863127834709</v>
       </c>
     </row>
     <row r="123">
@@ -7696,7 +7696,7 @@
         <v>27.22222222222222</v>
       </c>
       <c r="H123" t="n">
-        <v>74.2</v>
+        <v>23.44444444444445</v>
       </c>
       <c r="I123" t="n">
         <v>101.13</v>
@@ -7725,7 +7725,7 @@
       </c>
       <c r="R123" t="inlineStr"/>
       <c r="S123" t="n">
-        <v>1048.664787934773</v>
+        <v>79.85804935947604</v>
       </c>
     </row>
     <row r="124">
@@ -7755,7 +7755,7 @@
         <v>26.88888888888889</v>
       </c>
       <c r="H124" t="n">
-        <v>72.09999999999999</v>
+        <v>22.27777777777778</v>
       </c>
       <c r="I124" t="n">
         <v>101.24</v>
@@ -7784,7 +7784,7 @@
       </c>
       <c r="R124" t="inlineStr"/>
       <c r="S124" t="n">
-        <v>977.2576183048627</v>
+        <v>75.87528797772931</v>
       </c>
     </row>
     <row r="125">
@@ -7814,7 +7814,7 @@
         <v>26.61111111111111</v>
       </c>
       <c r="H125" t="n">
-        <v>71.59999999999999</v>
+        <v>22</v>
       </c>
       <c r="I125" t="n">
         <v>101.26</v>
@@ -7843,7 +7843,7 @@
       </c>
       <c r="R125" t="inlineStr"/>
       <c r="S125" t="n">
-        <v>972.1222751741205</v>
+        <v>75.83181946385804</v>
       </c>
     </row>
     <row r="126">
@@ -7873,7 +7873,7 @@
         <v>27.66666666666667</v>
       </c>
       <c r="H126" t="n">
-        <v>72.2</v>
+        <v>22.33333333333334</v>
       </c>
       <c r="I126" t="n">
         <v>101.16</v>
@@ -7902,7 +7902,7 @@
       </c>
       <c r="R126" t="inlineStr"/>
       <c r="S126" t="n">
-        <v>937.6967299674855</v>
+        <v>72.73568895703302</v>
       </c>
     </row>
     <row r="127">
@@ -7932,7 +7932,7 @@
         <v>28.11111111111111</v>
       </c>
       <c r="H127" t="n">
-        <v>75.2</v>
+        <v>24</v>
       </c>
       <c r="I127" t="n">
         <v>100.95</v>
@@ -7961,7 +7961,7 @@
       </c>
       <c r="R127" t="inlineStr"/>
       <c r="S127" t="n">
-        <v>1038.730827811192</v>
+        <v>78.39126803862135</v>
       </c>
     </row>
     <row r="128">
@@ -7991,7 +7991,7 @@
         <v>27.44444444444445</v>
       </c>
       <c r="H128" t="n">
-        <v>75.5</v>
+        <v>24.16666666666667</v>
       </c>
       <c r="I128" t="n">
         <v>100.94</v>
@@ -8020,7 +8020,7 @@
       </c>
       <c r="R128" t="inlineStr"/>
       <c r="S128" t="n">
-        <v>1093.817459424884</v>
+        <v>82.3275348999572</v>
       </c>
     </row>
     <row r="129">
@@ -8050,7 +8050,7 @@
         <v>28.27777777777778</v>
       </c>
       <c r="H129" t="n">
-        <v>74.40000000000001</v>
+        <v>23.55555555555556</v>
       </c>
       <c r="I129" t="n">
         <v>100.89</v>
@@ -8079,7 +8079,7 @@
       </c>
       <c r="R129" t="inlineStr"/>
       <c r="S129" t="n">
-        <v>994.3267246983377</v>
+        <v>75.58283994259175</v>
       </c>
     </row>
     <row r="130">
@@ -8109,7 +8109,7 @@
         <v>27.66666666666667</v>
       </c>
       <c r="H130" t="n">
-        <v>75.7</v>
+        <v>24.27777777777778</v>
       </c>
       <c r="I130" t="n">
         <v>100.78</v>
@@ -8138,7 +8138,7 @@
       </c>
       <c r="R130" t="inlineStr"/>
       <c r="S130" t="n">
-        <v>1088.837963724798</v>
+        <v>81.80691080977462</v>
       </c>
     </row>
     <row r="131">
@@ -8168,7 +8168,7 @@
         <v>24.05555555555555</v>
       </c>
       <c r="H131" t="n">
-        <v>70.5</v>
+        <v>21.38888888888889</v>
       </c>
       <c r="I131" t="n">
         <v>101.01</v>
@@ -8197,7 +8197,7 @@
       </c>
       <c r="R131" t="inlineStr"/>
       <c r="S131" t="n">
-        <v>1079.003783733963</v>
+        <v>85.0532694371425</v>
       </c>
     </row>
     <row r="132">
@@ -8227,7 +8227,7 @@
         <v>23.77777777777778</v>
       </c>
       <c r="H132" t="n">
-        <v>67.40000000000001</v>
+        <v>19.66666666666667</v>
       </c>
       <c r="I132" t="n">
         <v>100.98</v>
@@ -8256,7 +8256,7 @@
       </c>
       <c r="R132" t="inlineStr"/>
       <c r="S132" t="n">
-        <v>957.0697740385508</v>
+        <v>77.76501152078525</v>
       </c>
     </row>
     <row r="133">
@@ -8286,7 +8286,7 @@
         <v>25.55555555555556</v>
       </c>
       <c r="H133" t="n">
-        <v>68.2</v>
+        <v>20.11111111111111</v>
       </c>
       <c r="I133" t="n">
         <v>101.18</v>
@@ -8315,7 +8315,7 @@
       </c>
       <c r="R133" t="inlineStr"/>
       <c r="S133" t="n">
-        <v>891.609789876283</v>
+        <v>71.87218430703963</v>
       </c>
     </row>
     <row r="134">
@@ -8345,7 +8345,7 @@
         <v>26.33333333333334</v>
       </c>
       <c r="H134" t="n">
-        <v>71.3</v>
+        <v>21.83333333333333</v>
       </c>
       <c r="I134" t="n">
         <v>101.29</v>
@@ -8374,7 +8374,7 @@
       </c>
       <c r="R134" t="inlineStr"/>
       <c r="S134" t="n">
-        <v>975.4187458704838</v>
+        <v>76.30485799713334</v>
       </c>
     </row>
     <row r="135">
@@ -8404,7 +8404,7 @@
         <v>25.94444444444445</v>
       </c>
       <c r="H135" t="n">
-        <v>74.90000000000001</v>
+        <v>23.83333333333334</v>
       </c>
       <c r="I135" t="n">
         <v>101.01</v>
@@ -8433,7 +8433,7 @@
       </c>
       <c r="R135" t="inlineStr"/>
       <c r="S135" t="n">
-        <v>1164.931168007824</v>
+        <v>88.15243418123951</v>
       </c>
     </row>
     <row r="136">
@@ -8463,7 +8463,7 @@
         <v>26.33333333333334</v>
       </c>
       <c r="H136" t="n">
-        <v>76.7</v>
+        <v>24.83333333333334</v>
       </c>
       <c r="I136" t="n">
         <v>100.66</v>
@@ -8492,7 +8492,7 @@
       </c>
       <c r="R136" t="inlineStr"/>
       <c r="S136" t="n">
-        <v>1228.277523136606</v>
+        <v>91.4720523031304</v>
       </c>
     </row>
     <row r="137">
@@ -8522,7 +8522,7 @@
         <v>26.55555555555555</v>
       </c>
       <c r="H137" t="n">
-        <v>72.3</v>
+        <v>22.38888888888889</v>
       </c>
       <c r="I137" t="n">
         <v>100.77</v>
@@ -8551,7 +8551,7 @@
       </c>
       <c r="R137" t="inlineStr"/>
       <c r="S137" t="n">
-        <v>1005.284415052849</v>
+        <v>77.90557664249924</v>
       </c>
     </row>
     <row r="138">
@@ -8581,7 +8581,7 @@
         <v>27.33333333333334</v>
       </c>
       <c r="H138" t="n">
-        <v>76.2</v>
+        <v>24.55555555555556</v>
       </c>
       <c r="I138" t="n">
         <v>100.9</v>
@@ -8610,7 +8610,7 @@
       </c>
       <c r="R138" t="inlineStr"/>
       <c r="S138" t="n">
-        <v>1133.966063901451</v>
+        <v>84.82084124857988</v>
       </c>
     </row>
     <row r="139">
@@ -8640,7 +8640,7 @@
         <v>26.33333333333334</v>
       </c>
       <c r="H139" t="n">
-        <v>77.2</v>
+        <v>25.11111111111111</v>
       </c>
       <c r="I139" t="n">
         <v>100.84</v>
@@ -8669,7 +8669,7 @@
       </c>
       <c r="R139" t="inlineStr"/>
       <c r="S139" t="n">
-        <v>1254.281449404877</v>
+        <v>93.00147851470106</v>
       </c>
     </row>
     <row r="140">
@@ -8699,7 +8699,7 @@
         <v>27.05555555555556</v>
       </c>
       <c r="H140" t="n">
-        <v>77.7</v>
+        <v>25.38888888888889</v>
       </c>
       <c r="I140" t="n">
         <v>100.71</v>
@@ -8728,7 +8728,7 @@
       </c>
       <c r="R140" t="inlineStr"/>
       <c r="S140" t="n">
-        <v>1227.380874130547</v>
+        <v>90.6130164303357</v>
       </c>
     </row>
     <row r="141">
@@ -8758,7 +8758,7 @@
         <v>27.27777777777778</v>
       </c>
       <c r="H141" t="n">
-        <v>78.09999999999999</v>
+        <v>25.61111111111111</v>
       </c>
       <c r="I141" t="n">
         <v>100.68</v>
@@ -8787,7 +8787,7 @@
       </c>
       <c r="R141" t="inlineStr"/>
       <c r="S141" t="n">
-        <v>1231.819501402961</v>
+        <v>90.62771750890801</v>
       </c>
     </row>
     <row r="142">
@@ -8817,7 +8817,7 @@
         <v>28.66666666666666</v>
       </c>
       <c r="H142" t="n">
-        <v>78.3</v>
+        <v>25.72222222222222</v>
       </c>
       <c r="I142" t="n">
         <v>100.76</v>
@@ -8846,7 +8846,7 @@
       </c>
       <c r="R142" t="inlineStr"/>
       <c r="S142" t="n">
-        <v>1145.36075005025</v>
+        <v>84.12223868025325</v>
       </c>
     </row>
     <row r="143">
@@ -8876,7 +8876,7 @@
         <v>29.16666666666667</v>
       </c>
       <c r="H143" t="n">
-        <v>78.5</v>
+        <v>25.83333333333334</v>
       </c>
       <c r="I143" t="n">
         <v>100.73</v>
@@ -8905,7 +8905,7 @@
       </c>
       <c r="R143" t="inlineStr"/>
       <c r="S143" t="n">
-        <v>1121.912695249842</v>
+        <v>82.25915948146084</v>
       </c>
     </row>
     <row r="144">
@@ -8935,7 +8935,7 @@
         <v>28.77777777777778</v>
       </c>
       <c r="H144" t="n">
-        <v>78.40000000000001</v>
+        <v>25.77777777777778</v>
       </c>
       <c r="I144" t="n">
         <v>100.82</v>
@@ -8964,7 +8964,7 @@
       </c>
       <c r="R144" t="inlineStr"/>
       <c r="S144" t="n">
-        <v>1142.732140755507</v>
+        <v>83.85733243616372</v>
       </c>
     </row>
     <row r="145">
@@ -8994,7 +8994,7 @@
         <v>29.05555555555555</v>
       </c>
       <c r="H145" t="n">
-        <v>78.40000000000001</v>
+        <v>25.77777777777778</v>
       </c>
       <c r="I145" t="n">
         <v>100.97</v>
@@ -9023,7 +9023,7 @@
       </c>
       <c r="R145" t="inlineStr"/>
       <c r="S145" t="n">
-        <v>1124.475632522199</v>
+        <v>82.51761158169309</v>
       </c>
     </row>
     <row r="146">
@@ -9053,7 +9053,7 @@
         <v>29.83333333333334</v>
       </c>
       <c r="H146" t="n">
-        <v>79.09999999999999</v>
+        <v>26.16666666666666</v>
       </c>
       <c r="I146" t="n">
         <v>100.78</v>
@@ -9082,7 +9082,7 @@
       </c>
       <c r="R146" t="inlineStr"/>
       <c r="S146" t="n">
-        <v>1106.719016605171</v>
+        <v>80.73192196053182</v>
       </c>
     </row>
     <row r="147">
@@ -9112,7 +9112,7 @@
         <v>29.61111111111111</v>
       </c>
       <c r="H147" t="n">
-        <v>78.2</v>
+        <v>25.66666666666667</v>
       </c>
       <c r="I147" t="n">
         <v>100.76</v>
@@ -9141,7 +9141,7 @@
       </c>
       <c r="R147" t="inlineStr"/>
       <c r="S147" t="n">
-        <v>1079.928542773609</v>
+        <v>79.38455241287059</v>
       </c>
     </row>
     <row r="148">
@@ -9171,7 +9171,7 @@
         <v>27.88888888888889</v>
       </c>
       <c r="H148" t="n">
-        <v>77.40000000000001</v>
+        <v>25.22222222222222</v>
       </c>
       <c r="I148" t="n">
         <v>100.79</v>
@@ -9200,7 +9200,7 @@
       </c>
       <c r="R148" t="inlineStr"/>
       <c r="S148" t="n">
-        <v>1154.338322440525</v>
+        <v>85.442296319728</v>
       </c>
     </row>
     <row r="149">
@@ -9230,7 +9230,7 @@
         <v>26.72222222222222</v>
       </c>
       <c r="H149" t="n">
-        <v>77.8</v>
+        <v>25.44444444444444</v>
       </c>
       <c r="I149" t="n">
         <v>100.86</v>
@@ -9259,7 +9259,7 @@
       </c>
       <c r="R149" t="inlineStr"/>
       <c r="S149" t="n">
-        <v>1256.925780044878</v>
+        <v>92.7140927605281</v>
       </c>
     </row>
     <row r="150">
@@ -9289,7 +9289,7 @@
         <v>28.88888888888889</v>
       </c>
       <c r="H150" t="n">
-        <v>79.09999999999999</v>
+        <v>26.16666666666666</v>
       </c>
       <c r="I150" t="n">
         <v>100.66</v>
@@ -9318,7 +9318,7 @@
       </c>
       <c r="R150" t="inlineStr"/>
       <c r="S150" t="n">
-        <v>1168.802063171644</v>
+        <v>85.26069899903526</v>
       </c>
     </row>
     <row r="151">
@@ -9348,7 +9348,7 @@
         <v>28</v>
       </c>
       <c r="H151" t="n">
-        <v>78.90000000000001</v>
+        <v>26.05555555555556</v>
       </c>
       <c r="I151" t="n">
         <v>100.55</v>
@@ -9377,7 +9377,7 @@
       </c>
       <c r="R151" t="inlineStr"/>
       <c r="S151" t="n">
-        <v>1220.696244400537</v>
+        <v>89.19746584805412</v>
       </c>
     </row>
     <row r="152">
@@ -9407,7 +9407,7 @@
         <v>27.5</v>
       </c>
       <c r="H152" t="n">
-        <v>77.5</v>
+        <v>25.27777777777778</v>
       </c>
       <c r="I152" t="n">
         <v>100.76</v>
@@ -9436,7 +9436,7 @@
       </c>
       <c r="R152" t="inlineStr"/>
       <c r="S152" t="n">
-        <v>1185.844550429932</v>
+        <v>87.69823183956301</v>
       </c>
     </row>
     <row r="153">
@@ -9466,7 +9466,7 @@
         <v>27.61111111111111</v>
       </c>
       <c r="H153" t="n">
-        <v>77.8</v>
+        <v>25.44444444444444</v>
       </c>
       <c r="I153" t="n">
         <v>100.87</v>
@@ -9495,7 +9495,7 @@
       </c>
       <c r="R153" t="inlineStr"/>
       <c r="S153" t="n">
-        <v>1192.990977595381</v>
+        <v>87.99809655849533</v>
       </c>
     </row>
     <row r="154">
@@ -9525,7 +9525,7 @@
         <v>28.77777777777778</v>
       </c>
       <c r="H154" t="n">
-        <v>79.3</v>
+        <v>26.27777777777778</v>
       </c>
       <c r="I154" t="n">
         <v>100.83</v>
@@ -9554,7 +9554,7 @@
       </c>
       <c r="R154" t="inlineStr"/>
       <c r="S154" t="n">
-        <v>1186.121726614359</v>
+        <v>86.37783050471737</v>
       </c>
     </row>
     <row r="155">
@@ -9584,7 +9584,7 @@
         <v>28</v>
       </c>
       <c r="H155" t="n">
-        <v>78.40000000000001</v>
+        <v>25.77777777777778</v>
       </c>
       <c r="I155" t="n">
         <v>100.93</v>
@@ -9613,7 +9613,7 @@
       </c>
       <c r="R155" t="inlineStr"/>
       <c r="S155" t="n">
-        <v>1195.652253743837</v>
+        <v>87.74077926429598</v>
       </c>
     </row>
     <row r="156">
@@ -9643,7 +9643,7 @@
         <v>29.16666666666667</v>
       </c>
       <c r="H156" t="n">
-        <v>78.2</v>
+        <v>25.66666666666667</v>
       </c>
       <c r="I156" t="n">
         <v>100.95</v>
@@ -9672,7 +9672,7 @@
       </c>
       <c r="R156" t="inlineStr"/>
       <c r="S156" t="n">
-        <v>1108.019381076305</v>
+        <v>81.4494840608799</v>
       </c>
     </row>
     <row r="157">
@@ -9702,7 +9702,7 @@
         <v>29.61111111111111</v>
       </c>
       <c r="H157" t="n">
-        <v>78.2</v>
+        <v>25.66666666666667</v>
       </c>
       <c r="I157" t="n">
         <v>100.94</v>
@@ -9731,7 +9731,7 @@
       </c>
       <c r="R157" t="inlineStr"/>
       <c r="S157" t="n">
-        <v>1079.928542773609</v>
+        <v>79.38455241287059</v>
       </c>
     </row>
     <row r="158">
@@ -9761,7 +9761,7 @@
         <v>29.94444444444445</v>
       </c>
       <c r="H158" t="n">
-        <v>77.8</v>
+        <v>25.44444444444444</v>
       </c>
       <c r="I158" t="n">
         <v>100.91</v>
@@ -9790,7 +9790,7 @@
       </c>
       <c r="R158" t="inlineStr"/>
       <c r="S158" t="n">
-        <v>1041.893264609113</v>
+        <v>76.85273889289608</v>
       </c>
     </row>
     <row r="159">
@@ -9820,7 +9820,7 @@
         <v>28.94444444444444</v>
       </c>
       <c r="H159" t="n">
-        <v>79.3</v>
+        <v>26.27777777777778</v>
       </c>
       <c r="I159" t="n">
         <v>100.84</v>
@@ -9849,7 +9849,7 @@
       </c>
       <c r="R159" t="inlineStr"/>
       <c r="S159" t="n">
-        <v>1174.710669237405</v>
+        <v>85.54683453029944</v>
       </c>
     </row>
     <row r="160">
@@ -9879,7 +9879,7 @@
         <v>29.61111111111111</v>
       </c>
       <c r="H160" t="n">
-        <v>78.8</v>
+        <v>26</v>
       </c>
       <c r="I160" t="n">
         <v>100.66</v>
@@ -9908,7 +9908,7 @@
       </c>
       <c r="R160" t="inlineStr"/>
       <c r="S160" t="n">
-        <v>1107.154822686242</v>
+        <v>80.96970313124868</v>
       </c>
     </row>
     <row r="161">
@@ -9938,7 +9938,7 @@
         <v>30</v>
       </c>
       <c r="H161" t="n">
-        <v>78.90000000000001</v>
+        <v>26.05555555555556</v>
       </c>
       <c r="I161" t="n">
         <v>101.15</v>
@@ -9967,7 +9967,7 @@
       </c>
       <c r="R161" t="inlineStr"/>
       <c r="S161" t="n">
-        <v>1087.121546914564</v>
+        <v>79.43703234805571</v>
       </c>
     </row>
     <row r="162">
@@ -9997,7 +9997,7 @@
         <v>29.55555555555556</v>
       </c>
       <c r="H162" t="n">
-        <v>77.2</v>
+        <v>25.11111111111111</v>
       </c>
       <c r="I162" t="n">
         <v>101.14</v>
@@ -10026,7 +10026,7 @@
       </c>
       <c r="R162" t="inlineStr"/>
       <c r="S162" t="n">
-        <v>1039.142087243952</v>
+        <v>77.04949359363793</v>
       </c>
     </row>
     <row r="163">
@@ -10056,7 +10056,7 @@
         <v>28.61111111111111</v>
       </c>
       <c r="H163" t="n">
-        <v>78.40000000000001</v>
+        <v>25.77777777777778</v>
       </c>
       <c r="I163" t="n">
         <v>100.92</v>
@@ -10085,7 +10085,7 @@
       </c>
       <c r="R163" t="inlineStr"/>
       <c r="S163" t="n">
-        <v>1153.846224754802</v>
+        <v>84.6729193995585</v>
       </c>
     </row>
     <row r="164">
@@ -10115,7 +10115,7 @@
         <v>28.94444444444444</v>
       </c>
       <c r="H164" t="n">
-        <v>78.90000000000001</v>
+        <v>26.05555555555556</v>
       </c>
       <c r="I164" t="n">
         <v>101</v>
@@ -10144,7 +10144,7 @@
       </c>
       <c r="R164" t="inlineStr"/>
       <c r="S164" t="n">
-        <v>1155.443772894361</v>
+        <v>84.42940407562564</v>
       </c>
     </row>
     <row r="165">
@@ -10174,7 +10174,7 @@
         <v>28.55555555555556</v>
       </c>
       <c r="H165" t="n">
-        <v>77.2</v>
+        <v>25.11111111111111</v>
       </c>
       <c r="I165" t="n">
         <v>101.07</v>
@@ -10203,7 +10203,7 @@
       </c>
       <c r="R165" t="inlineStr"/>
       <c r="S165" t="n">
-        <v>1101.1061175881</v>
+        <v>81.64395398326566</v>
       </c>
     </row>
     <row r="166">
@@ -10233,7 +10233,7 @@
         <v>28.5</v>
       </c>
       <c r="H166" t="n">
-        <v>78</v>
+        <v>25.55555555555556</v>
       </c>
       <c r="I166" t="n">
         <v>100.83</v>
@@ -10262,7 +10262,7 @@
       </c>
       <c r="R166" t="inlineStr"/>
       <c r="S166" t="n">
-        <v>1142.170091274605</v>
+        <v>84.10431318810008</v>
       </c>
     </row>
     <row r="167">
@@ -10292,7 +10292,7 @@
         <v>28.88888888888889</v>
       </c>
       <c r="H167" t="n">
-        <v>78.3</v>
+        <v>25.72222222222222</v>
       </c>
       <c r="I167" t="n">
         <v>100.55</v>
@@ -10321,7 +10321,7 @@
       </c>
       <c r="R167" t="inlineStr"/>
       <c r="S167" t="n">
-        <v>1130.6835446218</v>
+        <v>83.04425571448719</v>
       </c>
     </row>
     <row r="168">
@@ -10351,7 +10351,7 @@
         <v>28.55555555555556</v>
       </c>
       <c r="H168" t="n">
-        <v>77.8</v>
+        <v>25.44444444444444</v>
       </c>
       <c r="I168" t="n">
         <v>100.63</v>
@@ -10380,7 +10380,7 @@
       </c>
       <c r="R168" t="inlineStr"/>
       <c r="S168" t="n">
-        <v>1129.041718719413</v>
+        <v>83.28103401309846</v>
       </c>
     </row>
     <row r="169">
@@ -10410,7 +10410,7 @@
         <v>29.61111111111111</v>
       </c>
       <c r="H169" t="n">
-        <v>79.40000000000001</v>
+        <v>26.33333333333334</v>
       </c>
       <c r="I169" t="n">
         <v>100.63</v>
@@ -10439,7 +10439,7 @@
       </c>
       <c r="R169" t="inlineStr"/>
       <c r="S169" t="n">
-        <v>1134.962485022074</v>
+        <v>82.58247204626966</v>
       </c>
     </row>
     <row r="170">
@@ -10469,7 +10469,7 @@
         <v>29.61111111111111</v>
       </c>
       <c r="H170" t="n">
-        <v>79.5</v>
+        <v>26.38888888888889</v>
       </c>
       <c r="I170" t="n">
         <v>100.6</v>
@@ -10498,7 +10498,7 @@
       </c>
       <c r="R170" t="inlineStr"/>
       <c r="S170" t="n">
-        <v>1139.654318385942</v>
+        <v>82.85398042058651</v>
       </c>
     </row>
     <row r="171">
@@ -10528,7 +10528,7 @@
         <v>30.11111111111111</v>
       </c>
       <c r="H171" t="n">
-        <v>79.90000000000001</v>
+        <v>26.61111111111111</v>
       </c>
       <c r="I171" t="n">
         <v>100.92</v>
@@ -10557,7 +10557,7 @@
       </c>
       <c r="R171" t="inlineStr"/>
       <c r="S171" t="n">
-        <v>1125.707407507343</v>
+        <v>81.56548725640812</v>
       </c>
     </row>
     <row r="172">
@@ -10587,7 +10587,7 @@
         <v>28.5</v>
       </c>
       <c r="H172" t="n">
-        <v>79.59999999999999</v>
+        <v>26.44444444444444</v>
       </c>
       <c r="I172" t="n">
         <v>101.23</v>
@@ -10616,7 +10616,7 @@
       </c>
       <c r="R172" t="inlineStr"/>
       <c r="S172" t="n">
-        <v>1220.429912475384</v>
+        <v>88.6517814709033</v>
       </c>
     </row>
     <row r="173">
@@ -10646,7 +10646,7 @@
         <v>30.33333333333333</v>
       </c>
       <c r="H173" t="n">
-        <v>79.09999999999999</v>
+        <v>26.16666666666666</v>
       </c>
       <c r="I173" t="n">
         <v>101.26</v>
@@ -10675,7 +10675,7 @@
       </c>
       <c r="R173" t="inlineStr"/>
       <c r="S173" t="n">
-        <v>1075.36179709556</v>
+        <v>78.44450432302291</v>
       </c>
     </row>
     <row r="174">
@@ -10705,7 +10705,7 @@
         <v>29.33333333333333</v>
       </c>
       <c r="H174" t="n">
-        <v>77.7</v>
+        <v>25.38888888888889</v>
       </c>
       <c r="I174" t="n">
         <v>101.01</v>
@@ -10734,7 +10734,7 @@
       </c>
       <c r="R174" t="inlineStr"/>
       <c r="S174" t="n">
-        <v>1074.778571512344</v>
+        <v>79.346949599821</v>
       </c>
     </row>
     <row r="175">
@@ -10764,7 +10764,7 @@
         <v>29.16666666666667</v>
       </c>
       <c r="H175" t="n">
-        <v>78.3</v>
+        <v>25.72222222222222</v>
       </c>
       <c r="I175" t="n">
         <v>100.88</v>
@@ -10793,7 +10793,7 @@
       </c>
       <c r="R175" t="inlineStr"/>
       <c r="S175" t="n">
-        <v>1112.634135506762</v>
+        <v>81.71859766173297</v>
       </c>
     </row>
     <row r="176">
@@ -10823,7 +10823,7 @@
         <v>29.44444444444445</v>
       </c>
       <c r="H176" t="n">
-        <v>78.90000000000001</v>
+        <v>26.05555555555556</v>
       </c>
       <c r="I176" t="n">
         <v>100.75</v>
@@ -10852,7 +10852,7 @@
       </c>
       <c r="R176" t="inlineStr"/>
       <c r="S176" t="n">
-        <v>1122.495312529526</v>
+        <v>82.02182792257402</v>
       </c>
     </row>
     <row r="177">
@@ -10882,7 +10882,7 @@
         <v>29.5</v>
       </c>
       <c r="H177" t="n">
-        <v>78.2</v>
+        <v>25.66666666666667</v>
       </c>
       <c r="I177" t="n">
         <v>100.87</v>
@@ -10911,7 +10911,7 @@
       </c>
       <c r="R177" t="inlineStr"/>
       <c r="S177" t="n">
-        <v>1086.87525156204</v>
+        <v>79.89519857701013</v>
       </c>
     </row>
     <row r="178">
@@ -10941,7 +10941,7 @@
         <v>30.5</v>
       </c>
       <c r="H178" t="n">
-        <v>77.3</v>
+        <v>25.16666666666667</v>
       </c>
       <c r="I178" t="n">
         <v>100.44</v>
@@ -10970,7 +10970,7 @@
       </c>
       <c r="R178" t="inlineStr"/>
       <c r="S178" t="n">
-        <v>988.33241163755</v>
+        <v>73.21837655444145</v>
       </c>
     </row>
     <row r="179">
@@ -11000,7 +11000,7 @@
         <v>29.44444444444445</v>
       </c>
       <c r="H179" t="n">
-        <v>78.5</v>
+        <v>25.83333333333334</v>
       </c>
       <c r="I179" t="n">
         <v>100.29</v>
@@ -11029,7 +11029,7 @@
       </c>
       <c r="R179" t="inlineStr"/>
       <c r="S179" t="n">
-        <v>1104.039458745352</v>
+        <v>80.94868548620458</v>
       </c>
     </row>
     <row r="180">
@@ -11059,7 +11059,7 @@
         <v>29.11111111111111</v>
       </c>
       <c r="H180" t="n">
-        <v>78.8</v>
+        <v>26</v>
       </c>
       <c r="I180" t="n">
         <v>100.5</v>
@@ -11088,7 +11088,7 @@
       </c>
       <c r="R180" t="inlineStr"/>
       <c r="S180" t="n">
-        <v>1139.612731056884</v>
+        <v>83.34345172645932</v>
       </c>
     </row>
     <row r="181">
@@ -11118,7 +11118,7 @@
         <v>28.44444444444445</v>
       </c>
       <c r="H181" t="n">
-        <v>77.5</v>
+        <v>25.27777777777778</v>
       </c>
       <c r="I181" t="n">
         <v>100.76</v>
@@ -11147,7 +11147,7 @@
       </c>
       <c r="R181" t="inlineStr"/>
       <c r="S181" t="n">
-        <v>1122.227746400269</v>
+        <v>82.99349948095607</v>
       </c>
     </row>
     <row r="182">
@@ -11177,7 +11177,7 @@
         <v>27</v>
       </c>
       <c r="H182" t="n">
-        <v>76.8</v>
+        <v>24.88888888888889</v>
       </c>
       <c r="I182" t="n">
         <v>100.92</v>
@@ -11206,7 +11206,7 @@
       </c>
       <c r="R182" t="inlineStr"/>
       <c r="S182" t="n">
-        <v>1185.908389731689</v>
+        <v>88.23940423215105</v>
       </c>
     </row>
     <row r="183">
@@ -11236,7 +11236,7 @@
         <v>26.16666666666666</v>
       </c>
       <c r="H183" t="n">
-        <v>76.59999999999999</v>
+        <v>24.77777777777778</v>
       </c>
       <c r="I183" t="n">
         <v>100.98</v>
@@ -11265,7 +11265,7 @@
       </c>
       <c r="R183" t="inlineStr"/>
       <c r="S183" t="n">
-        <v>1235.245879593163</v>
+        <v>92.0717434310226</v>
       </c>
     </row>
     <row r="184">
@@ -11295,7 +11295,7 @@
         <v>27.11111111111111</v>
       </c>
       <c r="H184" t="n">
-        <v>77.5</v>
+        <v>25.27777777777778</v>
       </c>
       <c r="I184" t="n">
         <v>100.99</v>
@@ -11324,7 +11324,7 @@
       </c>
       <c r="R184" t="inlineStr"/>
       <c r="S184" t="n">
-        <v>1213.212220403787</v>
+        <v>89.72218705815015</v>
       </c>
     </row>
     <row r="185">
@@ -11354,7 +11354,7 @@
         <v>28.77777777777778</v>
       </c>
       <c r="H185" t="n">
-        <v>78</v>
+        <v>25.55555555555556</v>
       </c>
       <c r="I185" t="n">
         <v>100.94</v>
@@ -11383,7 +11383,7 @@
       </c>
       <c r="R185" t="inlineStr"/>
       <c r="S185" t="n">
-        <v>1123.885592097227</v>
+        <v>82.75792418960546</v>
       </c>
     </row>
     <row r="186">
@@ -11413,7 +11413,7 @@
         <v>28.11111111111111</v>
       </c>
       <c r="H186" t="n">
-        <v>77.5</v>
+        <v>25.27777777777778</v>
       </c>
       <c r="I186" t="n">
         <v>100.82</v>
@@ -11442,7 +11442,7 @@
       </c>
       <c r="R186" t="inlineStr"/>
       <c r="S186" t="n">
-        <v>1144.231194973214</v>
+        <v>84.62074778556764</v>
       </c>
     </row>
     <row r="187">
@@ -11472,7 +11472,7 @@
         <v>28.22222222222222</v>
       </c>
       <c r="H187" t="n">
-        <v>77.8</v>
+        <v>25.44444444444444</v>
       </c>
       <c r="I187" t="n">
         <v>100.87</v>
@@ -11501,7 +11501,7 @@
       </c>
       <c r="R187" t="inlineStr"/>
       <c r="S187" t="n">
-        <v>1151.16050284433</v>
+        <v>84.91257267326854</v>
       </c>
     </row>
     <row r="188">
@@ -11531,7 +11531,7 @@
         <v>28.22222222222222</v>
       </c>
       <c r="H188" t="n">
-        <v>78.2</v>
+        <v>25.66666666666667</v>
       </c>
       <c r="I188" t="n">
         <v>100.81</v>
@@ -11560,7 +11560,7 @@
       </c>
       <c r="R188" t="inlineStr"/>
       <c r="S188" t="n">
-        <v>1170.488652553841</v>
+        <v>86.04154266418873</v>
       </c>
     </row>
     <row r="189">
@@ -11590,7 +11590,7 @@
         <v>28.16666666666667</v>
       </c>
       <c r="H189" t="n">
-        <v>77.8</v>
+        <v>25.44444444444444</v>
       </c>
       <c r="I189" t="n">
         <v>100.99</v>
@@ -11619,7 +11619,7 @@
       </c>
       <c r="R189" t="inlineStr"/>
       <c r="S189" t="n">
-        <v>1154.894214116007</v>
+        <v>85.18798086258177</v>
       </c>
     </row>
     <row r="190">
@@ -11649,7 +11649,7 @@
         <v>27.27777777777778</v>
       </c>
       <c r="H190" t="n">
-        <v>77.7</v>
+        <v>25.38888888888889</v>
       </c>
       <c r="I190" t="n">
         <v>100.82</v>
@@ -11678,7 +11678,7 @@
       </c>
       <c r="R190" t="inlineStr"/>
       <c r="S190" t="n">
-        <v>1211.466047677441</v>
+        <v>89.43808331765962</v>
       </c>
     </row>
     <row r="191">
@@ -11708,7 +11708,7 @@
         <v>29.11111111111111</v>
       </c>
       <c r="H191" t="n">
-        <v>78.59999999999999</v>
+        <v>25.88888888888889</v>
       </c>
       <c r="I191" t="n">
         <v>100.76</v>
@@ -11737,7 +11737,7 @@
       </c>
       <c r="R191" t="inlineStr"/>
       <c r="S191" t="n">
-        <v>1130.205256955176</v>
+        <v>82.79643965016584</v>
       </c>
     </row>
     <row r="192">
@@ -11767,7 +11767,7 @@
         <v>27.72222222222222</v>
       </c>
       <c r="H192" t="n">
-        <v>78.5</v>
+        <v>25.83333333333334</v>
       </c>
       <c r="I192" t="n">
         <v>100.81</v>
@@ -11796,7 +11796,7 @@
       </c>
       <c r="R192" t="inlineStr"/>
       <c r="S192" t="n">
-        <v>1220.271819603498</v>
+        <v>89.47089612631837</v>
       </c>
     </row>
     <row r="193">
@@ -11826,7 +11826,7 @@
         <v>26.88888888888889</v>
       </c>
       <c r="H193" t="n">
-        <v>78</v>
+        <v>25.55555555555556</v>
       </c>
       <c r="I193" t="n">
         <v>100.81</v>
@@ -11855,7 +11855,7 @@
       </c>
       <c r="R193" t="inlineStr"/>
       <c r="S193" t="n">
-        <v>1255.061776114162</v>
+        <v>92.41715353527016</v>
       </c>
     </row>
     <row r="194">
@@ -11885,7 +11885,7 @@
         <v>28.83333333333334</v>
       </c>
       <c r="H194" t="n">
-        <v>78.7</v>
+        <v>25.94444444444445</v>
       </c>
       <c r="I194" t="n">
         <v>100.95</v>
@@ -11914,7 +11914,7 @@
       </c>
       <c r="R194" t="inlineStr"/>
       <c r="S194" t="n">
-        <v>1153.318897907037</v>
+        <v>84.41767938536469</v>
       </c>
     </row>
     <row r="195">
@@ -11944,7 +11944,7 @@
         <v>28.55555555555556</v>
       </c>
       <c r="H195" t="n">
-        <v>77.5</v>
+        <v>25.27777777777778</v>
       </c>
       <c r="I195" t="n">
         <v>100.77</v>
@@ -11973,7 +11973,7 @@
       </c>
       <c r="R195" t="inlineStr"/>
       <c r="S195" t="n">
-        <v>1114.999485731816</v>
+        <v>82.45893896063407</v>
       </c>
     </row>
     <row r="196">
@@ -12003,7 +12003,7 @@
         <v>29.66666666666667</v>
       </c>
       <c r="H196" t="n">
-        <v>75.5</v>
+        <v>24.16666666666667</v>
       </c>
       <c r="I196" t="n">
         <v>100.61</v>
@@ -12032,7 +12032,7 @@
       </c>
       <c r="R196" t="inlineStr"/>
       <c r="S196" t="n">
-        <v>961.2583746697394</v>
+        <v>72.35031010577299</v>
       </c>
     </row>
     <row r="197">
@@ -12062,7 +12062,7 @@
         <v>29.94444444444445</v>
       </c>
       <c r="H197" t="n">
-        <v>78</v>
+        <v>25.55555555555556</v>
       </c>
       <c r="I197" t="n">
         <v>100.55</v>
@@ -12091,7 +12091,7 @@
       </c>
       <c r="R197" t="inlineStr"/>
       <c r="S197" t="n">
-        <v>1050.609064503081</v>
+        <v>77.36216739891847</v>
       </c>
     </row>
     <row r="198">
@@ -12121,7 +12121,7 @@
         <v>28.77777777777778</v>
       </c>
       <c r="H198" t="n">
-        <v>78.2</v>
+        <v>25.66666666666667</v>
       </c>
       <c r="I198" t="n">
         <v>100.83</v>
@@ -12150,7 +12150,7 @@
       </c>
       <c r="R198" t="inlineStr"/>
       <c r="S198" t="n">
-        <v>1133.27554764272</v>
+        <v>83.30604160068752</v>
       </c>
     </row>
     <row r="199">
@@ -12180,7 +12180,7 @@
         <v>29.16666666666667</v>
       </c>
       <c r="H199" t="n">
-        <v>77.3</v>
+        <v>25.16666666666667</v>
       </c>
       <c r="I199" t="n">
         <v>100.88</v>
@@ -12209,7 +12209,7 @@
       </c>
       <c r="R199" t="inlineStr"/>
       <c r="S199" t="n">
-        <v>1067.213992750761</v>
+        <v>79.06214049575276</v>
       </c>
     </row>
     <row r="200">
@@ -12239,7 +12239,7 @@
         <v>28.05555555555556</v>
       </c>
       <c r="H200" t="n">
-        <v>78.2</v>
+        <v>25.66666666666667</v>
       </c>
       <c r="I200" t="n">
         <v>100.98</v>
@@ -12268,7 +12268,7 @@
       </c>
       <c r="R200" t="inlineStr"/>
       <c r="S200" t="n">
-        <v>1181.919533007908</v>
+        <v>86.88181615691497</v>
       </c>
     </row>
     <row r="201">
@@ -12298,7 +12298,7 @@
         <v>27.77777777777778</v>
       </c>
       <c r="H201" t="n">
-        <v>77.8</v>
+        <v>25.44444444444444</v>
       </c>
       <c r="I201" t="n">
         <v>101.04</v>
@@ -12327,7 +12327,7 @@
       </c>
       <c r="R201" t="inlineStr"/>
       <c r="S201" t="n">
-        <v>1181.415355656685</v>
+        <v>87.14424877907697</v>
       </c>
     </row>
     <row r="202">
@@ -12357,7 +12357,7 @@
         <v>28.5</v>
       </c>
       <c r="H202" t="n">
-        <v>77.40000000000001</v>
+        <v>25.22222222222222</v>
       </c>
       <c r="I202" t="n">
         <v>100.73</v>
@@ -12386,7 +12386,7 @@
       </c>
       <c r="R202" t="inlineStr"/>
       <c r="S202" t="n">
-        <v>1113.944402343744</v>
+        <v>82.45240226238813</v>
       </c>
     </row>
     <row r="203">
@@ -12416,7 +12416,7 @@
         <v>29.11111111111111</v>
       </c>
       <c r="H203" t="n">
-        <v>78.2</v>
+        <v>25.66666666666667</v>
       </c>
       <c r="I203" t="n">
         <v>100.14</v>
@@ -12445,7 +12445,7 @@
       </c>
       <c r="R203" t="inlineStr"/>
       <c r="S203" t="n">
-        <v>1111.588271810548</v>
+        <v>81.71182993130269</v>
       </c>
     </row>
     <row r="204">
@@ -12475,7 +12475,7 @@
         <v>27.94444444444444</v>
       </c>
       <c r="H204" t="n">
-        <v>77.2</v>
+        <v>25.11111111111111</v>
       </c>
       <c r="I204" t="n">
         <v>99.7</v>
@@ -12504,7 +12504,7 @@
       </c>
       <c r="R204" t="inlineStr"/>
       <c r="S204" t="n">
-        <v>1141.017878713209</v>
+        <v>84.60329998692526</v>
       </c>
     </row>
     <row r="205">
@@ -12534,7 +12534,7 @@
         <v>29.77777777777778</v>
       </c>
       <c r="H205" t="n">
-        <v>78</v>
+        <v>25.55555555555556</v>
       </c>
       <c r="I205" t="n">
         <v>100.03</v>
@@ -12563,7 +12563,7 @@
       </c>
       <c r="R205" t="inlineStr"/>
       <c r="S205" t="n">
-        <v>1060.739718827157</v>
+        <v>78.10814361610487</v>
       </c>
     </row>
     <row r="206">
@@ -12593,7 +12593,7 @@
         <v>29.22222222222222</v>
       </c>
       <c r="H206" t="n">
-        <v>78.90000000000001</v>
+        <v>26.05555555555556</v>
       </c>
       <c r="I206" t="n">
         <v>100.6</v>
@@ -12622,7 +12622,7 @@
       </c>
       <c r="R206" t="inlineStr"/>
       <c r="S206" t="n">
-        <v>1137.006566912848</v>
+        <v>83.08217944180427</v>
       </c>
     </row>
     <row r="207">
@@ -12652,7 +12652,7 @@
         <v>28.88888888888889</v>
       </c>
       <c r="H207" t="n">
-        <v>76.5</v>
+        <v>24.72222222222222</v>
       </c>
       <c r="I207" t="n">
         <v>101.12</v>
@@ -12681,7 +12681,7 @@
       </c>
       <c r="R207" t="inlineStr"/>
       <c r="S207" t="n">
-        <v>1048.76468145248</v>
+        <v>78.24067396507327</v>
       </c>
     </row>
     <row r="208">
@@ -12711,7 +12711,7 @@
         <v>28.55555555555556</v>
       </c>
       <c r="H208" t="n">
-        <v>67.90000000000001</v>
+        <v>19.94444444444445</v>
       </c>
       <c r="I208" t="n">
         <v>101.34</v>
@@ -12740,7 +12740,7 @@
       </c>
       <c r="R208" t="inlineStr"/>
       <c r="S208" t="n">
-        <v>737.5895721942086</v>
+        <v>59.633694088294</v>
       </c>
     </row>
     <row r="209">
@@ -12770,7 +12770,7 @@
         <v>28.05555555555556</v>
       </c>
       <c r="H209" t="n">
-        <v>67.5</v>
+        <v>19.72222222222222</v>
       </c>
       <c r="I209" t="n">
         <v>101.25</v>
@@ -12799,7 +12799,7 @@
       </c>
       <c r="R209" t="inlineStr"/>
       <c r="S209" t="n">
-        <v>746.0079082807537</v>
+        <v>60.55501472272865</v>
       </c>
     </row>
     <row r="210">
@@ -12829,7 +12829,7 @@
         <v>28.16666666666667</v>
       </c>
       <c r="H210" t="n">
-        <v>69.5</v>
+        <v>20.83333333333334</v>
       </c>
       <c r="I210" t="n">
         <v>101.12</v>
@@ -12858,7 +12858,7 @@
       </c>
       <c r="R210" t="inlineStr"/>
       <c r="S210" t="n">
-        <v>809.6949668786999</v>
+        <v>64.44303903402211</v>
       </c>
     </row>
     <row r="211">
@@ -12888,7 +12888,7 @@
         <v>28.44444444444445</v>
       </c>
       <c r="H211" t="n">
-        <v>76</v>
+        <v>24.44444444444445</v>
       </c>
       <c r="I211" t="n">
         <v>100.16</v>
@@ -12917,7 +12917,7 @@
       </c>
       <c r="R211" t="inlineStr"/>
       <c r="S211" t="n">
-        <v>1053.783226984916</v>
+        <v>78.96267423907415</v>
       </c>
     </row>
     <row r="212">
@@ -12947,7 +12947,7 @@
         <v>27.83333333333333</v>
       </c>
       <c r="H212" t="n">
-        <v>74.5</v>
+        <v>23.61111111111111</v>
       </c>
       <c r="I212" t="n">
         <v>100.42</v>
@@ -12976,7 +12976,7 @@
       </c>
       <c r="R212" t="inlineStr"/>
       <c r="S212" t="n">
-        <v>1024.801282681809</v>
+        <v>77.82885330297984</v>
       </c>
     </row>
     <row r="213">
@@ -13006,7 +13006,7 @@
         <v>28.16666666666667</v>
       </c>
       <c r="H213" t="n">
-        <v>75.90000000000001</v>
+        <v>24.38888888888889</v>
       </c>
       <c r="I213" t="n">
         <v>100.46</v>
@@ -13035,7 +13035,7 @@
       </c>
       <c r="R213" t="inlineStr"/>
       <c r="S213" t="n">
-        <v>1066.463642223242</v>
+        <v>79.98369514468968</v>
       </c>
     </row>
     <row r="214">
@@ -13065,7 +13065,7 @@
         <v>29.16666666666667</v>
       </c>
       <c r="H214" t="n">
-        <v>74.8</v>
+        <v>23.77777777777778</v>
       </c>
       <c r="I214" t="n">
         <v>100.51</v>
@@ -13094,7 +13094,7 @@
       </c>
       <c r="R214" t="inlineStr"/>
       <c r="S214" t="n">
-        <v>960.5096867759786</v>
+        <v>72.74894374714702</v>
       </c>
     </row>
     <row r="215">
@@ -13124,7 +13124,7 @@
         <v>28.5</v>
       </c>
       <c r="H215" t="n">
-        <v>74.90000000000001</v>
+        <v>23.83333333333334</v>
       </c>
       <c r="I215" t="n">
         <v>100.53</v>
@@ -13153,7 +13153,7 @@
       </c>
       <c r="R215" t="inlineStr"/>
       <c r="S215" t="n">
-        <v>1002.633877267504</v>
+        <v>75.87110663787388</v>
       </c>
     </row>
     <row r="216">
@@ -13183,7 +13183,7 @@
         <v>26</v>
       </c>
       <c r="H216" t="n">
-        <v>75.59999999999999</v>
+        <v>24.22222222222222</v>
       </c>
       <c r="I216" t="n">
         <v>100.74</v>
@@ -13212,7 +13212,7 @@
       </c>
       <c r="R216" t="inlineStr"/>
       <c r="S216" t="n">
-        <v>1196.037461875259</v>
+        <v>89.94106123406668</v>
       </c>
     </row>
     <row r="217">
@@ -13242,7 +13242,7 @@
         <v>27.38888888888889</v>
       </c>
       <c r="H217" t="n">
-        <v>70.3</v>
+        <v>21.27777777777778</v>
       </c>
       <c r="I217" t="n">
         <v>100.86</v>
@@ -13271,7 +13271,7 @@
       </c>
       <c r="R217" t="inlineStr"/>
       <c r="S217" t="n">
-        <v>877.5876205721406</v>
+        <v>69.3092376611025</v>
       </c>
     </row>
     <row r="218">
@@ -13301,7 +13301,7 @@
         <v>27</v>
       </c>
       <c r="H218" t="n">
-        <v>69.59999999999999</v>
+        <v>20.88888888888889</v>
       </c>
       <c r="I218" t="n">
         <v>101.04</v>
@@ -13330,7 +13330,7 @@
       </c>
       <c r="R218" t="inlineStr"/>
       <c r="S218" t="n">
-        <v>870.7519527230639</v>
+        <v>69.23532196185693</v>
       </c>
     </row>
     <row r="219">
@@ -13360,7 +13360,7 @@
         <v>27.88888888888889</v>
       </c>
       <c r="H219" t="n">
-        <v>71.90000000000001</v>
+        <v>22.16666666666667</v>
       </c>
       <c r="I219" t="n">
         <v>100.92</v>
@@ -13389,7 +13389,7 @@
       </c>
       <c r="R219" t="inlineStr"/>
       <c r="S219" t="n">
-        <v>913.6710242021463</v>
+        <v>71.07144225751902</v>
       </c>
     </row>
     <row r="220">
@@ -13419,7 +13419,7 @@
         <v>28.5</v>
       </c>
       <c r="H220" t="n">
-        <v>74.2</v>
+        <v>23.44444444444445</v>
       </c>
       <c r="I220" t="n">
         <v>100.84</v>
@@ -13448,7 +13448,7 @@
       </c>
       <c r="R220" t="inlineStr"/>
       <c r="S220" t="n">
-        <v>973.2210843710949</v>
+        <v>74.11285120619866</v>
       </c>
     </row>
     <row r="221">
@@ -13478,7 +13478,7 @@
         <v>28.16666666666667</v>
       </c>
       <c r="H221" t="n">
-        <v>74.7</v>
+        <v>23.72222222222222</v>
       </c>
       <c r="I221" t="n">
         <v>100.97</v>
@@ -13507,7 +13507,7 @@
       </c>
       <c r="R221" t="inlineStr"/>
       <c r="S221" t="n">
-        <v>1013.638230198578</v>
+        <v>76.8421271856491</v>
       </c>
     </row>
     <row r="222">
@@ -13537,7 +13537,7 @@
         <v>27.83333333333333</v>
       </c>
       <c r="H222" t="n">
-        <v>75.2</v>
+        <v>24</v>
       </c>
       <c r="I222" t="n">
         <v>101.2</v>
@@ -13566,7 +13566,7 @@
       </c>
       <c r="R222" t="inlineStr"/>
       <c r="S222" t="n">
-        <v>1055.713721256876</v>
+        <v>79.67293843534704</v>
       </c>
     </row>
     <row r="223">
@@ -13596,7 +13596,7 @@
         <v>29.22222222222222</v>
       </c>
       <c r="H223" t="n">
-        <v>74.2</v>
+        <v>23.44444444444445</v>
       </c>
       <c r="I223" t="n">
         <v>101.33</v>
@@ -13625,7 +13625,7 @@
       </c>
       <c r="R223" t="inlineStr"/>
       <c r="S223" t="n">
-        <v>933.2943528950649</v>
+        <v>71.07234586105908</v>
       </c>
     </row>
     <row r="224">
@@ -13655,7 +13655,7 @@
         <v>28.16666666666667</v>
       </c>
       <c r="H224" t="n">
-        <v>76.2</v>
+        <v>24.55555555555556</v>
       </c>
       <c r="I224" t="n">
         <v>101.34</v>
@@ -13684,7 +13684,7 @@
       </c>
       <c r="R224" t="inlineStr"/>
       <c r="S224" t="n">
-        <v>1080.030307551893</v>
+        <v>80.78643812790105</v>
       </c>
     </row>
     <row r="225">
@@ -13714,7 +13714,7 @@
         <v>27.77777777777778</v>
       </c>
       <c r="H225" t="n">
-        <v>74.90000000000001</v>
+        <v>23.83333333333334</v>
       </c>
       <c r="I225" t="n">
         <v>101.36</v>
@@ -13743,7 +13743,7 @@
       </c>
       <c r="R225" t="inlineStr"/>
       <c r="S225" t="n">
-        <v>1045.760214761086</v>
+        <v>79.1345540687485</v>
       </c>
     </row>
     <row r="226">
@@ -13773,7 +13773,7 @@
         <v>29.33333333333333</v>
       </c>
       <c r="H226" t="n">
-        <v>71.2</v>
+        <v>21.77777777777778</v>
       </c>
       <c r="I226" t="n">
         <v>101.36</v>
@@ -13802,7 +13802,7 @@
       </c>
       <c r="R226" t="inlineStr"/>
       <c r="S226" t="n">
-        <v>815.0020982788717</v>
+        <v>63.81623043552771</v>
       </c>
     </row>
     <row r="227">
@@ -13832,7 +13832,7 @@
         <v>28.38888888888889</v>
       </c>
       <c r="H227" t="n">
-        <v>73.40000000000001</v>
+        <v>23</v>
       </c>
       <c r="I227" t="n">
         <v>101.42</v>
@@ -13861,7 +13861,7 @@
       </c>
       <c r="R227" t="inlineStr"/>
       <c r="S227" t="n">
-        <v>946.6096095120303</v>
+        <v>72.61511276939471</v>
       </c>
     </row>
     <row r="228">
@@ -13891,7 +13891,7 @@
         <v>28.05555555555556</v>
       </c>
       <c r="H228" t="n">
-        <v>72.8</v>
+        <v>22.66666666666667</v>
       </c>
       <c r="I228" t="n">
         <v>101.42</v>
@@ -13920,7 +13920,7 @@
       </c>
       <c r="R228" t="inlineStr"/>
       <c r="S228" t="n">
-        <v>940.6364142866908</v>
+        <v>72.55747672285571</v>
       </c>
     </row>
     <row r="229">
@@ -13950,7 +13950,7 @@
         <v>25.61111111111111</v>
       </c>
       <c r="H229" t="n">
-        <v>65.7</v>
+        <v>18.72222222222222</v>
       </c>
       <c r="I229" t="n">
         <v>101.38</v>
@@ -13979,7 +13979,7 @@
       </c>
       <c r="R229" t="inlineStr"/>
       <c r="S229" t="n">
-        <v>794.8220419443766</v>
+        <v>65.70250359414757</v>
       </c>
     </row>
     <row r="230">
@@ -14009,7 +14009,7 @@
         <v>24.66666666666667</v>
       </c>
       <c r="H230" t="n">
-        <v>63.7</v>
+        <v>17.61111111111111</v>
       </c>
       <c r="I230" t="n">
         <v>101.28</v>
@@ -14038,7 +14038,7 @@
       </c>
       <c r="R230" t="inlineStr"/>
       <c r="S230" t="n">
-        <v>768.032324881832</v>
+        <v>64.82055680595738</v>
       </c>
     </row>
     <row r="231">
@@ -14068,7 +14068,7 @@
         <v>26.16666666666666</v>
       </c>
       <c r="H231" t="n">
-        <v>68.5</v>
+        <v>20.27777777777778</v>
       </c>
       <c r="I231" t="n">
         <v>101.1</v>
@@ -14097,7 +14097,7 @@
       </c>
       <c r="R231" t="inlineStr"/>
       <c r="S231" t="n">
-        <v>871.3655787168532</v>
+        <v>70.03270897693734</v>
       </c>
     </row>
     <row r="232">
@@ -14127,7 +14127,7 @@
         <v>27.61111111111111</v>
       </c>
       <c r="H232" t="n">
-        <v>69.59999999999999</v>
+        <v>20.88888888888889</v>
       </c>
       <c r="I232" t="n">
         <v>101.07</v>
@@ -14156,7 +14156,7 @@
       </c>
       <c r="R232" t="inlineStr"/>
       <c r="S232" t="n">
-        <v>840.084820321851</v>
+        <v>66.79691366566541</v>
       </c>
     </row>
     <row r="233">
@@ -14186,7 +14186,7 @@
         <v>26.77777777777778</v>
       </c>
       <c r="H233" t="n">
-        <v>70.7</v>
+        <v>21.5</v>
       </c>
       <c r="I233" t="n">
         <v>100.8</v>
@@ -14215,7 +14215,7 @@
       </c>
       <c r="R233" t="inlineStr"/>
       <c r="S233" t="n">
-        <v>925.6958012484722</v>
+        <v>72.82929335833265</v>
       </c>
     </row>
     <row r="234">
@@ -14245,7 +14245,7 @@
         <v>27.55555555555555</v>
       </c>
       <c r="H234" t="n">
-        <v>74.40000000000001</v>
+        <v>23.55555555555556</v>
       </c>
       <c r="I234" t="n">
         <v>100.52</v>
@@ -14274,7 +14274,7 @@
       </c>
       <c r="R234" t="inlineStr"/>
       <c r="S234" t="n">
-        <v>1037.167297393974</v>
+        <v>78.83932703951211</v>
       </c>
     </row>
     <row r="235">
@@ -14304,7 +14304,7 @@
         <v>27.44444444444445</v>
       </c>
       <c r="H235" t="n">
-        <v>76.90000000000001</v>
+        <v>24.94444444444445</v>
       </c>
       <c r="I235" t="n">
         <v>100.47</v>
@@ -14333,7 +14333,7 @@
       </c>
       <c r="R235" t="inlineStr"/>
       <c r="S235" t="n">
-        <v>1160.22017568085</v>
+        <v>86.25253872889452</v>
       </c>
     </row>
     <row r="236">
@@ -14363,7 +14363,7 @@
         <v>24</v>
       </c>
       <c r="H236" t="n">
-        <v>63.5</v>
+        <v>17.5</v>
       </c>
       <c r="I236" t="n">
         <v>101.04</v>
@@ -14392,7 +14392,7 @@
       </c>
       <c r="R236" t="inlineStr"/>
       <c r="S236" t="n">
-        <v>792.1051106185374</v>
+        <v>66.99342676132261</v>
       </c>
     </row>
     <row r="237">
@@ -14422,7 +14422,7 @@
         <v>25.16666666666667</v>
       </c>
       <c r="H237" t="n">
-        <v>63.7</v>
+        <v>17.61111111111111</v>
       </c>
       <c r="I237" t="n">
         <v>101.36</v>
@@ -14451,7 +14451,7 @@
       </c>
       <c r="R237" t="inlineStr"/>
       <c r="S237" t="n">
-        <v>745.4380401307131</v>
+        <v>62.91363951777525</v>
       </c>
     </row>
     <row r="238">
@@ -14481,7 +14481,7 @@
         <v>26.16666666666666</v>
       </c>
       <c r="H238" t="n">
-        <v>64.8</v>
+        <v>18.22222222222222</v>
       </c>
       <c r="I238" t="n">
         <v>101.53</v>
@@ -14510,7 +14510,7 @@
       </c>
       <c r="R238" t="inlineStr"/>
       <c r="S238" t="n">
-        <v>738.452937854319</v>
+        <v>61.61168530087947</v>
       </c>
     </row>
     <row r="239">
@@ -14540,7 +14540,7 @@
         <v>27.16666666666667</v>
       </c>
       <c r="H239" t="n">
-        <v>75.59999999999999</v>
+        <v>24.22222222222222</v>
       </c>
       <c r="I239" t="n">
         <v>101.32</v>
@@ -14569,7 +14569,7 @@
       </c>
       <c r="R239" t="inlineStr"/>
       <c r="S239" t="n">
-        <v>1116.499208046243</v>
+        <v>83.95984811481378</v>
       </c>
     </row>
     <row r="240">
@@ -14599,7 +14599,7 @@
         <v>25.94444444444445</v>
       </c>
       <c r="H240" t="n">
-        <v>71.09999999999999</v>
+        <v>21.72222222222222</v>
       </c>
       <c r="I240" t="n">
         <v>101.29</v>
@@ -14628,7 +14628,7 @@
       </c>
       <c r="R240" t="inlineStr"/>
       <c r="S240" t="n">
-        <v>989.4923502179875</v>
+        <v>77.55267319586233</v>
       </c>
     </row>
     <row r="241">
@@ -14658,7 +14658,7 @@
         <v>24.83333333333334</v>
       </c>
       <c r="H241" t="n">
-        <v>62.2</v>
+        <v>16.77777777777778</v>
       </c>
       <c r="I241" t="n">
         <v>101.52</v>
@@ -14687,7 +14687,7 @@
       </c>
       <c r="R241" t="inlineStr"/>
       <c r="S241" t="n">
-        <v>709.9126411035967</v>
+        <v>60.87963573688327</v>
       </c>
     </row>
     <row r="242">
@@ -14717,7 +14717,7 @@
         <v>25.88888888888889</v>
       </c>
       <c r="H242" t="n">
-        <v>65.8</v>
+        <v>18.77777777777778</v>
       </c>
       <c r="I242" t="n">
         <v>101.38</v>
@@ -14746,7 +14746,7 @@
       </c>
       <c r="R242" t="inlineStr"/>
       <c r="S242" t="n">
-        <v>785.3511957450047</v>
+        <v>64.85320982897487</v>
       </c>
     </row>
     <row r="243">
@@ -14776,7 +14776,7 @@
         <v>27.16666666666667</v>
       </c>
       <c r="H243" t="n">
-        <v>65</v>
+        <v>18.33333333333334</v>
       </c>
       <c r="I243" t="n">
         <v>101.17</v>
@@ -14805,7 +14805,7 @@
       </c>
       <c r="R243" t="inlineStr"/>
       <c r="S243" t="n">
-        <v>702.5077601156249</v>
+        <v>58.49137393451321</v>
       </c>
     </row>
     <row r="244">
@@ -14835,7 +14835,7 @@
         <v>26.5</v>
       </c>
       <c r="H244" t="n">
-        <v>69</v>
+        <v>20.55555555555556</v>
       </c>
       <c r="I244" t="n">
         <v>100.89</v>
@@ -14864,7 +14864,7 @@
       </c>
       <c r="R244" t="inlineStr"/>
       <c r="S244" t="n">
-        <v>873.4303661644116</v>
+        <v>69.85513876940534</v>
       </c>
     </row>
     <row r="245">
@@ -14894,7 +14894,7 @@
         <v>25.16666666666667</v>
       </c>
       <c r="H245" t="n">
-        <v>70.09999999999999</v>
+        <v>21.16666666666666</v>
       </c>
       <c r="I245" t="n">
         <v>100.58</v>
@@ -14923,7 +14923,7 @@
       </c>
       <c r="R245" t="inlineStr"/>
       <c r="S245" t="n">
-        <v>992.0850834301749</v>
+        <v>78.5026820254935</v>
       </c>
     </row>
     <row r="246">
@@ -14953,7 +14953,7 @@
         <v>25.44444444444444</v>
       </c>
       <c r="H246" t="n">
-        <v>72</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="I246" t="n">
         <v>100.49</v>
@@ -14982,7 +14982,7 @@
       </c>
       <c r="R246" t="inlineStr"/>
       <c r="S246" t="n">
-        <v>1059.861471581386</v>
+        <v>82.36583383213568</v>
       </c>
     </row>
     <row r="247">
@@ -15012,7 +15012,7 @@
         <v>25.77777777777778</v>
       </c>
       <c r="H247" t="n">
-        <v>67.59999999999999</v>
+        <v>19.77777777777778</v>
       </c>
       <c r="I247" t="n">
         <v>100.59</v>
@@ -15041,7 +15041,7 @@
       </c>
       <c r="R247" t="inlineStr"/>
       <c r="S247" t="n">
-        <v>856.8037123255845</v>
+        <v>69.47917849906344</v>
       </c>
     </row>
     <row r="248">
@@ -15071,7 +15071,7 @@
         <v>26.5</v>
       </c>
       <c r="H248" t="n">
-        <v>69.8</v>
+        <v>21</v>
       </c>
       <c r="I248" t="n">
         <v>101.01</v>
@@ -15100,7 +15100,7 @@
       </c>
       <c r="R248" t="inlineStr"/>
       <c r="S248" t="n">
-        <v>904.6839656189061</v>
+        <v>71.79419055779921</v>
       </c>
     </row>
     <row r="249">
@@ -15130,7 +15130,7 @@
         <v>25.77777777777778</v>
       </c>
       <c r="H249" t="n">
-        <v>70.09999999999999</v>
+        <v>21.16666666666666</v>
       </c>
       <c r="I249" t="n">
         <v>101.52</v>
@@ -15159,7 +15159,7 @@
       </c>
       <c r="R249" t="inlineStr"/>
       <c r="S249" t="n">
-        <v>956.6753987619447</v>
+        <v>75.70074974915894</v>
       </c>
     </row>
     <row r="250">
@@ -15189,7 +15189,7 @@
         <v>23.05555555555556</v>
       </c>
       <c r="H250" t="n">
-        <v>65.90000000000001</v>
+        <v>18.83333333333334</v>
       </c>
       <c r="I250" t="n">
         <v>101.65</v>
@@ -15218,7 +15218,7 @@
       </c>
       <c r="R250" t="inlineStr"/>
       <c r="S250" t="n">
-        <v>934.8620497124791</v>
+        <v>77.12075465007817</v>
       </c>
     </row>
     <row r="251">
@@ -15248,7 +15248,7 @@
         <v>24.94444444444445</v>
       </c>
       <c r="H251" t="n">
-        <v>67.2</v>
+        <v>19.55555555555556</v>
       </c>
       <c r="I251" t="n">
         <v>101.55</v>
@@ -15277,7 +15277,7 @@
       </c>
       <c r="R251" t="inlineStr"/>
       <c r="S251" t="n">
-        <v>884.4848328680617</v>
+        <v>72.01132098872255</v>
       </c>
     </row>
     <row r="252">
@@ -15307,7 +15307,7 @@
         <v>25.11111111111111</v>
       </c>
       <c r="H252" t="n">
-        <v>69</v>
+        <v>20.55555555555556</v>
       </c>
       <c r="I252" t="n">
         <v>101.5</v>
@@ -15336,7 +15336,7 @@
       </c>
       <c r="R252" t="inlineStr"/>
       <c r="S252" t="n">
-        <v>948.4472224211162</v>
+        <v>75.85483045274924</v>
       </c>
     </row>
     <row r="253">
@@ -15366,7 +15366,7 @@
         <v>26.83333333333333</v>
       </c>
       <c r="H253" t="n">
-        <v>69.3</v>
+        <v>20.72222222222222</v>
       </c>
       <c r="I253" t="n">
         <v>101.53</v>
@@ -15395,7 +15395,7 @@
       </c>
       <c r="R253" t="inlineStr"/>
       <c r="S253" t="n">
-        <v>867.8197087505708</v>
+        <v>69.2035692094337</v>
       </c>
     </row>
     <row r="254">
@@ -15425,7 +15425,7 @@
         <v>26.22222222222222</v>
       </c>
       <c r="H254" t="n">
-        <v>70.40000000000001</v>
+        <v>21.33333333333334</v>
       </c>
       <c r="I254" t="n">
         <v>101.57</v>
@@ -15454,7 +15454,7 @@
       </c>
       <c r="R254" t="inlineStr"/>
       <c r="S254" t="n">
-        <v>944.1147171801409</v>
+        <v>74.49185911583247</v>
       </c>
     </row>
     <row r="255">
@@ -15484,7 +15484,7 @@
         <v>27</v>
       </c>
       <c r="H255" t="n">
-        <v>73.3</v>
+        <v>22.94444444444444</v>
       </c>
       <c r="I255" t="n">
         <v>101.46</v>
@@ -15513,7 +15513,7 @@
       </c>
       <c r="R255" t="inlineStr"/>
       <c r="S255" t="n">
-        <v>1022.345647310588</v>
+        <v>78.49701746307315</v>
       </c>
     </row>
     <row r="256">
@@ -15543,7 +15543,7 @@
         <v>26.5</v>
       </c>
       <c r="H256" t="n">
-        <v>71</v>
+        <v>21.66666666666667</v>
       </c>
       <c r="I256" t="n">
         <v>101.52</v>
@@ -15572,7 +15572,7 @@
       </c>
       <c r="R256" t="inlineStr"/>
       <c r="S256" t="n">
-        <v>953.3539186406333</v>
+        <v>74.79128245090672</v>
       </c>
     </row>
     <row r="257">
@@ -15602,7 +15602,7 @@
         <v>26.22222222222222</v>
       </c>
       <c r="H257" t="n">
-        <v>71.5</v>
+        <v>21.94444444444445</v>
       </c>
       <c r="I257" t="n">
         <v>101.42</v>
@@ -15631,7 +15631,7 @@
       </c>
       <c r="R257" t="inlineStr"/>
       <c r="S257" t="n">
-        <v>990.4046454450011</v>
+        <v>77.33086014874306</v>
       </c>
     </row>
     <row r="258">
@@ -15661,7 +15661,7 @@
         <v>25.94444444444445</v>
       </c>
       <c r="H258" t="n">
-        <v>71.59999999999999</v>
+        <v>22</v>
       </c>
       <c r="I258" t="n">
         <v>101.33</v>
@@ -15690,7 +15690,7 @@
       </c>
       <c r="R258" t="inlineStr"/>
       <c r="S258" t="n">
-        <v>1011.200953200459</v>
+        <v>78.8802088822044</v>
       </c>
     </row>
     <row r="259">
@@ -15720,7 +15720,7 @@
         <v>26.5</v>
       </c>
       <c r="H259" t="n">
-        <v>70.8</v>
+        <v>21.55555555555555</v>
       </c>
       <c r="I259" t="n">
         <v>101.4</v>
@@ -15749,7 +15749,7 @@
       </c>
       <c r="R259" t="inlineStr"/>
       <c r="S259" t="n">
-        <v>945.0903887444674</v>
+        <v>74.28427779804983</v>
       </c>
     </row>
     <row r="260">
@@ -15779,7 +15779,7 @@
         <v>25.77777777777778</v>
       </c>
       <c r="H260" t="n">
-        <v>73</v>
+        <v>22.77777777777778</v>
       </c>
       <c r="I260" t="n">
         <v>101.29</v>
@@ -15808,7 +15808,7 @@
       </c>
       <c r="R260" t="inlineStr"/>
       <c r="S260" t="n">
-        <v>1084.829571272396</v>
+        <v>83.52533074757432</v>
       </c>
     </row>
     <row r="261">
@@ -15838,7 +15838,7 @@
         <v>25.77777777777778</v>
       </c>
       <c r="H261" t="n">
-        <v>70.3</v>
+        <v>21.27777777777778</v>
       </c>
       <c r="I261" t="n">
         <v>101.39</v>
@@ -15867,7 +15867,7 @@
       </c>
       <c r="R261" t="inlineStr"/>
       <c r="S261" t="n">
-        <v>965.0777601745247</v>
+        <v>76.21894643155136</v>
       </c>
     </row>
     <row r="262">
@@ -15897,7 +15897,7 @@
         <v>27.11111111111111</v>
       </c>
       <c r="H262" t="n">
-        <v>74.59999999999999</v>
+        <v>23.66666666666666</v>
       </c>
       <c r="I262" t="n">
         <v>101.41</v>
@@ -15926,7 +15926,7 @@
       </c>
       <c r="R262" t="inlineStr"/>
       <c r="S262" t="n">
-        <v>1073.659996214593</v>
+        <v>81.46577209972556</v>
       </c>
     </row>
     <row r="263">
@@ -15956,7 +15956,7 @@
         <v>25.88888888888889</v>
       </c>
       <c r="H263" t="n">
-        <v>70.7</v>
+        <v>21.5</v>
       </c>
       <c r="I263" t="n">
         <v>101.5</v>
@@ -15985,7 +15985,7 @@
       </c>
       <c r="R263" t="inlineStr"/>
       <c r="S263" t="n">
-        <v>975.6207424642128</v>
+        <v>76.75714761109566</v>
       </c>
     </row>
     <row r="264">
@@ -16015,7 +16015,7 @@
         <v>23.88888888888889</v>
       </c>
       <c r="H264" t="n">
-        <v>66.7</v>
+        <v>19.27777777777778</v>
       </c>
       <c r="I264" t="n">
         <v>101.47</v>
@@ -16044,7 +16044,7 @@
       </c>
       <c r="R264" t="inlineStr"/>
       <c r="S264" t="n">
-        <v>921.4577911298771</v>
+        <v>75.39992844743315</v>
       </c>
     </row>
     <row r="265">
@@ -16074,7 +16074,7 @@
         <v>23.44444444444445</v>
       </c>
       <c r="H265" t="n">
-        <v>61.4</v>
+        <v>16.33333333333333</v>
       </c>
       <c r="I265" t="n">
         <v>101.55</v>
@@ -16103,7 +16103,7 @@
       </c>
       <c r="R265" t="inlineStr"/>
       <c r="S265" t="n">
-        <v>743.70143536117</v>
+        <v>64.33151910017824</v>
       </c>
     </row>
     <row r="266">
@@ -16133,7 +16133,7 @@
         <v>23.44444444444445</v>
       </c>
       <c r="H266" t="n">
-        <v>62.4</v>
+        <v>16.88888888888889</v>
       </c>
       <c r="I266" t="n">
         <v>101.48</v>
@@ -16162,7 +16162,7 @@
       </c>
       <c r="R266" t="inlineStr"/>
       <c r="S266" t="n">
-        <v>778.8132353804297</v>
+        <v>66.64498945627476</v>
       </c>
     </row>
     <row r="267">
@@ -16192,7 +16192,7 @@
         <v>18.77777777777778</v>
       </c>
       <c r="H267" t="n">
-        <v>58.7</v>
+        <v>14.83333333333334</v>
       </c>
       <c r="I267" t="n">
         <v>102.02</v>
@@ -16221,7 +16221,7 @@
       </c>
       <c r="R267" t="inlineStr"/>
       <c r="S267" t="n">
-        <v>873.3589239824475</v>
+        <v>77.84241925778571</v>
       </c>
     </row>
     <row r="268">
@@ -16251,7 +16251,7 @@
         <v>16</v>
       </c>
       <c r="H268" t="n">
-        <v>48.6</v>
+        <v>9.222222222222223</v>
       </c>
       <c r="I268" t="n">
         <v>102.13</v>
@@ -16280,7 +16280,7 @@
       </c>
       <c r="R268" t="inlineStr"/>
       <c r="S268" t="n">
-        <v>636.286755643646</v>
+        <v>64.10330155699546</v>
       </c>
     </row>
     <row r="269">
@@ -16310,7 +16310,7 @@
         <v>19.94444444444445</v>
       </c>
       <c r="H269" t="n">
-        <v>52.1</v>
+        <v>11.16666666666667</v>
       </c>
       <c r="I269" t="n">
         <v>101.86</v>
@@ -16339,7 +16339,7 @@
       </c>
       <c r="R269" t="inlineStr"/>
       <c r="S269" t="n">
-        <v>590.9932229852126</v>
+        <v>56.95345084589869</v>
       </c>
     </row>
     <row r="270">
@@ -16369,7 +16369,7 @@
         <v>19.77777777777778</v>
       </c>
       <c r="H270" t="n">
-        <v>49.5</v>
+        <v>9.722222222222223</v>
       </c>
       <c r="I270" t="n">
         <v>101.45</v>
@@ -16398,7 +16398,7 @@
       </c>
       <c r="R270" t="inlineStr"/>
       <c r="S270" t="n">
-        <v>524.7809824027179</v>
+        <v>52.25830234452968</v>
       </c>
     </row>
     <row r="271">
@@ -16428,7 +16428,7 @@
         <v>18.77777777777778</v>
       </c>
       <c r="H271" t="n">
-        <v>52.7</v>
+        <v>11.5</v>
       </c>
       <c r="I271" t="n">
         <v>101.7</v>
@@ -16457,7 +16457,7 @@
       </c>
       <c r="R271" t="inlineStr"/>
       <c r="S271" t="n">
-        <v>654.5438914988732</v>
+        <v>62.61274616348599</v>
       </c>
     </row>
     <row r="272">
@@ -16487,7 +16487,7 @@
         <v>17.55555555555556</v>
       </c>
       <c r="H272" t="n">
-        <v>50.9</v>
+        <v>10.5</v>
       </c>
       <c r="I272" t="n">
         <v>101.97</v>
@@ -16516,7 +16516,7 @@
       </c>
       <c r="R272" t="inlineStr"/>
       <c r="S272" t="n">
-        <v>646.7301916153298</v>
+        <v>63.26578013533874</v>
       </c>
     </row>
     <row r="273">
@@ -16546,7 +16546,7 @@
         <v>20.05555555555555</v>
       </c>
       <c r="H273" t="n">
-        <v>54.8</v>
+        <v>12.66666666666667</v>
       </c>
       <c r="I273" t="n">
         <v>102.14</v>
@@ -16575,7 +16575,7 @@
       </c>
       <c r="R273" t="inlineStr"/>
       <c r="S273" t="n">
-        <v>669.5905259397045</v>
+        <v>62.44459990883466</v>
       </c>
     </row>
     <row r="274">
@@ -16605,7 +16605,7 @@
         <v>21.94444444444445</v>
       </c>
       <c r="H274" t="n">
-        <v>61.2</v>
+        <v>16.22222222222222</v>
       </c>
       <c r="I274" t="n">
         <v>102.05</v>
@@ -16634,7 +16634,7 @@
       </c>
       <c r="R274" t="inlineStr"/>
       <c r="S274" t="n">
-        <v>807.1091671050691</v>
+        <v>69.968662488828</v>
       </c>
     </row>
     <row r="275">
@@ -16664,7 +16664,7 @@
         <v>23.11111111111111</v>
       </c>
       <c r="H275" t="n">
-        <v>61.7</v>
+        <v>16.5</v>
       </c>
       <c r="I275" t="n">
         <v>101.92</v>
@@ -16693,7 +16693,7 @@
       </c>
       <c r="R275" t="inlineStr"/>
       <c r="S275" t="n">
-        <v>769.4398190227436</v>
+        <v>66.34155429389079</v>
       </c>
     </row>
     <row r="276">
@@ -16723,7 +16723,7 @@
         <v>21.61111111111111</v>
       </c>
       <c r="H276" t="n">
-        <v>63.9</v>
+        <v>17.72222222222222</v>
       </c>
       <c r="I276" t="n">
         <v>102.04</v>
@@ -16752,7 +16752,7 @@
       </c>
       <c r="R276" t="inlineStr"/>
       <c r="S276" t="n">
-        <v>932.4991627457911</v>
+        <v>78.53588722699402</v>
       </c>
     </row>
     <row r="277">
@@ -16782,7 +16782,7 @@
         <v>21.5</v>
       </c>
       <c r="H277" t="n">
-        <v>64.5</v>
+        <v>18.05555555555556</v>
       </c>
       <c r="I277" t="n">
         <v>102.05</v>
@@ -16811,7 +16811,7 @@
       </c>
       <c r="R277" t="inlineStr"/>
       <c r="S277" t="n">
-        <v>964.8182957276244</v>
+        <v>80.7495091899285</v>
       </c>
     </row>
     <row r="278">
@@ -16841,7 +16841,7 @@
         <v>21.83333333333333</v>
       </c>
       <c r="H278" t="n">
-        <v>62.8</v>
+        <v>17.11111111111111</v>
       </c>
       <c r="I278" t="n">
         <v>102.04</v>
@@ -16870,7 +16870,7 @@
       </c>
       <c r="R278" t="inlineStr"/>
       <c r="S278" t="n">
-        <v>874.812241599072</v>
+        <v>74.54026647994806</v>
       </c>
     </row>
     <row r="279">
@@ -16900,7 +16900,7 @@
         <v>22</v>
       </c>
       <c r="H279" t="n">
-        <v>61.8</v>
+        <v>16.55555555555555</v>
       </c>
       <c r="I279" t="n">
         <v>102.06</v>
@@ -16929,7 +16929,7 @@
       </c>
       <c r="R279" t="inlineStr"/>
       <c r="S279" t="n">
-        <v>827.0116179314803</v>
+        <v>71.22828902530726</v>
       </c>
     </row>
     <row r="280">
@@ -16959,7 +16959,7 @@
         <v>22.61111111111111</v>
       </c>
       <c r="H280" t="n">
-        <v>65.09999999999999</v>
+        <v>18.38888888888889</v>
       </c>
       <c r="I280" t="n">
         <v>102.09</v>
@@ -16988,7 +16988,7 @@
       </c>
       <c r="R280" t="inlineStr"/>
       <c r="S280" t="n">
-        <v>926.4013378050015</v>
+        <v>77.05326249617714</v>
       </c>
     </row>
     <row r="281">
@@ -17018,7 +17018,7 @@
         <v>22.55555555555555</v>
       </c>
       <c r="H281" t="n">
-        <v>64.5</v>
+        <v>18.05555555555556</v>
       </c>
       <c r="I281" t="n">
         <v>101.9</v>
@@ -17047,7 +17047,7 @@
       </c>
       <c r="R281" t="inlineStr"/>
       <c r="S281" t="n">
-        <v>904.6273573317491</v>
+        <v>75.71188837088852</v>
       </c>
     </row>
     <row r="282">
@@ -17077,7 +17077,7 @@
         <v>21.22222222222222</v>
       </c>
       <c r="H282" t="n">
-        <v>58.7</v>
+        <v>14.83333333333334</v>
       </c>
       <c r="I282" t="n">
         <v>101.88</v>
@@ -17106,7 +17106,7 @@
       </c>
       <c r="R282" t="inlineStr"/>
       <c r="S282" t="n">
-        <v>750.5930646769219</v>
+        <v>66.90030688200936</v>
       </c>
     </row>
     <row r="283">
@@ -17136,7 +17136,7 @@
         <v>21.88888888888889</v>
       </c>
       <c r="H283" t="n">
-        <v>61.3</v>
+        <v>16.27777777777778</v>
       </c>
       <c r="I283" t="n">
         <v>101.96</v>
@@ -17165,7 +17165,7 @@
       </c>
       <c r="R283" t="inlineStr"/>
       <c r="S283" t="n">
-        <v>813.6131121123776</v>
+        <v>70.45565353122088</v>
       </c>
     </row>
     <row r="284">
@@ -17195,7 +17195,7 @@
         <v>23</v>
       </c>
       <c r="H284" t="n">
-        <v>63.5</v>
+        <v>17.5</v>
       </c>
       <c r="I284" t="n">
         <v>101.85</v>
@@ -17224,7 +17224,7 @@
       </c>
       <c r="R284" t="inlineStr"/>
       <c r="S284" t="n">
-        <v>841.3849412077917</v>
+        <v>71.16133917235804</v>
       </c>
     </row>
     <row r="285">
@@ -17254,7 +17254,7 @@
         <v>21.94444444444445</v>
       </c>
       <c r="H285" t="n">
-        <v>64</v>
+        <v>17.77777777777778</v>
       </c>
       <c r="I285" t="n">
         <v>101.74</v>
@@ -17283,7 +17283,7 @@
       </c>
       <c r="R285" t="inlineStr"/>
       <c r="S285" t="n">
-        <v>917.8552417907545</v>
+        <v>77.22147249386269</v>
       </c>
     </row>
     <row r="286">
@@ -17313,7 +17313,7 @@
         <v>22.94444444444444</v>
       </c>
       <c r="H286" t="n">
-        <v>65.09999999999999</v>
+        <v>18.38888888888889</v>
       </c>
       <c r="I286" t="n">
         <v>101.65</v>
@@ -17342,7 +17342,7 @@
       </c>
       <c r="R286" t="inlineStr"/>
       <c r="S286" t="n">
-        <v>907.8507023798285</v>
+        <v>75.5103167743224</v>
       </c>
     </row>
     <row r="287">
@@ -17372,7 +17372,7 @@
         <v>24.11111111111111</v>
       </c>
       <c r="H287" t="n">
-        <v>65.2</v>
+        <v>18.44444444444445</v>
       </c>
       <c r="I287" t="n">
         <v>101.54</v>
@@ -17401,7 +17401,7 @@
       </c>
       <c r="R287" t="inlineStr"/>
       <c r="S287" t="n">
-        <v>849.9662468512529</v>
+        <v>70.6228645045335</v>
       </c>
     </row>
     <row r="288">
@@ -17431,7 +17431,7 @@
         <v>24.22222222222222</v>
       </c>
       <c r="H288" t="n">
-        <v>69.2</v>
+        <v>20.66666666666667</v>
       </c>
       <c r="I288" t="n">
         <v>101.25</v>
@@ -17460,7 +17460,7 @@
       </c>
       <c r="R288" t="inlineStr"/>
       <c r="S288" t="n">
-        <v>1009.101431363274</v>
+        <v>80.54839782341868</v>
       </c>
     </row>
     <row r="289">
@@ -17490,7 +17490,7 @@
         <v>24.72222222222222</v>
       </c>
       <c r="H289" t="n">
-        <v>71.5</v>
+        <v>21.94444444444445</v>
       </c>
       <c r="I289" t="n">
         <v>100.97</v>
@@ -17519,7 +17519,7 @@
       </c>
       <c r="R289" t="inlineStr"/>
       <c r="S289" t="n">
-        <v>1082.819917184278</v>
+        <v>84.54665067168339</v>
       </c>
     </row>
     <row r="290">
@@ -17549,7 +17549,7 @@
         <v>21.94444444444445</v>
       </c>
       <c r="H290" t="n">
-        <v>61.4</v>
+        <v>16.33333333333333</v>
       </c>
       <c r="I290" t="n">
         <v>101.32</v>
@@ -17578,7 +17578,7 @@
       </c>
       <c r="R290" t="inlineStr"/>
       <c r="S290" t="n">
-        <v>814.6198741965931</v>
+        <v>70.46609231137585</v>
       </c>
     </row>
     <row r="291">
@@ -17608,7 +17608,7 @@
         <v>20</v>
       </c>
       <c r="H291" t="n">
-        <v>56</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="I291" t="n">
         <v>101.84</v>
@@ -17637,7 +17637,7 @@
       </c>
       <c r="R291" t="inlineStr"/>
       <c r="S291" t="n">
-        <v>711.8734994045534</v>
+        <v>65.45220141276241</v>
       </c>
     </row>
     <row r="292">
@@ -17667,7 +17667,7 @@
         <v>20.22222222222222</v>
       </c>
       <c r="H292" t="n">
-        <v>58.2</v>
+        <v>14.55555555555556</v>
       </c>
       <c r="I292" t="n">
         <v>102.04</v>
@@ -17696,7 +17696,7 @@
       </c>
       <c r="R292" t="inlineStr"/>
       <c r="S292" t="n">
-        <v>779.6917685747452</v>
+        <v>69.88885029059881</v>
       </c>
     </row>
     <row r="293">
@@ -17726,7 +17726,7 @@
         <v>21.55555555555555</v>
       </c>
       <c r="H293" t="n">
-        <v>59.1</v>
+        <v>15.05555555555556</v>
       </c>
       <c r="I293" t="n">
         <v>102.02</v>
@@ -17755,7 +17755,7 @@
       </c>
       <c r="R293" t="inlineStr"/>
       <c r="S293" t="n">
-        <v>749.3782807097607</v>
+        <v>66.49177003314023</v>
       </c>
     </row>
     <row r="294">
@@ -17785,7 +17785,7 @@
         <v>21.61111111111111</v>
       </c>
       <c r="H294" t="n">
-        <v>61</v>
+        <v>16.11111111111111</v>
       </c>
       <c r="I294" t="n">
         <v>101.97</v>
@@ -17814,7 +17814,7 @@
       </c>
       <c r="R294" t="inlineStr"/>
       <c r="S294" t="n">
-        <v>816.1225340410321</v>
+        <v>70.90476422031891</v>
       </c>
     </row>
     <row r="295">
@@ -17844,7 +17844,7 @@
         <v>21.27777777777778</v>
       </c>
       <c r="H295" t="n">
-        <v>62</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="I295" t="n">
         <v>101.93</v>
@@ -17873,7 +17873,7 @@
       </c>
       <c r="R295" t="inlineStr"/>
       <c r="S295" t="n">
-        <v>872.4007662230327</v>
+        <v>74.9753920846312</v>
       </c>
     </row>
     <row r="296">
@@ -17903,7 +17903,7 @@
         <v>23.88888888888889</v>
       </c>
       <c r="H296" t="n">
-        <v>67.8</v>
+        <v>19.88888888888889</v>
       </c>
       <c r="I296" t="n">
         <v>101.52</v>
@@ -17932,7 +17932,7 @@
       </c>
       <c r="R296" t="inlineStr"/>
       <c r="S296" t="n">
-        <v>967.7458683839699</v>
+        <v>78.31947959937897</v>
       </c>
     </row>
     <row r="297">
@@ -17962,7 +17962,7 @@
         <v>16</v>
       </c>
       <c r="H297" t="n">
-        <v>47.2</v>
+        <v>8.444444444444446</v>
       </c>
       <c r="I297" t="n">
         <v>102.02</v>
@@ -17991,7 +17991,7 @@
       </c>
       <c r="R297" t="inlineStr"/>
       <c r="S297" t="n">
-        <v>592.7128357991381</v>
+        <v>60.82113752583286</v>
       </c>
     </row>
     <row r="298">
@@ -18021,7 +18021,7 @@
         <v>17.33333333333334</v>
       </c>
       <c r="H298" t="n">
-        <v>53.6</v>
+        <v>12</v>
       </c>
       <c r="I298" t="n">
         <v>101.93</v>
@@ -18050,7 +18050,7 @@
       </c>
       <c r="R298" t="inlineStr"/>
       <c r="S298" t="n">
-        <v>749.0379913717142</v>
+        <v>70.86919946285283</v>
       </c>
     </row>
     <row r="299">
@@ -18080,7 +18080,7 @@
         <v>15.5</v>
       </c>
       <c r="H299" t="n">
-        <v>47.4</v>
+        <v>8.555555555555555</v>
       </c>
       <c r="I299" t="n">
         <v>102.05</v>
@@ -18109,7 +18109,7 @@
       </c>
       <c r="R299" t="inlineStr"/>
       <c r="S299" t="n">
-        <v>618.2511357127037</v>
+        <v>63.27398880550118</v>
       </c>
     </row>
     <row r="300">
@@ -18139,7 +18139,7 @@
         <v>18.22222222222222</v>
       </c>
       <c r="H300" t="n">
-        <v>50.8</v>
+        <v>10.44444444444444</v>
       </c>
       <c r="I300" t="n">
         <v>102.1</v>
@@ -18168,7 +18168,7 @@
       </c>
       <c r="R300" t="inlineStr"/>
       <c r="S300" t="n">
-        <v>617.0687541528916</v>
+        <v>60.44029253274488</v>
       </c>
     </row>
     <row r="301">
@@ -18198,7 +18198,7 @@
         <v>19.16666666666667</v>
       </c>
       <c r="H301" t="n">
-        <v>51</v>
+        <v>10.55555555555556</v>
       </c>
       <c r="I301" t="n">
         <v>101.99</v>
@@ -18227,7 +18227,7 @@
       </c>
       <c r="R301" t="inlineStr"/>
       <c r="S301" t="n">
-        <v>587.4542429101577</v>
+        <v>57.39489528795627</v>
       </c>
     </row>
     <row r="302">
@@ -18257,7 +18257,7 @@
         <v>23.77777777777778</v>
       </c>
       <c r="H302" t="n">
-        <v>63.1</v>
+        <v>17.27777777777778</v>
       </c>
       <c r="I302" t="n">
         <v>101.54</v>
@@ -18286,7 +18286,7 @@
       </c>
       <c r="R302" t="inlineStr"/>
       <c r="S302" t="n">
-        <v>788.2243443680391</v>
+        <v>66.9482425538</v>
       </c>
     </row>
     <row r="303">
@@ -18316,7 +18316,7 @@
         <v>21.83333333333333</v>
       </c>
       <c r="H303" t="n">
-        <v>62.2</v>
+        <v>16.77777777777778</v>
       </c>
       <c r="I303" t="n">
         <v>101.7</v>
@@ -18345,7 +18345,7 @@
       </c>
       <c r="R303" t="inlineStr"/>
       <c r="S303" t="n">
-        <v>851.0226994999613</v>
+        <v>72.9807429106142</v>
       </c>
     </row>
     <row r="304">
@@ -18375,7 +18375,7 @@
         <v>21.94444444444445</v>
       </c>
       <c r="H304" t="n">
-        <v>64.90000000000001</v>
+        <v>18.27777777777778</v>
       </c>
       <c r="I304" t="n">
         <v>101.61</v>
@@ -18404,7 +18404,7 @@
       </c>
       <c r="R304" t="inlineStr"/>
       <c r="S304" t="n">
-        <v>956.1103839977555</v>
+        <v>79.68896766339498</v>
       </c>
     </row>
     <row r="305">
@@ -18434,7 +18434,7 @@
         <v>24.55555555555556</v>
       </c>
       <c r="H305" t="n">
-        <v>67.59999999999999</v>
+        <v>19.77777777777778</v>
       </c>
       <c r="I305" t="n">
         <v>101.46</v>
@@ -18463,7 +18463,7 @@
       </c>
       <c r="R305" t="inlineStr"/>
       <c r="S305" t="n">
-        <v>921.5564368995672</v>
+        <v>74.73004989966124</v>
       </c>
     </row>
     <row r="306">
@@ -18493,7 +18493,7 @@
         <v>23.94444444444444</v>
       </c>
       <c r="H306" t="n">
-        <v>67.90000000000001</v>
+        <v>19.94444444444445</v>
       </c>
       <c r="I306" t="n">
         <v>101.6</v>
@@ -18522,7 +18522,7 @@
       </c>
       <c r="R306" t="inlineStr"/>
       <c r="S306" t="n">
-        <v>968.8070054828713</v>
+        <v>78.3274910241679</v>
       </c>
     </row>
     <row r="307">
@@ -18552,7 +18552,7 @@
         <v>23.72222222222222</v>
       </c>
       <c r="H307" t="n">
-        <v>69.90000000000001</v>
+        <v>21.05555555555556</v>
       </c>
       <c r="I307" t="n">
         <v>101.52</v>
@@ -18581,7 +18581,7 @@
       </c>
       <c r="R307" t="inlineStr"/>
       <c r="S307" t="n">
-        <v>1072.362791719444</v>
+        <v>85.01872954612696</v>
       </c>
     </row>
     <row r="308">
@@ -18611,7 +18611,7 @@
         <v>23.94444444444444</v>
       </c>
       <c r="H308" t="n">
-        <v>67.40000000000001</v>
+        <v>19.66666666666667</v>
       </c>
       <c r="I308" t="n">
         <v>101.51</v>
@@ -18640,7 +18640,7 @@
       </c>
       <c r="R308" t="inlineStr"/>
       <c r="S308" t="n">
-        <v>947.5164429083568</v>
+        <v>76.98877249876855</v>
       </c>
     </row>
     <row r="309">
@@ -18670,7 +18670,7 @@
         <v>19.94444444444445</v>
       </c>
       <c r="H309" t="n">
-        <v>56</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="I309" t="n">
         <v>102.05</v>
@@ -18699,7 +18699,7 @@
       </c>
       <c r="R309" t="inlineStr"/>
       <c r="S309" t="n">
-        <v>714.3290230543994</v>
+        <v>65.67797105952964</v>
       </c>
     </row>
     <row r="310">
@@ -18729,7 +18729,7 @@
         <v>20.5</v>
       </c>
       <c r="H310" t="n">
-        <v>50.1</v>
+        <v>10.05555555555556</v>
       </c>
       <c r="I310" t="n">
         <v>102.24</v>
@@ -18758,7 +18758,7 @@
       </c>
       <c r="R310" t="inlineStr"/>
       <c r="S310" t="n">
-        <v>517.1238965267145</v>
+        <v>51.10223383603277</v>
       </c>
     </row>
     <row r="311">
@@ -18788,7 +18788,7 @@
         <v>22.5</v>
       </c>
       <c r="H311" t="n">
-        <v>64.59999999999999</v>
+        <v>18.11111111111111</v>
       </c>
       <c r="I311" t="n">
         <v>101.72</v>
@@ -18817,7 +18817,7 @@
       </c>
       <c r="R311" t="inlineStr"/>
       <c r="S311" t="n">
-        <v>911.8129099317025</v>
+        <v>76.2338932129019</v>
       </c>
     </row>
     <row r="312">
@@ -18847,7 +18847,7 @@
         <v>22.94444444444444</v>
       </c>
       <c r="H312" t="n">
-        <v>62.7</v>
+        <v>17.05555555555556</v>
       </c>
       <c r="I312" t="n">
         <v>101.51</v>
@@ -18876,7 +18876,7 @@
       </c>
       <c r="R312" t="inlineStr"/>
       <c r="S312" t="n">
-        <v>813.8684077769874</v>
+        <v>69.42147346615336</v>
       </c>
     </row>
     <row r="313">
@@ -18906,7 +18906,7 @@
         <v>22.66666666666667</v>
       </c>
       <c r="H313" t="n">
-        <v>65</v>
+        <v>18.33333333333334</v>
       </c>
       <c r="I313" t="n">
         <v>101.42</v>
@@ -18935,7 +18935,7 @@
       </c>
       <c r="R313" t="inlineStr"/>
       <c r="S313" t="n">
-        <v>919.1169078012861</v>
+        <v>76.52642973636358</v>
       </c>
     </row>
     <row r="314">
@@ -18965,7 +18965,7 @@
         <v>22.16666666666667</v>
       </c>
       <c r="H314" t="n">
-        <v>62.2</v>
+        <v>16.77777777777778</v>
       </c>
       <c r="I314" t="n">
         <v>101.67</v>
@@ -18994,7 +18994,7 @@
       </c>
       <c r="R314" t="inlineStr"/>
       <c r="S314" t="n">
-        <v>833.8824999533323</v>
+        <v>71.51085909049499</v>
       </c>
     </row>
     <row r="315">
@@ -19024,7 +19024,7 @@
         <v>21.16666666666666</v>
       </c>
       <c r="H315" t="n">
-        <v>55.9</v>
+        <v>13.27777777777778</v>
       </c>
       <c r="I315" t="n">
         <v>102.2</v>
@@ -19053,7 +19053,7 @@
       </c>
       <c r="R315" t="inlineStr"/>
       <c r="S315" t="n">
-        <v>659.2636237719466</v>
+        <v>60.6862491685141</v>
       </c>
     </row>
     <row r="316">
@@ -19083,7 +19083,7 @@
         <v>20.38888888888889</v>
       </c>
       <c r="H316" t="n">
-        <v>55.4</v>
+        <v>13</v>
       </c>
       <c r="I316" t="n">
         <v>102.31</v>
@@ -19112,7 +19112,7 @@
       </c>
       <c r="R316" t="inlineStr"/>
       <c r="S316" t="n">
-        <v>675.1931315746277</v>
+        <v>62.51995223413624</v>
       </c>
     </row>
     <row r="317">
@@ -19142,7 +19142,7 @@
         <v>20.05555555555555</v>
       </c>
       <c r="H317" t="n">
-        <v>57.1</v>
+        <v>13.94444444444445</v>
       </c>
       <c r="I317" t="n">
         <v>102.29</v>
@@ -19171,7 +19171,7 @@
       </c>
       <c r="R317" t="inlineStr"/>
       <c r="S317" t="n">
-        <v>747.7201421581307</v>
+        <v>67.8734501803421</v>
       </c>
     </row>
     <row r="318">
@@ -19201,7 +19201,7 @@
         <v>20.33333333333333</v>
       </c>
       <c r="H318" t="n">
-        <v>51.3</v>
+        <v>10.72222222222222</v>
       </c>
       <c r="I318" t="n">
         <v>102.19</v>
@@ -19230,7 +19230,7 @@
       </c>
       <c r="R318" t="inlineStr"/>
       <c r="S318" t="n">
-        <v>554.5911617317834</v>
+        <v>53.98053627772818</v>
       </c>
     </row>
     <row r="319">
@@ -19260,7 +19260,7 @@
         <v>21.61111111111111</v>
       </c>
       <c r="H319" t="n">
-        <v>57.2</v>
+        <v>14</v>
       </c>
       <c r="I319" t="n">
         <v>101.88</v>
@@ -19289,7 +19289,7 @@
       </c>
       <c r="R319" t="inlineStr"/>
       <c r="S319" t="n">
-        <v>682.6611836481236</v>
+        <v>61.89631097684391</v>
       </c>
     </row>
     <row r="320">
@@ -19319,7 +19319,7 @@
         <v>21.94444444444445</v>
       </c>
       <c r="H320" t="n">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="I320" t="n">
         <v>101.71</v>
@@ -19348,7 +19348,7 @@
       </c>
       <c r="R320" t="inlineStr"/>
       <c r="S320" t="n">
-        <v>728.3351536937316</v>
+        <v>64.6973112991367</v>
       </c>
     </row>
     <row r="321">
@@ -19378,7 +19378,7 @@
         <v>23.16666666666667</v>
       </c>
       <c r="H321" t="n">
-        <v>56.9</v>
+        <v>13.83333333333333</v>
       </c>
       <c r="I321" t="n">
         <v>101.81</v>
@@ -19407,7 +19407,7 @@
       </c>
       <c r="R321" t="inlineStr"/>
       <c r="S321" t="n">
-        <v>612.1861111387014</v>
+        <v>55.69920528141343</v>
       </c>
     </row>
     <row r="322">
@@ -19437,7 +19437,7 @@
         <v>22.72222222222222</v>
       </c>
       <c r="H322" t="n">
-        <v>59.6</v>
+        <v>15.33333333333333</v>
       </c>
       <c r="I322" t="n">
         <v>101.8</v>
@@ -19466,7 +19466,7 @@
       </c>
       <c r="R322" t="inlineStr"/>
       <c r="S322" t="n">
-        <v>714.484867425578</v>
+        <v>63.04188502280795</v>
       </c>
     </row>
     <row r="323">
@@ -19496,7 +19496,7 @@
         <v>21.94444444444445</v>
       </c>
       <c r="H323" t="n">
-        <v>58.5</v>
+        <v>14.72222222222222</v>
       </c>
       <c r="I323" t="n">
         <v>101.54</v>
@@ -19525,7 +19525,7 @@
       </c>
       <c r="R323" t="inlineStr"/>
       <c r="S323" t="n">
-        <v>711.3839362239523</v>
+        <v>63.54920308364728</v>
       </c>
     </row>
     <row r="324">
@@ -19555,7 +19555,7 @@
         <v>25.11111111111111</v>
       </c>
       <c r="H324" t="n">
-        <v>64.2</v>
+        <v>17.88888888888889</v>
       </c>
       <c r="I324" t="n">
         <v>101.8</v>
@@ -19584,7 +19584,7 @@
       </c>
       <c r="R324" t="inlineStr"/>
       <c r="S324" t="n">
-        <v>765.1282568521859</v>
+        <v>64.23746694320802</v>
       </c>
     </row>
     <row r="325">
@@ -19614,7 +19614,7 @@
         <v>23.5</v>
       </c>
       <c r="H325" t="n">
-        <v>66.5</v>
+        <v>19.16666666666667</v>
       </c>
       <c r="I325" t="n">
         <v>101.55</v>
@@ -19643,7 +19643,7 @@
       </c>
       <c r="R325" t="inlineStr"/>
       <c r="S325" t="n">
-        <v>934.9055114290936</v>
+        <v>76.65518853594226</v>
       </c>
     </row>
     <row r="326">
@@ -19673,7 +19673,7 @@
         <v>22.77777777777778</v>
       </c>
       <c r="H326" t="n">
-        <v>67.2</v>
+        <v>19.55555555555556</v>
       </c>
       <c r="I326" t="n">
         <v>101.4</v>
@@ -19702,7 +19702,7 @@
       </c>
       <c r="R326" t="inlineStr"/>
       <c r="S326" t="n">
-        <v>1007.697784781655</v>
+        <v>82.04284114656038</v>
       </c>
     </row>
     <row r="327">
@@ -19732,7 +19732,7 @@
         <v>25.55555555555556</v>
       </c>
       <c r="H327" t="n">
-        <v>70.90000000000001</v>
+        <v>21.61111111111111</v>
       </c>
       <c r="I327" t="n">
         <v>100.98</v>
@@ -19761,7 +19761,7 @@
       </c>
       <c r="R327" t="inlineStr"/>
       <c r="S327" t="n">
-        <v>1003.824696995263</v>
+        <v>78.82568911270923</v>
       </c>
     </row>
     <row r="328">
@@ -19791,7 +19791,7 @@
         <v>25.72222222222222</v>
       </c>
       <c r="H328" t="n">
-        <v>68.2</v>
+        <v>20.11111111111111</v>
       </c>
       <c r="I328" t="n">
         <v>101.37</v>
@@ -19820,7 +19820,7 @@
       </c>
       <c r="R328" t="inlineStr"/>
       <c r="S328" t="n">
-        <v>882.8264789064935</v>
+        <v>71.16416634670034</v>
       </c>
     </row>
     <row r="329">
@@ -19850,7 +19850,7 @@
         <v>27.05555555555556</v>
       </c>
       <c r="H329" t="n">
-        <v>69.90000000000001</v>
+        <v>21.05555555555556</v>
       </c>
       <c r="I329" t="n">
         <v>101.28</v>
@@ -19879,7 +19879,7 @@
       </c>
       <c r="R329" t="inlineStr"/>
       <c r="S329" t="n">
-        <v>879.4049531186996</v>
+        <v>69.72070688021763</v>
       </c>
     </row>
     <row r="330">
@@ -19909,7 +19909,7 @@
         <v>24.38888888888889</v>
       </c>
       <c r="H330" t="n">
-        <v>65.3</v>
+        <v>18.5</v>
       </c>
       <c r="I330" t="n">
         <v>101.4</v>
@@ -19938,7 +19938,7 @@
       </c>
       <c r="R330" t="inlineStr"/>
       <c r="S330" t="n">
-        <v>839.6950104855929</v>
+        <v>69.69757071217919</v>
       </c>
     </row>
     <row r="331">
@@ -19968,7 +19968,7 @@
         <v>24.38888888888889</v>
       </c>
       <c r="H331" t="n">
-        <v>64.09999999999999</v>
+        <v>17.83333333333333</v>
       </c>
       <c r="I331" t="n">
         <v>101.48</v>
@@ -19997,7 +19997,7 @@
       </c>
       <c r="R331" t="inlineStr"/>
       <c r="S331" t="n">
-        <v>795.2702835672204</v>
+        <v>66.83800245836423</v>
       </c>
     </row>
     <row r="332">
@@ -20027,7 +20027,7 @@
         <v>25.77777777777778</v>
       </c>
       <c r="H332" t="n">
-        <v>70</v>
+        <v>21.11111111111111</v>
       </c>
       <c r="I332" t="n">
         <v>101.08</v>
@@ -20056,7 +20056,7 @@
       </c>
       <c r="R332" t="inlineStr"/>
       <c r="S332" t="n">
-        <v>952.4977056449169</v>
+        <v>75.44281199103236</v>
       </c>
     </row>
     <row r="333">
@@ -20086,7 +20086,7 @@
         <v>24.72222222222222</v>
       </c>
       <c r="H333" t="n">
-        <v>67.90000000000001</v>
+        <v>19.94444444444445</v>
       </c>
       <c r="I333" t="n">
         <v>101.27</v>
@@ -20115,7 +20115,7 @@
       </c>
       <c r="R333" t="inlineStr"/>
       <c r="S333" t="n">
-        <v>924.6490269923338</v>
+        <v>74.75734377679218</v>
       </c>
     </row>
     <row r="334">
@@ -20145,7 +20145,7 @@
         <v>24.55555555555556</v>
       </c>
       <c r="H334" t="n">
-        <v>68.7</v>
+        <v>20.38888888888889</v>
       </c>
       <c r="I334" t="n">
         <v>101.22</v>
@@ -20174,7 +20174,7 @@
       </c>
       <c r="R334" t="inlineStr"/>
       <c r="S334" t="n">
-        <v>967.5759218809585</v>
+        <v>77.61248634114077</v>
       </c>
     </row>
     <row r="335">
@@ -20204,7 +20204,7 @@
         <v>24.72222222222222</v>
       </c>
       <c r="H335" t="n">
-        <v>67.5</v>
+        <v>19.72222222222222</v>
       </c>
       <c r="I335" t="n">
         <v>101.27</v>
@@ -20233,7 +20233,7 @@
       </c>
       <c r="R335" t="inlineStr"/>
       <c r="S335" t="n">
-        <v>908.3620615045473</v>
+        <v>73.73363927835872</v>
       </c>
     </row>
     <row r="336">
@@ -20263,7 +20263,7 @@
         <v>26.27777777777778</v>
       </c>
       <c r="H336" t="n">
-        <v>72.8</v>
+        <v>22.66666666666667</v>
       </c>
       <c r="I336" t="n">
         <v>101.13</v>
@@ -20292,7 +20292,7 @@
       </c>
       <c r="R336" t="inlineStr"/>
       <c r="S336" t="n">
-        <v>1044.160123552642</v>
+        <v>80.54294168173047</v>
       </c>
     </row>
     <row r="337">
@@ -20322,7 +20322,7 @@
         <v>23.38888888888889</v>
       </c>
       <c r="H337" t="n">
-        <v>66.7</v>
+        <v>19.27777777777778</v>
       </c>
       <c r="I337" t="n">
         <v>101.47</v>
@@ -20351,7 +20351,7 @@
       </c>
       <c r="R337" t="inlineStr"/>
       <c r="S337" t="n">
-        <v>949.6591289596115</v>
+        <v>77.70755325125245</v>
       </c>
     </row>
     <row r="338">
@@ -20381,7 +20381,7 @@
         <v>21.38888888888889</v>
       </c>
       <c r="H338" t="n">
-        <v>56.7</v>
+        <v>13.72222222222222</v>
       </c>
       <c r="I338" t="n">
         <v>101.87</v>
@@ -20410,7 +20410,7 @@
       </c>
       <c r="R338" t="inlineStr"/>
       <c r="S338" t="n">
-        <v>675.7221998280943</v>
+        <v>61.62276777174327</v>
       </c>
     </row>
     <row r="339">
@@ -20440,7 +20440,7 @@
         <v>25.88888888888889</v>
       </c>
       <c r="H339" t="n">
-        <v>63.7</v>
+        <v>17.61111111111111</v>
       </c>
       <c r="I339" t="n">
         <v>101.27</v>
@@ -20469,7 +20469,7 @@
       </c>
       <c r="R339" t="inlineStr"/>
       <c r="S339" t="n">
-        <v>714.1099039926182</v>
+        <v>60.26960076787422</v>
       </c>
     </row>
     <row r="340">
@@ -20499,7 +20499,7 @@
         <v>27.33333333333334</v>
       </c>
       <c r="H340" t="n">
-        <v>70.7</v>
+        <v>21.5</v>
       </c>
       <c r="I340" t="n">
         <v>100.77</v>
@@ -20528,7 +20528,7 @@
       </c>
       <c r="R340" t="inlineStr"/>
       <c r="S340" t="n">
-        <v>895.9553750311979</v>
+        <v>70.48945966495465</v>
       </c>
     </row>
     <row r="341">
@@ -20558,7 +20558,7 @@
         <v>27.27777777777778</v>
       </c>
       <c r="H341" t="n">
-        <v>75.3</v>
+        <v>24.05555555555555</v>
       </c>
       <c r="I341" t="n">
         <v>101.18</v>
@@ -20587,7 +20587,7 @@
       </c>
       <c r="R341" t="inlineStr"/>
       <c r="S341" t="n">
-        <v>1095.254301959206</v>
+        <v>82.5830558622646</v>
       </c>
     </row>
     <row r="342">
@@ -20617,7 +20617,7 @@
         <v>26.94444444444445</v>
       </c>
       <c r="H342" t="n">
-        <v>76.90000000000001</v>
+        <v>24.94444444444445</v>
       </c>
       <c r="I342" t="n">
         <v>100.66</v>
@@ -20646,7 +20646,7 @@
       </c>
       <c r="R342" t="inlineStr"/>
       <c r="S342" t="n">
-        <v>1194.788515992731</v>
+        <v>88.82240191007428</v>
       </c>
     </row>
     <row r="343">
@@ -20676,7 +20676,7 @@
         <v>25.44444444444444</v>
       </c>
       <c r="H343" t="n">
-        <v>68.90000000000001</v>
+        <v>20.5</v>
       </c>
       <c r="I343" t="n">
         <v>101.41</v>
@@ -20705,7 +20705,7 @@
       </c>
       <c r="R343" t="inlineStr"/>
       <c r="S343" t="n">
-        <v>925.7143911363737</v>
+        <v>74.10917514242354</v>
       </c>
     </row>
     <row r="344">
@@ -20735,7 +20735,7 @@
         <v>25.72222222222222</v>
       </c>
       <c r="H344" t="n">
-        <v>67.90000000000001</v>
+        <v>19.94444444444445</v>
       </c>
       <c r="I344" t="n">
         <v>101.49</v>
@@ -20764,7 +20764,7 @@
       </c>
       <c r="R344" t="inlineStr"/>
       <c r="S344" t="n">
-        <v>871.1639646908017</v>
+        <v>70.43310715005322</v>
       </c>
     </row>
     <row r="345">
@@ -20794,7 +20794,7 @@
         <v>28.16666666666667</v>
       </c>
       <c r="H345" t="n">
-        <v>71.3</v>
+        <v>21.83333333333333</v>
       </c>
       <c r="I345" t="n">
         <v>101.26</v>
@@ -20823,7 +20823,7 @@
       </c>
       <c r="R345" t="inlineStr"/>
       <c r="S345" t="n">
-        <v>875.9059772539013</v>
+        <v>68.52019350269258</v>
       </c>
     </row>
     <row r="346">
@@ -20853,7 +20853,7 @@
         <v>26.77777777777778</v>
       </c>
       <c r="H346" t="n">
-        <v>70.5</v>
+        <v>21.38888888888889</v>
       </c>
       <c r="I346" t="n">
         <v>101.16</v>
@@ -20882,7 +20882,7 @@
       </c>
       <c r="R346" t="inlineStr"/>
       <c r="S346" t="n">
-        <v>917.6567400473144</v>
+        <v>72.33496966243986</v>
       </c>
     </row>
     <row r="347">
@@ -20912,7 +20912,7 @@
         <v>27.72222222222222</v>
       </c>
       <c r="H347" t="n">
-        <v>74</v>
+        <v>23.33333333333334</v>
       </c>
       <c r="I347" t="n">
         <v>101.38</v>
@@ -20941,7 +20941,7 @@
       </c>
       <c r="R347" t="inlineStr"/>
       <c r="S347" t="n">
-        <v>1009.734469094122</v>
+        <v>77.03345007741878</v>
       </c>
     </row>
     <row r="348">
@@ -20971,7 +20971,7 @@
         <v>27.88888888888889</v>
       </c>
       <c r="H348" t="n">
-        <v>73.40000000000001</v>
+        <v>23</v>
       </c>
       <c r="I348" t="n">
         <v>101</v>
@@ -21000,7 +21000,7 @@
       </c>
       <c r="R348" t="inlineStr"/>
       <c r="S348" t="n">
-        <v>974.6148525370592</v>
+        <v>74.76341536421528</v>
       </c>
     </row>
     <row r="349">
@@ -21030,7 +21030,7 @@
         <v>27.66666666666667</v>
       </c>
       <c r="H349" t="n">
-        <v>76.7</v>
+        <v>24.83333333333334</v>
       </c>
       <c r="I349" t="n">
         <v>100.69</v>
@@ -21059,7 +21059,7 @@
       </c>
       <c r="R349" t="inlineStr"/>
       <c r="S349" t="n">
-        <v>1135.653270974073</v>
+        <v>84.57415644591927</v>
       </c>
     </row>
     <row r="350">
@@ -21089,7 +21089,7 @@
         <v>28.44444444444445</v>
       </c>
       <c r="H350" t="n">
-        <v>72.5</v>
+        <v>22.5</v>
       </c>
       <c r="I350" t="n">
         <v>100.7</v>
@@ -21118,7 +21118,7 @@
       </c>
       <c r="R350" t="inlineStr"/>
       <c r="S350" t="n">
-        <v>907.7639363578653</v>
+        <v>70.2171378273293</v>
       </c>
     </row>
     <row r="351">
@@ -21148,7 +21148,7 @@
         <v>23.94444444444444</v>
       </c>
       <c r="H351" t="n">
-        <v>67.7</v>
+        <v>19.83333333333334</v>
       </c>
       <c r="I351" t="n">
         <v>101.1</v>
@@ -21177,7 +21177,7 @@
       </c>
       <c r="R351" t="inlineStr"/>
       <c r="S351" t="n">
-        <v>960.242194771248</v>
+        <v>77.78957214973198</v>
       </c>
     </row>
     <row r="352">
@@ -21207,7 +21207,7 @@
         <v>25.83333333333334</v>
       </c>
       <c r="H352" t="n">
-        <v>71.59999999999999</v>
+        <v>22</v>
       </c>
       <c r="I352" t="n">
         <v>101.22</v>
@@ -21236,7 +21236,7 @@
       </c>
       <c r="R352" t="inlineStr"/>
       <c r="S352" t="n">
-        <v>1017.884429650233</v>
+        <v>79.40156323491624</v>
       </c>
     </row>
     <row r="353">
@@ -21266,7 +21266,7 @@
         <v>24.27777777777778</v>
       </c>
       <c r="H353" t="n">
-        <v>71.2</v>
+        <v>21.77777777777778</v>
       </c>
       <c r="I353" t="n">
         <v>101.11</v>
@@ -21295,7 +21295,7 @@
       </c>
       <c r="R353" t="inlineStr"/>
       <c r="S353" t="n">
-        <v>1097.650686758419</v>
+        <v>85.94815806219191</v>
       </c>
     </row>
     <row r="354">
@@ -21325,7 +21325,7 @@
         <v>28.83333333333334</v>
       </c>
       <c r="H354" t="n">
-        <v>74.7</v>
+        <v>23.72222222222222</v>
       </c>
       <c r="I354" t="n">
         <v>100.88</v>
@@ -21354,7 +21354,7 @@
       </c>
       <c r="R354" t="inlineStr"/>
       <c r="S354" t="n">
-        <v>975.0905483971593</v>
+        <v>73.91989538790381</v>
       </c>
     </row>
     <row r="355">
@@ -21384,7 +21384,7 @@
         <v>28.94444444444444</v>
       </c>
       <c r="H355" t="n">
-        <v>79.2</v>
+        <v>26.22222222222222</v>
       </c>
       <c r="I355" t="n">
         <v>100.86</v>
@@ -21413,7 +21413,7 @@
       </c>
       <c r="R355" t="inlineStr"/>
       <c r="S355" t="n">
-        <v>1169.868529504037</v>
+        <v>85.2662711982283</v>
       </c>
     </row>
     <row r="356">
@@ -21443,7 +21443,7 @@
         <v>29.66666666666667</v>
       </c>
       <c r="H356" t="n">
-        <v>77.5</v>
+        <v>25.27777777777778</v>
       </c>
       <c r="I356" t="n">
         <v>101.07</v>
@@ -21472,7 +21472,7 @@
       </c>
       <c r="R356" t="inlineStr"/>
       <c r="S356" t="n">
-        <v>1045.530915904734</v>
+        <v>77.32144371300697</v>
       </c>
     </row>
     <row r="357">
@@ -21502,7 +21502,7 @@
         <v>29.16666666666667</v>
       </c>
       <c r="H357" t="n">
-        <v>78.2</v>
+        <v>25.66666666666667</v>
       </c>
       <c r="I357" t="n">
         <v>100.88</v>
@@ -21531,7 +21531,7 @@
       </c>
       <c r="R357" t="inlineStr"/>
       <c r="S357" t="n">
-        <v>1108.019381076305</v>
+        <v>81.4494840608799</v>
       </c>
     </row>
     <row r="358">
@@ -21561,7 +21561,7 @@
         <v>25</v>
       </c>
       <c r="H358" t="n">
-        <v>70.7</v>
+        <v>21.5</v>
       </c>
       <c r="I358" t="n">
         <v>101.07</v>
@@ -21590,7 +21590,7 @@
       </c>
       <c r="R358" t="inlineStr"/>
       <c r="S358" t="n">
-        <v>1028.595933256767</v>
+        <v>80.92498082989302</v>
       </c>
     </row>
     <row r="359">
@@ -21620,7 +21620,7 @@
         <v>27.11111111111111</v>
       </c>
       <c r="H359" t="n">
-        <v>73.8</v>
+        <v>23.22222222222222</v>
       </c>
       <c r="I359" t="n">
         <v>101.22</v>
@@ -21649,7 +21649,7 @@
       </c>
       <c r="R359" t="inlineStr"/>
       <c r="S359" t="n">
-        <v>1037.662340449103</v>
+        <v>79.30866129509664</v>
       </c>
     </row>
     <row r="360">
@@ -21679,7 +21679,7 @@
         <v>26.33333333333334</v>
       </c>
       <c r="H360" t="n">
-        <v>70</v>
+        <v>21.11111111111111</v>
       </c>
       <c r="I360" t="n">
         <v>101.08</v>
@@ -21708,7 +21708,7 @@
       </c>
       <c r="R360" t="inlineStr"/>
       <c r="S360" t="n">
-        <v>921.6724453832563</v>
+        <v>73.00128976928536</v>
       </c>
     </row>
     <row r="361">
@@ -21738,7 +21738,7 @@
         <v>29.16666666666667</v>
       </c>
       <c r="H361" t="n">
-        <v>72.90000000000001</v>
+        <v>22.72222222222222</v>
       </c>
       <c r="I361" t="n">
         <v>100.8</v>
@@ -21767,7 +21767,7 @@
       </c>
       <c r="R361" t="inlineStr"/>
       <c r="S361" t="n">
-        <v>885.6220184659404</v>
+        <v>68.25062891113291</v>
       </c>
     </row>
     <row r="362">
@@ -21797,7 +21797,7 @@
         <v>28.83333333333334</v>
       </c>
       <c r="H362" t="n">
-        <v>77.2</v>
+        <v>25.11111111111111</v>
       </c>
       <c r="I362" t="n">
         <v>99.75</v>
@@ -21826,7 +21826,7 @@
       </c>
       <c r="R362" t="inlineStr"/>
       <c r="S362" t="n">
-        <v>1083.486130395227</v>
+        <v>80.33748097346012</v>
       </c>
     </row>
     <row r="363">
@@ -21856,7 +21856,7 @@
         <v>28.77777777777778</v>
       </c>
       <c r="H363" t="n">
-        <v>76.2</v>
+        <v>24.55555555555556</v>
       </c>
       <c r="I363" t="n">
         <v>100.97</v>
@@ -21885,7 +21885,7 @@
       </c>
       <c r="R363" t="inlineStr"/>
       <c r="S363" t="n">
-        <v>1042.312456201674</v>
+        <v>77.96513687078287</v>
       </c>
     </row>
     <row r="364">
@@ -21915,7 +21915,7 @@
         <v>29.27777777777778</v>
       </c>
       <c r="H364" t="n">
-        <v>76.3</v>
+        <v>24.61111111111111</v>
       </c>
       <c r="I364" t="n">
         <v>101</v>
@@ -21944,7 +21944,7 @@
       </c>
       <c r="R364" t="inlineStr"/>
       <c r="S364" t="n">
-        <v>1016.824376967628</v>
+        <v>75.9915425500029</v>
       </c>
     </row>
     <row r="365">
@@ -21974,7 +21974,7 @@
         <v>28.88888888888889</v>
       </c>
       <c r="H365" t="n">
-        <v>76.8</v>
+        <v>24.88888888888889</v>
       </c>
       <c r="I365" t="n">
         <v>100.8</v>
@@ -22003,7 +22003,7 @@
       </c>
       <c r="R365" t="inlineStr"/>
       <c r="S365" t="n">
-        <v>1062.055919656233</v>
+        <v>79.0239637590373</v>
       </c>
     </row>
     <row r="366">
@@ -22033,7 +22033,7 @@
         <v>26.94444444444445</v>
       </c>
       <c r="H366" t="n">
-        <v>78.8</v>
+        <v>26</v>
       </c>
       <c r="I366" t="n">
         <v>100.32</v>
@@ -22062,7 +22062,7 @@
       </c>
       <c r="R366" t="inlineStr"/>
       <c r="S366" t="n">
-        <v>1293.219387150385</v>
+        <v>94.57718804591821</v>
       </c>
     </row>
     <row r="367">
@@ -22092,7 +22092,7 @@
         <v>29.88888888888889</v>
       </c>
       <c r="H367" t="n">
-        <v>78.2</v>
+        <v>25.66666666666667</v>
       </c>
       <c r="I367" t="n">
         <v>100.83</v>
@@ -22121,7 +22121,7 @@
       </c>
       <c r="R367" t="inlineStr"/>
       <c r="S367" t="n">
-        <v>1062.779631907623</v>
+        <v>78.12395177167619</v>
       </c>
     </row>
     <row r="368">
@@ -22151,7 +22151,7 @@
         <v>29.94444444444445</v>
       </c>
       <c r="H368" t="n">
-        <v>77.3</v>
+        <v>25.16666666666667</v>
       </c>
       <c r="I368" t="n">
         <v>100.93</v>
@@ -22180,7 +22180,7 @@
       </c>
       <c r="R368" t="inlineStr"/>
       <c r="S368" t="n">
-        <v>1020.372421151858</v>
+        <v>75.59198836136335</v>
       </c>
     </row>
     <row r="369">
@@ -22210,7 +22210,7 @@
         <v>29.11111111111111</v>
       </c>
       <c r="H369" t="n">
-        <v>76.8</v>
+        <v>24.88888888888889</v>
       </c>
       <c r="I369" t="n">
         <v>101.02</v>
@@ -22239,7 +22239,7 @@
       </c>
       <c r="R369" t="inlineStr"/>
       <c r="S369" t="n">
-        <v>1048.468268200832</v>
+        <v>78.0129528919922</v>
       </c>
     </row>
     <row r="370">
@@ -22269,7 +22269,7 @@
         <v>28.83333333333334</v>
       </c>
       <c r="H370" t="n">
-        <v>76.7</v>
+        <v>24.83333333333334</v>
       </c>
       <c r="I370" t="n">
         <v>101.06</v>
@@ -22298,7 +22298,7 @@
       </c>
       <c r="R370" t="inlineStr"/>
       <c r="S370" t="n">
-        <v>1061.023154911646</v>
+        <v>79.01631650237111</v>
       </c>
     </row>
     <row r="371">
@@ -22328,7 +22328,7 @@
         <v>29.5</v>
       </c>
       <c r="H371" t="n">
-        <v>76.5</v>
+        <v>24.72222222222222</v>
       </c>
       <c r="I371" t="n">
         <v>101.06</v>
@@ -22357,7 +22357,7 @@
       </c>
       <c r="R371" t="inlineStr"/>
       <c r="S371" t="n">
-        <v>1012.329061513177</v>
+        <v>75.52247844342567</v>
       </c>
     </row>
     <row r="372">
@@ -22387,7 +22387,7 @@
         <v>27.83333333333333</v>
       </c>
       <c r="H372" t="n">
-        <v>75.2</v>
+        <v>24</v>
       </c>
       <c r="I372" t="n">
         <v>101.06</v>
@@ -22416,7 +22416,7 @@
       </c>
       <c r="R372" t="inlineStr"/>
       <c r="S372" t="n">
-        <v>1055.713721256876</v>
+        <v>79.67293843534704</v>
       </c>
     </row>
     <row r="373">
@@ -22446,7 +22446,7 @@
         <v>27.55555555555555</v>
       </c>
       <c r="H373" t="n">
-        <v>78.90000000000001</v>
+        <v>26.05555555555556</v>
       </c>
       <c r="I373" t="n">
         <v>100.83</v>
@@ -22475,7 +22475,7 @@
       </c>
       <c r="R373" t="inlineStr"/>
       <c r="S373" t="n">
-        <v>1252.831908238672</v>
+        <v>91.54565016569676</v>
       </c>
     </row>
     <row r="374">
@@ -22505,7 +22505,7 @@
         <v>28.38888888888889</v>
       </c>
       <c r="H374" t="n">
-        <v>79</v>
+        <v>26.11111111111111</v>
       </c>
       <c r="I374" t="n">
         <v>101.03</v>
@@ -22534,7 +22534,7 @@
       </c>
       <c r="R374" t="inlineStr"/>
       <c r="S374" t="n">
-        <v>1198.286096791468</v>
+        <v>87.48561940834448</v>
       </c>
     </row>
     <row r="375">
@@ -22564,7 +22564,7 @@
         <v>29.55555555555556</v>
       </c>
       <c r="H375" t="n">
-        <v>78.5</v>
+        <v>25.83333333333334</v>
       </c>
       <c r="I375" t="n">
         <v>101.17</v>
@@ -22593,7 +22593,7 @@
       </c>
       <c r="R375" t="inlineStr"/>
       <c r="S375" t="n">
-        <v>1096.980182732526</v>
+        <v>80.43109609282192</v>
       </c>
     </row>
     <row r="376">
@@ -22623,7 +22623,7 @@
         <v>29.33333333333333</v>
       </c>
       <c r="H376" t="n">
-        <v>78.8</v>
+        <v>26</v>
       </c>
       <c r="I376" t="n">
         <v>101.12</v>
@@ -22652,7 +22652,7 @@
       </c>
       <c r="R376" t="inlineStr"/>
       <c r="S376" t="n">
-        <v>1125.056437332144</v>
+        <v>82.27890433215373</v>
       </c>
     </row>
     <row r="377">
@@ -22682,7 +22682,7 @@
         <v>30.72222222222222</v>
       </c>
       <c r="H377" t="n">
-        <v>78.3</v>
+        <v>25.72222222222222</v>
       </c>
       <c r="I377" t="n">
         <v>100.92</v>
@@ -22711,7 +22711,7 @@
       </c>
       <c r="R377" t="inlineStr"/>
       <c r="S377" t="n">
-        <v>1017.366322007994</v>
+        <v>74.72155175690551</v>
       </c>
     </row>
     <row r="378">
@@ -22741,7 +22741,7 @@
         <v>30.22222222222222</v>
       </c>
       <c r="H378" t="n">
-        <v>79.40000000000001</v>
+        <v>26.33333333333334</v>
       </c>
       <c r="I378" t="n">
         <v>100.84</v>
@@ -22770,7 +22770,7 @@
       </c>
       <c r="R378" t="inlineStr"/>
       <c r="S378" t="n">
-        <v>1095.73662293627</v>
+        <v>79.72830840479148</v>
       </c>
     </row>
     <row r="379">
@@ -22800,7 +22800,7 @@
         <v>30.11111111111111</v>
       </c>
       <c r="H379" t="n">
-        <v>77.7</v>
+        <v>25.38888888888889</v>
       </c>
       <c r="I379" t="n">
         <v>101</v>
@@ -22829,7 +22829,7 @@
       </c>
       <c r="R379" t="inlineStr"/>
       <c r="S379" t="n">
-        <v>1027.661234306573</v>
+        <v>75.86844986076927</v>
       </c>
     </row>
     <row r="380">
@@ -22859,7 +22859,7 @@
         <v>31.05555555555556</v>
       </c>
       <c r="H380" t="n">
-        <v>78.90000000000001</v>
+        <v>26.05555555555556</v>
       </c>
       <c r="I380" t="n">
         <v>101.03</v>
@@ -22888,7 +22888,7 @@
       </c>
       <c r="R380" t="inlineStr"/>
       <c r="S380" t="n">
-        <v>1023.318744506725</v>
+        <v>74.77489931136554</v>
       </c>
     </row>
     <row r="381">
@@ -22918,7 +22918,7 @@
         <v>29.72222222222222</v>
       </c>
       <c r="H381" t="n">
-        <v>78.5</v>
+        <v>25.83333333333334</v>
       </c>
       <c r="I381" t="n">
         <v>101.01</v>
@@ -22947,7 +22947,7 @@
       </c>
       <c r="R381" t="inlineStr"/>
       <c r="S381" t="n">
-        <v>1086.486439189638</v>
+        <v>79.6616899462414</v>
       </c>
     </row>
     <row r="382">
@@ -22977,7 +22977,7 @@
         <v>30.5</v>
       </c>
       <c r="H382" t="n">
-        <v>77.8</v>
+        <v>25.44444444444444</v>
       </c>
       <c r="I382" t="n">
         <v>100.94</v>
@@ -23006,7 +23006,7 @@
       </c>
       <c r="R382" t="inlineStr"/>
       <c r="S382" t="n">
-        <v>1009.177493956193</v>
+        <v>74.43953912947114</v>
       </c>
     </row>
     <row r="383">
@@ -23036,7 +23036,7 @@
         <v>30</v>
       </c>
       <c r="H383" t="n">
-        <v>77.7</v>
+        <v>25.38888888888889</v>
       </c>
       <c r="I383" t="n">
         <v>100.94</v>
@@ -23065,7 +23065,7 @@
       </c>
       <c r="R383" t="inlineStr"/>
       <c r="S383" t="n">
-        <v>1034.247510108021</v>
+        <v>76.35469038316135</v>
       </c>
     </row>
     <row r="384">
@@ -23095,7 +23095,7 @@
         <v>30.16666666666667</v>
       </c>
       <c r="H384" t="n">
-        <v>75.90000000000001</v>
+        <v>24.38888888888889</v>
       </c>
       <c r="I384" t="n">
         <v>100.66</v>
@@ -23124,7 +23124,7 @@
       </c>
       <c r="R384" t="inlineStr"/>
       <c r="S384" t="n">
-        <v>949.900374367882</v>
+        <v>71.2415678821268</v>
       </c>
     </row>
     <row r="385">
@@ -23154,7 +23154,7 @@
         <v>28.05555555555556</v>
       </c>
       <c r="H385" t="n">
-        <v>77.5</v>
+        <v>25.27777777777778</v>
       </c>
       <c r="I385" t="n">
         <v>100.13</v>
@@ -23183,7 +23183,7 @@
       </c>
       <c r="R385" t="inlineStr"/>
       <c r="S385" t="n">
-        <v>1147.945473756671</v>
+        <v>84.89543444812418</v>
       </c>
     </row>
     <row r="386">
@@ -23213,7 +23213,7 @@
         <v>27.22222222222222</v>
       </c>
       <c r="H386" t="n">
-        <v>76</v>
+        <v>24.44444444444445</v>
       </c>
       <c r="I386" t="n">
         <v>100.21</v>
@@ -23242,7 +23242,7 @@
       </c>
       <c r="R386" t="inlineStr"/>
       <c r="S386" t="n">
-        <v>1131.808637248872</v>
+        <v>84.80931792752136</v>
       </c>
     </row>
     <row r="387">
@@ -23272,7 +23272,7 @@
         <v>28.66666666666666</v>
       </c>
       <c r="H387" t="n">
-        <v>78.59999999999999</v>
+        <v>25.88888888888889</v>
       </c>
       <c r="I387" t="n">
         <v>100.95</v>
@@ -23301,7 +23301,7 @@
       </c>
       <c r="R387" t="inlineStr"/>
       <c r="S387" t="n">
-        <v>1159.713307036591</v>
+        <v>84.95813680448798</v>
       </c>
     </row>
     <row r="388">
@@ -23331,7 +23331,7 @@
         <v>28.66666666666666</v>
       </c>
       <c r="H388" t="n">
-        <v>77.40000000000001</v>
+        <v>25.22222222222222</v>
       </c>
       <c r="I388" t="n">
         <v>101.12</v>
@@ -23360,7 +23360,7 @@
       </c>
       <c r="R388" t="inlineStr"/>
       <c r="S388" t="n">
-        <v>1103.205938050366</v>
+        <v>81.65755812498325</v>
       </c>
     </row>
     <row r="389">
@@ -23390,7 +23390,7 @@
         <v>29.05555555555555</v>
       </c>
       <c r="H389" t="n">
-        <v>77.8</v>
+        <v>25.44444444444444</v>
       </c>
       <c r="I389" t="n">
         <v>101.16</v>
@@ -23419,7 +23419,7 @@
       </c>
       <c r="R389" t="inlineStr"/>
       <c r="S389" t="n">
-        <v>1096.755438864364</v>
+        <v>80.89951460049913</v>
       </c>
     </row>
     <row r="390">
@@ -23449,7 +23449,7 @@
         <v>29.77777777777778</v>
       </c>
       <c r="H390" t="n">
-        <v>76.90000000000001</v>
+        <v>24.94444444444445</v>
       </c>
       <c r="I390" t="n">
         <v>100.91</v>
@@ -23478,7 +23478,7 @@
       </c>
       <c r="R390" t="inlineStr"/>
       <c r="S390" t="n">
-        <v>1013.104897614755</v>
+        <v>75.31576441227689</v>
       </c>
     </row>
     <row r="391">
@@ -23508,7 +23508,7 @@
         <v>28.88888888888889</v>
       </c>
       <c r="H391" t="n">
-        <v>73.59999999999999</v>
+        <v>23.11111111111111</v>
       </c>
       <c r="I391" t="n">
         <v>100.23</v>
@@ -23537,7 +23537,7 @@
       </c>
       <c r="R391" t="inlineStr"/>
       <c r="S391" t="n">
-        <v>927.4154400502537</v>
+        <v>71.01229207207496</v>
       </c>
     </row>
     <row r="392">
@@ -23567,7 +23567,7 @@
         <v>26</v>
       </c>
       <c r="H392" t="n">
-        <v>76.09999999999999</v>
+        <v>24.5</v>
       </c>
       <c r="I392" t="n">
         <v>99.8</v>
@@ -23596,7 +23596,7 @@
       </c>
       <c r="R392" t="inlineStr"/>
       <c r="S392" t="n">
-        <v>1221.535420995736</v>
+        <v>91.45181606289941</v>
       </c>
     </row>
     <row r="393">
@@ -23626,7 +23626,7 @@
         <v>28.44444444444445</v>
       </c>
       <c r="H393" t="n">
-        <v>78.09999999999999</v>
+        <v>25.61111111111111</v>
       </c>
       <c r="I393" t="n">
         <v>100.74</v>
@@ -23655,7 +23655,7 @@
       </c>
       <c r="R393" t="inlineStr"/>
       <c r="S393" t="n">
-        <v>1150.645403114881</v>
+        <v>84.65555743162902</v>
       </c>
     </row>
     <row r="394">
@@ -23685,7 +23685,7 @@
         <v>28.72222222222222</v>
       </c>
       <c r="H394" t="n">
-        <v>79.3</v>
+        <v>26.27777777777778</v>
       </c>
       <c r="I394" t="n">
         <v>100.15</v>
@@ -23714,7 +23714,7 @@
       </c>
       <c r="R394" t="inlineStr"/>
       <c r="S394" t="n">
-        <v>1189.953122096352</v>
+        <v>86.65684708633312</v>
       </c>
     </row>
     <row r="395">
@@ -23744,7 +23744,7 @@
         <v>28.55555555555556</v>
       </c>
       <c r="H395" t="n">
-        <v>79</v>
+        <v>26.11111111111111</v>
       </c>
       <c r="I395" t="n">
         <v>99.97999999999999</v>
@@ -23773,7 +23773,7 @@
       </c>
       <c r="R395" t="inlineStr"/>
       <c r="S395" t="n">
-        <v>1186.725180792646</v>
+        <v>86.64156897682156</v>
       </c>
     </row>
     <row r="396">
@@ -23803,7 +23803,7 @@
         <v>29.5</v>
       </c>
       <c r="H396" t="n">
-        <v>80</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="I396" t="n">
         <v>100.09</v>
@@ -23832,7 +23832,7 @@
       </c>
       <c r="R396" t="inlineStr"/>
       <c r="S396" t="n">
-        <v>1170.844917098499</v>
+        <v>84.76503685551664</v>
       </c>
     </row>
     <row r="397">
@@ -23862,7 +23862,7 @@
         <v>29.5</v>
       </c>
       <c r="H397" t="n">
-        <v>80.40000000000001</v>
+        <v>26.88888888888889</v>
       </c>
       <c r="I397" t="n">
         <v>100.34</v>
@@ -23891,7 +23891,7 @@
       </c>
       <c r="R397" t="inlineStr"/>
       <c r="S397" t="n">
-        <v>1190.235069112712</v>
+        <v>85.88180872151293</v>
       </c>
     </row>
     <row r="398">
@@ -23921,7 +23921,7 @@
         <v>29.55555555555556</v>
       </c>
       <c r="H398" t="n">
-        <v>80.40000000000001</v>
+        <v>26.88888888888889</v>
       </c>
       <c r="I398" t="n">
         <v>100.22</v>
@@ -23950,7 +23950,7 @@
       </c>
       <c r="R398" t="inlineStr"/>
       <c r="S398" t="n">
-        <v>1186.424534047402</v>
+        <v>85.60685829188942</v>
       </c>
     </row>
     <row r="399">
@@ -23980,7 +23980,7 @@
         <v>28.05555555555556</v>
       </c>
       <c r="H399" t="n">
-        <v>79.3</v>
+        <v>26.27777777777778</v>
       </c>
       <c r="I399" t="n">
         <v>100.26</v>
@@ -24009,7 +24009,7 @@
       </c>
       <c r="R399" t="inlineStr"/>
       <c r="S399" t="n">
-        <v>1237.034047127031</v>
+        <v>90.0854565376694</v>
       </c>
     </row>
     <row r="400">
@@ -24039,7 +24039,7 @@
         <v>28.11111111111111</v>
       </c>
       <c r="H400" t="n">
-        <v>80.2</v>
+        <v>26.77777777777778</v>
       </c>
       <c r="I400" t="n">
         <v>100.49</v>
@@ -24068,7 +24068,7 @@
       </c>
       <c r="R400" t="inlineStr"/>
       <c r="S400" t="n">
-        <v>1279.584574942776</v>
+        <v>92.48277895354656</v>
       </c>
     </row>
     <row r="401">
@@ -24098,7 +24098,7 @@
         <v>26.44444444444444</v>
       </c>
       <c r="H401" t="n">
-        <v>78</v>
+        <v>25.55555555555556</v>
       </c>
       <c r="I401" t="n">
         <v>100.58</v>
@@ -24127,7 +24127,7 @@
       </c>
       <c r="R401" t="inlineStr"/>
       <c r="S401" t="n">
-        <v>1288.378047596799</v>
+        <v>94.87041522758823</v>
       </c>
     </row>
     <row r="402">
@@ -24157,7 +24157,7 @@
         <v>29.05555555555555</v>
       </c>
       <c r="H402" t="n">
-        <v>79.90000000000001</v>
+        <v>26.61111111111111</v>
       </c>
       <c r="I402" t="n">
         <v>100.62</v>
@@ -24186,7 +24186,7 @@
       </c>
       <c r="R402" t="inlineStr"/>
       <c r="S402" t="n">
-        <v>1196.395305725522</v>
+        <v>86.68732693059498</v>
       </c>
     </row>
     <row r="403">
@@ -24216,7 +24216,7 @@
         <v>28.83333333333334</v>
       </c>
       <c r="H403" t="n">
-        <v>80</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="I403" t="n">
         <v>100.62</v>
@@ -24245,7 +24245,7 @@
       </c>
       <c r="R403" t="inlineStr"/>
       <c r="S403" t="n">
-        <v>1216.900789886014</v>
+        <v>88.09931938707608</v>
       </c>
     </row>
     <row r="404">
@@ -24275,7 +24275,7 @@
         <v>28.88888888888889</v>
       </c>
       <c r="H404" t="n">
-        <v>79.5</v>
+        <v>26.38888888888889</v>
       </c>
       <c r="I404" t="n">
         <v>100.68</v>
@@ -24304,7 +24304,7 @@
       </c>
       <c r="R404" t="inlineStr"/>
       <c r="S404" t="n">
-        <v>1188.267364320366</v>
+        <v>86.38819627100352</v>
       </c>
     </row>
     <row r="405">
@@ -24334,7 +24334,7 @@
         <v>25.27777777777778</v>
       </c>
       <c r="H405" t="n">
-        <v>76.40000000000001</v>
+        <v>24.66666666666667</v>
       </c>
       <c r="I405" t="n">
         <v>100.63</v>
@@ -24363,7 +24363,7 @@
       </c>
       <c r="R405" t="inlineStr"/>
       <c r="S405" t="n">
-        <v>1291.279302396035</v>
+        <v>96.41771575412373</v>
       </c>
     </row>
     <row r="406">
@@ -24393,7 +24393,7 @@
         <v>25.38888888888889</v>
       </c>
       <c r="H406" t="n">
-        <v>76.40000000000001</v>
+        <v>24.66666666666667</v>
       </c>
       <c r="I406" t="n">
         <v>100.67</v>
@@ -24422,7 +24422,7 @@
       </c>
       <c r="R406" t="inlineStr"/>
       <c r="S406" t="n">
-        <v>1282.7657394189</v>
+        <v>95.7820219165</v>
       </c>
     </row>
     <row r="407">
@@ -24452,7 +24452,7 @@
         <v>27.77777777777778</v>
       </c>
       <c r="H407" t="n">
-        <v>78.3</v>
+        <v>25.72222222222222</v>
       </c>
       <c r="I407" t="n">
         <v>100.86</v>
@@ -24481,7 +24481,7 @@
       </c>
       <c r="R407" t="inlineStr"/>
       <c r="S407" t="n">
-        <v>1206.25454252714</v>
+        <v>88.5946480453044</v>
       </c>
     </row>
     <row r="408">
@@ -24511,7 +24511,7 @@
         <v>28.05555555555556</v>
       </c>
       <c r="H408" t="n">
-        <v>79.40000000000001</v>
+        <v>26.33333333333334</v>
       </c>
       <c r="I408" t="n">
         <v>100.97</v>
@@ -24540,7 +24540,7 @@
       </c>
       <c r="R408" t="inlineStr"/>
       <c r="S408" t="n">
-        <v>1242.151010134006</v>
+        <v>90.38175483803953</v>
       </c>
     </row>
     <row r="409">
@@ -24570,7 +24570,7 @@
         <v>29.55555555555556</v>
       </c>
       <c r="H409" t="n">
-        <v>78.7</v>
+        <v>25.94444444444445</v>
       </c>
       <c r="I409" t="n">
         <v>100.85</v>
@@ -24599,7 +24599,7 @@
       </c>
       <c r="R409" t="inlineStr"/>
       <c r="S409" t="n">
-        <v>1106.116795783851</v>
+        <v>80.96270094828063</v>
       </c>
     </row>
     <row r="410">
@@ -24629,7 +24629,7 @@
         <v>29.88888888888889</v>
       </c>
       <c r="H410" t="n">
-        <v>79.09999999999999</v>
+        <v>26.16666666666666</v>
       </c>
       <c r="I410" t="n">
         <v>100.61</v>
@@ -24658,7 +24658,7 @@
       </c>
       <c r="R410" t="inlineStr"/>
       <c r="S410" t="n">
-        <v>1103.184479905109</v>
+        <v>80.47408782489789</v>
       </c>
     </row>
     <row r="411">
@@ -24688,7 +24688,7 @@
         <v>29.61111111111111</v>
       </c>
       <c r="H411" t="n">
-        <v>77.40000000000001</v>
+        <v>25.22222222222222</v>
       </c>
       <c r="I411" t="n">
         <v>100.68</v>
@@ -24717,7 +24717,7 @@
       </c>
       <c r="R411" t="inlineStr"/>
       <c r="S411" t="n">
-        <v>1044.514172781151</v>
+        <v>77.31328651745498</v>
       </c>
     </row>
     <row r="412">
@@ -24747,7 +24747,7 @@
         <v>29.38888888888889</v>
       </c>
       <c r="H412" t="n">
-        <v>77.09999999999999</v>
+        <v>25.05555555555555</v>
       </c>
       <c r="I412" t="n">
         <v>100.57</v>
@@ -24776,7 +24776,7 @@
       </c>
       <c r="R412" t="inlineStr"/>
       <c r="S412" t="n">
-        <v>1044.809414749287</v>
+        <v>77.5372270783477</v>
       </c>
     </row>
     <row r="413">
@@ -24806,7 +24806,7 @@
         <v>28.94444444444444</v>
       </c>
       <c r="H413" t="n">
-        <v>76</v>
+        <v>24.44444444444445</v>
       </c>
       <c r="I413" t="n">
         <v>100.34</v>
@@ -24835,7 +24835,7 @@
       </c>
       <c r="R413" t="inlineStr"/>
       <c r="S413" t="n">
-        <v>1023.624801124507</v>
+        <v>76.70282620221333</v>
       </c>
     </row>
     <row r="414">
@@ -24865,7 +24865,7 @@
         <v>28.83333333333334</v>
       </c>
       <c r="H414" t="n">
-        <v>75.2</v>
+        <v>24</v>
       </c>
       <c r="I414" t="n">
         <v>100.28</v>
@@ -24894,7 +24894,7 @@
       </c>
       <c r="R414" t="inlineStr"/>
       <c r="S414" t="n">
-        <v>995.9971257783149</v>
+        <v>75.16622744037431</v>
       </c>
     </row>
     <row r="415">
@@ -24924,7 +24924,7 @@
         <v>27.05555555555556</v>
       </c>
       <c r="H415" t="n">
-        <v>79</v>
+        <v>26.11111111111111</v>
       </c>
       <c r="I415" t="n">
         <v>100.13</v>
@@ -24953,7 +24953,7 @@
       </c>
       <c r="R415" t="inlineStr"/>
       <c r="S415" t="n">
-        <v>1295.478368264904</v>
+        <v>94.5815258820364</v>
       </c>
     </row>
     <row r="416">
@@ -24983,7 +24983,7 @@
         <v>26.33333333333334</v>
       </c>
       <c r="H416" t="n">
-        <v>76.90000000000001</v>
+        <v>24.94444444444445</v>
       </c>
       <c r="I416" t="n">
         <v>100.92</v>
@@ -25012,7 +25012,7 @@
       </c>
       <c r="R416" t="inlineStr"/>
       <c r="S416" t="n">
-        <v>1238.623484594332</v>
+        <v>92.08116038216409</v>
       </c>
     </row>
     <row r="417">
@@ -25042,7 +25042,7 @@
         <v>26.27777777777778</v>
       </c>
       <c r="H417" t="n">
-        <v>73.90000000000001</v>
+        <v>23.27777777777778</v>
       </c>
       <c r="I417" t="n">
         <v>100.8</v>
@@ -25071,7 +25071,7 @@
       </c>
       <c r="R417" t="inlineStr"/>
       <c r="S417" t="n">
-        <v>1094.564296552803</v>
+        <v>83.58134636209985</v>
       </c>
     </row>
     <row r="418">
@@ -25101,7 +25101,7 @@
         <v>28.33333333333334</v>
       </c>
       <c r="H418" t="n">
-        <v>73.8</v>
+        <v>23.22222222222222</v>
       </c>
       <c r="I418" t="n">
         <v>100.95</v>
@@ -25130,7 +25130,7 @@
       </c>
       <c r="R418" t="inlineStr"/>
       <c r="S418" t="n">
-        <v>966.0706998887485</v>
+        <v>73.83690333353846</v>
       </c>
     </row>
     <row r="419">
@@ -25160,7 +25160,7 @@
         <v>28.94444444444444</v>
       </c>
       <c r="H419" t="n">
-        <v>77.5</v>
+        <v>25.27777777777778</v>
       </c>
       <c r="I419" t="n">
         <v>101.18</v>
@@ -25189,7 +25189,7 @@
       </c>
       <c r="R419" t="inlineStr"/>
       <c r="S419" t="n">
-        <v>1090.11049360897</v>
+        <v>80.61829247737361</v>
       </c>
     </row>
     <row r="420">
@@ -25219,7 +25219,7 @@
         <v>28.05555555555556</v>
       </c>
       <c r="H420" t="n">
-        <v>77.7</v>
+        <v>25.38888888888889</v>
       </c>
       <c r="I420" t="n">
         <v>101.13</v>
@@ -25248,7 +25248,7 @@
       </c>
       <c r="R420" t="inlineStr"/>
       <c r="S420" t="n">
-        <v>1157.566464581284</v>
+        <v>85.45887530519971</v>
       </c>
     </row>
     <row r="421">
@@ -25278,7 +25278,7 @@
         <v>29.72222222222222</v>
       </c>
       <c r="H421" t="n">
-        <v>75.2</v>
+        <v>24</v>
       </c>
       <c r="I421" t="n">
         <v>101.2</v>
@@ -25307,7 +25307,7 @@
       </c>
       <c r="R421" t="inlineStr"/>
       <c r="S421" t="n">
-        <v>946.0959685171341</v>
+        <v>71.40027105440512</v>
       </c>
     </row>
     <row r="422">
@@ -25337,7 +25337,7 @@
         <v>29.27777777777778</v>
       </c>
       <c r="H422" t="n">
-        <v>73.90000000000001</v>
+        <v>23.27777777777778</v>
       </c>
       <c r="I422" t="n">
         <v>101.01</v>
@@ -25366,7 +25366,7 @@
       </c>
       <c r="R422" t="inlineStr"/>
       <c r="S422" t="n">
-        <v>918.4677619372648</v>
+        <v>70.13454794265516</v>
       </c>
     </row>
     <row r="423">
@@ -25396,7 +25396,7 @@
         <v>30.22222222222222</v>
       </c>
       <c r="H423" t="n">
-        <v>75.59999999999999</v>
+        <v>24.22222222222222</v>
       </c>
       <c r="I423" t="n">
         <v>100.88</v>
@@ -25425,7 +25425,7 @@
       </c>
       <c r="R423" t="inlineStr"/>
       <c r="S423" t="n">
-        <v>934.9577812458764</v>
+        <v>70.30807791125257</v>
       </c>
     </row>
     <row r="424">
@@ -25455,7 +25455,7 @@
         <v>28.33333333333334</v>
       </c>
       <c r="H424" t="n">
-        <v>72.5</v>
+        <v>22.5</v>
       </c>
       <c r="I424" t="n">
         <v>100.92</v>
@@ -25484,7 +25484,7 @@
       </c>
       <c r="R424" t="inlineStr"/>
       <c r="S424" t="n">
-        <v>913.6535675539888</v>
+        <v>70.67271116405999</v>
       </c>
     </row>
     <row r="425">
@@ -25514,7 +25514,7 @@
         <v>29.16666666666667</v>
       </c>
       <c r="H425" t="n">
-        <v>74.8</v>
+        <v>23.77777777777778</v>
       </c>
       <c r="I425" t="n">
         <v>100.59</v>
@@ -25543,7 +25543,7 @@
       </c>
       <c r="R425" t="inlineStr"/>
       <c r="S425" t="n">
-        <v>960.5096867759786</v>
+        <v>72.74894374714702</v>
       </c>
     </row>
     <row r="426">
@@ -25573,7 +25573,7 @@
         <v>25.61111111111111</v>
       </c>
       <c r="H426" t="n">
-        <v>76.3</v>
+        <v>24.61111111111111</v>
       </c>
       <c r="I426" t="n">
         <v>100.785</v>
@@ -25602,7 +25602,7 @@
       </c>
       <c r="R426" t="inlineStr"/>
       <c r="S426" t="n">
-        <v>1260.614395177842</v>
+        <v>94.21099121953185</v>
       </c>
     </row>
     <row r="427">
@@ -25632,7 +25632,7 @@
         <v>25.94444444444445</v>
       </c>
       <c r="H427" t="n">
-        <v>75.40000000000001</v>
+        <v>24.11111111111111</v>
       </c>
       <c r="I427" t="n">
         <v>100.98</v>
@@ -25661,7 +25661,7 @@
       </c>
       <c r="R427" t="inlineStr"/>
       <c r="S427" t="n">
-        <v>1189.8763753285</v>
+        <v>89.6374901041235</v>
       </c>
     </row>
     <row r="428">
@@ -25691,7 +25691,7 @@
         <v>25.88888888888889</v>
       </c>
       <c r="H428" t="n">
-        <v>75.59999999999999</v>
+        <v>24.22222222222222</v>
       </c>
       <c r="I428" t="n">
         <v>101.37</v>
@@ -25720,7 +25720,7 @@
       </c>
       <c r="R428" t="inlineStr"/>
       <c r="S428" t="n">
-        <v>1203.939334686572</v>
+        <v>90.53527575413013</v>
       </c>
     </row>
     <row r="429">
@@ -25750,7 +25750,7 @@
         <v>27.94444444444444</v>
       </c>
       <c r="H429" t="n">
-        <v>72.90000000000001</v>
+        <v>22.72222222222222</v>
       </c>
       <c r="I429" t="n">
         <v>101.38</v>
@@ -25779,7 +25779,7 @@
       </c>
       <c r="R429" t="inlineStr"/>
       <c r="S429" t="n">
-        <v>950.8360508928411</v>
+        <v>73.27636069530506</v>
       </c>
     </row>
     <row r="430">
@@ -25809,7 +25809,7 @@
         <v>28.05555555555556</v>
       </c>
       <c r="H430" t="n">
-        <v>70.2</v>
+        <v>21.22222222222222</v>
       </c>
       <c r="I430" t="n">
         <v>101.53</v>
@@ -25838,7 +25838,7 @@
       </c>
       <c r="R430" t="inlineStr"/>
       <c r="S430" t="n">
-        <v>840.3447613604289</v>
+        <v>66.43169091140993</v>
       </c>
     </row>
     <row r="431">
@@ -25868,7 +25868,7 @@
         <v>25.77777777777778</v>
       </c>
       <c r="H431" t="n">
-        <v>66.09999999999999</v>
+        <v>18.94444444444444</v>
       </c>
       <c r="I431" t="n">
         <v>101.5</v>
@@ -25897,7 +25897,7 @@
       </c>
       <c r="R431" t="inlineStr"/>
       <c r="S431" t="n">
-        <v>801.2724144763246</v>
+        <v>65.96569579695053</v>
       </c>
     </row>
     <row r="432">
@@ -25927,7 +25927,7 @@
         <v>26.33333333333334</v>
       </c>
       <c r="H432" t="n">
-        <v>67.7</v>
+        <v>19.83333333333334</v>
       </c>
       <c r="I432" t="n">
         <v>101.62</v>
@@ -25956,7 +25956,7 @@
       </c>
       <c r="R432" t="inlineStr"/>
       <c r="S432" t="n">
-        <v>832.7681503794075</v>
+        <v>67.46285309131831</v>
       </c>
     </row>
     <row r="433">
@@ -25986,7 +25986,7 @@
         <v>26.61111111111111</v>
       </c>
       <c r="H433" t="n">
-        <v>70.5</v>
+        <v>21.38888888888889</v>
       </c>
       <c r="I433" t="n">
         <v>101.71</v>
@@ -26015,7 +26015,7 @@
       </c>
       <c r="R433" t="inlineStr"/>
       <c r="S433" t="n">
-        <v>926.7150349528287</v>
+        <v>73.04899644237722</v>
       </c>
     </row>
     <row r="434">
@@ -26045,7 +26045,7 @@
         <v>27.11111111111111</v>
       </c>
       <c r="H434" t="n">
-        <v>70.59999999999999</v>
+        <v>21.44444444444444</v>
       </c>
       <c r="I434" t="n">
         <v>101.51</v>
@@ -26074,7 +26074,7 @@
       </c>
       <c r="R434" t="inlineStr"/>
       <c r="S434" t="n">
-        <v>903.7717101864088</v>
+        <v>71.17236111679217</v>
       </c>
     </row>
     <row r="435">
@@ -26104,7 +26104,7 @@
         <v>27.5</v>
       </c>
       <c r="H435" t="n">
-        <v>71.40000000000001</v>
+        <v>21.88888888888889</v>
       </c>
       <c r="I435" t="n">
         <v>101.59</v>
@@ -26133,7 +26133,7 @@
       </c>
       <c r="R435" t="inlineStr"/>
       <c r="S435" t="n">
-        <v>914.6677650343353</v>
+        <v>71.48480147459023</v>
       </c>
     </row>
     <row r="436">
@@ -26163,7 +26163,7 @@
         <v>28.11111111111111</v>
       </c>
       <c r="H436" t="n">
-        <v>72</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="I436" t="n">
         <v>101.48</v>
@@ -26192,7 +26192,7 @@
       </c>
       <c r="R436" t="inlineStr"/>
       <c r="S436" t="n">
-        <v>905.8042001716906</v>
+        <v>70.3934620101557</v>
       </c>
     </row>
     <row r="437">
@@ -26222,7 +26222,7 @@
         <v>27.16666666666667</v>
       </c>
       <c r="H437" t="n">
-        <v>70.09999999999999</v>
+        <v>21.16666666666666</v>
       </c>
       <c r="I437" t="n">
         <v>101.4</v>
@@ -26251,7 +26251,7 @@
       </c>
       <c r="R437" t="inlineStr"/>
       <c r="S437" t="n">
-        <v>881.365893437015</v>
+        <v>69.74158530977518</v>
       </c>
     </row>
     <row r="438">
@@ -26281,7 +26281,7 @@
         <v>25.16666666666667</v>
       </c>
       <c r="H438" t="n">
-        <v>69.2</v>
+        <v>20.66666666666667</v>
       </c>
       <c r="I438" t="n">
         <v>101.48</v>
@@ -26310,7 +26310,7 @@
       </c>
       <c r="R438" t="inlineStr"/>
       <c r="S438" t="n">
-        <v>953.6722503230887</v>
+        <v>76.12393504228936</v>
       </c>
     </row>
     <row r="439">
@@ -26340,7 +26340,7 @@
         <v>26.22222222222222</v>
       </c>
       <c r="H439" t="n">
-        <v>69</v>
+        <v>20.55555555555556</v>
       </c>
       <c r="I439" t="n">
         <v>101.62</v>
@@ -26369,7 +26369,7 @@
       </c>
       <c r="R439" t="inlineStr"/>
       <c r="S439" t="n">
-        <v>887.8830808227721</v>
+        <v>71.0110367403998</v>
       </c>
     </row>
     <row r="440">
@@ -26399,7 +26399,7 @@
         <v>26</v>
       </c>
       <c r="H440" t="n">
-        <v>67.7</v>
+        <v>19.83333333333334</v>
       </c>
       <c r="I440" t="n">
         <v>101.6</v>
@@ -26428,7 +26428,7 @@
       </c>
       <c r="R440" t="inlineStr"/>
       <c r="S440" t="n">
-        <v>849.3553741731564</v>
+        <v>68.80659017045693</v>
       </c>
     </row>
     <row r="441">
@@ -26458,7 +26458,7 @@
         <v>27.77777777777778</v>
       </c>
       <c r="H441" t="n">
-        <v>69</v>
+        <v>20.55555555555556</v>
       </c>
       <c r="I441" t="n">
         <v>101.48</v>
@@ -26487,7 +26487,7 @@
       </c>
       <c r="R441" t="inlineStr"/>
       <c r="S441" t="n">
-        <v>810.2701127334469</v>
+        <v>64.80371344799588</v>
       </c>
     </row>
     <row r="442">
@@ -26517,7 +26517,7 @@
         <v>27.11111111111111</v>
       </c>
       <c r="H442" t="n">
-        <v>69</v>
+        <v>20.55555555555556</v>
       </c>
       <c r="I442" t="n">
         <v>101.3</v>
@@ -26546,7 +26546,7 @@
       </c>
       <c r="R442" t="inlineStr"/>
       <c r="S442" t="n">
-        <v>842.557031663753</v>
+        <v>67.38595387572165</v>
       </c>
     </row>
     <row r="443">
@@ -26576,7 +26576,7 @@
         <v>27.66666666666667</v>
       </c>
       <c r="H443" t="n">
-        <v>69.3</v>
+        <v>20.72222222222222</v>
       </c>
       <c r="I443" t="n">
         <v>101.41</v>
@@ -26605,7 +26605,7 @@
       </c>
       <c r="R443" t="inlineStr"/>
       <c r="S443" t="n">
-        <v>826.3939959970259</v>
+        <v>65.900109803427</v>
       </c>
     </row>
     <row r="444">
@@ -26635,7 +26635,7 @@
         <v>25.94444444444445</v>
       </c>
       <c r="H444" t="n">
-        <v>67.09999999999999</v>
+        <v>19.5</v>
       </c>
       <c r="I444" t="n">
         <v>101.6</v>
@@ -26664,7 +26664,7 @@
       </c>
       <c r="R444" t="inlineStr"/>
       <c r="S444" t="n">
-        <v>829.6975379707138</v>
+        <v>67.61856985209405</v>
       </c>
     </row>
     <row r="445">
@@ -26694,7 +26694,7 @@
         <v>26.55555555555555</v>
       </c>
       <c r="H445" t="n">
-        <v>68.8</v>
+        <v>20.44444444444444</v>
       </c>
       <c r="I445" t="n">
         <v>101.59</v>
@@ -26723,7 +26723,7 @@
       </c>
       <c r="R445" t="inlineStr"/>
       <c r="S445" t="n">
-        <v>862.929216489586</v>
+        <v>69.15054822401106</v>
       </c>
     </row>
     <row r="446">
@@ -26753,7 +26753,7 @@
         <v>27.5</v>
       </c>
       <c r="H446" t="n">
-        <v>72.8</v>
+        <v>22.66666666666667</v>
       </c>
       <c r="I446" t="n">
         <v>101.58</v>
@@ -26782,7 +26782,7 @@
       </c>
       <c r="R446" t="inlineStr"/>
       <c r="S446" t="n">
-        <v>971.6912443301853</v>
+        <v>74.95294012804591</v>
       </c>
     </row>
     <row r="447">
@@ -26812,7 +26812,7 @@
         <v>26.27777777777778</v>
       </c>
       <c r="H447" t="n">
-        <v>71.09999999999999</v>
+        <v>21.72222222222222</v>
       </c>
       <c r="I447" t="n">
         <v>101.75</v>
@@ -26841,7 +26841,7 @@
       </c>
       <c r="R447" t="inlineStr"/>
       <c r="S447" t="n">
-        <v>970.1604783387854</v>
+        <v>76.03751409252841</v>
       </c>
     </row>
     <row r="448">
@@ -26871,7 +26871,7 @@
         <v>23.22222222222222</v>
       </c>
       <c r="H448" t="n">
-        <v>62</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="I448" t="n">
         <v>102.01</v>
@@ -26900,7 +26900,7 @@
       </c>
       <c r="R448" t="inlineStr"/>
       <c r="S448" t="n">
-        <v>774.9386316245336</v>
+        <v>66.59935433014412</v>
       </c>
     </row>
     <row r="449">
@@ -26930,7 +26930,7 @@
         <v>24.05555555555555</v>
       </c>
       <c r="H449" t="n">
-        <v>64.3</v>
+        <v>17.94444444444444</v>
       </c>
       <c r="I449" t="n">
         <v>102.05</v>
@@ -26959,7 +26959,7 @@
       </c>
       <c r="R449" t="inlineStr"/>
       <c r="S449" t="n">
-        <v>818.751689988278</v>
+        <v>68.66769528591409</v>
       </c>
     </row>
     <row r="450">
@@ -26989,7 +26989,7 @@
         <v>21.33333333333334</v>
       </c>
       <c r="H450" t="n">
-        <v>52.3</v>
+        <v>11.27777777777778</v>
       </c>
       <c r="I450" t="n">
         <v>102.08</v>
@@ -27018,7 +27018,7 @@
       </c>
       <c r="R450" t="inlineStr"/>
       <c r="S450" t="n">
-        <v>547.8455114108039</v>
+        <v>52.66492606540653</v>
       </c>
     </row>
     <row r="451">
@@ -27048,7 +27048,7 @@
         <v>22.94444444444444</v>
       </c>
       <c r="H451" t="n">
-        <v>54.3</v>
+        <v>12.38888888888889</v>
       </c>
       <c r="I451" t="n">
         <v>101.86</v>
@@ -27077,7 +27077,7 @@
       </c>
       <c r="R451" t="inlineStr"/>
       <c r="S451" t="n">
-        <v>547.5441853320154</v>
+        <v>51.36931050605767</v>
       </c>
     </row>
     <row r="452">
@@ -27107,7 +27107,7 @@
         <v>24.05555555555555</v>
       </c>
       <c r="H452" t="n">
-        <v>62.7</v>
+        <v>17.05555555555556</v>
       </c>
       <c r="I452" t="n">
         <v>101.65</v>
@@ -27136,7 +27136,7 @@
       </c>
       <c r="R452" t="inlineStr"/>
       <c r="S452" t="n">
-        <v>761.0791274603939</v>
+        <v>64.91864525980293</v>
       </c>
     </row>
     <row r="453">
@@ -27166,7 +27166,7 @@
         <v>24.38888888888889</v>
       </c>
       <c r="H453" t="n">
-        <v>63.3</v>
+        <v>17.38888888888889</v>
       </c>
       <c r="I453" t="n">
         <v>101.49</v>
@@ -27195,7 +27195,7 @@
       </c>
       <c r="R453" t="inlineStr"/>
       <c r="S453" t="n">
-        <v>766.7861897510513</v>
+        <v>64.98937351798145</v>
       </c>
     </row>
     <row r="454">
@@ -27225,7 +27225,7 @@
         <v>25.44444444444444</v>
       </c>
       <c r="H454" t="n">
-        <v>61.8</v>
+        <v>16.55555555555555</v>
       </c>
       <c r="I454" t="n">
         <v>101.8</v>
@@ -27254,7 +27254,7 @@
       </c>
       <c r="R454" t="inlineStr"/>
       <c r="S454" t="n">
-        <v>672.0054302213435</v>
+        <v>57.87802247579502</v>
       </c>
     </row>
     <row r="455">
@@ -27284,7 +27284,7 @@
         <v>23.44444444444445</v>
       </c>
       <c r="H455" t="n">
-        <v>62.7</v>
+        <v>17.05555555555556</v>
       </c>
       <c r="I455" t="n">
         <v>101.87</v>
@@ -27313,7 +27313,7 @@
       </c>
       <c r="R455" t="inlineStr"/>
       <c r="S455" t="n">
-        <v>789.6201398657497</v>
+        <v>67.35314095525263</v>
       </c>
     </row>
     <row r="456">
@@ -27343,7 +27343,7 @@
         <v>23</v>
       </c>
       <c r="H456" t="n">
-        <v>62.7</v>
+        <v>17.05555555555556</v>
       </c>
       <c r="I456" t="n">
         <v>101.93</v>
@@ -27372,7 +27372,7 @@
       </c>
       <c r="R456" t="inlineStr"/>
       <c r="S456" t="n">
-        <v>811.1332490803622</v>
+        <v>69.18816947613595</v>
       </c>
     </row>
     <row r="457">
@@ -27402,7 +27402,7 @@
         <v>24.05555555555555</v>
       </c>
       <c r="H457" t="n">
-        <v>66</v>
+        <v>18.88888888888889</v>
       </c>
       <c r="I457" t="n">
         <v>101.79</v>
@@ -27431,7 +27431,7 @@
       </c>
       <c r="R457" t="inlineStr"/>
       <c r="S457" t="n">
-        <v>884.0928571847861</v>
+        <v>72.85819690302061</v>
       </c>
     </row>
     <row r="458">
@@ -27461,7 +27461,7 @@
         <v>24.16666666666667</v>
       </c>
       <c r="H458" t="n">
-        <v>62.8</v>
+        <v>17.11111111111111</v>
       </c>
       <c r="I458" t="n">
         <v>101.58</v>
@@ -27490,7 +27490,7 @@
       </c>
       <c r="R458" t="inlineStr"/>
       <c r="S458" t="n">
-        <v>759.4916993514896</v>
+        <v>64.71413060645573</v>
       </c>
     </row>
     <row r="459">
@@ -27520,7 +27520,7 @@
         <v>26.22222222222222</v>
       </c>
       <c r="H459" t="n">
-        <v>67.2</v>
+        <v>19.55555555555556</v>
       </c>
       <c r="I459" t="n">
         <v>101.41</v>
@@ -27549,7 +27549,7 @@
       </c>
       <c r="R459" t="inlineStr"/>
       <c r="S459" t="n">
-        <v>819.8113599194035</v>
+        <v>66.74585792265772</v>
       </c>
     </row>
     <row r="460">
@@ -27579,7 +27579,7 @@
         <v>25</v>
       </c>
       <c r="H460" t="n">
-        <v>72.09999999999999</v>
+        <v>22.27777777777778</v>
       </c>
       <c r="I460" t="n">
         <v>101.35</v>
@@ -27608,7 +27608,7 @@
       </c>
       <c r="R460" t="inlineStr"/>
       <c r="S460" t="n">
-        <v>1093.016250520655</v>
+        <v>84.86290740454589</v>
       </c>
     </row>
     <row r="461">
@@ -27638,7 +27638,7 @@
         <v>26.05555555555556</v>
       </c>
       <c r="H461" t="n">
-        <v>73.40000000000001</v>
+        <v>23</v>
       </c>
       <c r="I461" t="n">
         <v>101.45</v>
@@ -27667,7 +27667,7 @@
       </c>
       <c r="R461" t="inlineStr"/>
       <c r="S461" t="n">
-        <v>1085.58210423742</v>
+        <v>83.27579408397629</v>
       </c>
     </row>
     <row r="462">
@@ -27697,7 +27697,7 @@
         <v>24.83333333333334</v>
       </c>
       <c r="H462" t="n">
-        <v>67.59999999999999</v>
+        <v>19.77777777777778</v>
       </c>
       <c r="I462" t="n">
         <v>101.58</v>
@@ -27726,7 +27726,7 @@
       </c>
       <c r="R462" t="inlineStr"/>
       <c r="S462" t="n">
-        <v>906.3701244248361</v>
+        <v>73.49857470879108</v>
       </c>
     </row>
     <row r="463">
@@ -27756,7 +27756,7 @@
         <v>24.66666666666667</v>
       </c>
       <c r="H463" t="n">
-        <v>67.40000000000001</v>
+        <v>19.66666666666667</v>
       </c>
       <c r="I463" t="n">
         <v>101.87</v>
@@ -27785,7 +27785,7 @@
       </c>
       <c r="R463" t="inlineStr"/>
       <c r="S463" t="n">
-        <v>907.3391961760381</v>
+        <v>73.72424138540133</v>
       </c>
     </row>
     <row r="464">
@@ -27815,7 +27815,7 @@
         <v>24.77777777777778</v>
       </c>
       <c r="H464" t="n">
-        <v>68.09999999999999</v>
+        <v>20.05555555555555</v>
       </c>
       <c r="I464" t="n">
         <v>101.59</v>
@@ -27844,7 +27844,7 @@
       </c>
       <c r="R464" t="inlineStr"/>
       <c r="S464" t="n">
-        <v>929.7919426609058</v>
+        <v>75.02422161745223</v>
       </c>
     </row>
     <row r="465">
@@ -27874,7 +27874,7 @@
         <v>22.33333333333334</v>
       </c>
       <c r="H465" t="n">
-        <v>60.9</v>
+        <v>16.05555555555556</v>
       </c>
       <c r="I465" t="n">
         <v>101.86</v>
@@ -27903,7 +27903,7 @@
       </c>
       <c r="R465" t="inlineStr"/>
       <c r="S465" t="n">
-        <v>777.3024988358213</v>
+        <v>67.60603810208696</v>
       </c>
     </row>
     <row r="466">
@@ -27933,7 +27933,7 @@
         <v>20.72222222222222</v>
       </c>
       <c r="H466" t="n">
-        <v>55.4</v>
+        <v>13</v>
       </c>
       <c r="I466" t="n">
         <v>102.2</v>
@@ -27962,7 +27962,7 @@
       </c>
       <c r="R466" t="inlineStr"/>
       <c r="S466" t="n">
-        <v>661.4466081631992</v>
+        <v>61.24708385488652</v>
       </c>
     </row>
     <row r="467">
@@ -27992,7 +27992,7 @@
         <v>23.33333333333334</v>
       </c>
       <c r="H467" t="n">
-        <v>63.9</v>
+        <v>17.72222222222222</v>
       </c>
       <c r="I467" t="n">
         <v>101.92</v>
@@ -28021,7 +28021,7 @@
       </c>
       <c r="R467" t="inlineStr"/>
       <c r="S467" t="n">
-        <v>839.7612387930363</v>
+        <v>70.72541894113181</v>
       </c>
     </row>
     <row r="468">
@@ -28051,7 +28051,7 @@
         <v>24</v>
       </c>
       <c r="H468" t="n">
-        <v>66</v>
+        <v>18.88888888888889</v>
       </c>
       <c r="I468" t="n">
         <v>101.83</v>
@@ -28080,7 +28080,7 @@
       </c>
       <c r="R468" t="inlineStr"/>
       <c r="S468" t="n">
-        <v>887.0505193815916</v>
+        <v>73.10193819439768</v>
       </c>
     </row>
     <row r="469">
@@ -28110,7 +28110,7 @@
         <v>20.33333333333333</v>
       </c>
       <c r="H469" t="n">
-        <v>59.7</v>
+        <v>15.38888888888889</v>
       </c>
       <c r="I469" t="n">
         <v>101.83</v>
@@ -28139,7 +28139,7 @@
       </c>
       <c r="R469" t="inlineStr"/>
       <c r="S469" t="n">
-        <v>830.9601401437833</v>
+        <v>73.23728810132248</v>
       </c>
     </row>
     <row r="470">
@@ -28169,7 +28169,7 @@
         <v>19.33333333333333</v>
       </c>
       <c r="H470" t="n">
-        <v>52.8</v>
+        <v>11.55555555555556</v>
       </c>
       <c r="I470" t="n">
         <v>102.53</v>
@@ -28198,7 +28198,7 @@
       </c>
       <c r="R470" t="inlineStr"/>
       <c r="S470" t="n">
-        <v>635.343495485163</v>
+        <v>60.70152143413198</v>
       </c>
     </row>
     <row r="471">
@@ -28228,7 +28228,7 @@
         <v>19.55555555555556</v>
       </c>
       <c r="H471" t="n">
-        <v>52</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="I471" t="n">
         <v>102.32</v>
@@ -28257,7 +28257,7 @@
       </c>
       <c r="R471" t="inlineStr"/>
       <c r="S471" t="n">
-        <v>602.46142425069</v>
+        <v>58.13062532659215</v>
       </c>
     </row>
     <row r="472">
@@ -28287,7 +28287,7 @@
         <v>21.55555555555555</v>
       </c>
       <c r="H472" t="n">
-        <v>54.3</v>
+        <v>12.38888888888889</v>
       </c>
       <c r="I472" t="n">
         <v>102.28</v>
@@ -28316,7 +28316,7 @@
       </c>
       <c r="R472" t="inlineStr"/>
       <c r="S472" t="n">
-        <v>595.8926394412068</v>
+        <v>55.90524900774575</v>
       </c>
     </row>
     <row r="473">
@@ -28346,7 +28346,7 @@
         <v>23.88888888888889</v>
       </c>
       <c r="H473" t="n">
-        <v>65.09999999999999</v>
+        <v>18.38888888888889</v>
       </c>
       <c r="I473" t="n">
         <v>101.8</v>
@@ -28375,7 +28375,7 @@
       </c>
       <c r="R473" t="inlineStr"/>
       <c r="S473" t="n">
-        <v>857.5180714679217</v>
+        <v>71.3239093680383</v>
       </c>
     </row>
     <row r="474">
@@ -28405,7 +28405,7 @@
         <v>23.94444444444444</v>
       </c>
       <c r="H474" t="n">
-        <v>67.40000000000001</v>
+        <v>19.66666666666667</v>
       </c>
       <c r="I474" t="n">
         <v>101.59</v>
@@ -28434,7 +28434,7 @@
       </c>
       <c r="R474" t="inlineStr"/>
       <c r="S474" t="n">
-        <v>947.5164429083568</v>
+        <v>76.98877249876855</v>
       </c>
     </row>
     <row r="475">
@@ -28464,7 +28464,7 @@
         <v>24.05555555555555</v>
       </c>
       <c r="H475" t="n">
-        <v>64.5</v>
+        <v>18.05555555555556</v>
       </c>
       <c r="I475" t="n">
         <v>101.7</v>
@@ -28493,7 +28493,7 @@
       </c>
       <c r="R475" t="inlineStr"/>
       <c r="S475" t="n">
-        <v>826.2173969970062</v>
+        <v>69.14944460228519</v>
       </c>
     </row>
   </sheetData>
